--- a/doc/_meeting_weekly_doc/N2Team_WeeklySchedule_YSR.xlsx
+++ b/doc/_meeting_weekly_doc/N2Team_WeeklySchedule_YSR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="27900" windowHeight="3600" activeTab="1"/>
+    <workbookView xWindow="60" yWindow="-15" windowWidth="28020" windowHeight="3765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -182,7 +182,8 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - 1인칭 카메라 붙여보기</t>
+      <t xml:space="preserve"> - 1인칭 카메라 붙여보기
+ - Sample code Camera -3</t>
     </r>
     <r>
       <rPr>
@@ -195,7 +196,10 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-* 오브젝트 Load</t>
+* 오브젝트 Load
+ - QUADTREE 
+ - 충돌 데이터 산출
+ - 오브젝트 srt save</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -929,6 +933,120 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -958,120 +1076,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1381,10 +1385,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="C6" sqref="C6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1396,268 +1403,268 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="51"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="54"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="43"/>
-    </row>
-    <row r="5" spans="1:8" ht="57" customHeight="1" thickTop="1">
-      <c r="A5" s="44">
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" spans="1:8" ht="146.25" customHeight="1" thickTop="1">
+      <c r="A5" s="30">
         <v>42674</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A6" s="32"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A7" s="45"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A8" s="22">
+      <c r="A8" s="41">
         <v>42675</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A9" s="23"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A10" s="24"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A11" s="22">
+      <c r="A11" s="41">
         <v>42676</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A12" s="23"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A13" s="24"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A14" s="22">
+      <c r="A14" s="41">
         <v>42677</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
     </row>
     <row r="15" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A15" s="23"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="37"/>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A16" s="24"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40"/>
     </row>
     <row r="17" spans="1:8" ht="18" thickTop="1">
-      <c r="A17" s="32">
+      <c r="A17" s="31">
         <v>42678</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="35"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="46"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="32"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="38"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="49"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A19" s="33"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37"/>
     </row>
     <row r="20" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17" t="s">
+      <c r="B20" s="54"/>
+      <c r="C20" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="57"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
@@ -1666,12 +1673,12 @@
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="59"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6">
@@ -1680,12 +1687,12 @@
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="59"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
@@ -1694,12 +1701,12 @@
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="59"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
@@ -1708,12 +1715,12 @@
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="59"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A25" s="8">
@@ -1722,30 +1729,33 @@
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="52"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H9"/>
@@ -1754,25 +1764,22 @@
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="C13:H13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1796,294 +1803,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="51"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="54"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="43"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="1:8" ht="45" customHeight="1" thickTop="1">
-      <c r="A5" s="44">
+      <c r="A5" s="30">
         <v>42674</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A6" s="32"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A7" s="45"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A8" s="22">
+      <c r="A8" s="41">
         <v>42675</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A9" s="23"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A10" s="24"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A11" s="22">
+      <c r="A11" s="41">
         <v>42676</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A12" s="23"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A13" s="24"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A14" s="22">
+      <c r="A14" s="41">
         <v>42677</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
     </row>
     <row r="15" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A15" s="23"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="37"/>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A16" s="24"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40"/>
     </row>
     <row r="17" spans="1:8" ht="18" thickTop="1">
-      <c r="A17" s="32">
+      <c r="A17" s="31">
         <v>42678</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="35"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="46"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="32"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="38"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="49"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A19" s="33"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37"/>
     </row>
     <row r="20" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17" t="s">
+      <c r="B20" s="54"/>
+      <c r="C20" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="57"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
@@ -2092,14 +2099,14 @@
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="59"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6">
@@ -2108,14 +2115,14 @@
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="59"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
@@ -2124,14 +2131,14 @@
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="59"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
@@ -2140,14 +2147,14 @@
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="59"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A25" s="8">
@@ -2156,33 +2163,26 @@
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="52"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C18:H18"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="A5:A7"/>
@@ -2199,12 +2199,19 @@
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/_meeting_weekly_doc/N2Team_WeeklySchedule_YSR.xlsx
+++ b/doc/_meeting_weekly_doc/N2Team_WeeklySchedule_YSR.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="60" yWindow="-15" windowWidth="28020" windowHeight="3765" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="11월3주" sheetId="2" r:id="rId1"/>
     <sheet name="11월 2주" sheetId="3" r:id="rId2"/>
     <sheet name="11월1주" sheetId="1" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,6 +201,15 @@
  - 충돌 데이터 산출
  - 오브젝트 srt save</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* QuadTree 이해와 코딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 배치 및 srt save
+바운딩 박스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1020,6 +1029,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1031,51 +1085,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1390,8 +1399,8 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:H6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1462,7 +1471,7 @@
     </row>
     <row r="5" spans="1:8" ht="146.25" customHeight="1" thickTop="1">
       <c r="A5" s="30">
-        <v>42674</v>
+        <v>42681</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -1501,13 +1510,15 @@
       <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A8" s="41">
-        <v>42675</v>
+      <c r="A8" s="30">
+        <v>42682</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="33"/>
+      <c r="C8" s="33" t="s">
+        <v>38</v>
+      </c>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
@@ -1515,7 +1526,7 @@
       <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A9" s="42"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1527,7 +1538,7 @@
       <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A10" s="43"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
@@ -1539,13 +1550,15 @@
       <c r="H10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A11" s="41">
-        <v>42676</v>
+      <c r="A11" s="30">
+        <v>42683</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="33"/>
+      <c r="C11" s="33" t="s">
+        <v>39</v>
+      </c>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
@@ -1553,7 +1566,7 @@
       <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A12" s="42"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1565,7 +1578,7 @@
       <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A13" s="43"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
@@ -1577,8 +1590,8 @@
       <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A14" s="41">
-        <v>42677</v>
+      <c r="A14" s="30">
+        <v>42684</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
@@ -1591,7 +1604,7 @@
       <c r="H14" s="34"/>
     </row>
     <row r="15" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A15" s="42"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1603,7 +1616,7 @@
       <c r="H15" s="37"/>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A16" s="43"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
@@ -1615,33 +1628,33 @@
       <c r="H16" s="40"/>
     </row>
     <row r="17" spans="1:8" ht="18" thickTop="1">
-      <c r="A17" s="31">
-        <v>42678</v>
+      <c r="A17" s="30">
+        <v>42685</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="46"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="42"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="31"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="49"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A19" s="44"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
@@ -1652,89 +1665,89 @@
       <c r="G19" s="36"/>
       <c r="H19" s="37"/>
     </row>
-    <row r="20" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A20" s="53" t="s">
+    <row r="20" spans="1:8" ht="32.25" customHeight="1" thickTop="1">
+      <c r="A20" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="55" t="s">
+      <c r="B20" s="50"/>
+      <c r="C20" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="57"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
-        <v>42681</v>
+        <v>42688</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="59"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="55"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6">
-        <v>42682</v>
+        <v>42689</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="59"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="55"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
-        <v>42683</v>
+        <v>42690</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="55"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
-        <v>42684</v>
+        <v>42691</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="59"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="55"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A25" s="8">
-        <v>42685</v>
+      <c r="A25" s="6">
+        <v>42692</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="52"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="48"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
@@ -1905,7 +1918,7 @@
       <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A8" s="41">
+      <c r="A8" s="56">
         <v>42675</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1921,7 +1934,7 @@
       <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A9" s="42"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1935,7 +1948,7 @@
       <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A10" s="43"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
@@ -1949,7 +1962,7 @@
       <c r="H10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A11" s="41">
+      <c r="A11" s="56">
         <v>42676</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1965,7 +1978,7 @@
       <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A12" s="42"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1979,7 +1992,7 @@
       <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A13" s="43"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
@@ -1993,7 +2006,7 @@
       <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A14" s="41">
+      <c r="A14" s="56">
         <v>42677</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2009,7 +2022,7 @@
       <c r="H14" s="34"/>
     </row>
     <row r="15" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A15" s="42"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
@@ -2023,7 +2036,7 @@
       <c r="H15" s="37"/>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A16" s="43"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
@@ -2043,29 +2056,29 @@
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="46"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="42"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="31"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="49"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A19" s="44"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
@@ -2079,18 +2092,18 @@
       <c r="H19" s="37"/>
     </row>
     <row r="20" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="55" t="s">
+      <c r="B20" s="50"/>
+      <c r="C20" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="57"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
@@ -2099,14 +2112,14 @@
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="59"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="55"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6">
@@ -2115,14 +2128,14 @@
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="59"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="55"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
@@ -2131,14 +2144,14 @@
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="55"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
@@ -2147,14 +2160,14 @@
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="59"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="55"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A25" s="8">
@@ -2163,14 +2176,14 @@
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="52"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="48"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>

--- a/doc/_meeting_weekly_doc/N2Team_WeeklySchedule_YSR.xlsx
+++ b/doc/_meeting_weekly_doc/N2Team_WeeklySchedule_YSR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="-15" windowWidth="28020" windowHeight="3765" activeTab="1"/>
+    <workbookView xWindow="60" yWindow="-15" windowWidth="28020" windowHeight="3765"/>
   </bookViews>
   <sheets>
     <sheet name="11월3주" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="53">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,6 +166,48 @@
   </si>
   <si>
     <t>* 주말에도 해야됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuadTree의 전체적인 구조를 파악하지 못하고 있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 맵에 오브젝트 배치 및 Save,Load
+* 주인공 체력 UI, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* QuadTree 이해와 코딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* QuadTree 이해와 코딩
+* 맵에 오브젝트 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">오브젝트 배치 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵에 오브젝트 배치 및 Save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save, Load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 체력 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 UI 씬 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 발표</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -196,20 +238,32 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-* 오브젝트 Load
+* 오브젝트 배치
  - QUADTREE 
  - 충돌 데이터 산출
- - 오브젝트 srt save</t>
+</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>* QuadTree 이해와 코딩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 배치 및 srt save
+    <t>오브젝트 배치 및 save, load
 바운딩 박스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 오브젝트 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.7 ~ 11.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 배탈이 심해서 학원에 나오지 못함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 발표</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -304,7 +358,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -899,13 +953,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1085,6 +1152,15 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1380,12 +1456,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:H22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="31.25" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="39" thickBot="1">
+      <c r="A1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" thickTop="1">
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
+      <c r="A3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" spans="1:8" ht="146.25" customHeight="1" thickTop="1">
+      <c r="A5" s="30">
+        <v>42688</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
+    </row>
+    <row r="6" spans="1:8" ht="37.5" customHeight="1">
+      <c r="A6" s="31"/>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A7" s="32"/>
+      <c r="B7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="40"/>
+    </row>
+    <row r="8" spans="1:8" ht="54" customHeight="1" thickTop="1">
+      <c r="A8" s="30">
+        <v>42689</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
+    </row>
+    <row r="9" spans="1:8" ht="66.75" customHeight="1">
+      <c r="A9" s="31"/>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A10" s="32"/>
+      <c r="B10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
+    </row>
+    <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
+      <c r="A11" s="30">
+        <v>42690</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="12" spans="1:8" ht="66.75" customHeight="1">
+      <c r="A12" s="31"/>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
+    </row>
+    <row r="13" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
+      <c r="A13" s="32"/>
+      <c r="B13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
+    </row>
+    <row r="14" spans="1:8" ht="54" customHeight="1" thickTop="1">
+      <c r="A14" s="30">
+        <v>42691</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
+    </row>
+    <row r="15" spans="1:8" ht="66.75" customHeight="1">
+      <c r="A15" s="31"/>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="37"/>
+    </row>
+    <row r="16" spans="1:8" ht="53.25" customHeight="1" thickBot="1">
+      <c r="A16" s="32"/>
+      <c r="B16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40"/>
+    </row>
+    <row r="17" spans="1:8" ht="17.25" thickTop="1">
+      <c r="A17" s="30">
+        <v>42692</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="62"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="31"/>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="45"/>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A19" s="32"/>
+      <c r="B19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37"/>
+    </row>
+    <row r="20" spans="1:8" ht="39.75" customHeight="1" thickTop="1">
+      <c r="A20" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6">
+        <v>42695</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="55"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6">
+        <v>42696</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="55"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6">
+        <v>42697</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="55"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6">
+        <v>42698</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="55"/>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A25" s="6">
+        <v>42699</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="48"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1399,11 +1854,11 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:H12"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="9" style="4"/>
@@ -1437,7 +1892,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="H2" s="19"/>
     </row>
@@ -1477,7 +1932,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
@@ -1517,7 +1972,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
@@ -1530,7 +1985,9 @@
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="36"/>
+      <c r="C9" s="36" t="s">
+        <v>37</v>
+      </c>
       <c r="D9" s="36"/>
       <c r="E9" s="36"/>
       <c r="F9" s="36"/>
@@ -1557,7 +2014,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
@@ -1577,12 +2034,14 @@
       <c r="G12" s="36"/>
       <c r="H12" s="37"/>
     </row>
-    <row r="13" spans="1:8" ht="17.25" thickBot="1">
+    <row r="13" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
       <c r="A13" s="32"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="38"/>
+      <c r="C13" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="D13" s="39"/>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
@@ -1596,7 +2055,9 @@
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="33"/>
+      <c r="C14" s="33" t="s">
+        <v>49</v>
+      </c>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
@@ -1615,12 +2076,14 @@
       <c r="G15" s="36"/>
       <c r="H15" s="37"/>
     </row>
-    <row r="16" spans="1:8" ht="17.25" thickBot="1">
+    <row r="16" spans="1:8" ht="53.25" customHeight="1" thickBot="1">
       <c r="A16" s="32"/>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="38"/>
+      <c r="C16" s="38" t="s">
+        <v>48</v>
+      </c>
       <c r="D16" s="39"/>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
@@ -1634,7 +2097,9 @@
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="41"/>
+      <c r="C17" s="41" t="s">
+        <v>51</v>
+      </c>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="41"/>
@@ -1665,13 +2130,13 @@
       <c r="G19" s="36"/>
       <c r="H19" s="37"/>
     </row>
-    <row r="20" spans="1:8" ht="32.25" customHeight="1" thickTop="1">
+    <row r="20" spans="1:8" ht="39.75" customHeight="1" thickTop="1">
       <c r="A20" s="49" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="50"/>
       <c r="C20" s="51" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D20" s="52"/>
       <c r="E20" s="52"/>
@@ -1686,7 +2151,9 @@
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="54"/>
+      <c r="C21" s="54" t="s">
+        <v>42</v>
+      </c>
       <c r="D21" s="54"/>
       <c r="E21" s="54"/>
       <c r="F21" s="54"/>
@@ -1700,7 +2167,9 @@
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="54"/>
+      <c r="C22" s="54" t="s">
+        <v>43</v>
+      </c>
       <c r="D22" s="54"/>
       <c r="E22" s="54"/>
       <c r="F22" s="54"/>
@@ -1714,7 +2183,9 @@
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="54"/>
+      <c r="C23" s="54" t="s">
+        <v>44</v>
+      </c>
       <c r="D23" s="54"/>
       <c r="E23" s="54"/>
       <c r="F23" s="54"/>
@@ -1728,7 +2199,9 @@
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="54"/>
+      <c r="C24" s="54" t="s">
+        <v>45</v>
+      </c>
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
       <c r="F24" s="54"/>
@@ -1742,7 +2215,9 @@
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="46"/>
+      <c r="C25" s="46" t="s">
+        <v>46</v>
+      </c>
       <c r="D25" s="47"/>
       <c r="E25" s="47"/>
       <c r="F25" s="47"/>
@@ -1792,7 +2267,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1803,11 +2278,11 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A11" sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="9" style="4"/>

--- a/doc/_meeting_weekly_doc/N2Team_WeeklySchedule_YSR.xlsx
+++ b/doc/_meeting_weekly_doc/N2Team_WeeklySchedule_YSR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="61">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,6 +264,49 @@
   </si>
   <si>
     <t>2차 발표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 오브잭트 배치 완료
+ - 연구소
+ - 드랍쉽
+ - 자동차
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 스카이 박스 구현 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> z버퍼의 활용을 제대로 몰랐음. (스카이 박스 랜더링은 제일 먼저 랜더링 해야되며 랜덩링 시 z버퍼를 disable 랜더링후 Enalbe로 해야됨 )
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* MFC Save
+* TileRender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 발표 준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* MFC Save &amp; Load
+* TileRender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 바닥 텍스쳐가 깨져 TileRender의 필요성을 알게됨.
+* TileRender
+  - 작업자의 마인드를 이해하게됨 
+  - 가져다 쓸 수 있지만 내가 한게 아니기에 쓰지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* MFC Save
+* TileRender</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1096,51 +1139,60 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1152,15 +1204,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1458,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:H22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1533,7 +1576,9 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="33"/>
+      <c r="C5" s="33" t="s">
+        <v>53</v>
+      </c>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
@@ -1571,7 +1616,9 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="33"/>
+      <c r="C8" s="33" t="s">
+        <v>54</v>
+      </c>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
@@ -1583,7 +1630,9 @@
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="36"/>
+      <c r="C9" s="36" t="s">
+        <v>55</v>
+      </c>
       <c r="D9" s="36"/>
       <c r="E9" s="36"/>
       <c r="F9" s="36"/>
@@ -1609,7 +1658,9 @@
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="33"/>
+      <c r="C11" s="33" t="s">
+        <v>60</v>
+      </c>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
@@ -1621,7 +1672,9 @@
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="36"/>
+      <c r="C12" s="36" t="s">
+        <v>59</v>
+      </c>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
@@ -1633,7 +1686,9 @@
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="38"/>
+      <c r="C13" s="38" t="s">
+        <v>56</v>
+      </c>
       <c r="D13" s="39"/>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
@@ -1647,7 +1702,9 @@
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="33"/>
+      <c r="C14" s="33" t="s">
+        <v>58</v>
+      </c>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
@@ -1671,7 +1728,9 @@
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="38"/>
+      <c r="C16" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="D16" s="39"/>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
@@ -1685,26 +1744,26 @@
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="62"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="31"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="45"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
       <c r="A19" s="32"/>
@@ -1719,16 +1778,16 @@
       <c r="H19" s="37"/>
     </row>
     <row r="20" spans="1:8" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="54"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
@@ -1737,12 +1796,12 @@
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="56"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6">
@@ -1751,12 +1810,12 @@
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="56"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
@@ -1765,12 +1824,12 @@
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="56"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
@@ -1779,12 +1838,12 @@
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="56"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A25" s="6">
@@ -1793,12 +1852,12 @@
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="48"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="49"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
@@ -2097,26 +2156,26 @@
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="42"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="58"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="31"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="45"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
       <c r="A19" s="32"/>
@@ -2131,18 +2190,18 @@
       <c r="H19" s="37"/>
     </row>
     <row r="20" spans="1:8" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51" t="s">
+      <c r="B20" s="51"/>
+      <c r="C20" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="54"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
@@ -2151,14 +2210,14 @@
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="56"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6">
@@ -2167,14 +2226,14 @@
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="56"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
@@ -2183,14 +2242,14 @@
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="56"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
@@ -2199,14 +2258,14 @@
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="56"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A25" s="6">
@@ -2215,14 +2274,14 @@
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="49"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
@@ -2393,7 +2452,7 @@
       <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A8" s="56">
+      <c r="A8" s="59">
         <v>42675</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2409,7 +2468,7 @@
       <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A9" s="57"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
@@ -2423,7 +2482,7 @@
       <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A10" s="58"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
@@ -2437,7 +2496,7 @@
       <c r="H10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A11" s="56">
+      <c r="A11" s="59">
         <v>42676</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2453,7 +2512,7 @@
       <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A12" s="57"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -2467,7 +2526,7 @@
       <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A13" s="58"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
@@ -2481,7 +2540,7 @@
       <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A14" s="56">
+      <c r="A14" s="59">
         <v>42677</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2497,7 +2556,7 @@
       <c r="H14" s="34"/>
     </row>
     <row r="15" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A15" s="57"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
@@ -2511,7 +2570,7 @@
       <c r="H15" s="37"/>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A16" s="58"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
@@ -2531,29 +2590,29 @@
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="42"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="58"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="31"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="45"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A19" s="59"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
@@ -2567,18 +2626,18 @@
       <c r="H19" s="37"/>
     </row>
     <row r="20" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51" t="s">
+      <c r="B20" s="51"/>
+      <c r="C20" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="54"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
@@ -2587,14 +2646,14 @@
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="56"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6">
@@ -2603,14 +2662,14 @@
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="56"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
@@ -2619,14 +2678,14 @@
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="56"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
@@ -2635,14 +2694,14 @@
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="56"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A25" s="8">
@@ -2651,14 +2710,14 @@
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="49"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>

--- a/doc/_meeting_weekly_doc/N2Team_WeeklySchedule_YSR.xlsx
+++ b/doc/_meeting_weekly_doc/N2Team_WeeklySchedule_YSR.xlsx
@@ -293,7 +293,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>* MFC Save &amp; Load
+    <t>* MFC Save
 * TileRender</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,11 +301,14 @@
     <t>* 바닥 텍스쳐가 깨져 TileRender의 필요성을 알게됨.
 * TileRender
   - 작업자의 마인드를 이해하게됨 
-  - 가져다 쓸 수 있지만 내가 한게 아니기에 쓰지 않음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* MFC Save
+  - 가져다 쓸 수 있지만 내가 한게 아니기에 쓰지 않음
+* MFC thApp 전역 객체을 알게됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* MFC Save &amp; Load
+  - dlg를 통한 map 생성 구현
+  - save
 * TileRender</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1501,8 +1504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:H12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1659,7 +1662,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
@@ -1667,7 +1670,7 @@
       <c r="G11" s="33"/>
       <c r="H11" s="34"/>
     </row>
-    <row r="12" spans="1:8" ht="66.75" customHeight="1">
+    <row r="12" spans="1:8" ht="126" customHeight="1">
       <c r="A12" s="31"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
@@ -1695,7 +1698,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="40"/>
     </row>
-    <row r="14" spans="1:8" ht="54" customHeight="1" thickTop="1">
+    <row r="14" spans="1:8" ht="91.5" customHeight="1" thickTop="1">
       <c r="A14" s="30">
         <v>42691</v>
       </c>
@@ -1703,7 +1706,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>

--- a/doc/_meeting_weekly_doc/N2Team_WeeklySchedule_YSR.xlsx
+++ b/doc/_meeting_weekly_doc/N2Team_WeeklySchedule_YSR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="62">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,49 +267,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">* 스카이 박스 구현 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> z버퍼의 활용을 제대로 몰랐음. (스카이 박스 랜더링은 제일 먼저 랜더링 해야되며 랜덩링 시 z버퍼를 disable 랜더링후 Enalbe로 해야됨 )
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* MFC Save
+* TileRender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 발표 준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* MFC Save
+* TileRender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 바닥 텍스쳐가 깨져 TileRender의 필요성을 알게됨.
+* TileRender
+  - 작업자의 마인드를 이해하게됨 
+  - 가져다 쓸 수 있지만 내가 한게 아니기에 쓰지 않음
+* MFC thApp 전역 객체을 알게됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* MFC Save &amp; Load
+  - dlg를 통한 map 생성 구현
+  - 생성 시 image 변경 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFC Save 시 Write 함수를 통해 출력 시 문제가 있음
+save 후 타일 가로 세로 값이 ?으로 변경됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">* 오브잭트 배치 완료
  - 연구소
  - 드랍쉽
  - 자동차
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">* 스카이 박스 구현 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> z버퍼의 활용을 제대로 몰랐음. (스카이 박스 랜더링은 제일 먼저 랜더링 해야되며 랜덩링 시 z버퍼를 disable 랜더링후 Enalbe로 해야됨 )
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* MFC Save
-* TileRender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 발표 준비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* MFC Save
-* TileRender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 바닥 텍스쳐가 깨져 TileRender의 필요성을 알게됨.
-* TileRender
-  - 작업자의 마인드를 이해하게됨 
-  - 가져다 쓸 수 있지만 내가 한게 아니기에 쓰지 않음
-* MFC thApp 전역 객체을 알게됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* MFC Save &amp; Load
-  - dlg를 통한 map 생성 구현
-  - save
-* TileRender</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1504,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:H15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1572,7 +1576,7 @@
       <c r="G4" s="28"/>
       <c r="H4" s="29"/>
     </row>
-    <row r="5" spans="1:8" ht="146.25" customHeight="1" thickTop="1">
+    <row r="5" spans="1:8" ht="87" customHeight="1" thickTop="1">
       <c r="A5" s="30">
         <v>42688</v>
       </c>
@@ -1580,7 +1584,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
@@ -1620,7 +1624,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
@@ -1634,7 +1638,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="36"/>
       <c r="E9" s="36"/>
@@ -1662,7 +1666,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
@@ -1676,7 +1680,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
@@ -1690,7 +1694,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="39"/>
       <c r="E13" s="39"/>
@@ -1706,7 +1710,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
@@ -1719,7 +1723,9 @@
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="36"/>
+      <c r="C15" s="36" t="s">
+        <v>60</v>
+      </c>
       <c r="D15" s="36"/>
       <c r="E15" s="36"/>
       <c r="F15" s="36"/>
@@ -1732,7 +1738,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="39"/>
       <c r="E16" s="39"/>

--- a/doc/_meeting_weekly_doc/N2Team_WeeklySchedule_YSR.xlsx
+++ b/doc/_meeting_weekly_doc/N2Team_WeeklySchedule_YSR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="69">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,11 +170,6 @@
   </si>
   <si>
     <t>QuadTree의 전체적인 구조를 파악하지 못하고 있음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">* 맵에 오브젝트 배치 및 Save,Load
-* 주인공 체력 UI, </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -263,10 +258,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2차 발표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">* 스카이 박스 구현 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,16 +295,57 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MFC Save 시 Write 함수를 통해 출력 시 문제가 있음
-save 후 타일 가로 세로 값이 ?으로 변경됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">* 오브잭트 배치 완료
  - 연구소
  - 드랍쉽
  - 자동차
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFC Load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* MFC Load &amp; Map 퀄리티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFC Load &amp; 지형 높이 컨트롤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지형 높이 컨트롤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MFC Save 시 Write 함수를 통해 출력 시 문제가 있음
+save 후 타일 가로 세로 값이 ?으로 변경됨
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수 값 출력 후 값이? 됨 따라서 일회성 변수를 만들어 넘긴후 일회성 변수를 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 퀄리티 높이기(tile render)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 2차 발표
+* MFC Save 구현
+ - 세이브 버그 fix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 맵에 오브젝트 배치 및 Save,Load
+* 주인공 체력 UI, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 맵에 오브젝트 배치 및 Save,Load
+* 주인공 체력 UI, </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,7 +440,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1016,13 +1048,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1059,6 +1122,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1098,100 +1263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1506,10 +1578,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1521,282 +1596,288 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="16"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="50"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="19"/>
+      <c r="G2" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="58"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-    </row>
-    <row r="5" spans="1:8" ht="87" customHeight="1" thickTop="1">
-      <c r="A5" s="30">
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="44"/>
+    </row>
+    <row r="5" spans="1:8" ht="74.25" customHeight="1" thickTop="1">
+      <c r="A5" s="22">
         <v>42688</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
-    </row>
-    <row r="6" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A6" s="31"/>
+      <c r="C5" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="23"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A7" s="32"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40"/>
-    </row>
-    <row r="8" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A8" s="30">
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
+    </row>
+    <row r="8" spans="1:8" ht="24" customHeight="1" thickTop="1">
+      <c r="A8" s="22">
         <v>42689</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
-    </row>
-    <row r="9" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A9" s="31"/>
+      <c r="C8" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" ht="40.5" customHeight="1">
+      <c r="A9" s="23"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
+      <c r="C9" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A10" s="32"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A11" s="30">
+      <c r="A11" s="22">
         <v>42690</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34"/>
+      <c r="C11" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:8" ht="126" customHeight="1">
-      <c r="A12" s="31"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37"/>
+      <c r="C12" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A13" s="32"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
-    </row>
-    <row r="14" spans="1:8" ht="91.5" customHeight="1" thickTop="1">
-      <c r="A14" s="30">
+      <c r="C13" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
+    </row>
+    <row r="14" spans="1:8" ht="66" customHeight="1" thickTop="1">
+      <c r="A14" s="22">
         <v>42691</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34"/>
-    </row>
-    <row r="15" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A15" s="31"/>
+      <c r="C14" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
+    </row>
+    <row r="15" spans="1:8" ht="45.75" customHeight="1">
+      <c r="A15" s="23"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="37"/>
-    </row>
-    <row r="16" spans="1:8" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A16" s="32"/>
+      <c r="C15" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+    </row>
+    <row r="16" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A16" s="24"/>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40"/>
-    </row>
-    <row r="17" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A17" s="30">
+      <c r="C16" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
+    </row>
+    <row r="17" spans="1:8" ht="64.5" customHeight="1" thickTop="1">
+      <c r="A17" s="22">
         <v>42692</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43"/>
+      <c r="C17" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="34"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="31"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="46"/>
+      <c r="C18" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="37"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
-    </row>
-    <row r="20" spans="1:8" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A20" s="50" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
+    </row>
+    <row r="20" spans="1:8" ht="39.75" customHeight="1">
+      <c r="A20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="54"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
@@ -1805,12 +1886,14 @@
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="56"/>
+      <c r="C21" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6">
@@ -1819,12 +1902,14 @@
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="56"/>
+      <c r="C22" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
@@ -1833,12 +1918,14 @@
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="56"/>
+      <c r="C23" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
@@ -1847,39 +1934,56 @@
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="56"/>
+      <c r="C24" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A25" s="6">
+      <c r="A25" s="8">
         <v>42699</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="49"/>
+      <c r="C25" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="C15:H15"/>
@@ -1888,30 +1992,17 @@
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C19:H19"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1923,7 +2014,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1935,282 +2026,282 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="16"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="50"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="19"/>
+      <c r="G2" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="58"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:8" ht="146.25" customHeight="1" thickTop="1">
-      <c r="A5" s="30">
+      <c r="A5" s="22">
         <v>42681</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
+      <c r="C5" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A6" s="31"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A7" s="32"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A8" s="30">
+      <c r="A8" s="22">
         <v>42682</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
+      <c r="C8" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A9" s="31"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A10" s="32"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A11" s="30">
+      <c r="A11" s="22">
         <v>42683</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34"/>
+      <c r="C11" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A12" s="31"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A13" s="32"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
+      <c r="C13" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A14" s="30">
+      <c r="A14" s="22">
         <v>42684</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34"/>
+      <c r="C14" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A15" s="31"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="37"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
     </row>
     <row r="16" spans="1:8" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A16" s="32"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40"/>
+      <c r="C16" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8" ht="18" thickTop="1">
-      <c r="A17" s="30">
+      <c r="A17" s="22">
         <v>42685</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="58"/>
+      <c r="C17" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="61"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="31"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="46"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="37"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A19" s="32"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
     </row>
     <row r="20" spans="1:8" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="54"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
@@ -2219,14 +2310,14 @@
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="56"/>
+      <c r="C21" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6">
@@ -2235,14 +2326,14 @@
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="56"/>
+      <c r="C22" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
@@ -2251,14 +2342,14 @@
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="56"/>
+      <c r="C23" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
@@ -2267,14 +2358,14 @@
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="56"/>
+      <c r="C24" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A25" s="6">
@@ -2283,27 +2374,40 @@
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="49"/>
+      <c r="C25" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="C15:H15"/>
@@ -2312,26 +2416,13 @@
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C19:H19"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2359,294 +2450,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="16"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="50"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="58"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:8" ht="45" customHeight="1" thickTop="1">
-      <c r="A5" s="30">
+      <c r="A5" s="22">
         <v>42674</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A6" s="31"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A7" s="32"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A8" s="59">
+      <c r="A8" s="62">
         <v>42675</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A9" s="60"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A10" s="61"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A11" s="59">
+      <c r="A11" s="62">
         <v>42676</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A12" s="60"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A13" s="61"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A14" s="59">
+      <c r="A14" s="62">
         <v>42677</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A15" s="60"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="37"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A16" s="61"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8" ht="18" thickTop="1">
-      <c r="A17" s="31">
+      <c r="A17" s="23">
         <v>42678</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="58"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="61"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="31"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="46"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="37"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A19" s="62"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
     </row>
     <row r="20" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="52" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="54"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
@@ -2655,14 +2746,14 @@
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="56"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6">
@@ -2671,14 +2762,14 @@
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="56"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
@@ -2687,14 +2778,14 @@
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="56"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
@@ -2703,14 +2794,14 @@
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="56"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A25" s="8">
@@ -2719,26 +2810,33 @@
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="49"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="A5:A7"/>
@@ -2755,19 +2853,12 @@
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C18:H18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/_meeting_weekly_doc/N2Team_WeeklySchedule_YSR.xlsx
+++ b/doc/_meeting_weekly_doc/N2Team_WeeklySchedule_YSR.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="60" yWindow="-15" windowWidth="28020" windowHeight="3765"/>
   </bookViews>
   <sheets>
-    <sheet name="11월3주" sheetId="2" r:id="rId1"/>
-    <sheet name="11월 2주" sheetId="3" r:id="rId2"/>
-    <sheet name="11월1주" sheetId="1" r:id="rId3"/>
+    <sheet name="11월4주" sheetId="4" r:id="rId1"/>
+    <sheet name="11월3주" sheetId="2" r:id="rId2"/>
+    <sheet name="11월 2주" sheetId="3" r:id="rId3"/>
+    <sheet name="11월1주" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="75">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -346,6 +347,34 @@
   <si>
     <t xml:space="preserve">* 맵에 오브젝트 배치 및 Save,Load
 * 주인공 체력 UI, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* TileRender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 프로스텀 과 쿼드 트리의 상관관계를 이해하지 못함.
+* TileRender는 끝내지 못하고 바로 위 상관관계에 대한 공부 및 프로스텀 코드 작성
+* 점심에 팀회식겸 점심에 술한잔에 머리가 어지러워 점심 이후로 집중을 잘 하지 못함
+  - 이제 술은 점심에 안마실거라고 다짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 2차 발표 후 늘어짐.  내일부터 열심히 해야지…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* TileRender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* TileRender
+* Frustum 코드 작성 및 이해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* Frustum 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1125,6 +1154,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1152,124 +1292,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1578,13 +1607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1596,288 +1622,280 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="50"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="53"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="58"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44"/>
-    </row>
-    <row r="5" spans="1:8" ht="74.25" customHeight="1" thickTop="1">
-      <c r="A5" s="22">
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30"/>
+    </row>
+    <row r="5" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
+      <c r="A5" s="31">
         <v>42688</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
+      <c r="C5" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="23"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
+      <c r="C6" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A7" s="24"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
-    </row>
-    <row r="8" spans="1:8" ht="24" customHeight="1" thickTop="1">
-      <c r="A8" s="22">
+      <c r="C7" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
+    </row>
+    <row r="8" spans="1:8" ht="63.75" customHeight="1" thickTop="1">
+      <c r="A8" s="31">
         <v>42689</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
-    </row>
-    <row r="9" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A9" s="23"/>
+      <c r="C8" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
+    </row>
+    <row r="9" spans="1:8" ht="76.5" customHeight="1">
+      <c r="A9" s="32"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A10" s="24"/>
+      <c r="C9" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:8" ht="24" customHeight="1" thickBot="1">
+      <c r="A10" s="33"/>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
+      <c r="C10" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A11" s="22">
+      <c r="A11" s="31">
         <v>42690</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
-    </row>
-    <row r="12" spans="1:8" ht="126" customHeight="1">
-      <c r="A12" s="23"/>
+      <c r="C11" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="32"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
-    </row>
-    <row r="13" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A13" s="24"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A13" s="33"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
-    </row>
-    <row r="14" spans="1:8" ht="66" customHeight="1" thickTop="1">
-      <c r="A14" s="22">
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
+    </row>
+    <row r="14" spans="1:8" ht="18" thickTop="1">
+      <c r="A14" s="31">
         <v>42691</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
-    </row>
-    <row r="15" spans="1:8" ht="45.75" customHeight="1">
-      <c r="A15" s="23"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="32"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
-    </row>
-    <row r="16" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A16" s="24"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A16" s="33"/>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
-    </row>
-    <row r="17" spans="1:8" ht="64.5" customHeight="1" thickTop="1">
-      <c r="A17" s="22">
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="41"/>
+    </row>
+    <row r="17" spans="1:8" ht="18" thickTop="1">
+      <c r="A17" s="31">
         <v>42692</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="44"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="23"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="47"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A19" s="23"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="49"/>
     </row>
     <row r="20" spans="1:8" ht="39.75" customHeight="1">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17" t="s">
+      <c r="B20" s="53"/>
+      <c r="C20" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="56"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
@@ -1886,14 +1904,14 @@
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="58"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6">
@@ -1902,14 +1920,14 @@
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="58"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
@@ -1918,14 +1936,14 @@
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="58"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
@@ -1934,14 +1952,14 @@
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="58"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A25" s="8">
@@ -1950,32 +1968,35 @@
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="51"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H9"/>
@@ -1984,6 +2005,419 @@
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="C13:H13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="31.25" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="39" thickBot="1">
+      <c r="A1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" thickTop="1">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
+      <c r="A3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A4" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30"/>
+    </row>
+    <row r="5" spans="1:8" ht="74.25" customHeight="1" thickTop="1">
+      <c r="A5" s="31">
+        <v>42688</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="32"/>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A7" s="33"/>
+      <c r="B7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
+    </row>
+    <row r="8" spans="1:8" ht="24" customHeight="1" thickTop="1">
+      <c r="A8" s="31">
+        <v>42689</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
+    </row>
+    <row r="9" spans="1:8" ht="40.5" customHeight="1">
+      <c r="A9" s="32"/>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A10" s="33"/>
+      <c r="B10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
+    </row>
+    <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
+      <c r="A11" s="31">
+        <v>42690</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
+    </row>
+    <row r="12" spans="1:8" ht="126" customHeight="1">
+      <c r="A12" s="32"/>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
+    </row>
+    <row r="13" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
+      <c r="A13" s="33"/>
+      <c r="B13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
+    </row>
+    <row r="14" spans="1:8" ht="66" customHeight="1" thickTop="1">
+      <c r="A14" s="31">
+        <v>42691</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
+    </row>
+    <row r="15" spans="1:8" ht="45.75" customHeight="1">
+      <c r="A15" s="32"/>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A16" s="33"/>
+      <c r="B16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="41"/>
+    </row>
+    <row r="17" spans="1:8" ht="64.5" customHeight="1" thickTop="1">
+      <c r="A17" s="31">
+        <v>42692</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="44"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="32"/>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="47"/>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A19" s="32"/>
+      <c r="B19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="49"/>
+    </row>
+    <row r="20" spans="1:8" ht="39.75" customHeight="1">
+      <c r="A20" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="56"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6">
+        <v>42695</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="58"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6">
+        <v>42696</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="58"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6">
+        <v>42697</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="58"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6">
+        <v>42698</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="58"/>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A25" s="8">
+        <v>42699</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="51"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="C15:H15"/>
@@ -1992,13 +2426,26 @@
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2006,7 +2453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2026,282 +2473,282 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="50"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="53"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="58"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" ht="146.25" customHeight="1" thickTop="1">
-      <c r="A5" s="22">
+      <c r="A5" s="31">
         <v>42681</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A6" s="23"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A7" s="24"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
     </row>
     <row r="8" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A8" s="22">
+      <c r="A8" s="31">
         <v>42682</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A9" s="23"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A10" s="24"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A11" s="22">
+      <c r="A11" s="31">
         <v>42683</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
     </row>
     <row r="12" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A12" s="23"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A13" s="24"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A14" s="22">
+      <c r="A14" s="31">
         <v>42684</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A15" s="23"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:8" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A16" s="24"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="41"/>
     </row>
     <row r="17" spans="1:8" ht="18" thickTop="1">
-      <c r="A17" s="22">
+      <c r="A17" s="31">
         <v>42685</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="61"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="23"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="47"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A19" s="24"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
     </row>
     <row r="20" spans="1:8" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17" t="s">
+      <c r="B20" s="53"/>
+      <c r="C20" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="56"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
@@ -2310,14 +2757,14 @@
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="58"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6">
@@ -2326,14 +2773,14 @@
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="58"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
@@ -2342,14 +2789,14 @@
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="58"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
@@ -2358,14 +2805,14 @@
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="58"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A25" s="6">
@@ -2374,32 +2821,35 @@
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="51"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H9"/>
@@ -2408,21 +2858,18 @@
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="C13:H13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2430,7 +2877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2450,106 +2897,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="50"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="53"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="58"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" ht="45" customHeight="1" thickTop="1">
-      <c r="A5" s="22">
+      <c r="A5" s="31">
         <v>42674</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A6" s="23"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A7" s="24"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
     </row>
     <row r="8" spans="1:8" ht="54" customHeight="1" thickTop="1">
       <c r="A8" s="62">
@@ -2558,42 +3005,42 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:8" ht="66.75" customHeight="1">
       <c r="A9" s="63"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1">
       <c r="A10" s="64"/>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
       <c r="A11" s="62">
@@ -2602,42 +3049,42 @@
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
     </row>
     <row r="12" spans="1:8" ht="66.75" customHeight="1">
       <c r="A12" s="63"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1">
       <c r="A13" s="64"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="54" customHeight="1" thickTop="1">
       <c r="A14" s="62">
@@ -2646,98 +3093,98 @@
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:8" ht="66.75" customHeight="1">
       <c r="A15" s="63"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1">
       <c r="A16" s="64"/>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="41"/>
     </row>
     <row r="17" spans="1:8" ht="18" thickTop="1">
-      <c r="A17" s="23">
+      <c r="A17" s="32">
         <v>42678</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="61"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="23"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="47"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
       <c r="A19" s="65"/>
       <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
     </row>
     <row r="20" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17" t="s">
+      <c r="B20" s="53"/>
+      <c r="C20" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="56"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
@@ -2746,14 +3193,14 @@
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="58"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6">
@@ -2762,14 +3209,14 @@
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="58"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
@@ -2778,14 +3225,14 @@
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="58"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
@@ -2794,14 +3241,14 @@
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="58"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A25" s="8">
@@ -2810,33 +3257,26 @@
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="51"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C18:H18"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="A5:A7"/>
@@ -2853,12 +3293,19 @@
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/_meeting_weekly_doc/N2Team_WeeklySchedule_YSR.xlsx
+++ b/doc/_meeting_weekly_doc/N2Team_WeeklySchedule_YSR.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="234">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -916,27 +916,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1~10월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">* VertexNormalsFasLookup
- - 공유 정점 리스트
- 75장 HeightMap 에서 살펴보았다.
- - 모든 페이스들은 평면 노말이 필요하다.
- - 맵 생성 시에 각 정점단위로 이웃 페이스들을 저장할 수 있는 배열을 할당 해야한다.
- - 고유한 페이스 인덱스를 저장해얃한다.
- - 고유 페이스 인덱스 리스트는 정점노말을 갱신해야 할 필요할 때 사용한다.
-* 정점 룩업 테이블 생성
- - [전체정점개수 * 6]만큼 할당한다.
- - 초기값은 -1을 대입하게 된다.
- - 각정점을 공유하는 6개의 페이스가 있다면 
- - 각 6개의 배열에는 모두 해당 페이스 인덱스가 채워질 것이고 
- - 그렇지 않을 경우에는 해당 페이스 개수만큼 채워 지게 될 것이다.
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>* P076_VertexNormalsFastLookup 프로젝트
  - LookUp의 의미: 계산이 완료된 값을 이용하여 계산하지 않고 빠른 결과를 얻을 수 있다. 
 - NormalLookUpTable : 미리 만들어져 있어야 한다.
@@ -992,10 +971,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>각축을 크기를 구하기 위해서는 왜 Half와  내적하는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1023,6 +998,50 @@
  N (a, b, c)
  평면의 한점 ( x,y,z)
  ax + by + cz +d =0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 벡터의 내적은 
+ - 벡터의 각 성분의 곱에 합
+ - 벡터*+ = 크기(스칼라)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6~9월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 정점 룩업 테이블 생성
+ - [전체정점개수 * 6]만큼 할당한다.
+ - 초기값은 -1을 대입하게 된다.
+ - 각정점을 공유하는 6개의 페이스가 있다면 
+ - 각 6개의 배열에는 모두 해당 페이스 인덱스가 채워질 것이고 
+ - 그렇지 않을 경우에는 해당 페이스 개수만큼 채워 지게 될 것이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* VertexNormalsFasLookup
+ - 공유 정점 리스트
+ 75장 HeightMap 에서 살펴보았다.
+ - 모든 페이스들은 평면 노말이 필요하다.
+ - 맵 생성 시에 각 정점단위로 이웃 페이스들을 저장할 수 있는 배열을 할당 해야한다.
+ - 고유한 페이스 인덱스를 저장해얃한다.
+ - 고유 페이스 인덱스 리스트는 정점노말을 갱신해야 할 필요할 때 사용한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 카메라 프로스텀과 AABB or OBB
+ - 평면의 Normal과 OBB </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.팀작업을 하면 소스는 항상 최신으로 싱크 이게 기본.(아침에 오면 git pull 먼저 한다)
+2.conflict
+1.커스터마이즈맵 띄운다. 오브젝트 배치해본다.
+2.NDC 정점8개 카메라 프로젝션의 역행렬 을 곱한다.
+3.2에서 변환된 정점 8개로 평면 6개를 만든다.
+4.
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2036,7 +2055,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2130,44 +2149,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="7" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2182,6 +2270,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2223,70 +2314,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2301,17 +2362,26 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2322,50 +2392,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="7" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="7" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="7" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2376,26 +2404,20 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="7" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="7" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2706,48 +2728,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="51"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="72"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="53"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="75"/>
+      <c r="H2" s="56"/>
     </row>
     <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="78" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="61"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="62" t="s">
@@ -2764,222 +2786,222 @@
       <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
-      <c r="A5" s="44">
+      <c r="A5" s="67">
         <v>42688</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="48"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="71"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="45"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="74"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A7" s="46"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="53"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="77"/>
     </row>
     <row r="8" spans="1:8" ht="63.75" customHeight="1" thickTop="1">
-      <c r="A8" s="44">
+      <c r="A8" s="67">
         <v>42689</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
     </row>
     <row r="9" spans="1:8" ht="76.5" customHeight="1">
-      <c r="A9" s="45"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="50"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="74"/>
     </row>
     <row r="10" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A10" s="46"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="77"/>
     </row>
     <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A11" s="44">
+      <c r="A11" s="67">
         <v>42690</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="71"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="45"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="74"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A13" s="46"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="53"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="77"/>
     </row>
     <row r="14" spans="1:8" ht="18" thickTop="1">
-      <c r="A14" s="44">
+      <c r="A14" s="67">
         <v>42691</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="71"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="45"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="74"/>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A16" s="46"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="53"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="77"/>
     </row>
     <row r="17" spans="1:8" ht="18" thickTop="1">
-      <c r="A17" s="44">
+      <c r="A17" s="67">
         <v>42692</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="80"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="45"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="59"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="83"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A19" s="45"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="61"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="85"/>
     </row>
     <row r="20" spans="1:8" ht="39.75" customHeight="1">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39" t="s">
+      <c r="B20" s="89"/>
+      <c r="C20" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="92"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
@@ -2988,14 +3010,14 @@
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="94"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6">
@@ -3004,14 +3026,14 @@
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="43"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="94"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
@@ -3020,14 +3042,14 @@
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="43"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="94"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
@@ -3036,14 +3058,14 @@
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="94"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A25" s="8">
@@ -3052,32 +3074,35 @@
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="87"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H9"/>
@@ -3086,21 +3111,18 @@
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="C13:H13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3128,48 +3150,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="51"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="72"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="53"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="75"/>
+      <c r="H2" s="56"/>
     </row>
     <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="78" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="61"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="62" t="s">
@@ -3186,230 +3208,230 @@
       <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:8" ht="74.25" customHeight="1" thickTop="1">
-      <c r="A5" s="44">
+      <c r="A5" s="67">
         <v>42688</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="48"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="71"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="45"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="74"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A7" s="46"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="53"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="77"/>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1" thickTop="1">
-      <c r="A8" s="44">
+      <c r="A8" s="67">
         <v>42689</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
     </row>
     <row r="9" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A9" s="45"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="50"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="74"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A10" s="46"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="77"/>
     </row>
     <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A11" s="44">
+      <c r="A11" s="67">
         <v>42690</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="71"/>
     </row>
     <row r="12" spans="1:8" ht="126" customHeight="1">
-      <c r="A12" s="45"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="74"/>
     </row>
     <row r="13" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A13" s="46"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="53"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="77"/>
     </row>
     <row r="14" spans="1:8" ht="66" customHeight="1" thickTop="1">
-      <c r="A14" s="44">
+      <c r="A14" s="67">
         <v>42691</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="71"/>
     </row>
     <row r="15" spans="1:8" ht="45.75" customHeight="1">
-      <c r="A15" s="45"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="74"/>
     </row>
     <row r="16" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A16" s="46"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="53"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="77"/>
     </row>
     <row r="17" spans="1:8" ht="64.5" customHeight="1" thickTop="1">
-      <c r="A17" s="44">
+      <c r="A17" s="67">
         <v>42692</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="80"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="45"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="59"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="83"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A19" s="45"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="61"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="85"/>
     </row>
     <row r="20" spans="1:8" ht="39.75" customHeight="1">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39" t="s">
+      <c r="B20" s="89"/>
+      <c r="C20" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="92"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
@@ -3418,14 +3440,14 @@
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="94"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6">
@@ -3434,14 +3456,14 @@
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="43"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="94"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
@@ -3450,14 +3472,14 @@
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="43"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="94"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
@@ -3466,14 +3488,14 @@
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="94"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A25" s="8">
@@ -3482,32 +3504,35 @@
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="87"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H9"/>
@@ -3516,21 +3541,18 @@
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="C13:H13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3559,48 +3581,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="51"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="72"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="53"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="75"/>
+      <c r="H2" s="56"/>
     </row>
     <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="78" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="61"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="62" t="s">
@@ -3617,224 +3639,224 @@
       <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:8" ht="146.25" customHeight="1" thickTop="1">
-      <c r="A5" s="44">
+      <c r="A5" s="67">
         <v>42681</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="48"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="71"/>
     </row>
     <row r="6" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A6" s="45"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="74"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A7" s="46"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="53"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="77"/>
     </row>
     <row r="8" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A8" s="44">
+      <c r="A8" s="67">
         <v>42682</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
     </row>
     <row r="9" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A9" s="45"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="50"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="74"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A10" s="46"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="77"/>
     </row>
     <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A11" s="44">
+      <c r="A11" s="67">
         <v>42683</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="71"/>
     </row>
     <row r="12" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A12" s="45"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="74"/>
     </row>
     <row r="13" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A13" s="46"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="53"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="77"/>
     </row>
     <row r="14" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A14" s="44">
+      <c r="A14" s="67">
         <v>42684</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="71"/>
     </row>
     <row r="15" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A15" s="45"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="74"/>
     </row>
     <row r="16" spans="1:8" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A16" s="46"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="53"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="77"/>
     </row>
     <row r="17" spans="1:8" ht="18" thickTop="1">
-      <c r="A17" s="44">
+      <c r="A17" s="67">
         <v>42685</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="83"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="96"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="45"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="59"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="83"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A19" s="46"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="50"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="74"/>
     </row>
     <row r="20" spans="1:8" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39" t="s">
+      <c r="B20" s="89"/>
+      <c r="C20" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="92"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
@@ -3843,14 +3865,14 @@
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="94"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6">
@@ -3859,14 +3881,14 @@
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="43"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="94"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
@@ -3875,14 +3897,14 @@
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="43"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="94"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
@@ -3891,14 +3913,14 @@
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="94"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A25" s="6">
@@ -3907,32 +3929,35 @@
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="81" t="s">
+      <c r="C25" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="87"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H9"/>
@@ -3941,21 +3966,18 @@
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="C13:H13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3984,48 +4006,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="51"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="72"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="53"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="75"/>
+      <c r="H2" s="56"/>
     </row>
     <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="78" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="61"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="62" t="s">
@@ -4042,236 +4064,236 @@
       <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:8" ht="45" customHeight="1" thickTop="1">
-      <c r="A5" s="44">
+      <c r="A5" s="67">
         <v>42674</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="48"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="71"/>
     </row>
     <row r="6" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A6" s="45"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="74"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A7" s="46"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="53"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="77"/>
     </row>
     <row r="8" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A8" s="84">
+      <c r="A8" s="98">
         <v>42675</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
     </row>
     <row r="9" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A9" s="85"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="50"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="74"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A10" s="86"/>
+      <c r="A10" s="100"/>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="77"/>
     </row>
     <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A11" s="84">
+      <c r="A11" s="98">
         <v>42676</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="71"/>
     </row>
     <row r="12" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A12" s="85"/>
+      <c r="A12" s="99"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="74"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A13" s="86"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="53"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="77"/>
     </row>
     <row r="14" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A14" s="84">
+      <c r="A14" s="98">
         <v>42677</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="71"/>
     </row>
     <row r="15" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A15" s="85"/>
+      <c r="A15" s="99"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="74"/>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A16" s="86"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="53"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="77"/>
     </row>
     <row r="17" spans="1:8" ht="18" thickTop="1">
-      <c r="A17" s="45">
+      <c r="A17" s="68">
         <v>42678</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="83"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="96"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="45"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="59"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="83"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A19" s="87"/>
+      <c r="A19" s="101"/>
       <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="50"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="74"/>
     </row>
     <row r="20" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39" t="s">
+      <c r="B20" s="89"/>
+      <c r="C20" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="92"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
@@ -4280,14 +4302,14 @@
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="94"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6">
@@ -4296,14 +4318,14 @@
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="43"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="94"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
@@ -4312,14 +4334,14 @@
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="43"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="94"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
@@ -4328,14 +4350,14 @@
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="94"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A25" s="8">
@@ -4344,33 +4366,26 @@
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="81" t="s">
+      <c r="C25" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="87"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C18:H18"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="A5:A7"/>
@@ -4387,12 +4402,19 @@
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4422,10 +4444,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="17" customFormat="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="104" t="s">
         <v>105</v>
       </c>
       <c r="C1" s="15">
@@ -4553,8 +4575,8 @@
       <c r="BC1" s="16"/>
     </row>
     <row r="2" spans="1:55" s="13" customFormat="1">
-      <c r="A2" s="32"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="105"/>
       <c r="C2" s="14" t="s">
         <v>76</v>
       </c>
@@ -6069,7 +6091,7 @@
       <c r="AV28" s="18"/>
       <c r="AW28" s="25"/>
     </row>
-    <row r="29" spans="1:49" s="91" customFormat="1"/>
+    <row r="29" spans="1:49" s="34" customFormat="1"/>
     <row r="30" spans="1:49">
       <c r="A30" s="21" t="s">
         <v>97</v>
@@ -6177,7 +6199,7 @@
       <c r="AW31" s="25"/>
     </row>
     <row r="32" spans="1:49">
-      <c r="A32" s="88" t="s">
+      <c r="A32" s="31" t="s">
         <v>99</v>
       </c>
       <c r="B32" s="22"/>
@@ -6230,7 +6252,7 @@
       <c r="AW32" s="25"/>
     </row>
     <row r="33" spans="1:49">
-      <c r="A33" s="88" t="s">
+      <c r="A33" s="31" t="s">
         <v>100</v>
       </c>
       <c r="B33" s="22"/>
@@ -6389,7 +6411,7 @@
       <c r="AW35" s="25"/>
     </row>
     <row r="36" spans="1:49">
-      <c r="A36" s="88" t="s">
+      <c r="A36" s="31" t="s">
         <v>78</v>
       </c>
       <c r="B36" s="22"/>
@@ -6442,7 +6464,7 @@
       <c r="AW36" s="25"/>
     </row>
     <row r="37" spans="1:49">
-      <c r="A37" s="88" t="s">
+      <c r="A37" s="31" t="s">
         <v>79</v>
       </c>
       <c r="B37" s="22"/>
@@ -6653,7 +6675,7 @@
       <c r="AV40" s="18"/>
       <c r="AW40" s="25"/>
     </row>
-    <row r="41" spans="1:49" s="90" customFormat="1"/>
+    <row r="41" spans="1:49" s="33" customFormat="1"/>
     <row r="42" spans="1:49">
       <c r="A42" s="18" t="s">
         <v>119</v>
@@ -7291,7 +7313,7 @@
       <c r="AW53" s="18"/>
     </row>
     <row r="54" spans="1:49">
-      <c r="A54" s="89" t="s">
+      <c r="A54" s="32" t="s">
         <v>129</v>
       </c>
       <c r="B54" s="18"/>
@@ -7450,7 +7472,7 @@
       <c r="AW56" s="18"/>
     </row>
     <row r="57" spans="1:49">
-      <c r="A57" s="89" t="s">
+      <c r="A57" s="32" t="s">
         <v>132</v>
       </c>
       <c r="B57" s="18"/>
@@ -7556,7 +7578,7 @@
       <c r="AW58" s="18"/>
     </row>
     <row r="59" spans="1:49">
-      <c r="A59" s="89" t="s">
+      <c r="A59" s="32" t="s">
         <v>134</v>
       </c>
       <c r="B59" s="18"/>
@@ -7662,7 +7684,7 @@
       <c r="AW60" s="18"/>
     </row>
     <row r="61" spans="1:49">
-      <c r="A61" s="89" t="s">
+      <c r="A61" s="32" t="s">
         <v>136</v>
       </c>
       <c r="B61" s="18"/>
@@ -8033,7 +8055,7 @@
       <c r="AW67" s="18"/>
     </row>
     <row r="68" spans="1:49">
-      <c r="A68" s="89" t="s">
+      <c r="A68" s="32" t="s">
         <v>143</v>
       </c>
       <c r="B68" s="18"/>
@@ -8086,7 +8108,7 @@
       <c r="AW68" s="18"/>
     </row>
     <row r="69" spans="1:49">
-      <c r="A69" s="89" t="s">
+      <c r="A69" s="32" t="s">
         <v>144</v>
       </c>
       <c r="B69" s="18"/>
@@ -8139,7 +8161,7 @@
       <c r="AW69" s="18"/>
     </row>
     <row r="70" spans="1:49">
-      <c r="A70" s="89" t="s">
+      <c r="A70" s="32" t="s">
         <v>145</v>
       </c>
       <c r="B70" s="18"/>
@@ -8245,7 +8267,7 @@
       <c r="AW71" s="18"/>
     </row>
     <row r="72" spans="1:49">
-      <c r="A72" s="89" t="s">
+      <c r="A72" s="32" t="s">
         <v>147</v>
       </c>
       <c r="B72" s="18"/>
@@ -8404,7 +8426,7 @@
       <c r="AW74" s="18"/>
     </row>
     <row r="75" spans="1:49">
-      <c r="A75" s="89" t="s">
+      <c r="A75" s="32" t="s">
         <v>150</v>
       </c>
       <c r="B75" s="18"/>
@@ -8667,7 +8689,7 @@
       <c r="AW79" s="18"/>
     </row>
     <row r="80" spans="1:49">
-      <c r="A80" s="89" t="s">
+      <c r="A80" s="32" t="s">
         <v>132</v>
       </c>
       <c r="B80" s="18"/>
@@ -8773,7 +8795,7 @@
       <c r="AW81" s="18"/>
     </row>
     <row r="82" spans="1:49">
-      <c r="A82" s="89" t="s">
+      <c r="A82" s="32" t="s">
         <v>155</v>
       </c>
       <c r="B82" s="18"/>
@@ -8826,7 +8848,7 @@
       <c r="AW82" s="18"/>
     </row>
     <row r="83" spans="1:49">
-      <c r="A83" s="89" t="s">
+      <c r="A83" s="32" t="s">
         <v>156</v>
       </c>
       <c r="B83" s="18"/>
@@ -8879,7 +8901,7 @@
       <c r="AW83" s="18"/>
     </row>
     <row r="84" spans="1:49">
-      <c r="A84" s="89" t="s">
+      <c r="A84" s="32" t="s">
         <v>157</v>
       </c>
       <c r="B84" s="18"/>
@@ -8932,7 +8954,7 @@
       <c r="AW84" s="18"/>
     </row>
     <row r="85" spans="1:49">
-      <c r="A85" s="89" t="s">
+      <c r="A85" s="32" t="s">
         <v>158</v>
       </c>
       <c r="B85" s="18"/>
@@ -9089,7 +9111,7 @@
       <c r="AW87" s="18"/>
     </row>
     <row r="88" spans="1:49">
-      <c r="A88" s="89" t="s">
+      <c r="A88" s="32" t="s">
         <v>160</v>
       </c>
       <c r="B88" s="18"/>
@@ -9142,7 +9164,7 @@
       <c r="AW88" s="18"/>
     </row>
     <row r="89" spans="1:49">
-      <c r="A89" s="89" t="s">
+      <c r="A89" s="32" t="s">
         <v>161</v>
       </c>
       <c r="B89" s="18"/>
@@ -9195,7 +9217,7 @@
       <c r="AW89" s="18"/>
     </row>
     <row r="90" spans="1:49">
-      <c r="A90" s="89" t="s">
+      <c r="A90" s="32" t="s">
         <v>162</v>
       </c>
       <c r="B90" s="18"/>
@@ -11269,885 +11291,893 @@
   </sheetPr>
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="95" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="1.5" style="117" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="95" customWidth="1"/>
-    <col min="4" max="4" width="41" style="96"/>
-    <col min="5" max="5" width="7.375" style="95" customWidth="1"/>
-    <col min="6" max="6" width="41" style="96"/>
-    <col min="7" max="7" width="7.375" style="95" customWidth="1"/>
-    <col min="8" max="8" width="41" style="96"/>
-    <col min="9" max="9" width="7.375" style="95" customWidth="1"/>
-    <col min="10" max="10" width="41" style="96"/>
-    <col min="11" max="11" width="7.375" style="95" customWidth="1"/>
-    <col min="12" max="16384" width="41" style="96"/>
+    <col min="1" max="1" width="7.125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.5" style="47" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="41" style="36"/>
+    <col min="5" max="5" width="7.375" style="35" customWidth="1"/>
+    <col min="6" max="6" width="41" style="36"/>
+    <col min="7" max="7" width="7.375" style="35" customWidth="1"/>
+    <col min="8" max="8" width="41" style="36"/>
+    <col min="9" max="9" width="7.375" style="35" customWidth="1"/>
+    <col min="10" max="10" width="41" style="36"/>
+    <col min="11" max="11" width="7.375" style="35" customWidth="1"/>
+    <col min="12" max="16384" width="41" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="109" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:12" s="42" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A1" s="116" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="118" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="118" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="40"/>
+      <c r="G1" s="118" t="s">
+        <v>200</v>
+      </c>
+      <c r="H1" s="40"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="48"/>
+    </row>
+    <row r="2" spans="1:12" s="42" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A2" s="117"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="48"/>
+    </row>
+    <row r="3" spans="1:12" ht="149.25" thickTop="1">
+      <c r="A3" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="109"/>
+      <c r="F3" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="107" t="s">
+      <c r="G3" s="109"/>
+      <c r="H3" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="I3" s="112"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="48"/>
+    </row>
+    <row r="4" spans="1:12" ht="132">
+      <c r="A4" s="107"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" s="110"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="48"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="107"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="48"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="107"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="48"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="107"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="48"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="107"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="48"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="107"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="48"/>
+    </row>
+    <row r="10" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A10" s="108"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="48"/>
+    </row>
+    <row r="11" spans="1:12" ht="17.25" thickTop="1">
+      <c r="A11" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="48"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="114"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="48"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="114"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="48"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="114"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="48"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="114"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="112"/>
+      <c r="L15" s="48"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="114"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="48"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="114"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="48"/>
+    </row>
+    <row r="18" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A18" s="115"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="48"/>
+    </row>
+    <row r="19" spans="1:12" ht="17.25" thickBot="1"/>
+    <row r="20" spans="1:12" s="42" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A20" s="116" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" s="43"/>
+      <c r="C20" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="105"/>
-      <c r="E1" s="107" t="s">
+      <c r="D20" s="40"/>
+      <c r="E20" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="F1" s="105"/>
-      <c r="G1" s="107" t="s">
+      <c r="F20" s="40">
+        <v>42699</v>
+      </c>
+      <c r="G20" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="H1" s="105"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="119"/>
-    </row>
-    <row r="2" spans="1:12" s="109" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A2" s="101"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="119"/>
-    </row>
-    <row r="3" spans="1:12" ht="314.25" thickTop="1">
-      <c r="A3" s="102" t="s">
+      <c r="H20" s="40">
+        <v>42698</v>
+      </c>
+      <c r="I20" s="118" t="s">
+        <v>200</v>
+      </c>
+      <c r="J20" s="40">
+        <v>42697</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="42" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A21" s="117"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" s="119"/>
+      <c r="H21" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="I21" s="119"/>
+      <c r="J21" s="41" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="83.25" thickTop="1">
+      <c r="A22" s="106" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="97" t="s">
-        <v>214</v>
-      </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="97" t="s">
+      <c r="B22" s="45"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="109" t="s">
         <v>215</v>
       </c>
-      <c r="G3" s="92"/>
-      <c r="H3" s="97" t="s">
+      <c r="F22" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="G22" s="109" t="s">
+        <v>208</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="I22" s="109" t="s">
+        <v>207</v>
+      </c>
+      <c r="J22" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="K22" s="36"/>
+    </row>
+    <row r="23" spans="1:12" ht="99">
+      <c r="A23" s="107"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="G23" s="110"/>
+      <c r="H23" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="I23" s="110"/>
+      <c r="J23" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="K23" s="36"/>
+    </row>
+    <row r="24" spans="1:12" ht="99">
+      <c r="A24" s="107"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="G24" s="110"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="K24" s="36"/>
+    </row>
+    <row r="25" spans="1:12" ht="99">
+      <c r="A25" s="107"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" s="110"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="K25" s="36"/>
+    </row>
+    <row r="26" spans="1:12" ht="49.5">
+      <c r="A26" s="107"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="G26" s="110"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="K26" s="36"/>
+    </row>
+    <row r="27" spans="1:12" ht="33">
+      <c r="A27" s="107"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="G27" s="110"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="36"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="107"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="36"/>
+    </row>
+    <row r="29" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A29" s="108"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="36"/>
+    </row>
+    <row r="30" spans="1:12" ht="33.75" thickTop="1">
+      <c r="A30" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="B30" s="46"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="I3" s="118"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="119"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="103"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="119"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="103"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="119"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="103"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="119"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="103"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="119"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="103"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="119"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="103"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="119"/>
-    </row>
-    <row r="10" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A10" s="104"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="119"/>
-    </row>
-    <row r="11" spans="1:12" ht="17.25" thickTop="1">
-      <c r="A11" s="110" t="s">
-        <v>199</v>
-      </c>
-      <c r="B11" s="116"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="119"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="111"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="119"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="111"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="119"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="111"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="119"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="111"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="119"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="111"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="119"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="111"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="118"/>
-      <c r="J17" s="119"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="119"/>
-    </row>
-    <row r="18" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A18" s="112"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="119"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="119"/>
-    </row>
-    <row r="19" spans="1:12" ht="17.25" thickBot="1"/>
-    <row r="20" spans="1:12" s="109" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A20" s="100" t="s">
-        <v>202</v>
-      </c>
-      <c r="B20" s="113"/>
-      <c r="C20" s="107" t="s">
-        <v>200</v>
-      </c>
-      <c r="D20" s="105"/>
-      <c r="E20" s="107" t="s">
-        <v>200</v>
-      </c>
-      <c r="F20" s="105">
-        <v>42699</v>
-      </c>
-      <c r="G20" s="107" t="s">
-        <v>200</v>
-      </c>
-      <c r="H20" s="105">
-        <v>42698</v>
-      </c>
-      <c r="I20" s="107" t="s">
-        <v>200</v>
-      </c>
-      <c r="J20" s="105">
-        <v>42697</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="109" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A21" s="101"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="106" t="s">
-        <v>201</v>
-      </c>
-      <c r="G21" s="108"/>
-      <c r="H21" s="106" t="s">
-        <v>197</v>
-      </c>
-      <c r="I21" s="108"/>
-      <c r="J21" s="106" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="83.25" thickTop="1">
-      <c r="A22" s="102" t="s">
-        <v>198</v>
-      </c>
-      <c r="B22" s="115"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="92" t="s">
+      <c r="G30" s="110"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="36"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="114"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="F22" s="97" t="s">
-        <v>228</v>
-      </c>
-      <c r="G22" s="92" t="s">
-        <v>208</v>
-      </c>
-      <c r="H22" s="97" t="s">
-        <v>229</v>
-      </c>
-      <c r="I22" s="92" t="s">
-        <v>207</v>
-      </c>
-      <c r="J22" s="97" t="s">
-        <v>210</v>
-      </c>
-      <c r="K22" s="96"/>
-    </row>
-    <row r="23" spans="1:12" ht="99">
-      <c r="A23" s="103"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="98" t="s">
-        <v>220</v>
-      </c>
-      <c r="G23" s="93"/>
-      <c r="H23" s="98" t="s">
-        <v>209</v>
-      </c>
-      <c r="I23" s="93"/>
-      <c r="J23" s="98" t="s">
-        <v>211</v>
-      </c>
-      <c r="K23" s="96"/>
-    </row>
-    <row r="24" spans="1:12" ht="99">
-      <c r="A24" s="103"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="98" t="s">
-        <v>221</v>
-      </c>
-      <c r="G24" s="93"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="98" t="s">
-        <v>212</v>
-      </c>
-      <c r="K24" s="96"/>
-    </row>
-    <row r="25" spans="1:12" ht="99">
-      <c r="A25" s="103"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="98" t="s">
+      <c r="G31" s="110"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="36"/>
+    </row>
+    <row r="32" spans="1:12" ht="33">
+      <c r="A32" s="114"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="G32" s="110"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="36"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="114"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="G25" s="93"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="98" t="s">
-        <v>230</v>
-      </c>
-      <c r="K25" s="96"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="103"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="98" t="s">
+      <c r="G33" s="110"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="36"/>
+    </row>
+    <row r="34" spans="1:12" ht="49.5">
+      <c r="A34" s="114"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="G26" s="93"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="96"/>
-    </row>
-    <row r="27" spans="1:12" ht="33">
-      <c r="A27" s="103"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="98" t="s">
-        <v>222</v>
-      </c>
-      <c r="G27" s="93"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="98"/>
-      <c r="K27" s="96"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="103"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="96"/>
-    </row>
-    <row r="29" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A29" s="104"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="96"/>
-    </row>
-    <row r="30" spans="1:12" ht="33.75" thickTop="1">
-      <c r="A30" s="110" t="s">
-        <v>199</v>
-      </c>
-      <c r="B30" s="116"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="97" t="s">
-        <v>218</v>
-      </c>
-      <c r="G30" s="93"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="96"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="111"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="98" t="s">
-        <v>219</v>
-      </c>
-      <c r="G31" s="93"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="96"/>
-    </row>
-    <row r="32" spans="1:12" ht="33">
-      <c r="A32" s="111"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="98" t="s">
-        <v>225</v>
-      </c>
-      <c r="G32" s="93"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="96"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="111"/>
-      <c r="B33" s="116"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="98" t="s">
-        <v>226</v>
-      </c>
-      <c r="G33" s="93"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="96"/>
-    </row>
-    <row r="34" spans="1:12" ht="49.5">
-      <c r="A34" s="111"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="98" t="s">
-        <v>227</v>
-      </c>
-      <c r="G34" s="93"/>
-      <c r="H34" s="98"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="98"/>
-      <c r="K34" s="96"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="111"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="98"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="98"/>
-      <c r="I35" s="93"/>
-      <c r="J35" s="98"/>
-      <c r="K35" s="96"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="36"/>
+    </row>
+    <row r="35" spans="1:12" ht="181.5">
+      <c r="A35" s="114"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="120" t="s">
+        <v>233</v>
+      </c>
+      <c r="G35" s="110"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="110"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="36"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="111"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="98"/>
-      <c r="G36" s="93"/>
-      <c r="H36" s="98"/>
-      <c r="I36" s="93"/>
-      <c r="J36" s="98"/>
-      <c r="K36" s="96"/>
+      <c r="A36" s="114"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="110"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="110"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="36"/>
     </row>
     <row r="37" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A37" s="112"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="99"/>
-      <c r="K37" s="96"/>
+      <c r="A37" s="115"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="111"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="36"/>
     </row>
     <row r="38" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="39" spans="1:12">
-      <c r="A39" s="100" t="s">
+      <c r="A39" s="116" t="s">
         <v>203</v>
       </c>
-      <c r="B39" s="113"/>
-      <c r="C39" s="107" t="s">
+      <c r="B39" s="43"/>
+      <c r="C39" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="D39" s="105"/>
-      <c r="E39" s="107" t="s">
+      <c r="D39" s="40"/>
+      <c r="E39" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="F39" s="105"/>
-      <c r="G39" s="107" t="s">
+      <c r="F39" s="40"/>
+      <c r="G39" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="H39" s="105"/>
-      <c r="I39" s="107" t="s">
+      <c r="H39" s="40"/>
+      <c r="I39" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="J39" s="105">
+      <c r="J39" s="40">
         <v>42706</v>
       </c>
-      <c r="K39" s="107" t="s">
+      <c r="K39" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="L39" s="105">
+      <c r="L39" s="40">
         <v>42705</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A40" s="101"/>
-      <c r="B40" s="114"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="106"/>
-      <c r="G40" s="108"/>
-      <c r="H40" s="106"/>
-      <c r="I40" s="108"/>
-      <c r="J40" s="106" t="s">
+      <c r="A40" s="117"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="119"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="119"/>
+      <c r="J40" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="K40" s="108"/>
-      <c r="L40" s="106" t="s">
+      <c r="K40" s="119"/>
+      <c r="L40" s="41" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="17.25" thickTop="1">
-      <c r="A41" s="102" t="s">
+      <c r="A41" s="106" t="s">
         <v>198</v>
       </c>
-      <c r="B41" s="115"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="92"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="92"/>
-      <c r="L41" s="97"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="109"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="109"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="109"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="109"/>
+      <c r="L41" s="37"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="103"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="98"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="98"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="98"/>
-      <c r="I42" s="93"/>
-      <c r="J42" s="98"/>
-      <c r="K42" s="93"/>
-      <c r="L42" s="98"/>
+      <c r="A42" s="107"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="110"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="110"/>
+      <c r="L42" s="38"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="103"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="98"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="93"/>
-      <c r="H43" s="98"/>
-      <c r="I43" s="93"/>
-      <c r="J43" s="98"/>
-      <c r="K43" s="93"/>
-      <c r="L43" s="98"/>
+      <c r="A43" s="107"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="110"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="110"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="110"/>
+      <c r="L43" s="38"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="103"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="98"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="93"/>
-      <c r="H44" s="98"/>
-      <c r="I44" s="93"/>
-      <c r="J44" s="98"/>
-      <c r="K44" s="93"/>
-      <c r="L44" s="98"/>
+      <c r="A44" s="107"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="110"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="110"/>
+      <c r="L44" s="38"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="103"/>
-      <c r="B45" s="116"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="98"/>
-      <c r="E45" s="93"/>
-      <c r="F45" s="98"/>
-      <c r="G45" s="93"/>
-      <c r="H45" s="98"/>
-      <c r="I45" s="93"/>
-      <c r="J45" s="98"/>
-      <c r="K45" s="93"/>
-      <c r="L45" s="98"/>
+      <c r="A45" s="107"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="110"/>
+      <c r="L45" s="38"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="103"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="98"/>
-      <c r="E46" s="93"/>
-      <c r="F46" s="98"/>
-      <c r="G46" s="93"/>
-      <c r="H46" s="98"/>
-      <c r="I46" s="93"/>
-      <c r="J46" s="98"/>
-      <c r="K46" s="93"/>
-      <c r="L46" s="98"/>
+      <c r="A46" s="107"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="110"/>
+      <c r="L46" s="38"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="103"/>
-      <c r="B47" s="116"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="98"/>
-      <c r="E47" s="93"/>
-      <c r="F47" s="98"/>
-      <c r="G47" s="93"/>
-      <c r="H47" s="98"/>
-      <c r="I47" s="93"/>
-      <c r="J47" s="98"/>
-      <c r="K47" s="93"/>
-      <c r="L47" s="98"/>
+      <c r="A47" s="107"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="110"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="110"/>
+      <c r="L47" s="38"/>
     </row>
     <row r="48" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A48" s="104"/>
-      <c r="B48" s="116"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="93"/>
-      <c r="F48" s="99"/>
-      <c r="G48" s="93"/>
-      <c r="H48" s="99"/>
-      <c r="I48" s="93"/>
-      <c r="J48" s="99"/>
-      <c r="K48" s="93"/>
-      <c r="L48" s="99"/>
+      <c r="A48" s="108"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="110"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="110"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="110"/>
+      <c r="L48" s="39"/>
     </row>
     <row r="49" spans="1:12" ht="17.25" thickTop="1">
-      <c r="A49" s="110" t="s">
+      <c r="A49" s="113" t="s">
         <v>199</v>
       </c>
-      <c r="B49" s="116"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="97"/>
-      <c r="E49" s="93"/>
-      <c r="F49" s="97"/>
-      <c r="G49" s="93"/>
-      <c r="H49" s="97"/>
-      <c r="I49" s="93"/>
-      <c r="J49" s="97"/>
-      <c r="K49" s="93"/>
-      <c r="L49" s="97"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="110"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="110"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="110"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="110"/>
+      <c r="L49" s="37"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="111"/>
-      <c r="B50" s="116"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="98"/>
-      <c r="E50" s="93"/>
-      <c r="F50" s="98"/>
-      <c r="G50" s="93"/>
-      <c r="H50" s="98"/>
-      <c r="I50" s="93"/>
-      <c r="J50" s="98"/>
-      <c r="K50" s="93"/>
-      <c r="L50" s="98"/>
+      <c r="A50" s="114"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="110"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="110"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="110"/>
+      <c r="L50" s="38"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="111"/>
-      <c r="B51" s="116"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="98"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="98"/>
-      <c r="G51" s="93"/>
-      <c r="H51" s="98"/>
-      <c r="I51" s="93"/>
-      <c r="J51" s="98"/>
-      <c r="K51" s="93"/>
-      <c r="L51" s="98"/>
+      <c r="A51" s="114"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="110"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="110"/>
+      <c r="L51" s="38"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="111"/>
-      <c r="B52" s="116"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="93"/>
-      <c r="F52" s="98"/>
-      <c r="G52" s="93"/>
-      <c r="H52" s="98"/>
-      <c r="I52" s="93"/>
-      <c r="J52" s="98"/>
-      <c r="K52" s="93"/>
-      <c r="L52" s="98"/>
+      <c r="A52" s="114"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="110"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="110"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="110"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="110"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="110"/>
+      <c r="L52" s="38"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="111"/>
-      <c r="B53" s="116"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="98"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="98"/>
-      <c r="G53" s="93"/>
-      <c r="H53" s="98"/>
-      <c r="I53" s="93"/>
-      <c r="J53" s="98"/>
-      <c r="K53" s="93"/>
-      <c r="L53" s="98"/>
+      <c r="A53" s="114"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="110"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="110"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="110"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="110"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="110"/>
+      <c r="L53" s="38"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="111"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="98"/>
-      <c r="E54" s="93"/>
-      <c r="F54" s="98"/>
-      <c r="G54" s="93"/>
-      <c r="H54" s="98"/>
-      <c r="I54" s="93"/>
-      <c r="J54" s="98"/>
-      <c r="K54" s="93"/>
-      <c r="L54" s="98"/>
+      <c r="A54" s="114"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="110"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="110"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="110"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="110"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="110"/>
+      <c r="L54" s="38"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="111"/>
-      <c r="B55" s="116"/>
-      <c r="C55" s="93"/>
-      <c r="D55" s="98"/>
-      <c r="E55" s="93"/>
-      <c r="F55" s="98"/>
-      <c r="G55" s="93"/>
-      <c r="H55" s="98"/>
-      <c r="I55" s="93"/>
-      <c r="J55" s="98"/>
-      <c r="K55" s="93"/>
-      <c r="L55" s="98"/>
+      <c r="A55" s="114"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="110"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="110"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="110"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="110"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="110"/>
+      <c r="L55" s="38"/>
     </row>
     <row r="56" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A56" s="112"/>
-      <c r="B56" s="116"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="99"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="99"/>
-      <c r="G56" s="94"/>
-      <c r="H56" s="99"/>
-      <c r="I56" s="94"/>
-      <c r="J56" s="99"/>
-      <c r="K56" s="94"/>
-      <c r="L56" s="99"/>
+      <c r="A56" s="115"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="111"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="111"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="111"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="111"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="111"/>
+      <c r="L56" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="C3:C18"/>
-    <mergeCell ref="E3:E18"/>
-    <mergeCell ref="G3:G18"/>
-    <mergeCell ref="I3:I18"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="C22:C37"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G37"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E37"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="K3:K18"/>
+    <mergeCell ref="I22:I37"/>
+    <mergeCell ref="I20:I21"/>
     <mergeCell ref="A49:A56"/>
     <mergeCell ref="K39:K40"/>
     <mergeCell ref="A41:A48"/>
@@ -12161,19 +12191,17 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="I39:I40"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G37"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E37"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="K3:K18"/>
-    <mergeCell ref="I22:I37"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="C22:C37"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="C3:C18"/>
+    <mergeCell ref="E3:E18"/>
+    <mergeCell ref="G3:G18"/>
+    <mergeCell ref="I3:I18"/>
+    <mergeCell ref="A11:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12191,556 +12219,543 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="41" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="95" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="95" customWidth="1"/>
-    <col min="3" max="3" width="41" style="96"/>
-    <col min="4" max="4" width="7.375" style="95" customWidth="1"/>
-    <col min="5" max="5" width="41" style="96"/>
-    <col min="6" max="6" width="7.375" style="95" customWidth="1"/>
-    <col min="7" max="7" width="41" style="96"/>
-    <col min="8" max="8" width="7.375" style="95" customWidth="1"/>
-    <col min="9" max="9" width="41" style="96"/>
-    <col min="10" max="10" width="7.375" style="95" customWidth="1"/>
-    <col min="11" max="16384" width="41" style="96"/>
+    <col min="1" max="1" width="7.125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="41" style="36"/>
+    <col min="4" max="4" width="7.375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="41" style="36"/>
+    <col min="6" max="6" width="7.375" style="35" customWidth="1"/>
+    <col min="7" max="7" width="41" style="36"/>
+    <col min="8" max="8" width="7.375" style="35" customWidth="1"/>
+    <col min="9" max="9" width="41" style="36"/>
+    <col min="10" max="10" width="7.375" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="41" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
-    <row r="2" spans="1:11" s="109" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="100" t="s">
+    <row r="2" spans="1:11" s="42" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A2" s="116" t="s">
         <v>204</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="105">
+      <c r="C2" s="40">
         <v>42740</v>
       </c>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="105">
+      <c r="E2" s="40">
         <v>42739</v>
       </c>
-      <c r="F2" s="107" t="s">
+      <c r="F2" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="G2" s="105">
+      <c r="G2" s="40">
         <v>42738</v>
       </c>
-      <c r="H2" s="107" t="s">
+      <c r="H2" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="I2" s="105">
+      <c r="I2" s="40">
         <v>42737</v>
       </c>
-      <c r="J2" s="107" t="s">
+      <c r="J2" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="K2" s="105">
+      <c r="K2" s="40">
         <v>42736</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="109" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A3" s="101"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="106"/>
+    <row r="3" spans="1:11" s="42" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A3" s="117"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" thickTop="1">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="106" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="97"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="37"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="103"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="98"/>
+      <c r="A5" s="107"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="38"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="103"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="98"/>
+      <c r="A6" s="107"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="38"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="103"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="98"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="38"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="103"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="98"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="38"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="103"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="98"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="38"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="103"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="98"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="38"/>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A11" s="104"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="99"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="39"/>
     </row>
     <row r="12" spans="1:11" ht="17.25" thickTop="1">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="113" t="s">
         <v>199</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="97"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="37"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="111"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="98"/>
+      <c r="A13" s="114"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="38"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="111"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="98"/>
+      <c r="A14" s="114"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="38"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="111"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="98"/>
+      <c r="A15" s="114"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="111"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="98"/>
+      <c r="A16" s="114"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="111"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="98"/>
+      <c r="A17" s="114"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="38"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="111"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="98"/>
+      <c r="A18" s="114"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="38"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A19" s="112"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="99"/>
+      <c r="A19" s="115"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="39"/>
     </row>
     <row r="20" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="21" spans="1:11">
-      <c r="A21" s="100" t="s">
+      <c r="A21" s="116" t="s">
         <v>205</v>
       </c>
-      <c r="B21" s="107" t="s">
+      <c r="B21" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="C21" s="105">
+      <c r="C21" s="40">
         <v>42771</v>
       </c>
-      <c r="D21" s="107" t="s">
+      <c r="D21" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="E21" s="105">
+      <c r="E21" s="40">
         <v>42770</v>
       </c>
-      <c r="F21" s="107" t="s">
+      <c r="F21" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="G21" s="105">
+      <c r="G21" s="40">
         <v>42769</v>
       </c>
-      <c r="H21" s="107" t="s">
+      <c r="H21" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="I21" s="105">
+      <c r="I21" s="40">
         <v>42768</v>
       </c>
-      <c r="J21" s="107" t="s">
+      <c r="J21" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="K21" s="105">
+      <c r="K21" s="40">
         <v>42767</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A22" s="101"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="106"/>
+      <c r="A22" s="117"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="41"/>
     </row>
     <row r="23" spans="1:11" ht="17.25" thickTop="1">
-      <c r="A23" s="102" t="s">
+      <c r="A23" s="106" t="s">
         <v>198</v>
       </c>
-      <c r="B23" s="92"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="97"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="37"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="103"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="98"/>
+      <c r="A24" s="107"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="38"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="103"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="98"/>
+      <c r="A25" s="107"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="38"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="103"/>
-      <c r="B26" s="93"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="98"/>
+      <c r="A26" s="107"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="38"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="103"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="98"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="98"/>
+      <c r="A27" s="107"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="103"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="93"/>
-      <c r="K28" s="98"/>
+      <c r="A28" s="107"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="38"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="103"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="98"/>
+      <c r="A29" s="107"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="38"/>
     </row>
     <row r="30" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A30" s="104"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="99"/>
+      <c r="A30" s="108"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="39"/>
     </row>
     <row r="31" spans="1:11" ht="17.25" thickTop="1">
-      <c r="A31" s="110" t="s">
+      <c r="A31" s="113" t="s">
         <v>199</v>
       </c>
-      <c r="B31" s="93"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="93"/>
-      <c r="K31" s="97"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="37"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="111"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="98"/>
-      <c r="J32" s="93"/>
-      <c r="K32" s="98"/>
+      <c r="A32" s="114"/>
+      <c r="B32" s="110"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="38"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="111"/>
-      <c r="B33" s="93"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="98"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="98"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="98"/>
+      <c r="A33" s="114"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="38"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="111"/>
-      <c r="B34" s="93"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="98"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="98"/>
+      <c r="A34" s="114"/>
+      <c r="B34" s="110"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="38"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="111"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="98"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="98"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="98"/>
-      <c r="J35" s="93"/>
-      <c r="K35" s="98"/>
+      <c r="A35" s="114"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="38"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="111"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="98"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="98"/>
-      <c r="J36" s="93"/>
-      <c r="K36" s="98"/>
+      <c r="A36" s="114"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="38"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="111"/>
-      <c r="B37" s="93"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="98"/>
-      <c r="H37" s="93"/>
-      <c r="I37" s="98"/>
-      <c r="J37" s="93"/>
-      <c r="K37" s="98"/>
+      <c r="A37" s="114"/>
+      <c r="B37" s="110"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="110"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="38"/>
     </row>
     <row r="38" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A38" s="112"/>
-      <c r="B38" s="94"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="94"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="94"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="94"/>
-      <c r="K38" s="99"/>
+      <c r="A38" s="115"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="111"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="111"/>
+      <c r="K38" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="B23:B38"/>
-    <mergeCell ref="D23:D38"/>
-    <mergeCell ref="F23:F38"/>
-    <mergeCell ref="H23:H38"/>
-    <mergeCell ref="J23:J38"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="J21:J22"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="H2:H3"/>
@@ -12754,6 +12769,19 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A12:A19"/>
+    <mergeCell ref="J23:J38"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="B23:B38"/>
+    <mergeCell ref="D23:D38"/>
+    <mergeCell ref="F23:F38"/>
+    <mergeCell ref="H23:H38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/_meeting_weekly_doc/N2Team_WeeklySchedule_YSR.xlsx
+++ b/doc/_meeting_weekly_doc/N2Team_WeeklySchedule_YSR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="-15" windowWidth="28020" windowHeight="3765" activeTab="5"/>
+    <workbookView xWindow="60" yWindow="-15" windowWidth="28020" windowHeight="3765"/>
   </bookViews>
   <sheets>
     <sheet name="11월4주" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="247">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -372,11 +372,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>* TileRender
-* Frustum 코드 작성 및 이해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>* Frustum 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -858,14 +853,6 @@
   </si>
   <si>
     <t>금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -963,14 +950,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>* D3DXVec3Normalize 
- - (vector3)pOut, (vector3)pl
- - 데이터의 범위를 일치시키거나 분포를 유사하게 만들어 주는 등의 작업
- - 벡터의 정규화
- - 벡터의 각 요소를 벡터의 길이로 나누면 된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>각축을 크기를 구하기 위해서는 왜 Half와  내적하는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1004,10 +983,6 @@
     <t>* 벡터의 내적은 
  - 벡터의 각 성분의 곱에 합
  - 벡터*+ = 크기(스칼라)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6~9월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1035,13 +1010,105 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1.팀작업을 하면 소스는 항상 최신으로 싱크 이게 기본.(아침에 오면 git pull 먼저 한다)
-2.conflict
+    <t>* Action Item
 1.커스터마이즈맵 띄운다. 오브젝트 배치해본다.
 2.NDC 정점8개 카메라 프로젝션의 역행렬 을 곱한다.
-3.2에서 변환된 정점 8개로 평면 6개를 만든다.
-4.
-</t>
+3.2에서 변환된 정점 8개로 평면 6개를 만든다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로스텀 컬링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* D3DXVec3Normalize 
+ - (vector3)pOut, (vector3)pl
+ - 데이터의 범위를 일치시키거나 분포를 유사하게 만들어 주는 등의 작업
+ - 벡터의 정규화
+ - 벡터의 각 요소를 벡터의 길이로 나누면 된다.
+ - 1로 만드는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* Frustum 코드 작성 및 이해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6~9월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공략</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* D3DXMatrixLookAtLH
+ - pOut, pEye(눈위치), pAt(보는 위치), pUp(상향벡터)
+ - 왼손 좌표계 뷰 행렬을 생성한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 코딩 순서
+ 1. Device()
+ 2. SwapChain()
+ 3. RenderTarget()
+ 4. Viewport()
+ 5. VS
+ 6. InputLayout
+ 7. PS
+ 8. VB( IB, CB )
+ 9  Draw()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* Frustum Culling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* Frustum Culling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.21 ~ 25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 프로스텀 컬링 과 쿼드트리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aabb , obb에 대한 이해가 없음
+half는 무엇을 하는데 사용되는것인가?
+ - half 벡터는 각 축이랑 내적하면 길이를 구할 수 있다.
+ - half 벡터를 구하기 위해서는 박스의 최대정점에서 박스의 중심점을 빼면 구할 수 있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* AABB , OBB에 대한 이해 ?
+half는 무엇을 하는데 사용되는것인가?
+ - half 벡터는 각 축이랑 내적하면 길이를 구할 수 있다.
+ - half 벡터를 구하기 위해서는 박스의 최대정점에서 박스의 중심점을 빼면 구할 수 있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 질문?
+ - 박스의 월드행렬과 1,0,0인점점을 가지고 TransformCoord를 했는데 벡터 vAxis는 크기와 방향을 가지고 있는것으로 생각됨, 따라서 해당 벡터의 크기를 구하는 함수를 사용하여 fExent로 사용할 수 없는 것인가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2055,7 +2122,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2203,6 +2270,108 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2242,103 +2411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2347,9 +2420,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2374,6 +2444,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="7" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="7" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2383,41 +2474,101 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="7" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="7" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="7" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2715,8 +2866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2728,373 +2879,396 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="85"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="53"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="87"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="56"/>
+      <c r="G2" s="88" t="s">
+        <v>242</v>
+      </c>
+      <c r="H2" s="90"/>
     </row>
     <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="123" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="125"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="128"/>
     </row>
     <row r="5" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
-      <c r="A5" s="67">
-        <v>42688</v>
+      <c r="A5" s="59">
+        <v>42695</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="71"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="130"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="68"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="74"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="133"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A7" s="69"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="77"/>
-    </row>
-    <row r="8" spans="1:8" ht="63.75" customHeight="1" thickTop="1">
-      <c r="A8" s="67">
-        <v>42689</v>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="136"/>
+    </row>
+    <row r="8" spans="1:8" ht="18" thickTop="1">
+      <c r="A8" s="59">
+        <v>42696</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="71"/>
+      <c r="C8" s="129" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="130"/>
     </row>
     <row r="9" spans="1:8" ht="76.5" customHeight="1">
-      <c r="A9" s="68"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="74"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="133"/>
     </row>
     <row r="10" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A10" s="69"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="77"/>
-    </row>
-    <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A11" s="67">
-        <v>42690</v>
+      <c r="C10" s="134" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="136"/>
+    </row>
+    <row r="11" spans="1:8" ht="18" thickTop="1">
+      <c r="A11" s="59">
+        <v>42697</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="71"/>
+      <c r="C11" s="129" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="130"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="68"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="74"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="133"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A13" s="69"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="77"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="136"/>
     </row>
     <row r="14" spans="1:8" ht="18" thickTop="1">
-      <c r="A14" s="67">
-        <v>42691</v>
+      <c r="A14" s="59">
+        <v>42698</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="71"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="68"/>
+      <c r="C14" s="129" t="s">
+        <v>240</v>
+      </c>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="130"/>
+    </row>
+    <row r="15" spans="1:8" ht="78.75" customHeight="1">
+      <c r="A15" s="60"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="74"/>
+      <c r="C15" s="132" t="s">
+        <v>244</v>
+      </c>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="133"/>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A16" s="69"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="77"/>
+      <c r="C16" s="134" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="136"/>
     </row>
     <row r="17" spans="1:8" ht="18" thickTop="1">
-      <c r="A17" s="67">
-        <v>42692</v>
+      <c r="A17" s="59">
+        <v>42699</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="78"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="80"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="68"/>
+      <c r="C17" s="129" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="130"/>
+    </row>
+    <row r="18" spans="1:8" ht="73.5" customHeight="1">
+      <c r="A18" s="60"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="83"/>
+      <c r="C18" s="137" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="139"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A19" s="68"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="85"/>
-    </row>
-    <row r="20" spans="1:8" ht="39.75" customHeight="1">
-      <c r="A20" s="88" t="s">
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="141"/>
+    </row>
+    <row r="20" spans="1:8" ht="39.75" customHeight="1" thickTop="1">
+      <c r="A20" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="90" t="s">
+      <c r="B20" s="53"/>
+      <c r="C20" s="142" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="92"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="144"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
-        <v>42695</v>
+        <v>42702</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="93" t="s">
+      <c r="C21" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="94"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="146"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6">
-        <v>42696</v>
+        <v>42703</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="93" t="s">
+      <c r="C22" s="145" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="94"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="146"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
-        <v>42697</v>
+        <v>42704</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="93" t="s">
+      <c r="C23" s="145" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="94"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="146"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
-        <v>42698</v>
+        <v>42705</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="93" t="s">
+      <c r="C24" s="145" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="94"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="146"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A25" s="8">
-        <v>42699</v>
+      <c r="A25" s="6">
+        <v>42706</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="86" t="s">
+      <c r="C25" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="87"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="148"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="C15:H15"/>
@@ -3103,26 +3277,13 @@
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C19:H19"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3150,288 +3311,288 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="85"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="53"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="87"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="56"/>
+      <c r="H2" s="90"/>
     </row>
     <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="59" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="95"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="81"/>
     </row>
     <row r="5" spans="1:8" ht="74.25" customHeight="1" thickTop="1">
-      <c r="A5" s="67">
+      <c r="A5" s="59">
         <v>42688</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="71"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="63"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="68"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="74"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="65"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A7" s="69"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="77"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="68"/>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1" thickTop="1">
-      <c r="A8" s="67">
+      <c r="A8" s="59">
         <v>42689</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="71"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="63"/>
     </row>
     <row r="9" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A9" s="68"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="74"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="65"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A10" s="69"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="77"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
     </row>
     <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A11" s="67">
+      <c r="A11" s="59">
         <v>42690</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="71"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="63"/>
     </row>
     <row r="12" spans="1:8" ht="126" customHeight="1">
-      <c r="A12" s="68"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="74"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
     </row>
     <row r="13" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A13" s="69"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="77"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="68"/>
     </row>
     <row r="14" spans="1:8" ht="66" customHeight="1" thickTop="1">
-      <c r="A14" s="67">
+      <c r="A14" s="59">
         <v>42691</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="71"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="63"/>
     </row>
     <row r="15" spans="1:8" ht="45.75" customHeight="1">
-      <c r="A15" s="68"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="74"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="65"/>
     </row>
     <row r="16" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A16" s="69"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="77"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="68"/>
     </row>
     <row r="17" spans="1:8" ht="64.5" customHeight="1" thickTop="1">
-      <c r="A17" s="67">
+      <c r="A17" s="59">
         <v>42692</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="80"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="71"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="68"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="81" t="s">
+      <c r="C18" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="83"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A19" s="68"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="85"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="76"/>
     </row>
     <row r="20" spans="1:8" ht="39.75" customHeight="1">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="90" t="s">
+      <c r="B20" s="53"/>
+      <c r="C20" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="92"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="56"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
@@ -3440,14 +3601,14 @@
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="93" t="s">
+      <c r="C21" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="94"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="58"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6">
@@ -3456,14 +3617,14 @@
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="93" t="s">
+      <c r="C22" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="94"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="58"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
@@ -3472,14 +3633,14 @@
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="93" t="s">
+      <c r="C23" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="94"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="58"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
@@ -3488,14 +3649,14 @@
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="93" t="s">
+      <c r="C24" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="94"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="58"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A25" s="8">
@@ -3504,27 +3665,40 @@
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="86" t="s">
+      <c r="C25" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="87"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="51"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="C15:H15"/>
@@ -3533,26 +3707,13 @@
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C19:H19"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3569,7 +3730,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3581,282 +3742,282 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="85"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="53"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="87"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="56"/>
+      <c r="H2" s="90"/>
     </row>
     <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="59" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="95"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="81"/>
     </row>
     <row r="5" spans="1:8" ht="146.25" customHeight="1" thickTop="1">
-      <c r="A5" s="67">
+      <c r="A5" s="59">
         <v>42681</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="71"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="63"/>
     </row>
     <row r="6" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A6" s="68"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="74"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="65"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A7" s="69"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="77"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="68"/>
     </row>
     <row r="8" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A8" s="67">
+      <c r="A8" s="59">
         <v>42682</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="71"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="63"/>
     </row>
     <row r="9" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A9" s="68"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="74"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="65"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A10" s="69"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="77"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
     </row>
     <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A11" s="67">
+      <c r="A11" s="59">
         <v>42683</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="71"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="63"/>
     </row>
     <row r="12" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A12" s="68"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="74"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
     </row>
     <row r="13" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A13" s="69"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="77"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="68"/>
     </row>
     <row r="14" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A14" s="67">
+      <c r="A14" s="59">
         <v>42684</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="71"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="63"/>
     </row>
     <row r="15" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A15" s="68"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="74"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="65"/>
     </row>
     <row r="16" spans="1:8" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A16" s="69"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="77"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="68"/>
     </row>
     <row r="17" spans="1:8" ht="18" thickTop="1">
-      <c r="A17" s="67">
+      <c r="A17" s="59">
         <v>42685</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="95" t="s">
+      <c r="C17" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="96"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="98"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="68"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="83"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A19" s="69"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="74"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="65"/>
     </row>
     <row r="20" spans="1:8" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="90" t="s">
+      <c r="B20" s="53"/>
+      <c r="C20" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="92"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="56"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
@@ -3865,14 +4026,14 @@
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="93" t="s">
+      <c r="C21" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="94"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="58"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6">
@@ -3881,14 +4042,14 @@
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="93" t="s">
+      <c r="C22" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="94"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="58"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
@@ -3897,14 +4058,14 @@
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="93" t="s">
+      <c r="C23" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="94"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="58"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
@@ -3913,14 +4074,14 @@
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="93" t="s">
+      <c r="C24" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="94"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="58"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A25" s="6">
@@ -3929,27 +4090,40 @@
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="97" t="s">
+      <c r="C25" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="87"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="51"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="C15:H15"/>
@@ -3958,26 +4132,13 @@
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C19:H19"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4006,294 +4167,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="85"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="53"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="87"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="56"/>
+      <c r="H2" s="90"/>
     </row>
     <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="59" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="95"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="81"/>
     </row>
     <row r="5" spans="1:8" ht="45" customHeight="1" thickTop="1">
-      <c r="A5" s="67">
+      <c r="A5" s="59">
         <v>42674</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="71"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="63"/>
     </row>
     <row r="6" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A6" s="68"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="74"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="65"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A7" s="69"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="77"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="68"/>
     </row>
     <row r="8" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A8" s="98">
+      <c r="A8" s="99">
         <v>42675</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="71"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="63"/>
     </row>
     <row r="9" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A9" s="99"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="74"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="65"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A10" s="100"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="77"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
     </row>
     <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A11" s="98">
+      <c r="A11" s="99">
         <v>42676</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="71"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="63"/>
     </row>
     <row r="12" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A12" s="99"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="74"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A13" s="100"/>
+      <c r="A13" s="101"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="77"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="68"/>
     </row>
     <row r="14" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A14" s="98">
+      <c r="A14" s="99">
         <v>42677</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="71"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="63"/>
     </row>
     <row r="15" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A15" s="99"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="74"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="65"/>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A16" s="100"/>
+      <c r="A16" s="101"/>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="77"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="68"/>
     </row>
     <row r="17" spans="1:8" ht="18" thickTop="1">
-      <c r="A17" s="68">
+      <c r="A17" s="60">
         <v>42678</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="95" t="s">
+      <c r="C17" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="96"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="98"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="68"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="83"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A19" s="101"/>
+      <c r="A19" s="102"/>
       <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="74"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="65"/>
     </row>
     <row r="20" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="90" t="s">
+      <c r="B20" s="53"/>
+      <c r="C20" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="92"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="56"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
@@ -4302,14 +4463,14 @@
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="93" t="s">
+      <c r="C21" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="94"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="58"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6">
@@ -4318,14 +4479,14 @@
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="93" t="s">
+      <c r="C22" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="94"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="58"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
@@ -4334,14 +4495,14 @@
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="93" t="s">
+      <c r="C23" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="94"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="58"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
@@ -4350,14 +4511,14 @@
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="93" t="s">
+      <c r="C24" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="94"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="58"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A25" s="8">
@@ -4366,26 +4527,33 @@
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="97" t="s">
+      <c r="C25" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="87"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="51"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="A5:A7"/>
@@ -4402,19 +4570,12 @@
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C18:H18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4444,11 +4605,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="17" customFormat="1">
-      <c r="A1" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="104" t="s">
-        <v>105</v>
+      <c r="A1" s="103" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="105" t="s">
+        <v>104</v>
       </c>
       <c r="C1" s="15">
         <v>42695</v>
@@ -4575,16 +4736,16 @@
       <c r="BC1" s="16"/>
     </row>
     <row r="2" spans="1:55" s="13" customFormat="1">
-      <c r="A2" s="103"/>
-      <c r="B2" s="105"/>
+      <c r="A2" s="104"/>
+      <c r="B2" s="106"/>
       <c r="C2" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>9</v>
@@ -4595,7 +4756,7 @@
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>7</v>
@@ -4612,7 +4773,7 @@
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
       <c r="Q2" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R2" s="14" t="s">
         <v>7</v>
@@ -4629,7 +4790,7 @@
       <c r="V2" s="14"/>
       <c r="W2" s="14"/>
       <c r="X2" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y2" s="14" t="s">
         <v>7</v>
@@ -4646,7 +4807,7 @@
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
       <c r="AE2" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AF2" s="14" t="s">
         <v>7</v>
@@ -4663,7 +4824,7 @@
       <c r="AJ2" s="14"/>
       <c r="AK2" s="14"/>
       <c r="AL2" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AM2" s="14" t="s">
         <v>7</v>
@@ -4680,7 +4841,7 @@
       <c r="AQ2" s="14"/>
       <c r="AR2" s="14"/>
       <c r="AS2" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AT2" s="14" t="s">
         <v>7</v>
@@ -4703,7 +4864,7 @@
     </row>
     <row r="3" spans="1:55">
       <c r="A3" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="19"/>
@@ -4756,10 +4917,10 @@
     </row>
     <row r="4" spans="1:55">
       <c r="A4" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="18"/>
@@ -4811,10 +4972,10 @@
     </row>
     <row r="5" spans="1:55">
       <c r="A5" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="18"/>
@@ -4866,7 +5027,7 @@
     </row>
     <row r="6" spans="1:55">
       <c r="A6" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="19"/>
@@ -4919,7 +5080,7 @@
     </row>
     <row r="7" spans="1:55">
       <c r="A7" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="26"/>
@@ -4972,7 +5133,7 @@
     </row>
     <row r="8" spans="1:55">
       <c r="A8" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="19"/>
@@ -5025,7 +5186,7 @@
     </row>
     <row r="9" spans="1:55">
       <c r="A9" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="19"/>
@@ -5078,10 +5239,10 @@
     </row>
     <row r="10" spans="1:55">
       <c r="A10" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="18"/>
@@ -5133,7 +5294,7 @@
     </row>
     <row r="11" spans="1:55">
       <c r="A11" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="19"/>
@@ -5186,7 +5347,7 @@
     </row>
     <row r="12" spans="1:55">
       <c r="A12" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="19"/>
@@ -5239,7 +5400,7 @@
     </row>
     <row r="13" spans="1:55">
       <c r="A13" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="19"/>
@@ -5292,7 +5453,7 @@
     </row>
     <row r="14" spans="1:55">
       <c r="A14" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="19"/>
@@ -5345,7 +5506,7 @@
     </row>
     <row r="15" spans="1:55">
       <c r="A15" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="19"/>
@@ -5398,7 +5559,7 @@
     </row>
     <row r="16" spans="1:55">
       <c r="A16" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="19"/>
@@ -5451,7 +5612,7 @@
     </row>
     <row r="17" spans="1:49">
       <c r="A17" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="19"/>
@@ -5504,10 +5665,10 @@
     </row>
     <row r="18" spans="1:49">
       <c r="A18" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="18"/>
@@ -5559,7 +5720,7 @@
     </row>
     <row r="19" spans="1:49">
       <c r="A19" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="19"/>
@@ -5612,10 +5773,10 @@
     </row>
     <row r="20" spans="1:49">
       <c r="A20" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="18"/>
@@ -5667,10 +5828,10 @@
     </row>
     <row r="21" spans="1:49">
       <c r="A21" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="18"/>
@@ -5722,10 +5883,10 @@
     </row>
     <row r="22" spans="1:49">
       <c r="A22" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="18"/>
@@ -5828,7 +5989,7 @@
     </row>
     <row r="24" spans="1:49">
       <c r="A24" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="19"/>
@@ -5881,7 +6042,7 @@
     </row>
     <row r="25" spans="1:49">
       <c r="A25" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="19"/>
@@ -5934,7 +6095,7 @@
     </row>
     <row r="26" spans="1:49">
       <c r="A26" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="19"/>
@@ -5987,7 +6148,7 @@
     </row>
     <row r="27" spans="1:49">
       <c r="A27" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="19"/>
@@ -6040,7 +6201,7 @@
     </row>
     <row r="28" spans="1:49">
       <c r="A28" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="19"/>
@@ -6094,7 +6255,7 @@
     <row r="29" spans="1:49" s="34" customFormat="1"/>
     <row r="30" spans="1:49">
       <c r="A30" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="19"/>
@@ -6147,7 +6308,7 @@
     </row>
     <row r="31" spans="1:49">
       <c r="A31" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="19"/>
@@ -6200,7 +6361,7 @@
     </row>
     <row r="32" spans="1:49">
       <c r="A32" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="19"/>
@@ -6253,7 +6414,7 @@
     </row>
     <row r="33" spans="1:49">
       <c r="A33" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B33" s="22"/>
       <c r="C33" s="19"/>
@@ -6306,7 +6467,7 @@
     </row>
     <row r="34" spans="1:49">
       <c r="A34" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="19"/>
@@ -6359,7 +6520,7 @@
     </row>
     <row r="35" spans="1:49">
       <c r="A35" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B35" s="22"/>
       <c r="C35" s="19"/>
@@ -6412,7 +6573,7 @@
     </row>
     <row r="36" spans="1:49">
       <c r="A36" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" s="22"/>
       <c r="C36" s="19"/>
@@ -6465,7 +6626,7 @@
     </row>
     <row r="37" spans="1:49">
       <c r="A37" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B37" s="22"/>
       <c r="C37" s="19"/>
@@ -6518,7 +6679,7 @@
     </row>
     <row r="38" spans="1:49">
       <c r="A38" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38" s="22"/>
       <c r="C38" s="19"/>
@@ -6571,7 +6732,7 @@
     </row>
     <row r="39" spans="1:49">
       <c r="A39" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B39" s="22"/>
       <c r="C39" s="19"/>
@@ -6624,7 +6785,7 @@
     </row>
     <row r="40" spans="1:49" ht="17.25" thickBot="1">
       <c r="A40" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="19"/>
@@ -6678,7 +6839,7 @@
     <row r="41" spans="1:49" s="33" customFormat="1"/>
     <row r="42" spans="1:49">
       <c r="A42" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -6731,7 +6892,7 @@
     </row>
     <row r="43" spans="1:49">
       <c r="A43" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -6784,7 +6945,7 @@
     </row>
     <row r="44" spans="1:49">
       <c r="A44" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -6837,7 +6998,7 @@
     </row>
     <row r="45" spans="1:49">
       <c r="A45" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -6890,7 +7051,7 @@
     </row>
     <row r="46" spans="1:49">
       <c r="A46" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -6943,7 +7104,7 @@
     </row>
     <row r="47" spans="1:49">
       <c r="A47" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -6996,7 +7157,7 @@
     </row>
     <row r="48" spans="1:49">
       <c r="A48" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
@@ -7049,7 +7210,7 @@
     </row>
     <row r="49" spans="1:49">
       <c r="A49" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
@@ -7102,7 +7263,7 @@
     </row>
     <row r="50" spans="1:49">
       <c r="A50" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
@@ -7155,7 +7316,7 @@
     </row>
     <row r="51" spans="1:49">
       <c r="A51" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
@@ -7208,7 +7369,7 @@
     </row>
     <row r="52" spans="1:49">
       <c r="A52" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
@@ -7261,7 +7422,7 @@
     </row>
     <row r="53" spans="1:49">
       <c r="A53" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
@@ -7314,7 +7475,7 @@
     </row>
     <row r="54" spans="1:49">
       <c r="A54" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B54" s="18"/>
       <c r="C54" s="30"/>
@@ -7367,7 +7528,7 @@
     </row>
     <row r="55" spans="1:49">
       <c r="A55" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B55" s="18"/>
       <c r="C55" s="30"/>
@@ -7420,7 +7581,7 @@
     </row>
     <row r="56" spans="1:49">
       <c r="A56" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B56" s="18"/>
       <c r="C56" s="30"/>
@@ -7473,7 +7634,7 @@
     </row>
     <row r="57" spans="1:49">
       <c r="A57" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B57" s="18"/>
       <c r="C57" s="30"/>
@@ -7526,7 +7687,7 @@
     </row>
     <row r="58" spans="1:49">
       <c r="A58" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B58" s="18"/>
       <c r="C58" s="30"/>
@@ -7579,7 +7740,7 @@
     </row>
     <row r="59" spans="1:49">
       <c r="A59" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B59" s="18"/>
       <c r="C59" s="30"/>
@@ -7632,7 +7793,7 @@
     </row>
     <row r="60" spans="1:49">
       <c r="A60" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B60" s="18"/>
       <c r="C60" s="30"/>
@@ -7685,7 +7846,7 @@
     </row>
     <row r="61" spans="1:49">
       <c r="A61" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B61" s="18"/>
       <c r="C61" s="30"/>
@@ -7738,7 +7899,7 @@
     </row>
     <row r="62" spans="1:49">
       <c r="A62" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B62" s="18"/>
       <c r="C62" s="30"/>
@@ -7791,7 +7952,7 @@
     </row>
     <row r="63" spans="1:49">
       <c r="A63" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B63" s="18"/>
       <c r="C63" s="30"/>
@@ -7844,7 +8005,7 @@
     </row>
     <row r="64" spans="1:49">
       <c r="A64" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B64" s="18"/>
       <c r="C64" s="30"/>
@@ -7897,7 +8058,7 @@
     </row>
     <row r="65" spans="1:49">
       <c r="A65" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B65" s="18"/>
       <c r="C65" s="30"/>
@@ -7950,7 +8111,7 @@
     </row>
     <row r="66" spans="1:49">
       <c r="A66" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B66" s="18"/>
       <c r="C66" s="30"/>
@@ -8003,7 +8164,7 @@
     </row>
     <row r="67" spans="1:49">
       <c r="A67" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B67" s="18"/>
       <c r="C67" s="30"/>
@@ -8056,7 +8217,7 @@
     </row>
     <row r="68" spans="1:49">
       <c r="A68" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B68" s="18"/>
       <c r="C68" s="30"/>
@@ -8109,7 +8270,7 @@
     </row>
     <row r="69" spans="1:49">
       <c r="A69" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B69" s="18"/>
       <c r="C69" s="30"/>
@@ -8162,7 +8323,7 @@
     </row>
     <row r="70" spans="1:49">
       <c r="A70" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B70" s="18"/>
       <c r="C70" s="30"/>
@@ -8215,7 +8376,7 @@
     </row>
     <row r="71" spans="1:49">
       <c r="A71" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B71" s="18"/>
       <c r="C71" s="30"/>
@@ -8268,7 +8429,7 @@
     </row>
     <row r="72" spans="1:49">
       <c r="A72" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B72" s="18"/>
       <c r="C72" s="30"/>
@@ -8321,7 +8482,7 @@
     </row>
     <row r="73" spans="1:49">
       <c r="A73" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B73" s="18"/>
       <c r="C73" s="30"/>
@@ -8374,7 +8535,7 @@
     </row>
     <row r="74" spans="1:49">
       <c r="A74" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
@@ -8427,7 +8588,7 @@
     </row>
     <row r="75" spans="1:49">
       <c r="A75" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
@@ -8480,7 +8641,7 @@
     </row>
     <row r="76" spans="1:49">
       <c r="A76" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
@@ -8533,7 +8694,7 @@
     </row>
     <row r="77" spans="1:49">
       <c r="A77" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
@@ -8586,7 +8747,7 @@
     </row>
     <row r="78" spans="1:49">
       <c r="A78" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
@@ -8690,7 +8851,7 @@
     </row>
     <row r="80" spans="1:49">
       <c r="A80" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
@@ -8743,7 +8904,7 @@
     </row>
     <row r="81" spans="1:49">
       <c r="A81" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
@@ -8796,7 +8957,7 @@
     </row>
     <row r="82" spans="1:49">
       <c r="A82" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
@@ -8849,7 +9010,7 @@
     </row>
     <row r="83" spans="1:49">
       <c r="A83" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B83" s="18"/>
       <c r="C83" s="18"/>
@@ -8902,7 +9063,7 @@
     </row>
     <row r="84" spans="1:49">
       <c r="A84" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
@@ -8955,7 +9116,7 @@
     </row>
     <row r="85" spans="1:49">
       <c r="A85" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
@@ -9008,7 +9169,7 @@
     </row>
     <row r="86" spans="1:49">
       <c r="A86" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
@@ -9112,7 +9273,7 @@
     </row>
     <row r="88" spans="1:49">
       <c r="A88" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
@@ -9165,7 +9326,7 @@
     </row>
     <row r="89" spans="1:49">
       <c r="A89" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
@@ -9218,7 +9379,7 @@
     </row>
     <row r="90" spans="1:49">
       <c r="A90" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
@@ -9271,7 +9432,7 @@
     </row>
     <row r="91" spans="1:49">
       <c r="A91" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
@@ -9324,7 +9485,7 @@
     </row>
     <row r="92" spans="1:49">
       <c r="A92" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
@@ -9377,7 +9538,7 @@
     </row>
     <row r="93" spans="1:49">
       <c r="A93" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B93" s="18"/>
       <c r="C93" s="18"/>
@@ -9481,7 +9642,7 @@
     </row>
     <row r="95" spans="1:49">
       <c r="A95" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
@@ -9534,7 +9695,7 @@
     </row>
     <row r="96" spans="1:49">
       <c r="A96" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
@@ -9587,7 +9748,7 @@
     </row>
     <row r="97" spans="1:49">
       <c r="A97" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
@@ -9640,7 +9801,7 @@
     </row>
     <row r="98" spans="1:49">
       <c r="A98" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B98" s="18"/>
       <c r="C98" s="18"/>
@@ -9693,7 +9854,7 @@
     </row>
     <row r="99" spans="1:49">
       <c r="A99" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B99" s="18"/>
       <c r="C99" s="18"/>
@@ -9746,7 +9907,7 @@
     </row>
     <row r="100" spans="1:49">
       <c r="A100" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B100" s="18"/>
       <c r="C100" s="18"/>
@@ -9850,7 +10011,7 @@
     </row>
     <row r="102" spans="1:49">
       <c r="A102" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B102" s="18"/>
       <c r="C102" s="18"/>
@@ -9903,7 +10064,7 @@
     </row>
     <row r="103" spans="1:49">
       <c r="A103" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B103" s="18"/>
       <c r="C103" s="18"/>
@@ -10007,7 +10168,7 @@
     </row>
     <row r="105" spans="1:49">
       <c r="A105" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B105" s="18"/>
       <c r="C105" s="18"/>
@@ -10060,7 +10221,7 @@
     </row>
     <row r="106" spans="1:49">
       <c r="A106" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B106" s="18"/>
       <c r="C106" s="18"/>
@@ -10113,7 +10274,7 @@
     </row>
     <row r="107" spans="1:49">
       <c r="A107" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B107" s="18"/>
       <c r="C107" s="18"/>
@@ -10166,7 +10327,7 @@
     </row>
     <row r="108" spans="1:49">
       <c r="A108" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B108" s="18"/>
       <c r="C108" s="18"/>
@@ -10219,7 +10380,7 @@
     </row>
     <row r="109" spans="1:49">
       <c r="A109" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B109" s="18"/>
       <c r="C109" s="18"/>
@@ -10272,7 +10433,7 @@
     </row>
     <row r="110" spans="1:49">
       <c r="A110" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B110" s="18"/>
       <c r="C110" s="18"/>
@@ -10325,7 +10486,7 @@
     </row>
     <row r="111" spans="1:49">
       <c r="A111" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B111" s="18"/>
       <c r="C111" s="18"/>
@@ -10429,7 +10590,7 @@
     </row>
     <row r="113" spans="1:49">
       <c r="A113" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B113" s="18"/>
       <c r="C113" s="18"/>
@@ -10482,7 +10643,7 @@
     </row>
     <row r="114" spans="1:49">
       <c r="A114" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B114" s="18"/>
       <c r="C114" s="18"/>
@@ -10535,7 +10696,7 @@
     </row>
     <row r="115" spans="1:49">
       <c r="A115" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B115" s="18"/>
       <c r="C115" s="18"/>
@@ -10588,7 +10749,7 @@
     </row>
     <row r="116" spans="1:49">
       <c r="A116" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B116" s="18"/>
       <c r="C116" s="18"/>
@@ -10641,7 +10802,7 @@
     </row>
     <row r="117" spans="1:49">
       <c r="A117" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B117" s="18"/>
       <c r="C117" s="18"/>
@@ -10694,7 +10855,7 @@
     </row>
     <row r="118" spans="1:49">
       <c r="A118" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B118" s="18"/>
       <c r="C118" s="18"/>
@@ -10747,7 +10908,7 @@
     </row>
     <row r="119" spans="1:49">
       <c r="A119" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
@@ -10800,7 +10961,7 @@
     </row>
     <row r="120" spans="1:49">
       <c r="A120" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B120" s="18"/>
       <c r="C120" s="18"/>
@@ -10853,7 +11014,7 @@
     </row>
     <row r="121" spans="1:49">
       <c r="A121" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B121" s="18"/>
       <c r="C121" s="18"/>
@@ -10957,7 +11118,7 @@
     </row>
     <row r="123" spans="1:49">
       <c r="A123" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B123" s="18"/>
       <c r="C123" s="18"/>
@@ -11010,7 +11171,7 @@
     </row>
     <row r="124" spans="1:49">
       <c r="A124" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B124" s="18"/>
       <c r="C124" s="18"/>
@@ -11063,7 +11224,7 @@
     </row>
     <row r="125" spans="1:49">
       <c r="A125" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B125" s="18"/>
       <c r="C125" s="18"/>
@@ -11116,7 +11277,7 @@
     </row>
     <row r="126" spans="1:49">
       <c r="A126" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B126" s="18"/>
       <c r="C126" s="18"/>
@@ -11169,7 +11330,7 @@
     </row>
     <row r="127" spans="1:49">
       <c r="A127" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
@@ -11222,7 +11383,7 @@
     </row>
     <row r="128" spans="1:49">
       <c r="A128" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B128" s="18"/>
       <c r="C128" s="18"/>
@@ -11291,13 +11452,13 @@
   </sheetPr>
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="121" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="1.5" style="47" customWidth="1"/>
     <col min="3" max="3" width="7.375" style="35" customWidth="1"/>
     <col min="4" max="4" width="41" style="36"/>
@@ -11312,872 +11473,882 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="42" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="116" t="s">
-        <v>229</v>
+      <c r="A1" s="112" t="s">
+        <v>233</v>
       </c>
       <c r="B1" s="43"/>
-      <c r="C1" s="118" t="s">
-        <v>200</v>
+      <c r="C1" s="110" t="s">
+        <v>199</v>
       </c>
       <c r="D1" s="40"/>
-      <c r="E1" s="118" t="s">
-        <v>200</v>
+      <c r="E1" s="110" t="s">
+        <v>199</v>
       </c>
       <c r="F1" s="40"/>
-      <c r="G1" s="118" t="s">
-        <v>200</v>
+      <c r="G1" s="110" t="s">
+        <v>199</v>
       </c>
       <c r="H1" s="40"/>
-      <c r="I1" s="112"/>
+      <c r="I1" s="120"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="112"/>
+      <c r="K1" s="120"/>
       <c r="L1" s="48"/>
     </row>
     <row r="2" spans="1:12" s="42" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A2" s="117"/>
+      <c r="A2" s="113"/>
       <c r="B2" s="44"/>
-      <c r="C2" s="119"/>
+      <c r="C2" s="111"/>
       <c r="D2" s="41"/>
-      <c r="E2" s="119"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="41"/>
-      <c r="G2" s="119"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="41"/>
-      <c r="I2" s="112"/>
+      <c r="I2" s="120"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="112"/>
+      <c r="K2" s="120"/>
       <c r="L2" s="48"/>
     </row>
     <row r="3" spans="1:12" ht="149.25" thickTop="1">
-      <c r="A3" s="106" t="s">
-        <v>198</v>
+      <c r="A3" s="114" t="s">
+        <v>234</v>
       </c>
       <c r="B3" s="45"/>
-      <c r="C3" s="109"/>
+      <c r="C3" s="107"/>
       <c r="D3" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="E3" s="109"/>
+        <v>226</v>
+      </c>
+      <c r="E3" s="107"/>
       <c r="F3" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="G3" s="109"/>
+        <v>210</v>
+      </c>
+      <c r="G3" s="107"/>
       <c r="H3" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="I3" s="112"/>
+        <v>211</v>
+      </c>
+      <c r="I3" s="120"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="112"/>
+      <c r="K3" s="120"/>
       <c r="L3" s="48"/>
     </row>
     <row r="4" spans="1:12" ht="132">
-      <c r="A4" s="107"/>
+      <c r="A4" s="115"/>
       <c r="B4" s="46"/>
-      <c r="C4" s="110"/>
+      <c r="C4" s="108"/>
       <c r="D4" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="E4" s="110"/>
+        <v>225</v>
+      </c>
+      <c r="E4" s="108"/>
       <c r="F4" s="38"/>
-      <c r="G4" s="110"/>
+      <c r="G4" s="108"/>
       <c r="H4" s="38"/>
-      <c r="I4" s="112"/>
+      <c r="I4" s="120"/>
       <c r="J4" s="48"/>
-      <c r="K4" s="112"/>
+      <c r="K4" s="120"/>
       <c r="L4" s="48"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="107"/>
+      <c r="A5" s="115"/>
       <c r="B5" s="46"/>
-      <c r="C5" s="110"/>
+      <c r="C5" s="108"/>
       <c r="D5" s="38"/>
-      <c r="E5" s="110"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="38"/>
-      <c r="G5" s="110"/>
+      <c r="G5" s="108"/>
       <c r="H5" s="38"/>
-      <c r="I5" s="112"/>
+      <c r="I5" s="120"/>
       <c r="J5" s="48"/>
-      <c r="K5" s="112"/>
+      <c r="K5" s="120"/>
       <c r="L5" s="48"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="107"/>
+      <c r="A6" s="115"/>
       <c r="B6" s="46"/>
-      <c r="C6" s="110"/>
+      <c r="C6" s="108"/>
       <c r="D6" s="38"/>
-      <c r="E6" s="110"/>
+      <c r="E6" s="108"/>
       <c r="F6" s="38"/>
-      <c r="G6" s="110"/>
+      <c r="G6" s="108"/>
       <c r="H6" s="38"/>
-      <c r="I6" s="112"/>
+      <c r="I6" s="120"/>
       <c r="J6" s="48"/>
-      <c r="K6" s="112"/>
+      <c r="K6" s="120"/>
       <c r="L6" s="48"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="107"/>
+      <c r="A7" s="115"/>
       <c r="B7" s="46"/>
-      <c r="C7" s="110"/>
+      <c r="C7" s="108"/>
       <c r="D7" s="38"/>
-      <c r="E7" s="110"/>
+      <c r="E7" s="108"/>
       <c r="F7" s="38"/>
-      <c r="G7" s="110"/>
+      <c r="G7" s="108"/>
       <c r="H7" s="38"/>
-      <c r="I7" s="112"/>
+      <c r="I7" s="120"/>
       <c r="J7" s="48"/>
-      <c r="K7" s="112"/>
+      <c r="K7" s="120"/>
       <c r="L7" s="48"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="107"/>
+      <c r="A8" s="115"/>
       <c r="B8" s="46"/>
-      <c r="C8" s="110"/>
+      <c r="C8" s="108"/>
       <c r="D8" s="38"/>
-      <c r="E8" s="110"/>
+      <c r="E8" s="108"/>
       <c r="F8" s="38"/>
-      <c r="G8" s="110"/>
+      <c r="G8" s="108"/>
       <c r="H8" s="38"/>
-      <c r="I8" s="112"/>
+      <c r="I8" s="120"/>
       <c r="J8" s="48"/>
-      <c r="K8" s="112"/>
+      <c r="K8" s="120"/>
       <c r="L8" s="48"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="107"/>
+      <c r="A9" s="115"/>
       <c r="B9" s="46"/>
-      <c r="C9" s="110"/>
+      <c r="C9" s="108"/>
       <c r="D9" s="38"/>
-      <c r="E9" s="110"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="38"/>
-      <c r="G9" s="110"/>
+      <c r="G9" s="108"/>
       <c r="H9" s="38"/>
-      <c r="I9" s="112"/>
+      <c r="I9" s="120"/>
       <c r="J9" s="48"/>
-      <c r="K9" s="112"/>
+      <c r="K9" s="120"/>
       <c r="L9" s="48"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A10" s="108"/>
+      <c r="A10" s="116"/>
       <c r="B10" s="46"/>
-      <c r="C10" s="110"/>
+      <c r="C10" s="108"/>
       <c r="D10" s="39"/>
-      <c r="E10" s="110"/>
+      <c r="E10" s="108"/>
       <c r="F10" s="39"/>
-      <c r="G10" s="110"/>
+      <c r="G10" s="108"/>
       <c r="H10" s="39"/>
-      <c r="I10" s="112"/>
+      <c r="I10" s="120"/>
       <c r="J10" s="48"/>
-      <c r="K10" s="112"/>
+      <c r="K10" s="120"/>
       <c r="L10" s="48"/>
     </row>
     <row r="11" spans="1:12" ht="17.25" thickTop="1">
-      <c r="A11" s="113" t="s">
-        <v>199</v>
+      <c r="A11" s="117" t="s">
+        <v>235</v>
       </c>
       <c r="B11" s="46"/>
-      <c r="C11" s="110"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="37"/>
-      <c r="E11" s="110"/>
+      <c r="E11" s="108"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="110"/>
+      <c r="G11" s="108"/>
       <c r="H11" s="37"/>
-      <c r="I11" s="112"/>
+      <c r="I11" s="120"/>
       <c r="J11" s="48"/>
-      <c r="K11" s="112"/>
+      <c r="K11" s="120"/>
       <c r="L11" s="48"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="114"/>
+      <c r="A12" s="118"/>
       <c r="B12" s="46"/>
-      <c r="C12" s="110"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="38"/>
-      <c r="E12" s="110"/>
+      <c r="E12" s="108"/>
       <c r="F12" s="38"/>
-      <c r="G12" s="110"/>
+      <c r="G12" s="108"/>
       <c r="H12" s="38"/>
-      <c r="I12" s="112"/>
+      <c r="I12" s="120"/>
       <c r="J12" s="48"/>
-      <c r="K12" s="112"/>
+      <c r="K12" s="120"/>
       <c r="L12" s="48"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="114"/>
+      <c r="A13" s="118"/>
       <c r="B13" s="46"/>
-      <c r="C13" s="110"/>
+      <c r="C13" s="108"/>
       <c r="D13" s="38"/>
-      <c r="E13" s="110"/>
+      <c r="E13" s="108"/>
       <c r="F13" s="38"/>
-      <c r="G13" s="110"/>
+      <c r="G13" s="108"/>
       <c r="H13" s="38"/>
-      <c r="I13" s="112"/>
+      <c r="I13" s="120"/>
       <c r="J13" s="48"/>
-      <c r="K13" s="112"/>
+      <c r="K13" s="120"/>
       <c r="L13" s="48"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="114"/>
+      <c r="A14" s="118"/>
       <c r="B14" s="46"/>
-      <c r="C14" s="110"/>
+      <c r="C14" s="108"/>
       <c r="D14" s="38"/>
-      <c r="E14" s="110"/>
+      <c r="E14" s="108"/>
       <c r="F14" s="38"/>
-      <c r="G14" s="110"/>
+      <c r="G14" s="108"/>
       <c r="H14" s="38"/>
-      <c r="I14" s="112"/>
+      <c r="I14" s="120"/>
       <c r="J14" s="48"/>
-      <c r="K14" s="112"/>
+      <c r="K14" s="120"/>
       <c r="L14" s="48"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="114"/>
+      <c r="A15" s="118"/>
       <c r="B15" s="46"/>
-      <c r="C15" s="110"/>
+      <c r="C15" s="108"/>
       <c r="D15" s="38"/>
-      <c r="E15" s="110"/>
+      <c r="E15" s="108"/>
       <c r="F15" s="38"/>
-      <c r="G15" s="110"/>
+      <c r="G15" s="108"/>
       <c r="H15" s="38"/>
-      <c r="I15" s="112"/>
+      <c r="I15" s="120"/>
       <c r="J15" s="48"/>
-      <c r="K15" s="112"/>
+      <c r="K15" s="120"/>
       <c r="L15" s="48"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="114"/>
+      <c r="A16" s="118"/>
       <c r="B16" s="46"/>
-      <c r="C16" s="110"/>
+      <c r="C16" s="108"/>
       <c r="D16" s="38"/>
-      <c r="E16" s="110"/>
+      <c r="E16" s="108"/>
       <c r="F16" s="38"/>
-      <c r="G16" s="110"/>
+      <c r="G16" s="108"/>
       <c r="H16" s="38"/>
-      <c r="I16" s="112"/>
+      <c r="I16" s="120"/>
       <c r="J16" s="48"/>
-      <c r="K16" s="112"/>
+      <c r="K16" s="120"/>
       <c r="L16" s="48"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="114"/>
+      <c r="A17" s="118"/>
       <c r="B17" s="46"/>
-      <c r="C17" s="110"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="38"/>
-      <c r="E17" s="110"/>
+      <c r="E17" s="108"/>
       <c r="F17" s="38"/>
-      <c r="G17" s="110"/>
+      <c r="G17" s="108"/>
       <c r="H17" s="38"/>
-      <c r="I17" s="112"/>
+      <c r="I17" s="120"/>
       <c r="J17" s="48"/>
-      <c r="K17" s="112"/>
+      <c r="K17" s="120"/>
       <c r="L17" s="48"/>
     </row>
     <row r="18" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A18" s="115"/>
+      <c r="A18" s="119"/>
       <c r="B18" s="46"/>
-      <c r="C18" s="111"/>
+      <c r="C18" s="109"/>
       <c r="D18" s="39"/>
-      <c r="E18" s="111"/>
+      <c r="E18" s="109"/>
       <c r="F18" s="39"/>
-      <c r="G18" s="111"/>
+      <c r="G18" s="109"/>
       <c r="H18" s="39"/>
-      <c r="I18" s="112"/>
+      <c r="I18" s="120"/>
       <c r="J18" s="48"/>
-      <c r="K18" s="112"/>
+      <c r="K18" s="120"/>
       <c r="L18" s="48"/>
     </row>
     <row r="19" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="20" spans="1:12" s="42" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A20" s="116" t="s">
-        <v>202</v>
+      <c r="A20" s="122" t="s">
+        <v>236</v>
       </c>
       <c r="B20" s="43"/>
-      <c r="C20" s="118" t="s">
-        <v>200</v>
-      </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="118" t="s">
-        <v>200</v>
+      <c r="C20" s="110" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="40">
+        <v>42700</v>
+      </c>
+      <c r="E20" s="110" t="s">
+        <v>199</v>
       </c>
       <c r="F20" s="40">
         <v>42699</v>
       </c>
-      <c r="G20" s="118" t="s">
-        <v>200</v>
+      <c r="G20" s="110" t="s">
+        <v>199</v>
       </c>
       <c r="H20" s="40">
         <v>42698</v>
       </c>
-      <c r="I20" s="118" t="s">
-        <v>200</v>
+      <c r="I20" s="110" t="s">
+        <v>199</v>
       </c>
       <c r="J20" s="40">
         <v>42697</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="42" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A21" s="117"/>
+      <c r="A21" s="113"/>
       <c r="B21" s="44"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="119"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="E21" s="111"/>
       <c r="F21" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="G21" s="119"/>
+        <v>200</v>
+      </c>
+      <c r="G21" s="111"/>
       <c r="H21" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="I21" s="119"/>
+        <v>196</v>
+      </c>
+      <c r="I21" s="111"/>
       <c r="J21" s="41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="83.25" thickTop="1">
+      <c r="A22" s="114" t="s">
+        <v>234</v>
+      </c>
+      <c r="B22" s="45"/>
+      <c r="C22" s="107" t="s">
+        <v>230</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="E22" s="107" t="s">
+        <v>212</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" s="107" t="s">
+        <v>205</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="I22" s="107" t="s">
+        <v>204</v>
+      </c>
+      <c r="J22" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="K22" s="36"/>
+    </row>
+    <row r="23" spans="1:12" ht="165">
+      <c r="A23" s="115"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="E23" s="108"/>
+      <c r="F23" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="G23" s="108"/>
+      <c r="H23" s="38" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="83.25" thickTop="1">
-      <c r="A22" s="106" t="s">
-        <v>198</v>
-      </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="109" t="s">
-        <v>215</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="G22" s="109" t="s">
+      <c r="I23" s="108"/>
+      <c r="J23" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="H22" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="I22" s="109" t="s">
-        <v>207</v>
-      </c>
-      <c r="J22" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="K22" s="36"/>
-    </row>
-    <row r="23" spans="1:12" ht="99">
-      <c r="A23" s="107"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="G23" s="110"/>
-      <c r="H23" s="38" t="s">
+      <c r="K23" s="36"/>
+    </row>
+    <row r="24" spans="1:12" ht="99">
+      <c r="A24" s="115"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="E24" s="108"/>
+      <c r="F24" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" s="108"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="I23" s="110"/>
-      <c r="J23" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="K23" s="36"/>
-    </row>
-    <row r="24" spans="1:12" ht="99">
-      <c r="A24" s="107"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="G24" s="110"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="38" t="s">
-        <v>212</v>
-      </c>
       <c r="K24" s="36"/>
     </row>
-    <row r="25" spans="1:12" ht="99">
-      <c r="A25" s="107"/>
+    <row r="25" spans="1:12" ht="115.5">
+      <c r="A25" s="115"/>
       <c r="B25" s="46"/>
-      <c r="C25" s="110"/>
+      <c r="C25" s="108"/>
       <c r="D25" s="38"/>
-      <c r="E25" s="110"/>
+      <c r="E25" s="108"/>
       <c r="F25" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="G25" s="110"/>
+        <v>231</v>
+      </c>
+      <c r="G25" s="108"/>
       <c r="H25" s="38"/>
-      <c r="I25" s="110"/>
+      <c r="I25" s="108"/>
       <c r="J25" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="K25" s="36"/>
+    </row>
+    <row r="26" spans="1:12" ht="49.5">
+      <c r="A26" s="115"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="G26" s="108"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="K26" s="36"/>
+    </row>
+    <row r="27" spans="1:12" ht="33">
+      <c r="A27" s="115"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="K25" s="36"/>
-    </row>
-    <row r="26" spans="1:12" ht="49.5">
-      <c r="A26" s="107"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="G26" s="110"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="K26" s="36"/>
-    </row>
-    <row r="27" spans="1:12" ht="33">
-      <c r="A27" s="107"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="G27" s="110"/>
+      <c r="G27" s="108"/>
       <c r="H27" s="38"/>
-      <c r="I27" s="110"/>
+      <c r="I27" s="108"/>
       <c r="J27" s="38"/>
       <c r="K27" s="36"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="107"/>
+      <c r="A28" s="115"/>
       <c r="B28" s="46"/>
-      <c r="C28" s="110"/>
+      <c r="C28" s="108"/>
       <c r="D28" s="38"/>
-      <c r="E28" s="110"/>
+      <c r="E28" s="108"/>
       <c r="F28" s="38"/>
-      <c r="G28" s="110"/>
+      <c r="G28" s="108"/>
       <c r="H28" s="38"/>
-      <c r="I28" s="110"/>
+      <c r="I28" s="108"/>
       <c r="J28" s="38"/>
       <c r="K28" s="36"/>
     </row>
     <row r="29" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A29" s="108"/>
+      <c r="A29" s="116"/>
       <c r="B29" s="46"/>
-      <c r="C29" s="110"/>
+      <c r="C29" s="108"/>
       <c r="D29" s="39"/>
-      <c r="E29" s="110"/>
+      <c r="E29" s="108"/>
       <c r="F29" s="39"/>
-      <c r="G29" s="110"/>
+      <c r="G29" s="108"/>
       <c r="H29" s="39"/>
-      <c r="I29" s="110"/>
+      <c r="I29" s="108"/>
       <c r="J29" s="39"/>
       <c r="K29" s="36"/>
     </row>
-    <row r="30" spans="1:12" ht="33.75" thickTop="1">
-      <c r="A30" s="113" t="s">
-        <v>199</v>
+    <row r="30" spans="1:12" ht="83.25" thickTop="1">
+      <c r="A30" s="117" t="s">
+        <v>235</v>
       </c>
       <c r="B30" s="46"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="110"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="E30" s="108"/>
       <c r="F30" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="G30" s="110"/>
+        <v>213</v>
+      </c>
+      <c r="G30" s="108"/>
       <c r="H30" s="37"/>
-      <c r="I30" s="110"/>
+      <c r="I30" s="108"/>
       <c r="J30" s="37"/>
       <c r="K30" s="36"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="114"/>
+      <c r="A31" s="118"/>
       <c r="B31" s="46"/>
-      <c r="C31" s="110"/>
+      <c r="C31" s="108"/>
       <c r="D31" s="38"/>
-      <c r="E31" s="110"/>
+      <c r="E31" s="108"/>
       <c r="F31" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="G31" s="110"/>
+        <v>214</v>
+      </c>
+      <c r="G31" s="108"/>
       <c r="H31" s="38"/>
-      <c r="I31" s="110"/>
+      <c r="I31" s="108"/>
       <c r="J31" s="38"/>
       <c r="K31" s="36"/>
     </row>
     <row r="32" spans="1:12" ht="33">
-      <c r="A32" s="114"/>
+      <c r="A32" s="118"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="110"/>
+      <c r="C32" s="108"/>
       <c r="D32" s="38"/>
-      <c r="E32" s="110"/>
+      <c r="E32" s="108"/>
       <c r="F32" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="G32" s="110"/>
+        <v>218</v>
+      </c>
+      <c r="G32" s="108"/>
       <c r="H32" s="38"/>
-      <c r="I32" s="110"/>
+      <c r="I32" s="108"/>
       <c r="J32" s="38"/>
       <c r="K32" s="36"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="114"/>
+      <c r="A33" s="118"/>
       <c r="B33" s="46"/>
-      <c r="C33" s="110"/>
+      <c r="C33" s="108"/>
       <c r="D33" s="38"/>
-      <c r="E33" s="110"/>
+      <c r="E33" s="108"/>
       <c r="F33" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="G33" s="110"/>
+        <v>219</v>
+      </c>
+      <c r="G33" s="108"/>
       <c r="H33" s="38"/>
-      <c r="I33" s="110"/>
+      <c r="I33" s="108"/>
       <c r="J33" s="38"/>
       <c r="K33" s="36"/>
     </row>
     <row r="34" spans="1:12" ht="49.5">
-      <c r="A34" s="114"/>
+      <c r="A34" s="118"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="110"/>
+      <c r="C34" s="108"/>
       <c r="D34" s="38"/>
-      <c r="E34" s="110"/>
+      <c r="E34" s="108"/>
       <c r="F34" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="G34" s="110"/>
+        <v>220</v>
+      </c>
+      <c r="G34" s="108"/>
       <c r="H34" s="38"/>
-      <c r="I34" s="110"/>
+      <c r="I34" s="108"/>
       <c r="J34" s="38"/>
       <c r="K34" s="36"/>
     </row>
-    <row r="35" spans="1:12" ht="181.5">
-      <c r="A35" s="114"/>
+    <row r="35" spans="1:12">
+      <c r="A35" s="118"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="110"/>
+      <c r="C35" s="108"/>
       <c r="D35" s="38"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="120" t="s">
-        <v>233</v>
-      </c>
-      <c r="G35" s="110"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="108"/>
       <c r="H35" s="38"/>
-      <c r="I35" s="110"/>
+      <c r="I35" s="108"/>
       <c r="J35" s="38"/>
       <c r="K35" s="36"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="114"/>
+      <c r="A36" s="118"/>
       <c r="B36" s="46"/>
-      <c r="C36" s="110"/>
+      <c r="C36" s="108"/>
       <c r="D36" s="38"/>
-      <c r="E36" s="110"/>
+      <c r="E36" s="108"/>
       <c r="F36" s="38"/>
-      <c r="G36" s="110"/>
+      <c r="G36" s="108"/>
       <c r="H36" s="38"/>
-      <c r="I36" s="110"/>
+      <c r="I36" s="108"/>
       <c r="J36" s="38"/>
       <c r="K36" s="36"/>
     </row>
     <row r="37" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A37" s="115"/>
+      <c r="A37" s="119"/>
       <c r="B37" s="46"/>
-      <c r="C37" s="111"/>
+      <c r="C37" s="109"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="111"/>
+      <c r="E37" s="109"/>
       <c r="F37" s="39"/>
-      <c r="G37" s="111"/>
+      <c r="G37" s="109"/>
       <c r="H37" s="39"/>
-      <c r="I37" s="111"/>
+      <c r="I37" s="109"/>
       <c r="J37" s="39"/>
       <c r="K37" s="36"/>
     </row>
     <row r="38" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="39" spans="1:12">
-      <c r="A39" s="116" t="s">
-        <v>203</v>
+      <c r="A39" s="122" t="s">
+        <v>237</v>
       </c>
       <c r="B39" s="43"/>
-      <c r="C39" s="118" t="s">
-        <v>200</v>
+      <c r="C39" s="110" t="s">
+        <v>199</v>
       </c>
       <c r="D39" s="40"/>
-      <c r="E39" s="118" t="s">
-        <v>200</v>
+      <c r="E39" s="110" t="s">
+        <v>199</v>
       </c>
       <c r="F39" s="40"/>
-      <c r="G39" s="118" t="s">
-        <v>200</v>
+      <c r="G39" s="110" t="s">
+        <v>199</v>
       </c>
       <c r="H39" s="40"/>
-      <c r="I39" s="118" t="s">
-        <v>200</v>
+      <c r="I39" s="110" t="s">
+        <v>199</v>
       </c>
       <c r="J39" s="40">
         <v>42706</v>
       </c>
-      <c r="K39" s="118" t="s">
-        <v>200</v>
+      <c r="K39" s="110" t="s">
+        <v>199</v>
       </c>
       <c r="L39" s="40">
         <v>42705</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A40" s="117"/>
+      <c r="A40" s="113"/>
       <c r="B40" s="44"/>
-      <c r="C40" s="119"/>
+      <c r="C40" s="111"/>
       <c r="D40" s="41"/>
-      <c r="E40" s="119"/>
+      <c r="E40" s="111"/>
       <c r="F40" s="41"/>
-      <c r="G40" s="119"/>
+      <c r="G40" s="111"/>
       <c r="H40" s="41"/>
-      <c r="I40" s="119"/>
+      <c r="I40" s="111"/>
       <c r="J40" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="K40" s="119"/>
+        <v>200</v>
+      </c>
+      <c r="K40" s="111"/>
       <c r="L40" s="41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="17.25" thickTop="1">
-      <c r="A41" s="106" t="s">
-        <v>198</v>
+      <c r="A41" s="114" t="s">
+        <v>234</v>
       </c>
       <c r="B41" s="45"/>
-      <c r="C41" s="109"/>
+      <c r="C41" s="107"/>
       <c r="D41" s="37"/>
-      <c r="E41" s="109"/>
+      <c r="E41" s="107"/>
       <c r="F41" s="37"/>
-      <c r="G41" s="109"/>
+      <c r="G41" s="107"/>
       <c r="H41" s="37"/>
-      <c r="I41" s="109"/>
+      <c r="I41" s="107"/>
       <c r="J41" s="37"/>
-      <c r="K41" s="109"/>
+      <c r="K41" s="107"/>
       <c r="L41" s="37"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="107"/>
+      <c r="A42" s="115"/>
       <c r="B42" s="46"/>
-      <c r="C42" s="110"/>
+      <c r="C42" s="108"/>
       <c r="D42" s="38"/>
-      <c r="E42" s="110"/>
+      <c r="E42" s="108"/>
       <c r="F42" s="38"/>
-      <c r="G42" s="110"/>
+      <c r="G42" s="108"/>
       <c r="H42" s="38"/>
-      <c r="I42" s="110"/>
+      <c r="I42" s="108"/>
       <c r="J42" s="38"/>
-      <c r="K42" s="110"/>
+      <c r="K42" s="108"/>
       <c r="L42" s="38"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="107"/>
+      <c r="A43" s="115"/>
       <c r="B43" s="46"/>
-      <c r="C43" s="110"/>
+      <c r="C43" s="108"/>
       <c r="D43" s="38"/>
-      <c r="E43" s="110"/>
+      <c r="E43" s="108"/>
       <c r="F43" s="38"/>
-      <c r="G43" s="110"/>
+      <c r="G43" s="108"/>
       <c r="H43" s="38"/>
-      <c r="I43" s="110"/>
+      <c r="I43" s="108"/>
       <c r="J43" s="38"/>
-      <c r="K43" s="110"/>
+      <c r="K43" s="108"/>
       <c r="L43" s="38"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="107"/>
+      <c r="A44" s="115"/>
       <c r="B44" s="46"/>
-      <c r="C44" s="110"/>
+      <c r="C44" s="108"/>
       <c r="D44" s="38"/>
-      <c r="E44" s="110"/>
+      <c r="E44" s="108"/>
       <c r="F44" s="38"/>
-      <c r="G44" s="110"/>
+      <c r="G44" s="108"/>
       <c r="H44" s="38"/>
-      <c r="I44" s="110"/>
+      <c r="I44" s="108"/>
       <c r="J44" s="38"/>
-      <c r="K44" s="110"/>
+      <c r="K44" s="108"/>
       <c r="L44" s="38"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="107"/>
+      <c r="A45" s="115"/>
       <c r="B45" s="46"/>
-      <c r="C45" s="110"/>
+      <c r="C45" s="108"/>
       <c r="D45" s="38"/>
-      <c r="E45" s="110"/>
+      <c r="E45" s="108"/>
       <c r="F45" s="38"/>
-      <c r="G45" s="110"/>
+      <c r="G45" s="108"/>
       <c r="H45" s="38"/>
-      <c r="I45" s="110"/>
+      <c r="I45" s="108"/>
       <c r="J45" s="38"/>
-      <c r="K45" s="110"/>
+      <c r="K45" s="108"/>
       <c r="L45" s="38"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="107"/>
+      <c r="A46" s="115"/>
       <c r="B46" s="46"/>
-      <c r="C46" s="110"/>
+      <c r="C46" s="108"/>
       <c r="D46" s="38"/>
-      <c r="E46" s="110"/>
+      <c r="E46" s="108"/>
       <c r="F46" s="38"/>
-      <c r="G46" s="110"/>
+      <c r="G46" s="108"/>
       <c r="H46" s="38"/>
-      <c r="I46" s="110"/>
+      <c r="I46" s="108"/>
       <c r="J46" s="38"/>
-      <c r="K46" s="110"/>
+      <c r="K46" s="108"/>
       <c r="L46" s="38"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="107"/>
+      <c r="A47" s="115"/>
       <c r="B47" s="46"/>
-      <c r="C47" s="110"/>
+      <c r="C47" s="108"/>
       <c r="D47" s="38"/>
-      <c r="E47" s="110"/>
+      <c r="E47" s="108"/>
       <c r="F47" s="38"/>
-      <c r="G47" s="110"/>
+      <c r="G47" s="108"/>
       <c r="H47" s="38"/>
-      <c r="I47" s="110"/>
+      <c r="I47" s="108"/>
       <c r="J47" s="38"/>
-      <c r="K47" s="110"/>
+      <c r="K47" s="108"/>
       <c r="L47" s="38"/>
     </row>
     <row r="48" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A48" s="108"/>
+      <c r="A48" s="116"/>
       <c r="B48" s="46"/>
-      <c r="C48" s="110"/>
+      <c r="C48" s="108"/>
       <c r="D48" s="39"/>
-      <c r="E48" s="110"/>
+      <c r="E48" s="108"/>
       <c r="F48" s="39"/>
-      <c r="G48" s="110"/>
+      <c r="G48" s="108"/>
       <c r="H48" s="39"/>
-      <c r="I48" s="110"/>
+      <c r="I48" s="108"/>
       <c r="J48" s="39"/>
-      <c r="K48" s="110"/>
+      <c r="K48" s="108"/>
       <c r="L48" s="39"/>
     </row>
     <row r="49" spans="1:12" ht="17.25" thickTop="1">
-      <c r="A49" s="113" t="s">
-        <v>199</v>
+      <c r="A49" s="117" t="s">
+        <v>235</v>
       </c>
       <c r="B49" s="46"/>
-      <c r="C49" s="110"/>
+      <c r="C49" s="108"/>
       <c r="D49" s="37"/>
-      <c r="E49" s="110"/>
+      <c r="E49" s="108"/>
       <c r="F49" s="37"/>
-      <c r="G49" s="110"/>
+      <c r="G49" s="108"/>
       <c r="H49" s="37"/>
-      <c r="I49" s="110"/>
+      <c r="I49" s="108"/>
       <c r="J49" s="37"/>
-      <c r="K49" s="110"/>
+      <c r="K49" s="108"/>
       <c r="L49" s="37"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="114"/>
+      <c r="A50" s="118"/>
       <c r="B50" s="46"/>
-      <c r="C50" s="110"/>
+      <c r="C50" s="108"/>
       <c r="D50" s="38"/>
-      <c r="E50" s="110"/>
+      <c r="E50" s="108"/>
       <c r="F50" s="38"/>
-      <c r="G50" s="110"/>
+      <c r="G50" s="108"/>
       <c r="H50" s="38"/>
-      <c r="I50" s="110"/>
+      <c r="I50" s="108"/>
       <c r="J50" s="38"/>
-      <c r="K50" s="110"/>
+      <c r="K50" s="108"/>
       <c r="L50" s="38"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="114"/>
+      <c r="A51" s="118"/>
       <c r="B51" s="46"/>
-      <c r="C51" s="110"/>
+      <c r="C51" s="108"/>
       <c r="D51" s="38"/>
-      <c r="E51" s="110"/>
+      <c r="E51" s="108"/>
       <c r="F51" s="38"/>
-      <c r="G51" s="110"/>
+      <c r="G51" s="108"/>
       <c r="H51" s="38"/>
-      <c r="I51" s="110"/>
+      <c r="I51" s="108"/>
       <c r="J51" s="38"/>
-      <c r="K51" s="110"/>
+      <c r="K51" s="108"/>
       <c r="L51" s="38"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="114"/>
+      <c r="A52" s="118"/>
       <c r="B52" s="46"/>
-      <c r="C52" s="110"/>
+      <c r="C52" s="108"/>
       <c r="D52" s="38"/>
-      <c r="E52" s="110"/>
+      <c r="E52" s="108"/>
       <c r="F52" s="38"/>
-      <c r="G52" s="110"/>
+      <c r="G52" s="108"/>
       <c r="H52" s="38"/>
-      <c r="I52" s="110"/>
+      <c r="I52" s="108"/>
       <c r="J52" s="38"/>
-      <c r="K52" s="110"/>
+      <c r="K52" s="108"/>
       <c r="L52" s="38"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="114"/>
+      <c r="A53" s="118"/>
       <c r="B53" s="46"/>
-      <c r="C53" s="110"/>
+      <c r="C53" s="108"/>
       <c r="D53" s="38"/>
-      <c r="E53" s="110"/>
+      <c r="E53" s="108"/>
       <c r="F53" s="38"/>
-      <c r="G53" s="110"/>
+      <c r="G53" s="108"/>
       <c r="H53" s="38"/>
-      <c r="I53" s="110"/>
+      <c r="I53" s="108"/>
       <c r="J53" s="38"/>
-      <c r="K53" s="110"/>
+      <c r="K53" s="108"/>
       <c r="L53" s="38"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="114"/>
+      <c r="A54" s="118"/>
       <c r="B54" s="46"/>
-      <c r="C54" s="110"/>
+      <c r="C54" s="108"/>
       <c r="D54" s="38"/>
-      <c r="E54" s="110"/>
+      <c r="E54" s="108"/>
       <c r="F54" s="38"/>
-      <c r="G54" s="110"/>
+      <c r="G54" s="108"/>
       <c r="H54" s="38"/>
-      <c r="I54" s="110"/>
+      <c r="I54" s="108"/>
       <c r="J54" s="38"/>
-      <c r="K54" s="110"/>
+      <c r="K54" s="108"/>
       <c r="L54" s="38"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="114"/>
+      <c r="A55" s="118"/>
       <c r="B55" s="46"/>
-      <c r="C55" s="110"/>
+      <c r="C55" s="108"/>
       <c r="D55" s="38"/>
-      <c r="E55" s="110"/>
+      <c r="E55" s="108"/>
       <c r="F55" s="38"/>
-      <c r="G55" s="110"/>
+      <c r="G55" s="108"/>
       <c r="H55" s="38"/>
-      <c r="I55" s="110"/>
+      <c r="I55" s="108"/>
       <c r="J55" s="38"/>
-      <c r="K55" s="110"/>
+      <c r="K55" s="108"/>
       <c r="L55" s="38"/>
     </row>
     <row r="56" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A56" s="115"/>
+      <c r="A56" s="119"/>
       <c r="B56" s="46"/>
-      <c r="C56" s="111"/>
+      <c r="C56" s="109"/>
       <c r="D56" s="39"/>
-      <c r="E56" s="111"/>
+      <c r="E56" s="109"/>
       <c r="F56" s="39"/>
-      <c r="G56" s="111"/>
+      <c r="G56" s="109"/>
       <c r="H56" s="39"/>
-      <c r="I56" s="111"/>
+      <c r="I56" s="109"/>
       <c r="J56" s="39"/>
-      <c r="K56" s="111"/>
+      <c r="K56" s="109"/>
       <c r="L56" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C22:C37"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G37"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E37"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="K3:K18"/>
-    <mergeCell ref="I22:I37"/>
-    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="C3:C18"/>
+    <mergeCell ref="E3:E18"/>
+    <mergeCell ref="G3:G18"/>
+    <mergeCell ref="I3:I18"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="A49:A56"/>
     <mergeCell ref="K39:K40"/>
     <mergeCell ref="A41:A48"/>
@@ -12191,17 +12362,19 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="I39:I40"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="C3:C18"/>
-    <mergeCell ref="E3:E18"/>
-    <mergeCell ref="G3:G18"/>
-    <mergeCell ref="I3:I18"/>
-    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G37"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E37"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="K3:K18"/>
+    <mergeCell ref="I22:I37"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="C22:C37"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A30:A37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12234,528 +12407,541 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" s="42" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="116" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="118" t="s">
-        <v>200</v>
+      <c r="A2" s="112" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="110" t="s">
+        <v>199</v>
       </c>
       <c r="C2" s="40">
         <v>42740</v>
       </c>
-      <c r="D2" s="118" t="s">
-        <v>200</v>
+      <c r="D2" s="110" t="s">
+        <v>199</v>
       </c>
       <c r="E2" s="40">
         <v>42739</v>
       </c>
-      <c r="F2" s="118" t="s">
-        <v>200</v>
+      <c r="F2" s="110" t="s">
+        <v>199</v>
       </c>
       <c r="G2" s="40">
         <v>42738</v>
       </c>
-      <c r="H2" s="118" t="s">
-        <v>200</v>
+      <c r="H2" s="110" t="s">
+        <v>199</v>
       </c>
       <c r="I2" s="40">
         <v>42737</v>
       </c>
-      <c r="J2" s="118" t="s">
-        <v>200</v>
+      <c r="J2" s="110" t="s">
+        <v>199</v>
       </c>
       <c r="K2" s="40">
         <v>42736</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="42" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A3" s="117"/>
-      <c r="B3" s="119"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="111"/>
       <c r="C3" s="41"/>
-      <c r="D3" s="119"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="41"/>
-      <c r="F3" s="119"/>
+      <c r="F3" s="111"/>
       <c r="G3" s="41"/>
-      <c r="H3" s="119"/>
+      <c r="H3" s="111"/>
       <c r="I3" s="41"/>
-      <c r="J3" s="119"/>
+      <c r="J3" s="111"/>
       <c r="K3" s="41"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" thickTop="1">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="114" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="107"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="37"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="115"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="38"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="115"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="38"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="115"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="38"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="115"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="38"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="115"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="38"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="115"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="38"/>
+    </row>
+    <row r="11" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A11" s="116"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="39"/>
+    </row>
+    <row r="12" spans="1:11" ht="17.25" thickTop="1">
+      <c r="A12" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="37"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="107"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="38"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="107"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="38"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="107"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="38"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="107"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="38"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="107"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="38"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="107"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="38"/>
-    </row>
-    <row r="11" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A11" s="108"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="39"/>
-    </row>
-    <row r="12" spans="1:11" ht="17.25" thickTop="1">
-      <c r="A12" s="113" t="s">
-        <v>199</v>
-      </c>
-      <c r="B12" s="110"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="37"/>
-      <c r="D12" s="110"/>
+      <c r="D12" s="108"/>
       <c r="E12" s="37"/>
-      <c r="F12" s="110"/>
+      <c r="F12" s="108"/>
       <c r="G12" s="37"/>
-      <c r="H12" s="110"/>
+      <c r="H12" s="108"/>
       <c r="I12" s="37"/>
-      <c r="J12" s="110"/>
+      <c r="J12" s="108"/>
       <c r="K12" s="37"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="114"/>
-      <c r="B13" s="110"/>
+      <c r="A13" s="118"/>
+      <c r="B13" s="108"/>
       <c r="C13" s="38"/>
-      <c r="D13" s="110"/>
+      <c r="D13" s="108"/>
       <c r="E13" s="38"/>
-      <c r="F13" s="110"/>
+      <c r="F13" s="108"/>
       <c r="G13" s="38"/>
-      <c r="H13" s="110"/>
+      <c r="H13" s="108"/>
       <c r="I13" s="38"/>
-      <c r="J13" s="110"/>
+      <c r="J13" s="108"/>
       <c r="K13" s="38"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="114"/>
-      <c r="B14" s="110"/>
+      <c r="A14" s="118"/>
+      <c r="B14" s="108"/>
       <c r="C14" s="38"/>
-      <c r="D14" s="110"/>
+      <c r="D14" s="108"/>
       <c r="E14" s="38"/>
-      <c r="F14" s="110"/>
+      <c r="F14" s="108"/>
       <c r="G14" s="38"/>
-      <c r="H14" s="110"/>
+      <c r="H14" s="108"/>
       <c r="I14" s="38"/>
-      <c r="J14" s="110"/>
+      <c r="J14" s="108"/>
       <c r="K14" s="38"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="114"/>
-      <c r="B15" s="110"/>
+      <c r="A15" s="118"/>
+      <c r="B15" s="108"/>
       <c r="C15" s="38"/>
-      <c r="D15" s="110"/>
+      <c r="D15" s="108"/>
       <c r="E15" s="38"/>
-      <c r="F15" s="110"/>
+      <c r="F15" s="108"/>
       <c r="G15" s="38"/>
-      <c r="H15" s="110"/>
+      <c r="H15" s="108"/>
       <c r="I15" s="38"/>
-      <c r="J15" s="110"/>
+      <c r="J15" s="108"/>
       <c r="K15" s="38"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="114"/>
-      <c r="B16" s="110"/>
+      <c r="A16" s="118"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="38"/>
-      <c r="D16" s="110"/>
+      <c r="D16" s="108"/>
       <c r="E16" s="38"/>
-      <c r="F16" s="110"/>
+      <c r="F16" s="108"/>
       <c r="G16" s="38"/>
-      <c r="H16" s="110"/>
+      <c r="H16" s="108"/>
       <c r="I16" s="38"/>
-      <c r="J16" s="110"/>
+      <c r="J16" s="108"/>
       <c r="K16" s="38"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="114"/>
-      <c r="B17" s="110"/>
+      <c r="A17" s="118"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="38"/>
-      <c r="D17" s="110"/>
+      <c r="D17" s="108"/>
       <c r="E17" s="38"/>
-      <c r="F17" s="110"/>
+      <c r="F17" s="108"/>
       <c r="G17" s="38"/>
-      <c r="H17" s="110"/>
+      <c r="H17" s="108"/>
       <c r="I17" s="38"/>
-      <c r="J17" s="110"/>
+      <c r="J17" s="108"/>
       <c r="K17" s="38"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="114"/>
-      <c r="B18" s="110"/>
+      <c r="A18" s="118"/>
+      <c r="B18" s="108"/>
       <c r="C18" s="38"/>
-      <c r="D18" s="110"/>
+      <c r="D18" s="108"/>
       <c r="E18" s="38"/>
-      <c r="F18" s="110"/>
+      <c r="F18" s="108"/>
       <c r="G18" s="38"/>
-      <c r="H18" s="110"/>
+      <c r="H18" s="108"/>
       <c r="I18" s="38"/>
-      <c r="J18" s="110"/>
+      <c r="J18" s="108"/>
       <c r="K18" s="38"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A19" s="115"/>
-      <c r="B19" s="111"/>
+      <c r="A19" s="119"/>
+      <c r="B19" s="109"/>
       <c r="C19" s="39"/>
-      <c r="D19" s="111"/>
+      <c r="D19" s="109"/>
       <c r="E19" s="39"/>
-      <c r="F19" s="111"/>
+      <c r="F19" s="109"/>
       <c r="G19" s="39"/>
-      <c r="H19" s="111"/>
+      <c r="H19" s="109"/>
       <c r="I19" s="39"/>
-      <c r="J19" s="111"/>
+      <c r="J19" s="109"/>
       <c r="K19" s="39"/>
     </row>
     <row r="20" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="21" spans="1:11">
-      <c r="A21" s="116" t="s">
-        <v>205</v>
-      </c>
-      <c r="B21" s="118" t="s">
-        <v>200</v>
+      <c r="A21" s="112" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="110" t="s">
+        <v>199</v>
       </c>
       <c r="C21" s="40">
         <v>42771</v>
       </c>
-      <c r="D21" s="118" t="s">
-        <v>200</v>
+      <c r="D21" s="110" t="s">
+        <v>199</v>
       </c>
       <c r="E21" s="40">
         <v>42770</v>
       </c>
-      <c r="F21" s="118" t="s">
-        <v>200</v>
+      <c r="F21" s="110" t="s">
+        <v>199</v>
       </c>
       <c r="G21" s="40">
         <v>42769</v>
       </c>
-      <c r="H21" s="118" t="s">
-        <v>200</v>
+      <c r="H21" s="110" t="s">
+        <v>199</v>
       </c>
       <c r="I21" s="40">
         <v>42768</v>
       </c>
-      <c r="J21" s="118" t="s">
-        <v>200</v>
+      <c r="J21" s="110" t="s">
+        <v>199</v>
       </c>
       <c r="K21" s="40">
         <v>42767</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A22" s="117"/>
-      <c r="B22" s="119"/>
+      <c r="A22" s="113"/>
+      <c r="B22" s="111"/>
       <c r="C22" s="41"/>
-      <c r="D22" s="119"/>
+      <c r="D22" s="111"/>
       <c r="E22" s="41"/>
-      <c r="F22" s="119"/>
+      <c r="F22" s="111"/>
       <c r="G22" s="41"/>
-      <c r="H22" s="119"/>
+      <c r="H22" s="111"/>
       <c r="I22" s="41"/>
-      <c r="J22" s="119"/>
+      <c r="J22" s="111"/>
       <c r="K22" s="41"/>
     </row>
     <row r="23" spans="1:11" ht="17.25" thickTop="1">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="114" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" s="107"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="37"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="115"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="38"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="115"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="38"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="115"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="108"/>
+      <c r="K26" s="38"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="115"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="38"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="115"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="38"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="115"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="38"/>
+    </row>
+    <row r="30" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A30" s="116"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="108"/>
+      <c r="K30" s="39"/>
+    </row>
+    <row r="31" spans="1:11" ht="17.25" thickTop="1">
+      <c r="A31" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="B23" s="109"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="37"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="107"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="38"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="107"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="38"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="107"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="38"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="107"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="38"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="107"/>
-      <c r="B28" s="110"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="38"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="107"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="110"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="38"/>
-    </row>
-    <row r="30" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A30" s="108"/>
-      <c r="B30" s="110"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="39"/>
-    </row>
-    <row r="31" spans="1:11" ht="17.25" thickTop="1">
-      <c r="A31" s="113" t="s">
-        <v>199</v>
-      </c>
-      <c r="B31" s="110"/>
+      <c r="B31" s="108"/>
       <c r="C31" s="37"/>
-      <c r="D31" s="110"/>
+      <c r="D31" s="108"/>
       <c r="E31" s="37"/>
-      <c r="F31" s="110"/>
+      <c r="F31" s="108"/>
       <c r="G31" s="37"/>
-      <c r="H31" s="110"/>
+      <c r="H31" s="108"/>
       <c r="I31" s="37"/>
-      <c r="J31" s="110"/>
+      <c r="J31" s="108"/>
       <c r="K31" s="37"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="114"/>
-      <c r="B32" s="110"/>
+      <c r="A32" s="118"/>
+      <c r="B32" s="108"/>
       <c r="C32" s="38"/>
-      <c r="D32" s="110"/>
+      <c r="D32" s="108"/>
       <c r="E32" s="38"/>
-      <c r="F32" s="110"/>
+      <c r="F32" s="108"/>
       <c r="G32" s="38"/>
-      <c r="H32" s="110"/>
+      <c r="H32" s="108"/>
       <c r="I32" s="38"/>
-      <c r="J32" s="110"/>
+      <c r="J32" s="108"/>
       <c r="K32" s="38"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="114"/>
-      <c r="B33" s="110"/>
+      <c r="A33" s="118"/>
+      <c r="B33" s="108"/>
       <c r="C33" s="38"/>
-      <c r="D33" s="110"/>
+      <c r="D33" s="108"/>
       <c r="E33" s="38"/>
-      <c r="F33" s="110"/>
+      <c r="F33" s="108"/>
       <c r="G33" s="38"/>
-      <c r="H33" s="110"/>
+      <c r="H33" s="108"/>
       <c r="I33" s="38"/>
-      <c r="J33" s="110"/>
+      <c r="J33" s="108"/>
       <c r="K33" s="38"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="114"/>
-      <c r="B34" s="110"/>
+      <c r="A34" s="118"/>
+      <c r="B34" s="108"/>
       <c r="C34" s="38"/>
-      <c r="D34" s="110"/>
+      <c r="D34" s="108"/>
       <c r="E34" s="38"/>
-      <c r="F34" s="110"/>
+      <c r="F34" s="108"/>
       <c r="G34" s="38"/>
-      <c r="H34" s="110"/>
+      <c r="H34" s="108"/>
       <c r="I34" s="38"/>
-      <c r="J34" s="110"/>
+      <c r="J34" s="108"/>
       <c r="K34" s="38"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="114"/>
-      <c r="B35" s="110"/>
+      <c r="A35" s="118"/>
+      <c r="B35" s="108"/>
       <c r="C35" s="38"/>
-      <c r="D35" s="110"/>
+      <c r="D35" s="108"/>
       <c r="E35" s="38"/>
-      <c r="F35" s="110"/>
+      <c r="F35" s="108"/>
       <c r="G35" s="38"/>
-      <c r="H35" s="110"/>
+      <c r="H35" s="108"/>
       <c r="I35" s="38"/>
-      <c r="J35" s="110"/>
+      <c r="J35" s="108"/>
       <c r="K35" s="38"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="114"/>
-      <c r="B36" s="110"/>
+      <c r="A36" s="118"/>
+      <c r="B36" s="108"/>
       <c r="C36" s="38"/>
-      <c r="D36" s="110"/>
+      <c r="D36" s="108"/>
       <c r="E36" s="38"/>
-      <c r="F36" s="110"/>
+      <c r="F36" s="108"/>
       <c r="G36" s="38"/>
-      <c r="H36" s="110"/>
+      <c r="H36" s="108"/>
       <c r="I36" s="38"/>
-      <c r="J36" s="110"/>
+      <c r="J36" s="108"/>
       <c r="K36" s="38"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="114"/>
-      <c r="B37" s="110"/>
+      <c r="A37" s="118"/>
+      <c r="B37" s="108"/>
       <c r="C37" s="38"/>
-      <c r="D37" s="110"/>
+      <c r="D37" s="108"/>
       <c r="E37" s="38"/>
-      <c r="F37" s="110"/>
+      <c r="F37" s="108"/>
       <c r="G37" s="38"/>
-      <c r="H37" s="110"/>
+      <c r="H37" s="108"/>
       <c r="I37" s="38"/>
-      <c r="J37" s="110"/>
+      <c r="J37" s="108"/>
       <c r="K37" s="38"/>
     </row>
     <row r="38" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A38" s="115"/>
-      <c r="B38" s="111"/>
+      <c r="A38" s="119"/>
+      <c r="B38" s="109"/>
       <c r="C38" s="39"/>
-      <c r="D38" s="111"/>
+      <c r="D38" s="109"/>
       <c r="E38" s="39"/>
-      <c r="F38" s="111"/>
+      <c r="F38" s="109"/>
       <c r="G38" s="39"/>
-      <c r="H38" s="111"/>
+      <c r="H38" s="109"/>
       <c r="I38" s="39"/>
-      <c r="J38" s="111"/>
+      <c r="J38" s="109"/>
       <c r="K38" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="J23:J38"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="B23:B38"/>
+    <mergeCell ref="D23:D38"/>
+    <mergeCell ref="F23:F38"/>
+    <mergeCell ref="H23:H38"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="H2:H3"/>
@@ -12769,19 +12955,6 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A12:A19"/>
-    <mergeCell ref="J23:J38"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="B23:B38"/>
-    <mergeCell ref="D23:D38"/>
-    <mergeCell ref="F23:F38"/>
-    <mergeCell ref="H23:H38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/_meeting_weekly_doc/N2Team_WeeklySchedule_YSR.xlsx
+++ b/doc/_meeting_weekly_doc/N2Team_WeeklySchedule_YSR.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="-15" windowWidth="28020" windowHeight="3765"/>
+    <workbookView xWindow="60" yWindow="-15" windowWidth="28020" windowHeight="3765" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="11월4주" sheetId="4" r:id="rId1"/>
-    <sheet name="11월3주" sheetId="2" r:id="rId2"/>
-    <sheet name="11월 2주" sheetId="3" r:id="rId3"/>
-    <sheet name="11월1주" sheetId="1" r:id="rId4"/>
-    <sheet name="일정" sheetId="6" r:id="rId5"/>
-    <sheet name="16년 공부" sheetId="5" r:id="rId6"/>
+    <sheet name="16년 공부" sheetId="5" r:id="rId1"/>
+    <sheet name="일정" sheetId="6" r:id="rId2"/>
+    <sheet name="11월4주" sheetId="4" r:id="rId3"/>
+    <sheet name="11월3주" sheetId="2" r:id="rId4"/>
+    <sheet name="11월 2주" sheetId="3" r:id="rId5"/>
+    <sheet name="11월1주" sheetId="1" r:id="rId6"/>
     <sheet name="17년 공부" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="250">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -986,25 +986,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>* 정점 룩업 테이블 생성
- - [전체정점개수 * 6]만큼 할당한다.
- - 초기값은 -1을 대입하게 된다.
- - 각정점을 공유하는 6개의 페이스가 있다면 
- - 각 6개의 배열에는 모두 해당 페이스 인덱스가 채워질 것이고 
- - 그렇지 않을 경우에는 해당 페이스 개수만큼 채워 지게 될 것이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* VertexNormalsFasLookup
- - 공유 정점 리스트
- 75장 HeightMap 에서 살펴보았다.
- - 모든 페이스들은 평면 노말이 필요하다.
- - 맵 생성 시에 각 정점단위로 이웃 페이스들을 저장할 수 있는 배열을 할당 해야한다.
- - 고유한 페이스 인덱스를 저장해얃한다.
- - 고유 페이스 인덱스 리스트는 정점노말을 갱신해야 할 필요할 때 사용한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">* 카메라 프로스텀과 AABB or OBB
  - 평면의 Normal과 OBB </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1109,6 +1090,26 @@
   <si>
     <t>* 질문?
  - 박스의 월드행렬과 1,0,0인점점을 가지고 TransformCoord를 했는데 벡터 vAxis는 크기와 방향을 가지고 있는것으로 생각됨, 따라서 해당 벡터의 크기를 구하는 함수를 사용하여 fExent로 사용할 수 없는 것인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* QuadTree에 바운딩 박스 구현해서 FrustumCulling 처리하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* QuadTree에 바운딩 박스 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* Frustum Culling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 높이맵 만들기 및 culling</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2273,18 +2274,267 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="7" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="7" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="7" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2300,126 +2550,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2431,144 +2570,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="7" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="7" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="7" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2864,1726 +2865,1097 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H26"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:H19"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="41" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="31.25" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="6.125" style="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.5" style="47" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="41" style="36"/>
+    <col min="5" max="5" width="7.375" style="35" customWidth="1"/>
+    <col min="6" max="6" width="41" style="36"/>
+    <col min="7" max="7" width="7.375" style="35" customWidth="1"/>
+    <col min="8" max="8" width="41" style="36"/>
+    <col min="9" max="9" width="7.375" style="35" customWidth="1"/>
+    <col min="10" max="10" width="41" style="36"/>
+    <col min="11" max="11" width="7.375" style="35" customWidth="1"/>
+    <col min="12" max="12" width="41" style="36"/>
+    <col min="13" max="13" width="7.375" style="35" customWidth="1"/>
+    <col min="14" max="16384" width="41" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="85"/>
-    </row>
-    <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="H2" s="90"/>
-    </row>
-    <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="123" t="s">
+    <row r="1" spans="1:14" s="42" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A1" s="61" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="40"/>
+      <c r="G1" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="H1" s="40"/>
+      <c r="I1" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="J1" s="40"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="48"/>
+    </row>
+    <row r="2" spans="1:14" s="42" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A2" s="62"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="48"/>
+    </row>
+    <row r="3" spans="1:14" ht="132.75" thickTop="1">
+      <c r="A3" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="I3" s="54"/>
+      <c r="J3" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="K3" s="57"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="48"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="52"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="48"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="52"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="48"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="52"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="48"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="52"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="48"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="52"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="48"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="52"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="48"/>
+    </row>
+    <row r="10" spans="1:14" ht="17.25" thickBot="1">
+      <c r="A10" s="53"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="48"/>
+    </row>
+    <row r="11" spans="1:14" ht="17.25" thickTop="1">
+      <c r="A11" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="48"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="59"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="48"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="59"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="48"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="59"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="48"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="59"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="48"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="59"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="48"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="59"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="48"/>
+    </row>
+    <row r="18" spans="1:14" ht="17.25" thickBot="1">
+      <c r="A18" s="60"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="48"/>
+    </row>
+    <row r="19" spans="1:14" ht="17.25" thickBot="1"/>
+    <row r="20" spans="1:14" s="42" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A20" s="65" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" s="43"/>
+      <c r="C20" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="40">
+        <v>42703</v>
+      </c>
+      <c r="E20" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20" s="40">
+        <v>42702</v>
+      </c>
+      <c r="G20" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="H20" s="40">
+        <v>42700</v>
+      </c>
+      <c r="I20" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="J20" s="40">
+        <v>42699</v>
+      </c>
+      <c r="K20" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="L20" s="40">
+        <v>42698</v>
+      </c>
+      <c r="M20" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="N20" s="40">
+        <v>42697</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="42" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A21" s="62"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="E21" s="64"/>
+      <c r="F21" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="64"/>
+      <c r="H21" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="I21" s="64"/>
+      <c r="J21" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="K21" s="64"/>
+      <c r="L21" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="M21" s="64"/>
+      <c r="N21" s="41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="83.25" thickTop="1">
+      <c r="A22" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="B22" s="45"/>
+      <c r="C22" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="D22" s="37"/>
+      <c r="E22" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="F22" s="37"/>
+      <c r="G22" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="I22" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="J22" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="K22" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="L22" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="M22" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="N22" s="37" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="165">
+      <c r="A23" s="52"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="I23" s="55"/>
+      <c r="J23" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="K23" s="55"/>
+      <c r="L23" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="M23" s="55"/>
+      <c r="N23" s="38" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="99">
+      <c r="A24" s="52"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="125"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A4" s="77" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="126" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="128"/>
-    </row>
-    <row r="5" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
-      <c r="A5" s="59">
-        <v>42695</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="129" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="130"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="60"/>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="131" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="133"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A7" s="61"/>
-      <c r="B7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="134" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="136"/>
-    </row>
-    <row r="8" spans="1:8" ht="18" thickTop="1">
-      <c r="A8" s="59">
-        <v>42696</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="129" t="s">
+      <c r="I24" s="55"/>
+      <c r="J24" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="K24" s="55"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="38" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="115.5">
+      <c r="A25" s="52"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="K25" s="55"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="49.5">
+      <c r="A26" s="52"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="K26" s="55"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="38" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="33">
+      <c r="A27" s="52"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="K27" s="55"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="38"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="52"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="38"/>
+    </row>
+    <row r="29" spans="1:14" ht="17.25" thickBot="1">
+      <c r="A29" s="53"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="39"/>
+    </row>
+    <row r="30" spans="1:14" ht="83.25" thickTop="1">
+      <c r="A30" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="B30" s="46"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="I30" s="55"/>
+      <c r="J30" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="K30" s="55"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="37"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="59"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="K31" s="55"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="38"/>
+    </row>
+    <row r="32" spans="1:14" ht="33">
+      <c r="A32" s="59"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="K32" s="55"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="38"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="59"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="K33" s="55"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="38"/>
+    </row>
+    <row r="34" spans="1:14" ht="49.5">
+      <c r="A34" s="59"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="K34" s="55"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="38"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="59"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="38"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="59"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="38"/>
+    </row>
+    <row r="37" spans="1:14" ht="17.25" thickBot="1">
+      <c r="A37" s="60"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="39"/>
+    </row>
+    <row r="38" spans="1:14" ht="17.25" thickBot="1"/>
+    <row r="39" spans="1:14">
+      <c r="A39" s="65" t="s">
+        <v>235</v>
+      </c>
+      <c r="B39" s="43"/>
+      <c r="C39" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="D39" s="40"/>
+      <c r="E39" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="F39" s="40"/>
+      <c r="G39" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="H39" s="40"/>
+      <c r="I39" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="J39" s="40"/>
+      <c r="K39" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="L39" s="40">
+        <v>42706</v>
+      </c>
+      <c r="M39" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="N39" s="40">
+        <v>42705</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="17.25" thickBot="1">
+      <c r="A40" s="62"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="M40" s="64"/>
+      <c r="N40" s="41" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="17.25" thickTop="1">
+      <c r="A41" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="130"/>
-    </row>
-    <row r="9" spans="1:8" ht="76.5" customHeight="1">
-      <c r="A9" s="60"/>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="132" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="133"/>
-    </row>
-    <row r="10" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="134" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="135"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="136"/>
-    </row>
-    <row r="11" spans="1:8" ht="18" thickTop="1">
-      <c r="A11" s="59">
-        <v>42697</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="129" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="130"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="60"/>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="133"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A13" s="61"/>
-      <c r="B13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="134"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="136"/>
-    </row>
-    <row r="14" spans="1:8" ht="18" thickTop="1">
-      <c r="A14" s="59">
-        <v>42698</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="129" t="s">
-        <v>240</v>
-      </c>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="130"/>
-    </row>
-    <row r="15" spans="1:8" ht="78.75" customHeight="1">
-      <c r="A15" s="60"/>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="132" t="s">
-        <v>244</v>
-      </c>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="133"/>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A16" s="61"/>
-      <c r="B16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="134" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" s="135"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="136"/>
-    </row>
-    <row r="17" spans="1:8" ht="18" thickTop="1">
-      <c r="A17" s="59">
-        <v>42699</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="129" t="s">
-        <v>241</v>
-      </c>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="130"/>
-    </row>
-    <row r="18" spans="1:8" ht="73.5" customHeight="1">
-      <c r="A18" s="60"/>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="137" t="s">
-        <v>246</v>
-      </c>
-      <c r="D18" s="138"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="139"/>
-    </row>
-    <row r="19" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A19" s="61"/>
-      <c r="B19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="141"/>
-    </row>
-    <row r="20" spans="1:8" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A20" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="142" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="144"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="6">
-        <v>42702</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="145" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="145"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="146"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="6">
-        <v>42703</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="145" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="145"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="146"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="6">
-        <v>42704</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="145" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="145"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="146"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="6">
-        <v>42705</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="145" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="145"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="146"/>
-    </row>
-    <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A25" s="6">
-        <v>42706</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="147" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="148"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="10"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="37"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="52"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="38"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="52"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="38"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="52"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="38"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="52"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="55"/>
+      <c r="N45" s="38"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="52"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="38"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="52"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="38"/>
+    </row>
+    <row r="48" spans="1:14" ht="17.25" thickBot="1">
+      <c r="A48" s="53"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="39"/>
+    </row>
+    <row r="49" spans="1:14" ht="17.25" thickTop="1">
+      <c r="A49" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="B49" s="46"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="37"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="59"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="55"/>
+      <c r="N50" s="38"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="59"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="38"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="59"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="55"/>
+      <c r="N52" s="38"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="59"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="55"/>
+      <c r="N53" s="38"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="59"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="55"/>
+      <c r="N54" s="38"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="59"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="55"/>
+      <c r="N55" s="38"/>
+    </row>
+    <row r="56" spans="1:14" ht="17.25" thickBot="1">
+      <c r="A56" s="60"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="56"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="56"/>
+      <c r="N56" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
+  <mergeCells count="45">
+    <mergeCell ref="G22:G37"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C37"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E37"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="K22:K37"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I37"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="M3:M18"/>
+    <mergeCell ref="M22:M37"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="A49:A56"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="E41:E56"/>
+    <mergeCell ref="G41:G56"/>
+    <mergeCell ref="I41:I56"/>
+    <mergeCell ref="K41:K56"/>
+    <mergeCell ref="M41:M56"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C56"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="E3:E18"/>
+    <mergeCell ref="G3:G18"/>
+    <mergeCell ref="I3:I18"/>
+    <mergeCell ref="K3:K18"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="C3:C18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="12.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="31.25" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="85"/>
-    </row>
-    <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="88" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="90"/>
-    </row>
-    <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="93" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="95"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A4" s="77" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="79" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="81"/>
-    </row>
-    <row r="5" spans="1:8" ht="74.25" customHeight="1" thickTop="1">
-      <c r="A5" s="59">
-        <v>42688</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="63"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="60"/>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="65"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A7" s="61"/>
-      <c r="B7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="68"/>
-    </row>
-    <row r="8" spans="1:8" ht="24" customHeight="1" thickTop="1">
-      <c r="A8" s="59">
-        <v>42689</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="63"/>
-    </row>
-    <row r="9" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A9" s="60"/>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="65"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
-    </row>
-    <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A11" s="59">
-        <v>42690</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="63"/>
-    </row>
-    <row r="12" spans="1:8" ht="126" customHeight="1">
-      <c r="A12" s="60"/>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
-    </row>
-    <row r="13" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A13" s="61"/>
-      <c r="B13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="68"/>
-    </row>
-    <row r="14" spans="1:8" ht="66" customHeight="1" thickTop="1">
-      <c r="A14" s="59">
-        <v>42691</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="63"/>
-    </row>
-    <row r="15" spans="1:8" ht="45.75" customHeight="1">
-      <c r="A15" s="60"/>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="65"/>
-    </row>
-    <row r="16" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A16" s="61"/>
-      <c r="B16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="68"/>
-    </row>
-    <row r="17" spans="1:8" ht="64.5" customHeight="1" thickTop="1">
-      <c r="A17" s="59">
-        <v>42692</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="71"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="60"/>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
-    </row>
-    <row r="19" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A19" s="60"/>
-      <c r="B19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="76"/>
-    </row>
-    <row r="20" spans="1:8" ht="39.75" customHeight="1">
-      <c r="A20" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="56"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="6">
-        <v>42695</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="58"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="6">
-        <v>42696</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="58"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="6">
-        <v>42697</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="58"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="6">
-        <v>42698</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="58"/>
-    </row>
-    <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A25" s="8">
-        <v>42699</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="51"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H26"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="12.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="31.25" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="85"/>
-    </row>
-    <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="88" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="90"/>
-    </row>
-    <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="93" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="95"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A4" s="77" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="79" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="81"/>
-    </row>
-    <row r="5" spans="1:8" ht="146.25" customHeight="1" thickTop="1">
-      <c r="A5" s="59">
-        <v>42681</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="63"/>
-    </row>
-    <row r="6" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A6" s="60"/>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="65"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A7" s="61"/>
-      <c r="B7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="68"/>
-    </row>
-    <row r="8" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A8" s="59">
-        <v>42682</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="63"/>
-    </row>
-    <row r="9" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A9" s="60"/>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="65"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
-    </row>
-    <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A11" s="59">
-        <v>42683</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="63"/>
-    </row>
-    <row r="12" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A12" s="60"/>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
-    </row>
-    <row r="13" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A13" s="61"/>
-      <c r="B13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="68"/>
-    </row>
-    <row r="14" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A14" s="59">
-        <v>42684</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="63"/>
-    </row>
-    <row r="15" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A15" s="60"/>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="65"/>
-    </row>
-    <row r="16" spans="1:8" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A16" s="61"/>
-      <c r="B16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="68"/>
-    </row>
-    <row r="17" spans="1:8" ht="18" thickTop="1">
-      <c r="A17" s="59">
-        <v>42685</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="97" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="98"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="60"/>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
-    </row>
-    <row r="19" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A19" s="61"/>
-      <c r="B19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="65"/>
-    </row>
-    <row r="20" spans="1:8" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A20" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="56"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="6">
-        <v>42688</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="58"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="6">
-        <v>42689</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="58"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="6">
-        <v>42690</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="58"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="6">
-        <v>42691</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="58"/>
-    </row>
-    <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A25" s="6">
-        <v>42692</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="51"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="73" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H26"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="12.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="31.25" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="85"/>
-    </row>
-    <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="90"/>
-    </row>
-    <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="95"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A4" s="77" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="79" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="81"/>
-    </row>
-    <row r="5" spans="1:8" ht="45" customHeight="1" thickTop="1">
-      <c r="A5" s="59">
-        <v>42674</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="63"/>
-    </row>
-    <row r="6" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A6" s="60"/>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="82" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="65"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A7" s="61"/>
-      <c r="B7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="68"/>
-    </row>
-    <row r="8" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A8" s="99">
-        <v>42675</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="63"/>
-    </row>
-    <row r="9" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A9" s="100"/>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="65"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A10" s="101"/>
-      <c r="B10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
-    </row>
-    <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A11" s="99">
-        <v>42676</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="63"/>
-    </row>
-    <row r="12" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A12" s="100"/>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A13" s="101"/>
-      <c r="B13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="68"/>
-    </row>
-    <row r="14" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A14" s="99">
-        <v>42677</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="63"/>
-    </row>
-    <row r="15" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A15" s="100"/>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="65"/>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A16" s="101"/>
-      <c r="B16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="68"/>
-    </row>
-    <row r="17" spans="1:8" ht="18" thickTop="1">
-      <c r="A17" s="60">
-        <v>42678</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="97" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="98"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="60"/>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
-    </row>
-    <row r="19" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A19" s="102"/>
-      <c r="B19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="65"/>
-    </row>
-    <row r="20" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A20" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="56"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="6">
-        <v>42681</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="58"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="6">
-        <v>42682</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="58"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="6">
-        <v>42683</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="58"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="6">
-        <v>42684</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="58"/>
-    </row>
-    <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A25" s="8">
-        <v>42685</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="51"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C18:H18"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="82" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -4594,7 +3966,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K40" sqref="K40"/>
+      <selection pane="bottomRight" activeCell="A78" sqref="A78:XFD78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4605,10 +3977,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="17" customFormat="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="68" t="s">
         <v>104</v>
       </c>
       <c r="C1" s="15">
@@ -4736,8 +4108,8 @@
       <c r="BC1" s="16"/>
     </row>
     <row r="2" spans="1:55" s="13" customFormat="1">
-      <c r="A2" s="104"/>
-      <c r="B2" s="106"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="14" t="s">
         <v>75</v>
       </c>
@@ -11445,940 +10817,1724 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="31.25" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="39" thickBot="1">
+      <c r="A1" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" thickTop="1">
+      <c r="A2" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="76"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="H2" s="77"/>
+    </row>
+    <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
+      <c r="A3" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="79"/>
+      <c r="C3" s="80" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A4" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="84"/>
+      <c r="C4" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="87"/>
+    </row>
+    <row r="5" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
+      <c r="A5" s="88">
+        <v>42695</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="92"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="89"/>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="95"/>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A7" s="90"/>
+      <c r="B7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="98"/>
+    </row>
+    <row r="8" spans="1:8" ht="18" thickTop="1">
+      <c r="A8" s="88">
+        <v>42696</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="92"/>
+    </row>
+    <row r="9" spans="1:8" ht="76.5" customHeight="1">
+      <c r="A9" s="89"/>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="94" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="95"/>
+    </row>
+    <row r="10" spans="1:8" ht="24" customHeight="1" thickBot="1">
+      <c r="A10" s="90"/>
+      <c r="B10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="98"/>
+    </row>
+    <row r="11" spans="1:8" ht="18" thickTop="1">
+      <c r="A11" s="88">
+        <v>42697</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="92"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="89"/>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="95"/>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A13" s="90"/>
+      <c r="B13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="96"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="98"/>
+    </row>
+    <row r="14" spans="1:8" ht="18" thickTop="1">
+      <c r="A14" s="88">
+        <v>42698</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>238</v>
+      </c>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="92"/>
+    </row>
+    <row r="15" spans="1:8" ht="78.75" customHeight="1">
+      <c r="A15" s="89"/>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="94" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="95"/>
+    </row>
+    <row r="16" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A16" s="90"/>
+      <c r="B16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="98"/>
+    </row>
+    <row r="17" spans="1:8" ht="18" thickTop="1">
+      <c r="A17" s="88">
+        <v>42699</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="92"/>
+    </row>
+    <row r="18" spans="1:8" ht="73.5" customHeight="1">
+      <c r="A18" s="89"/>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="99" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="101"/>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A19" s="90"/>
+      <c r="B19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="103"/>
+    </row>
+    <row r="20" spans="1:8" ht="39.75" customHeight="1" thickTop="1">
+      <c r="A20" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="107"/>
+      <c r="C20" s="108" t="s">
+        <v>245</v>
+      </c>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="110"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6">
+        <v>42702</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="111" t="s">
+        <v>248</v>
+      </c>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="112"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A22" s="6">
+        <v>42703</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="111" t="s">
+        <v>248</v>
+      </c>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="112"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6">
+        <v>42704</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="111" t="s">
+        <v>247</v>
+      </c>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="112"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6">
+        <v>42705</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="111" t="s">
+        <v>247</v>
+      </c>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="112"/>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A25" s="6">
+        <v>42706</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="104" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="105"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="31.25" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="39" thickBot="1">
+      <c r="A1" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" thickTop="1">
+      <c r="A2" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="76"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="77"/>
+    </row>
+    <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
+      <c r="A3" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="79"/>
+      <c r="C3" s="113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="115"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A4" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="84"/>
+      <c r="C4" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="118"/>
+    </row>
+    <row r="5" spans="1:8" ht="74.25" customHeight="1" thickTop="1">
+      <c r="A5" s="88">
+        <v>42688</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="119" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="120"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="89"/>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="121"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="123"/>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A7" s="90"/>
+      <c r="B7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="124"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="126"/>
+    </row>
+    <row r="8" spans="1:8" ht="24" customHeight="1" thickTop="1">
+      <c r="A8" s="88">
+        <v>42689</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="119" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="120"/>
+    </row>
+    <row r="9" spans="1:8" ht="40.5" customHeight="1">
+      <c r="A9" s="89"/>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="122" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="123"/>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A10" s="90"/>
+      <c r="B10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="124"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="126"/>
+    </row>
+    <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
+      <c r="A11" s="88">
+        <v>42690</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="119" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="120"/>
+    </row>
+    <row r="12" spans="1:8" ht="126" customHeight="1">
+      <c r="A12" s="89"/>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="123"/>
+    </row>
+    <row r="13" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
+      <c r="A13" s="90"/>
+      <c r="B13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="124" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="126"/>
+    </row>
+    <row r="14" spans="1:8" ht="66" customHeight="1" thickTop="1">
+      <c r="A14" s="88">
+        <v>42691</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="119" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="120"/>
+    </row>
+    <row r="15" spans="1:8" ht="45.75" customHeight="1">
+      <c r="A15" s="89"/>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="123"/>
+    </row>
+    <row r="16" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A16" s="90"/>
+      <c r="B16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="124" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="126"/>
+    </row>
+    <row r="17" spans="1:8" ht="64.5" customHeight="1" thickTop="1">
+      <c r="A17" s="88">
+        <v>42692</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="127" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="129"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="89"/>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="130" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="132"/>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A19" s="89"/>
+      <c r="B19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="133"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="134"/>
+    </row>
+    <row r="20" spans="1:8" ht="39.75" customHeight="1">
+      <c r="A20" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="107"/>
+      <c r="C20" s="137" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="139"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6">
+        <v>42695</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="140" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="140"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="141"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6">
+        <v>42696</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="140" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="141"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6">
+        <v>42697</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="140" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="141"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6">
+        <v>42698</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="140" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="140"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="141"/>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A25" s="8">
+        <v>42699</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="135" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="136"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="31.25" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="39" thickBot="1">
+      <c r="A1" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" thickTop="1">
+      <c r="A2" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="76"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="77"/>
+    </row>
+    <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
+      <c r="A3" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="79"/>
+      <c r="C3" s="113" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="115"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A4" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="84"/>
+      <c r="C4" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="118"/>
+    </row>
+    <row r="5" spans="1:8" ht="146.25" customHeight="1" thickTop="1">
+      <c r="A5" s="88">
+        <v>42681</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="119" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="120"/>
+    </row>
+    <row r="6" spans="1:8" ht="37.5" customHeight="1">
+      <c r="A6" s="89"/>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="121"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="123"/>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A7" s="90"/>
+      <c r="B7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="124"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="126"/>
+    </row>
+    <row r="8" spans="1:8" ht="54" customHeight="1" thickTop="1">
+      <c r="A8" s="88">
+        <v>42682</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="119" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="120"/>
+    </row>
+    <row r="9" spans="1:8" ht="66.75" customHeight="1">
+      <c r="A9" s="89"/>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="122" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="123"/>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A10" s="90"/>
+      <c r="B10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="124"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="126"/>
+    </row>
+    <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
+      <c r="A11" s="88">
+        <v>42683</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="119" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="120"/>
+    </row>
+    <row r="12" spans="1:8" ht="66.75" customHeight="1">
+      <c r="A12" s="89"/>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="123"/>
+    </row>
+    <row r="13" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
+      <c r="A13" s="90"/>
+      <c r="B13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="124" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="126"/>
+    </row>
+    <row r="14" spans="1:8" ht="54" customHeight="1" thickTop="1">
+      <c r="A14" s="88">
+        <v>42684</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="119" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="120"/>
+    </row>
+    <row r="15" spans="1:8" ht="66.75" customHeight="1">
+      <c r="A15" s="89"/>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="123"/>
+    </row>
+    <row r="16" spans="1:8" ht="53.25" customHeight="1" thickBot="1">
+      <c r="A16" s="90"/>
+      <c r="B16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="124" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="126"/>
+    </row>
+    <row r="17" spans="1:8" ht="18" thickTop="1">
+      <c r="A17" s="88">
+        <v>42685</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="142" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="143"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="89"/>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="130"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="132"/>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A19" s="90"/>
+      <c r="B19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="123"/>
+    </row>
+    <row r="20" spans="1:8" ht="39.75" customHeight="1" thickTop="1">
+      <c r="A20" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="107"/>
+      <c r="C20" s="137" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="139"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6">
+        <v>42688</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="140" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="140"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="141"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6">
+        <v>42689</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="140" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="141"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6">
+        <v>42690</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="140" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="141"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6">
+        <v>42691</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="140" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="140"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="141"/>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A25" s="6">
+        <v>42692</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="144" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="136"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="73" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FF00B050"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="41" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="121" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="1.5" style="47" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="35" customWidth="1"/>
-    <col min="4" max="4" width="41" style="36"/>
-    <col min="5" max="5" width="7.375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="41" style="36"/>
-    <col min="7" max="7" width="7.375" style="35" customWidth="1"/>
-    <col min="8" max="8" width="41" style="36"/>
-    <col min="9" max="9" width="7.375" style="35" customWidth="1"/>
-    <col min="10" max="10" width="41" style="36"/>
-    <col min="11" max="11" width="7.375" style="35" customWidth="1"/>
-    <col min="12" max="16384" width="41" style="36"/>
+    <col min="1" max="1" width="12.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="31.25" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="42" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="112" t="s">
-        <v>233</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="110" t="s">
-        <v>199</v>
-      </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="110" t="s">
-        <v>199</v>
-      </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="110" t="s">
-        <v>199</v>
-      </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="48"/>
-    </row>
-    <row r="2" spans="1:12" s="42" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A2" s="113"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="48"/>
-    </row>
-    <row r="3" spans="1:12" ht="149.25" thickTop="1">
-      <c r="A3" s="114" t="s">
-        <v>234</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="E3" s="107"/>
-      <c r="F3" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="G3" s="107"/>
-      <c r="H3" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="I3" s="120"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="48"/>
-    </row>
-    <row r="4" spans="1:12" ht="132">
-      <c r="A4" s="115"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E4" s="108"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="48"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="115"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="48"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="115"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="48"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="115"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="48"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="115"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="48"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="115"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="48"/>
-    </row>
-    <row r="10" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A10" s="116"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="48"/>
-    </row>
-    <row r="11" spans="1:12" ht="17.25" thickTop="1">
-      <c r="A11" s="117" t="s">
-        <v>235</v>
-      </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="48"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="118"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="48"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="118"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="48"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="118"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="48"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="118"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="48"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="118"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="48"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="118"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="48"/>
-    </row>
-    <row r="18" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A18" s="119"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="120"/>
-      <c r="L18" s="48"/>
-    </row>
-    <row r="19" spans="1:12" ht="17.25" thickBot="1"/>
-    <row r="20" spans="1:12" s="42" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A20" s="122" t="s">
-        <v>236</v>
-      </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="110" t="s">
-        <v>199</v>
-      </c>
-      <c r="D20" s="40">
-        <v>42700</v>
-      </c>
-      <c r="E20" s="110" t="s">
-        <v>199</v>
-      </c>
-      <c r="F20" s="40">
-        <v>42699</v>
-      </c>
-      <c r="G20" s="110" t="s">
-        <v>199</v>
-      </c>
-      <c r="H20" s="40">
-        <v>42698</v>
-      </c>
-      <c r="I20" s="110" t="s">
-        <v>199</v>
-      </c>
-      <c r="J20" s="40">
-        <v>42697</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="42" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A21" s="113"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="E21" s="111"/>
-      <c r="F21" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="G21" s="111"/>
-      <c r="H21" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="I21" s="111"/>
-      <c r="J21" s="41" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="83.25" thickTop="1">
-      <c r="A22" s="114" t="s">
-        <v>234</v>
-      </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="107" t="s">
-        <v>230</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="E22" s="107" t="s">
-        <v>212</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="G22" s="107" t="s">
-        <v>205</v>
-      </c>
-      <c r="H22" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="I22" s="107" t="s">
-        <v>204</v>
-      </c>
-      <c r="J22" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="K22" s="36"/>
-    </row>
-    <row r="23" spans="1:12" ht="165">
-      <c r="A23" s="115"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="E23" s="108"/>
-      <c r="F23" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="G23" s="108"/>
-      <c r="H23" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="I23" s="108"/>
-      <c r="J23" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="K23" s="36"/>
-    </row>
-    <row r="24" spans="1:12" ht="99">
-      <c r="A24" s="115"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="E24" s="108"/>
-      <c r="F24" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="G24" s="108"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="K24" s="36"/>
-    </row>
-    <row r="25" spans="1:12" ht="115.5">
-      <c r="A25" s="115"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="G25" s="108"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="K25" s="36"/>
-    </row>
-    <row r="26" spans="1:12" ht="49.5">
-      <c r="A26" s="115"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="G26" s="108"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="K26" s="36"/>
-    </row>
-    <row r="27" spans="1:12" ht="33">
-      <c r="A27" s="115"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="G27" s="108"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="36"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="115"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="108"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="36"/>
-    </row>
-    <row r="29" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A29" s="116"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="36"/>
-    </row>
-    <row r="30" spans="1:12" ht="83.25" thickTop="1">
-      <c r="A30" s="117" t="s">
-        <v>235</v>
-      </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="E30" s="108"/>
-      <c r="F30" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="G30" s="108"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="36"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="118"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="G31" s="108"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="36"/>
-    </row>
-    <row r="32" spans="1:12" ht="33">
-      <c r="A32" s="118"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="G32" s="108"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="36"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="118"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="G33" s="108"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="108"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="36"/>
-    </row>
-    <row r="34" spans="1:12" ht="49.5">
-      <c r="A34" s="118"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="G34" s="108"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="108"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="36"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="118"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="108"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="108"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="36"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="118"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="108"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="108"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="36"/>
-    </row>
-    <row r="37" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A37" s="119"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="109"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="109"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="36"/>
-    </row>
-    <row r="38" spans="1:12" ht="17.25" thickBot="1"/>
-    <row r="39" spans="1:12">
-      <c r="A39" s="122" t="s">
-        <v>237</v>
-      </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="110" t="s">
-        <v>199</v>
-      </c>
-      <c r="D39" s="40"/>
-      <c r="E39" s="110" t="s">
-        <v>199</v>
-      </c>
-      <c r="F39" s="40"/>
-      <c r="G39" s="110" t="s">
-        <v>199</v>
-      </c>
-      <c r="H39" s="40"/>
-      <c r="I39" s="110" t="s">
-        <v>199</v>
-      </c>
-      <c r="J39" s="40">
-        <v>42706</v>
-      </c>
-      <c r="K39" s="110" t="s">
-        <v>199</v>
-      </c>
-      <c r="L39" s="40">
-        <v>42705</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A40" s="113"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="K40" s="111"/>
-      <c r="L40" s="41" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="17.25" thickTop="1">
-      <c r="A41" s="114" t="s">
-        <v>234</v>
-      </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="107"/>
-      <c r="L41" s="37"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="115"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="108"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="108"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="108"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="108"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="108"/>
-      <c r="L42" s="38"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="115"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="108"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="108"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="108"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="108"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="108"/>
-      <c r="L43" s="38"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="115"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="108"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="108"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="108"/>
-      <c r="L44" s="38"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="115"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="108"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="108"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="108"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="108"/>
-      <c r="L45" s="38"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="115"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="108"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="108"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="108"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="108"/>
-      <c r="L46" s="38"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="115"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="108"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="108"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="108"/>
-      <c r="L47" s="38"/>
-    </row>
-    <row r="48" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A48" s="116"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="108"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="108"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="108"/>
-      <c r="L48" s="39"/>
-    </row>
-    <row r="49" spans="1:12" ht="17.25" thickTop="1">
-      <c r="A49" s="117" t="s">
-        <v>235</v>
-      </c>
-      <c r="B49" s="46"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="108"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="108"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="108"/>
-      <c r="L49" s="37"/>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="118"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="108"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="108"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="108"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="108"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="108"/>
-      <c r="L50" s="38"/>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="118"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="108"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="108"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="108"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="108"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="108"/>
-      <c r="L51" s="38"/>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="118"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="108"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="108"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="108"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="108"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="108"/>
-      <c r="L52" s="38"/>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="118"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="108"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="108"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="108"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="108"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="108"/>
-      <c r="L53" s="38"/>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="118"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="108"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="108"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="108"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="108"/>
-      <c r="L54" s="38"/>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="118"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="108"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="108"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="108"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="108"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="108"/>
-      <c r="L55" s="38"/>
-    </row>
-    <row r="56" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A56" s="119"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="109"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="109"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="109"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="109"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="109"/>
-      <c r="L56" s="39"/>
+    <row r="1" spans="1:8" ht="39" thickBot="1">
+      <c r="A1" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" thickTop="1">
+      <c r="A2" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="76"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="77"/>
+    </row>
+    <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
+      <c r="A3" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="79"/>
+      <c r="C3" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="115"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A4" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="84"/>
+      <c r="C4" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="118"/>
+    </row>
+    <row r="5" spans="1:8" ht="45" customHeight="1" thickTop="1">
+      <c r="A5" s="88">
+        <v>42674</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="120"/>
+    </row>
+    <row r="6" spans="1:8" ht="37.5" customHeight="1">
+      <c r="A6" s="89"/>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="121" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="123"/>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A7" s="90"/>
+      <c r="B7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="126"/>
+    </row>
+    <row r="8" spans="1:8" ht="54" customHeight="1" thickTop="1">
+      <c r="A8" s="145">
+        <v>42675</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="119" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="120"/>
+    </row>
+    <row r="9" spans="1:8" ht="66.75" customHeight="1">
+      <c r="A9" s="146"/>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="122" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="123"/>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A10" s="147"/>
+      <c r="B10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="124" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="126"/>
+    </row>
+    <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
+      <c r="A11" s="145">
+        <v>42676</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="119" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="120"/>
+    </row>
+    <row r="12" spans="1:8" ht="66.75" customHeight="1">
+      <c r="A12" s="146"/>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="122" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="123"/>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A13" s="147"/>
+      <c r="B13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="124" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="126"/>
+    </row>
+    <row r="14" spans="1:8" ht="54" customHeight="1" thickTop="1">
+      <c r="A14" s="145">
+        <v>42677</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="119" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="120"/>
+    </row>
+    <row r="15" spans="1:8" ht="66.75" customHeight="1">
+      <c r="A15" s="146"/>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="122" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="123"/>
+    </row>
+    <row r="16" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A16" s="147"/>
+      <c r="B16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="124" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="126"/>
+    </row>
+    <row r="17" spans="1:8" ht="18" thickTop="1">
+      <c r="A17" s="89">
+        <v>42678</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="142" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="143"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="89"/>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="130"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="132"/>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A19" s="148"/>
+      <c r="B19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="122" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="123"/>
+    </row>
+    <row r="20" spans="1:8" ht="32.25" customHeight="1">
+      <c r="A20" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="107"/>
+      <c r="C20" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="139"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6">
+        <v>42681</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="140" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="140"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="141"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6">
+        <v>42682</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="140" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="141"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6">
+        <v>42683</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="140" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="141"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6">
+        <v>42684</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="140"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="141"/>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A25" s="8">
+        <v>42685</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="144" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="136"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="C3:C18"/>
-    <mergeCell ref="E3:E18"/>
-    <mergeCell ref="G3:G18"/>
-    <mergeCell ref="I3:I18"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A49:A56"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="C41:C56"/>
-    <mergeCell ref="E41:E56"/>
-    <mergeCell ref="G41:G56"/>
-    <mergeCell ref="I41:I56"/>
-    <mergeCell ref="K41:K56"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G37"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E37"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="K3:K18"/>
-    <mergeCell ref="I22:I37"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="C22:C37"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="A30:A37"/>
+  <mergeCells count="35">
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12407,34 +12563,34 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" s="42" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="63" t="s">
         <v>199</v>
       </c>
       <c r="C2" s="40">
         <v>42740</v>
       </c>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="63" t="s">
         <v>199</v>
       </c>
       <c r="E2" s="40">
         <v>42739</v>
       </c>
-      <c r="F2" s="110" t="s">
+      <c r="F2" s="63" t="s">
         <v>199</v>
       </c>
       <c r="G2" s="40">
         <v>42738</v>
       </c>
-      <c r="H2" s="110" t="s">
+      <c r="H2" s="63" t="s">
         <v>199</v>
       </c>
       <c r="I2" s="40">
         <v>42737</v>
       </c>
-      <c r="J2" s="110" t="s">
+      <c r="J2" s="63" t="s">
         <v>199</v>
       </c>
       <c r="K2" s="40">
@@ -12442,260 +12598,260 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="42" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A3" s="113"/>
-      <c r="B3" s="111"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="64"/>
       <c r="C3" s="41"/>
-      <c r="D3" s="111"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="41"/>
-      <c r="F3" s="111"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="41"/>
-      <c r="H3" s="111"/>
+      <c r="H3" s="64"/>
       <c r="I3" s="41"/>
-      <c r="J3" s="111"/>
+      <c r="J3" s="64"/>
       <c r="K3" s="41"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" thickTop="1">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="107"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="37"/>
-      <c r="D4" s="107"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="37"/>
-      <c r="F4" s="107"/>
+      <c r="F4" s="54"/>
       <c r="G4" s="37"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="54"/>
       <c r="I4" s="37"/>
-      <c r="J4" s="107"/>
+      <c r="J4" s="54"/>
       <c r="K4" s="37"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="115"/>
-      <c r="B5" s="108"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="38"/>
-      <c r="D5" s="108"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="38"/>
-      <c r="F5" s="108"/>
+      <c r="F5" s="55"/>
       <c r="G5" s="38"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="55"/>
       <c r="I5" s="38"/>
-      <c r="J5" s="108"/>
+      <c r="J5" s="55"/>
       <c r="K5" s="38"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="115"/>
-      <c r="B6" s="108"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="38"/>
-      <c r="D6" s="108"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="38"/>
-      <c r="F6" s="108"/>
+      <c r="F6" s="55"/>
       <c r="G6" s="38"/>
-      <c r="H6" s="108"/>
+      <c r="H6" s="55"/>
       <c r="I6" s="38"/>
-      <c r="J6" s="108"/>
+      <c r="J6" s="55"/>
       <c r="K6" s="38"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="115"/>
-      <c r="B7" s="108"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="38"/>
-      <c r="D7" s="108"/>
+      <c r="D7" s="55"/>
       <c r="E7" s="38"/>
-      <c r="F7" s="108"/>
+      <c r="F7" s="55"/>
       <c r="G7" s="38"/>
-      <c r="H7" s="108"/>
+      <c r="H7" s="55"/>
       <c r="I7" s="38"/>
-      <c r="J7" s="108"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="38"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="115"/>
-      <c r="B8" s="108"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="38"/>
-      <c r="D8" s="108"/>
+      <c r="D8" s="55"/>
       <c r="E8" s="38"/>
-      <c r="F8" s="108"/>
+      <c r="F8" s="55"/>
       <c r="G8" s="38"/>
-      <c r="H8" s="108"/>
+      <c r="H8" s="55"/>
       <c r="I8" s="38"/>
-      <c r="J8" s="108"/>
+      <c r="J8" s="55"/>
       <c r="K8" s="38"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="115"/>
-      <c r="B9" s="108"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="38"/>
-      <c r="D9" s="108"/>
+      <c r="D9" s="55"/>
       <c r="E9" s="38"/>
-      <c r="F9" s="108"/>
+      <c r="F9" s="55"/>
       <c r="G9" s="38"/>
-      <c r="H9" s="108"/>
+      <c r="H9" s="55"/>
       <c r="I9" s="38"/>
-      <c r="J9" s="108"/>
+      <c r="J9" s="55"/>
       <c r="K9" s="38"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="115"/>
-      <c r="B10" s="108"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="38"/>
-      <c r="D10" s="108"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="38"/>
-      <c r="F10" s="108"/>
+      <c r="F10" s="55"/>
       <c r="G10" s="38"/>
-      <c r="H10" s="108"/>
+      <c r="H10" s="55"/>
       <c r="I10" s="38"/>
-      <c r="J10" s="108"/>
+      <c r="J10" s="55"/>
       <c r="K10" s="38"/>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A11" s="116"/>
-      <c r="B11" s="108"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="39"/>
-      <c r="D11" s="108"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="39"/>
-      <c r="F11" s="108"/>
+      <c r="F11" s="55"/>
       <c r="G11" s="39"/>
-      <c r="H11" s="108"/>
+      <c r="H11" s="55"/>
       <c r="I11" s="39"/>
-      <c r="J11" s="108"/>
+      <c r="J11" s="55"/>
       <c r="K11" s="39"/>
     </row>
     <row r="12" spans="1:11" ht="17.25" thickTop="1">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="B12" s="108"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="37"/>
-      <c r="D12" s="108"/>
+      <c r="D12" s="55"/>
       <c r="E12" s="37"/>
-      <c r="F12" s="108"/>
+      <c r="F12" s="55"/>
       <c r="G12" s="37"/>
-      <c r="H12" s="108"/>
+      <c r="H12" s="55"/>
       <c r="I12" s="37"/>
-      <c r="J12" s="108"/>
+      <c r="J12" s="55"/>
       <c r="K12" s="37"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="118"/>
-      <c r="B13" s="108"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="38"/>
-      <c r="D13" s="108"/>
+      <c r="D13" s="55"/>
       <c r="E13" s="38"/>
-      <c r="F13" s="108"/>
+      <c r="F13" s="55"/>
       <c r="G13" s="38"/>
-      <c r="H13" s="108"/>
+      <c r="H13" s="55"/>
       <c r="I13" s="38"/>
-      <c r="J13" s="108"/>
+      <c r="J13" s="55"/>
       <c r="K13" s="38"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="118"/>
-      <c r="B14" s="108"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="38"/>
-      <c r="D14" s="108"/>
+      <c r="D14" s="55"/>
       <c r="E14" s="38"/>
-      <c r="F14" s="108"/>
+      <c r="F14" s="55"/>
       <c r="G14" s="38"/>
-      <c r="H14" s="108"/>
+      <c r="H14" s="55"/>
       <c r="I14" s="38"/>
-      <c r="J14" s="108"/>
+      <c r="J14" s="55"/>
       <c r="K14" s="38"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="118"/>
-      <c r="B15" s="108"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="38"/>
-      <c r="D15" s="108"/>
+      <c r="D15" s="55"/>
       <c r="E15" s="38"/>
-      <c r="F15" s="108"/>
+      <c r="F15" s="55"/>
       <c r="G15" s="38"/>
-      <c r="H15" s="108"/>
+      <c r="H15" s="55"/>
       <c r="I15" s="38"/>
-      <c r="J15" s="108"/>
+      <c r="J15" s="55"/>
       <c r="K15" s="38"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="118"/>
-      <c r="B16" s="108"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="38"/>
-      <c r="D16" s="108"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="38"/>
-      <c r="F16" s="108"/>
+      <c r="F16" s="55"/>
       <c r="G16" s="38"/>
-      <c r="H16" s="108"/>
+      <c r="H16" s="55"/>
       <c r="I16" s="38"/>
-      <c r="J16" s="108"/>
+      <c r="J16" s="55"/>
       <c r="K16" s="38"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="118"/>
-      <c r="B17" s="108"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="38"/>
-      <c r="D17" s="108"/>
+      <c r="D17" s="55"/>
       <c r="E17" s="38"/>
-      <c r="F17" s="108"/>
+      <c r="F17" s="55"/>
       <c r="G17" s="38"/>
-      <c r="H17" s="108"/>
+      <c r="H17" s="55"/>
       <c r="I17" s="38"/>
-      <c r="J17" s="108"/>
+      <c r="J17" s="55"/>
       <c r="K17" s="38"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="118"/>
-      <c r="B18" s="108"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="38"/>
-      <c r="D18" s="108"/>
+      <c r="D18" s="55"/>
       <c r="E18" s="38"/>
-      <c r="F18" s="108"/>
+      <c r="F18" s="55"/>
       <c r="G18" s="38"/>
-      <c r="H18" s="108"/>
+      <c r="H18" s="55"/>
       <c r="I18" s="38"/>
-      <c r="J18" s="108"/>
+      <c r="J18" s="55"/>
       <c r="K18" s="38"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A19" s="119"/>
-      <c r="B19" s="109"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="39"/>
-      <c r="D19" s="109"/>
+      <c r="D19" s="56"/>
       <c r="E19" s="39"/>
-      <c r="F19" s="109"/>
+      <c r="F19" s="56"/>
       <c r="G19" s="39"/>
-      <c r="H19" s="109"/>
+      <c r="H19" s="56"/>
       <c r="I19" s="39"/>
-      <c r="J19" s="109"/>
+      <c r="J19" s="56"/>
       <c r="K19" s="39"/>
     </row>
     <row r="20" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="21" spans="1:11">
-      <c r="A21" s="112" t="s">
+      <c r="A21" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="B21" s="110" t="s">
+      <c r="B21" s="63" t="s">
         <v>199</v>
       </c>
       <c r="C21" s="40">
         <v>42771</v>
       </c>
-      <c r="D21" s="110" t="s">
+      <c r="D21" s="63" t="s">
         <v>199</v>
       </c>
       <c r="E21" s="40">
         <v>42770</v>
       </c>
-      <c r="F21" s="110" t="s">
+      <c r="F21" s="63" t="s">
         <v>199</v>
       </c>
       <c r="G21" s="40">
         <v>42769</v>
       </c>
-      <c r="H21" s="110" t="s">
+      <c r="H21" s="63" t="s">
         <v>199</v>
       </c>
       <c r="I21" s="40">
         <v>42768</v>
       </c>
-      <c r="J21" s="110" t="s">
+      <c r="J21" s="63" t="s">
         <v>199</v>
       </c>
       <c r="K21" s="40">
@@ -12703,232 +12859,245 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A22" s="113"/>
-      <c r="B22" s="111"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="41"/>
-      <c r="D22" s="111"/>
+      <c r="D22" s="64"/>
       <c r="E22" s="41"/>
-      <c r="F22" s="111"/>
+      <c r="F22" s="64"/>
       <c r="G22" s="41"/>
-      <c r="H22" s="111"/>
+      <c r="H22" s="64"/>
       <c r="I22" s="41"/>
-      <c r="J22" s="111"/>
+      <c r="J22" s="64"/>
       <c r="K22" s="41"/>
     </row>
     <row r="23" spans="1:11" ht="17.25" thickTop="1">
-      <c r="A23" s="114" t="s">
+      <c r="A23" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="B23" s="107"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="37"/>
-      <c r="D23" s="107"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="107"/>
+      <c r="F23" s="54"/>
       <c r="G23" s="37"/>
-      <c r="H23" s="107"/>
+      <c r="H23" s="54"/>
       <c r="I23" s="37"/>
-      <c r="J23" s="107"/>
+      <c r="J23" s="54"/>
       <c r="K23" s="37"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="115"/>
-      <c r="B24" s="108"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="38"/>
-      <c r="D24" s="108"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="38"/>
-      <c r="F24" s="108"/>
+      <c r="F24" s="55"/>
       <c r="G24" s="38"/>
-      <c r="H24" s="108"/>
+      <c r="H24" s="55"/>
       <c r="I24" s="38"/>
-      <c r="J24" s="108"/>
+      <c r="J24" s="55"/>
       <c r="K24" s="38"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="115"/>
-      <c r="B25" s="108"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="38"/>
-      <c r="D25" s="108"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="38"/>
-      <c r="F25" s="108"/>
+      <c r="F25" s="55"/>
       <c r="G25" s="38"/>
-      <c r="H25" s="108"/>
+      <c r="H25" s="55"/>
       <c r="I25" s="38"/>
-      <c r="J25" s="108"/>
+      <c r="J25" s="55"/>
       <c r="K25" s="38"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="115"/>
-      <c r="B26" s="108"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="38"/>
-      <c r="D26" s="108"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="38"/>
-      <c r="F26" s="108"/>
+      <c r="F26" s="55"/>
       <c r="G26" s="38"/>
-      <c r="H26" s="108"/>
+      <c r="H26" s="55"/>
       <c r="I26" s="38"/>
-      <c r="J26" s="108"/>
+      <c r="J26" s="55"/>
       <c r="K26" s="38"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="115"/>
-      <c r="B27" s="108"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="38"/>
-      <c r="D27" s="108"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="38"/>
-      <c r="F27" s="108"/>
+      <c r="F27" s="55"/>
       <c r="G27" s="38"/>
-      <c r="H27" s="108"/>
+      <c r="H27" s="55"/>
       <c r="I27" s="38"/>
-      <c r="J27" s="108"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="38"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="115"/>
-      <c r="B28" s="108"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="38"/>
-      <c r="D28" s="108"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="38"/>
-      <c r="F28" s="108"/>
+      <c r="F28" s="55"/>
       <c r="G28" s="38"/>
-      <c r="H28" s="108"/>
+      <c r="H28" s="55"/>
       <c r="I28" s="38"/>
-      <c r="J28" s="108"/>
+      <c r="J28" s="55"/>
       <c r="K28" s="38"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="115"/>
-      <c r="B29" s="108"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="38"/>
-      <c r="D29" s="108"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="38"/>
-      <c r="F29" s="108"/>
+      <c r="F29" s="55"/>
       <c r="G29" s="38"/>
-      <c r="H29" s="108"/>
+      <c r="H29" s="55"/>
       <c r="I29" s="38"/>
-      <c r="J29" s="108"/>
+      <c r="J29" s="55"/>
       <c r="K29" s="38"/>
     </row>
     <row r="30" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A30" s="116"/>
-      <c r="B30" s="108"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="39"/>
-      <c r="D30" s="108"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="39"/>
-      <c r="F30" s="108"/>
+      <c r="F30" s="55"/>
       <c r="G30" s="39"/>
-      <c r="H30" s="108"/>
+      <c r="H30" s="55"/>
       <c r="I30" s="39"/>
-      <c r="J30" s="108"/>
+      <c r="J30" s="55"/>
       <c r="K30" s="39"/>
     </row>
     <row r="31" spans="1:11" ht="17.25" thickTop="1">
-      <c r="A31" s="117" t="s">
+      <c r="A31" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="B31" s="108"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="37"/>
-      <c r="D31" s="108"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="37"/>
-      <c r="F31" s="108"/>
+      <c r="F31" s="55"/>
       <c r="G31" s="37"/>
-      <c r="H31" s="108"/>
+      <c r="H31" s="55"/>
       <c r="I31" s="37"/>
-      <c r="J31" s="108"/>
+      <c r="J31" s="55"/>
       <c r="K31" s="37"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="118"/>
-      <c r="B32" s="108"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="38"/>
-      <c r="D32" s="108"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="38"/>
-      <c r="F32" s="108"/>
+      <c r="F32" s="55"/>
       <c r="G32" s="38"/>
-      <c r="H32" s="108"/>
+      <c r="H32" s="55"/>
       <c r="I32" s="38"/>
-      <c r="J32" s="108"/>
+      <c r="J32" s="55"/>
       <c r="K32" s="38"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="118"/>
-      <c r="B33" s="108"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="38"/>
-      <c r="D33" s="108"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="38"/>
-      <c r="F33" s="108"/>
+      <c r="F33" s="55"/>
       <c r="G33" s="38"/>
-      <c r="H33" s="108"/>
+      <c r="H33" s="55"/>
       <c r="I33" s="38"/>
-      <c r="J33" s="108"/>
+      <c r="J33" s="55"/>
       <c r="K33" s="38"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="118"/>
-      <c r="B34" s="108"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="38"/>
-      <c r="D34" s="108"/>
+      <c r="D34" s="55"/>
       <c r="E34" s="38"/>
-      <c r="F34" s="108"/>
+      <c r="F34" s="55"/>
       <c r="G34" s="38"/>
-      <c r="H34" s="108"/>
+      <c r="H34" s="55"/>
       <c r="I34" s="38"/>
-      <c r="J34" s="108"/>
+      <c r="J34" s="55"/>
       <c r="K34" s="38"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="118"/>
-      <c r="B35" s="108"/>
+      <c r="A35" s="59"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="38"/>
-      <c r="D35" s="108"/>
+      <c r="D35" s="55"/>
       <c r="E35" s="38"/>
-      <c r="F35" s="108"/>
+      <c r="F35" s="55"/>
       <c r="G35" s="38"/>
-      <c r="H35" s="108"/>
+      <c r="H35" s="55"/>
       <c r="I35" s="38"/>
-      <c r="J35" s="108"/>
+      <c r="J35" s="55"/>
       <c r="K35" s="38"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="118"/>
-      <c r="B36" s="108"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="38"/>
-      <c r="D36" s="108"/>
+      <c r="D36" s="55"/>
       <c r="E36" s="38"/>
-      <c r="F36" s="108"/>
+      <c r="F36" s="55"/>
       <c r="G36" s="38"/>
-      <c r="H36" s="108"/>
+      <c r="H36" s="55"/>
       <c r="I36" s="38"/>
-      <c r="J36" s="108"/>
+      <c r="J36" s="55"/>
       <c r="K36" s="38"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="118"/>
-      <c r="B37" s="108"/>
+      <c r="A37" s="59"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="38"/>
-      <c r="D37" s="108"/>
+      <c r="D37" s="55"/>
       <c r="E37" s="38"/>
-      <c r="F37" s="108"/>
+      <c r="F37" s="55"/>
       <c r="G37" s="38"/>
-      <c r="H37" s="108"/>
+      <c r="H37" s="55"/>
       <c r="I37" s="38"/>
-      <c r="J37" s="108"/>
+      <c r="J37" s="55"/>
       <c r="K37" s="38"/>
     </row>
     <row r="38" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A38" s="119"/>
-      <c r="B38" s="109"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="39"/>
-      <c r="D38" s="109"/>
+      <c r="D38" s="56"/>
       <c r="E38" s="39"/>
-      <c r="F38" s="109"/>
+      <c r="F38" s="56"/>
       <c r="G38" s="39"/>
-      <c r="H38" s="109"/>
+      <c r="H38" s="56"/>
       <c r="I38" s="39"/>
-      <c r="J38" s="109"/>
+      <c r="J38" s="56"/>
       <c r="K38" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="B4:B19"/>
+    <mergeCell ref="D4:D19"/>
+    <mergeCell ref="F4:F19"/>
+    <mergeCell ref="H4:H19"/>
+    <mergeCell ref="J4:J19"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A12:A19"/>
     <mergeCell ref="J23:J38"/>
     <mergeCell ref="A31:A38"/>
     <mergeCell ref="A21:A22"/>
@@ -12942,19 +13111,6 @@
     <mergeCell ref="D23:D38"/>
     <mergeCell ref="F23:F38"/>
     <mergeCell ref="H23:H38"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="B4:B19"/>
-    <mergeCell ref="D4:D19"/>
-    <mergeCell ref="F4:F19"/>
-    <mergeCell ref="H4:H19"/>
-    <mergeCell ref="J4:J19"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A12:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/_meeting_weekly_doc/N2Team_WeeklySchedule_YSR.xlsx
+++ b/doc/_meeting_weekly_doc/N2Team_WeeklySchedule_YSR.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="-15" windowWidth="28020" windowHeight="3765" activeTab="2"/>
+    <workbookView xWindow="60" yWindow="-15" windowWidth="28020" windowHeight="3765" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="16년 공부" sheetId="5" r:id="rId1"/>
-    <sheet name="일정" sheetId="6" r:id="rId2"/>
-    <sheet name="11월4주" sheetId="4" r:id="rId3"/>
-    <sheet name="11월3주" sheetId="2" r:id="rId4"/>
-    <sheet name="11월 2주" sheetId="3" r:id="rId5"/>
-    <sheet name="11월1주" sheetId="1" r:id="rId6"/>
-    <sheet name="17년 공부" sheetId="7" r:id="rId7"/>
+    <sheet name="17년 공부" sheetId="7" r:id="rId1"/>
+    <sheet name="16년 공부" sheetId="5" r:id="rId2"/>
+    <sheet name="일정" sheetId="6" r:id="rId3"/>
+    <sheet name="11월 5주" sheetId="8" r:id="rId4"/>
+    <sheet name="11월4주" sheetId="4" r:id="rId5"/>
+    <sheet name="11월3주" sheetId="2" r:id="rId6"/>
+    <sheet name="11월 2주" sheetId="3" r:id="rId7"/>
+    <sheet name="11월1주" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="253">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1074,13 +1075,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>aabb , obb에 대한 이해가 없음
-half는 무엇을 하는데 사용되는것인가?
- - half 벡터는 각 축이랑 내적하면 길이를 구할 수 있다.
- - half 벡터를 구하기 위해서는 박스의 최대정점에서 박스의 중심점을 빼면 구할 수 있음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>* AABB , OBB에 대한 이해 ?
 half는 무엇을 하는데 사용되는것인가?
  - half 벡터는 각 축이랑 내적하면 길이를 구할 수 있다.
@@ -1093,23 +1087,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>* QuadTree에 바운딩 박스 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* Frustum Culling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 높이맵 만들기 및 culling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">aabb , obb에 대한 이해가 없음
+half는 무엇을 하는데 사용되는것인가?
+ - half 벡터는 각 축이랑 내적하면 길이를 구할 수 있다.
+ - half 벡터를 구하기 위해서는 박스의 최대정점에서 박스의 중심점을 빼면 구할 수 있음.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>★★★ KEY POINT ★★★</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * OBB박스 각축의 길이 내적의 합이 박스의 대각선 길이 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - OBB의 케어해야될 내용</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.28 ~ 12.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>* QuadTree에 바운딩 박스 구현해서 FrustumCulling 처리하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* QuadTree에 바운딩 박스 만들기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* Frustum Culling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 높이맵 만들기 및 culling</t>
+    <t>* QuadTree에 바운딩 박스 구현해서 FrustumCulling 처리하기
+&lt; Map TODO&gt;
+ Frustum &gt; QuadTree &gt; Height &gt; Object &gt; TileRender &gt; Light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* OBB와 평면과의 충돌 처리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - 평면의 노말과 OBB의 각 축의 내적의 합의 거리가 평면의 노말과 OBB center 정점과의 거리보다 크다면 충돌이다.</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1120,7 +1206,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1234,6 +1320,23 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -2123,7 +2226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2570,6 +2673,18 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2865,14 +2980,593 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K38"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="41" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="7.125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="41" style="36"/>
+    <col min="4" max="4" width="7.375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="41" style="36"/>
+    <col min="6" max="6" width="7.375" style="35" customWidth="1"/>
+    <col min="7" max="7" width="41" style="36"/>
+    <col min="8" max="8" width="7.375" style="35" customWidth="1"/>
+    <col min="9" max="9" width="41" style="36"/>
+    <col min="10" max="10" width="7.375" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="41" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
+    <row r="2" spans="1:11" s="42" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A2" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="40">
+        <v>42740</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="40">
+        <v>42739</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" s="40">
+        <v>42738</v>
+      </c>
+      <c r="H2" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="I2" s="40">
+        <v>42737</v>
+      </c>
+      <c r="J2" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="K2" s="40">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="42" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A3" s="62"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="41"/>
+    </row>
+    <row r="4" spans="1:11" ht="17.25" thickTop="1">
+      <c r="A4" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="54"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="37"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="52"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="38"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="52"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="38"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="52"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="38"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="52"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="38"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="52"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="38"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="52"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="38"/>
+    </row>
+    <row r="11" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A11" s="53"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="39"/>
+    </row>
+    <row r="12" spans="1:11" ht="17.25" thickTop="1">
+      <c r="A12" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="55"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="37"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="59"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="38"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="59"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="38"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="59"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="38"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="59"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="38"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="59"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="38"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="59"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="38"/>
+    </row>
+    <row r="19" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A19" s="60"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="39"/>
+    </row>
+    <row r="20" spans="1:11" ht="17.25" thickBot="1"/>
+    <row r="21" spans="1:11">
+      <c r="A21" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" s="40">
+        <v>42771</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="E21" s="40">
+        <v>42770</v>
+      </c>
+      <c r="F21" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" s="40">
+        <v>42769</v>
+      </c>
+      <c r="H21" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="I21" s="40">
+        <v>42768</v>
+      </c>
+      <c r="J21" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="K21" s="40">
+        <v>42767</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A22" s="62"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="41"/>
+    </row>
+    <row r="23" spans="1:11" ht="17.25" thickTop="1">
+      <c r="A23" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" s="54"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="37"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="52"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="38"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="52"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="38"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="52"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="38"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="52"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="38"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="52"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="38"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="52"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="38"/>
+    </row>
+    <row r="30" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A30" s="53"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="39"/>
+    </row>
+    <row r="31" spans="1:11" ht="17.25" thickTop="1">
+      <c r="A31" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="55"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="37"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="59"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="38"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="59"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="38"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="59"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="38"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="59"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="38"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="59"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="38"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="59"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="38"/>
+    </row>
+    <row r="38" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A38" s="60"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="B4:B19"/>
+    <mergeCell ref="D4:D19"/>
+    <mergeCell ref="F4:F19"/>
+    <mergeCell ref="H4:H19"/>
+    <mergeCell ref="J4:J19"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="J23:J38"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="B23:B38"/>
+    <mergeCell ref="D23:D38"/>
+    <mergeCell ref="F23:F38"/>
+    <mergeCell ref="H23:H38"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D26" sqref="D26"/>
+      <selection pane="topRight" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41" defaultRowHeight="16.5"/>
@@ -2888,12 +3582,10 @@
     <col min="9" max="9" width="7.375" style="35" customWidth="1"/>
     <col min="10" max="10" width="41" style="36"/>
     <col min="11" max="11" width="7.375" style="35" customWidth="1"/>
-    <col min="12" max="12" width="41" style="36"/>
-    <col min="13" max="13" width="7.375" style="35" customWidth="1"/>
-    <col min="14" max="16384" width="41" style="36"/>
+    <col min="12" max="16384" width="41" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="42" customFormat="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:11" s="42" customFormat="1" ht="16.5" customHeight="1">
       <c r="A1" s="61" t="s">
         <v>231</v>
       </c>
@@ -2906,170 +3598,134 @@
         <v>199</v>
       </c>
       <c r="F1" s="40"/>
-      <c r="G1" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="48"/>
-    </row>
-    <row r="2" spans="1:14" s="42" customFormat="1" ht="17.25" thickBot="1">
+      <c r="G1" s="57"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="48"/>
+    </row>
+    <row r="2" spans="1:11" s="42" customFormat="1" ht="17.25" thickBot="1">
       <c r="A2" s="62"/>
       <c r="B2" s="44"/>
       <c r="C2" s="64"/>
       <c r="D2" s="41"/>
       <c r="E2" s="64"/>
       <c r="F2" s="41"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="48"/>
-    </row>
-    <row r="3" spans="1:14" ht="132.75" thickTop="1">
+      <c r="G2" s="57"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="48"/>
+    </row>
+    <row r="3" spans="1:11" ht="132.75" thickTop="1">
       <c r="A3" s="51" t="s">
         <v>232</v>
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="54"/>
-      <c r="D3" s="37"/>
+      <c r="D3" s="37" t="s">
+        <v>210</v>
+      </c>
       <c r="E3" s="54"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="I3" s="54"/>
-      <c r="J3" s="37" t="s">
+      <c r="F3" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="48"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="G3" s="57"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="36"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="52"/>
       <c r="B4" s="46"/>
       <c r="C4" s="55"/>
       <c r="D4" s="38"/>
       <c r="E4" s="55"/>
       <c r="F4" s="38"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="48"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="G4" s="57"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="36"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="52"/>
       <c r="B5" s="46"/>
       <c r="C5" s="55"/>
       <c r="D5" s="38"/>
       <c r="E5" s="55"/>
       <c r="F5" s="38"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="48"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="G5" s="57"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="36"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="52"/>
       <c r="B6" s="46"/>
       <c r="C6" s="55"/>
       <c r="D6" s="38"/>
       <c r="E6" s="55"/>
       <c r="F6" s="38"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="48"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="G6" s="57"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="36"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="52"/>
       <c r="B7" s="46"/>
       <c r="C7" s="55"/>
       <c r="D7" s="38"/>
       <c r="E7" s="55"/>
       <c r="F7" s="38"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="48"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="G7" s="57"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="36"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="52"/>
       <c r="B8" s="46"/>
       <c r="C8" s="55"/>
       <c r="D8" s="38"/>
       <c r="E8" s="55"/>
       <c r="F8" s="38"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="48"/>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="G8" s="57"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="36"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="52"/>
       <c r="B9" s="46"/>
       <c r="C9" s="55"/>
       <c r="D9" s="38"/>
       <c r="E9" s="55"/>
       <c r="F9" s="38"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="48"/>
-    </row>
-    <row r="10" spans="1:14" ht="17.25" thickBot="1">
+      <c r="G9" s="57"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="36"/>
+    </row>
+    <row r="10" spans="1:11" ht="17.25" thickBot="1">
       <c r="A10" s="53"/>
       <c r="B10" s="46"/>
       <c r="C10" s="55"/>
       <c r="D10" s="39"/>
       <c r="E10" s="55"/>
       <c r="F10" s="39"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="48"/>
-    </row>
-    <row r="11" spans="1:14" ht="17.25" thickTop="1">
+      <c r="G10" s="57"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="36"/>
+    </row>
+    <row r="11" spans="1:11" ht="17.25" thickTop="1">
       <c r="A11" s="58" t="s">
         <v>233</v>
       </c>
@@ -3078,129 +3734,105 @@
       <c r="D11" s="37"/>
       <c r="E11" s="55"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="48"/>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="G11" s="57"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="36"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="59"/>
       <c r="B12" s="46"/>
       <c r="C12" s="55"/>
       <c r="D12" s="38"/>
       <c r="E12" s="55"/>
       <c r="F12" s="38"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="48"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="G12" s="57"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="36"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="59"/>
       <c r="B13" s="46"/>
       <c r="C13" s="55"/>
       <c r="D13" s="38"/>
       <c r="E13" s="55"/>
       <c r="F13" s="38"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="48"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="G13" s="57"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="36"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="59"/>
       <c r="B14" s="46"/>
       <c r="C14" s="55"/>
       <c r="D14" s="38"/>
       <c r="E14" s="55"/>
       <c r="F14" s="38"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="48"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="G14" s="57"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="36"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="59"/>
       <c r="B15" s="46"/>
       <c r="C15" s="55"/>
       <c r="D15" s="38"/>
       <c r="E15" s="55"/>
       <c r="F15" s="38"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="48"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="G15" s="57"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="36"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="59"/>
       <c r="B16" s="46"/>
       <c r="C16" s="55"/>
       <c r="D16" s="38"/>
       <c r="E16" s="55"/>
       <c r="F16" s="38"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="48"/>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="G16" s="57"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="36"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="59"/>
       <c r="B17" s="46"/>
       <c r="C17" s="55"/>
       <c r="D17" s="38"/>
       <c r="E17" s="55"/>
       <c r="F17" s="38"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="48"/>
-    </row>
-    <row r="18" spans="1:14" ht="17.25" thickBot="1">
+      <c r="G17" s="57"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="36"/>
+    </row>
+    <row r="18" spans="1:12" ht="17.25" thickBot="1">
       <c r="A18" s="60"/>
       <c r="B18" s="46"/>
       <c r="C18" s="56"/>
       <c r="D18" s="39"/>
       <c r="E18" s="56"/>
       <c r="F18" s="39"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="48"/>
-    </row>
-    <row r="19" spans="1:14" ht="17.25" thickBot="1"/>
-    <row r="20" spans="1:14" s="42" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G18" s="57"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="36"/>
+    </row>
+    <row r="19" spans="1:12" ht="17.25" thickBot="1"/>
+    <row r="20" spans="1:12" s="42" customFormat="1" ht="16.5" customHeight="1">
       <c r="A20" s="65" t="s">
         <v>234</v>
       </c>
@@ -3209,68 +3841,58 @@
         <v>199</v>
       </c>
       <c r="D20" s="40">
-        <v>42703</v>
+        <v>42704</v>
       </c>
       <c r="E20" s="63" t="s">
         <v>199</v>
       </c>
       <c r="F20" s="40">
-        <v>42702</v>
+        <v>42700</v>
       </c>
       <c r="G20" s="63" t="s">
         <v>199</v>
       </c>
       <c r="H20" s="40">
-        <v>42700</v>
+        <v>42699</v>
       </c>
       <c r="I20" s="63" t="s">
         <v>199</v>
       </c>
       <c r="J20" s="40">
-        <v>42699</v>
+        <v>42698</v>
       </c>
       <c r="K20" s="63" t="s">
         <v>199</v>
       </c>
       <c r="L20" s="40">
-        <v>42698</v>
-      </c>
-      <c r="M20" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="N20" s="40">
         <v>42697</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="42" customFormat="1" ht="17.25" thickBot="1">
+    <row r="21" spans="1:12" s="42" customFormat="1" ht="17.25" thickBot="1">
       <c r="A21" s="62"/>
       <c r="B21" s="44"/>
       <c r="C21" s="64"/>
       <c r="D21" s="41" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E21" s="64"/>
       <c r="F21" s="41" t="s">
-        <v>6</v>
+        <v>227</v>
       </c>
       <c r="G21" s="64"/>
       <c r="H21" s="41" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="I21" s="64"/>
       <c r="J21" s="41" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K21" s="64"/>
       <c r="L21" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="M21" s="64"/>
-      <c r="N21" s="41" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="83.25" thickTop="1">
+    <row r="22" spans="1:12" ht="83.25" thickTop="1">
       <c r="A22" s="51" t="s">
         <v>232</v>
       </c>
@@ -3278,83 +3900,77 @@
       <c r="C22" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="D22" s="37"/>
+      <c r="D22" s="152" t="s">
+        <v>252</v>
+      </c>
       <c r="E22" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="G22" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="54" t="s">
-        <v>228</v>
-      </c>
       <c r="H22" s="37" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="I22" s="54" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="J22" s="37" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K22" s="54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L22" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="M22" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="N22" s="37" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="165">
+    <row r="23" spans="1:12" ht="165">
       <c r="A23" s="52"/>
       <c r="B23" s="46"/>
       <c r="C23" s="55"/>
       <c r="D23" s="38"/>
       <c r="E23" s="55"/>
-      <c r="F23" s="38"/>
+      <c r="F23" s="38" t="s">
+        <v>237</v>
+      </c>
       <c r="G23" s="55"/>
       <c r="H23" s="38" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="I23" s="55"/>
       <c r="J23" s="38" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="K23" s="55"/>
       <c r="L23" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="M23" s="55"/>
-      <c r="N23" s="38" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="99">
+    <row r="24" spans="1:12" ht="99">
       <c r="A24" s="52"/>
       <c r="B24" s="46"/>
       <c r="C24" s="55"/>
       <c r="D24" s="38"/>
       <c r="E24" s="55"/>
-      <c r="F24" s="38"/>
+      <c r="F24" s="38" t="s">
+        <v>242</v>
+      </c>
       <c r="G24" s="55"/>
       <c r="H24" s="38" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="I24" s="55"/>
-      <c r="J24" s="38" t="s">
-        <v>216</v>
-      </c>
+      <c r="J24" s="38"/>
       <c r="K24" s="55"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="38" t="s">
+      <c r="L24" s="38" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="115.5">
+    <row r="25" spans="1:12" ht="115.5">
       <c r="A25" s="52"/>
       <c r="B25" s="46"/>
       <c r="C25" s="55"/>
@@ -3362,19 +3978,17 @@
       <c r="E25" s="55"/>
       <c r="F25" s="38"/>
       <c r="G25" s="55"/>
-      <c r="H25" s="38"/>
+      <c r="H25" s="38" t="s">
+        <v>229</v>
+      </c>
       <c r="I25" s="55"/>
-      <c r="J25" s="38" t="s">
-        <v>229</v>
-      </c>
+      <c r="J25" s="38"/>
       <c r="K25" s="55"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="38" t="s">
+      <c r="L25" s="38" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="49.5">
+    <row r="26" spans="1:12" ht="49.5">
       <c r="A26" s="52"/>
       <c r="B26" s="46"/>
       <c r="C26" s="55"/>
@@ -3382,19 +3996,17 @@
       <c r="E26" s="55"/>
       <c r="F26" s="38"/>
       <c r="G26" s="55"/>
-      <c r="H26" s="38"/>
+      <c r="H26" s="38" t="s">
+        <v>217</v>
+      </c>
       <c r="I26" s="55"/>
-      <c r="J26" s="38" t="s">
-        <v>217</v>
-      </c>
+      <c r="J26" s="38"/>
       <c r="K26" s="55"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="38" t="s">
+      <c r="L26" s="38" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="33">
+    <row r="27" spans="1:12" ht="33">
       <c r="A27" s="52"/>
       <c r="B27" s="46"/>
       <c r="C27" s="55"/>
@@ -3402,17 +4014,15 @@
       <c r="E27" s="55"/>
       <c r="F27" s="38"/>
       <c r="G27" s="55"/>
-      <c r="H27" s="38"/>
+      <c r="H27" s="49" t="s">
+        <v>225</v>
+      </c>
       <c r="I27" s="55"/>
-      <c r="J27" s="49" t="s">
-        <v>225</v>
-      </c>
+      <c r="J27" s="38"/>
       <c r="K27" s="55"/>
       <c r="L27" s="38"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="38"/>
-    </row>
-    <row r="28" spans="1:14">
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="52"/>
       <c r="B28" s="46"/>
       <c r="C28" s="55"/>
@@ -3425,10 +4035,8 @@
       <c r="J28" s="38"/>
       <c r="K28" s="55"/>
       <c r="L28" s="38"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="38"/>
-    </row>
-    <row r="29" spans="1:14" ht="17.25" thickBot="1">
+    </row>
+    <row r="29" spans="1:12" ht="17.25" thickBot="1">
       <c r="A29" s="53"/>
       <c r="B29" s="46"/>
       <c r="C29" s="55"/>
@@ -3441,10 +4049,8 @@
       <c r="J29" s="39"/>
       <c r="K29" s="55"/>
       <c r="L29" s="39"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="39"/>
-    </row>
-    <row r="30" spans="1:14" ht="83.25" thickTop="1">
+    </row>
+    <row r="30" spans="1:12" ht="83.25" thickTop="1">
       <c r="A30" s="58" t="s">
         <v>233</v>
       </c>
@@ -3452,21 +4058,19 @@
       <c r="C30" s="55"/>
       <c r="D30" s="38"/>
       <c r="E30" s="55"/>
-      <c r="F30" s="38"/>
+      <c r="F30" s="49" t="s">
+        <v>226</v>
+      </c>
       <c r="G30" s="55"/>
-      <c r="H30" s="49" t="s">
-        <v>226</v>
+      <c r="H30" s="37" t="s">
+        <v>213</v>
       </c>
       <c r="I30" s="55"/>
-      <c r="J30" s="37" t="s">
-        <v>213</v>
-      </c>
+      <c r="J30" s="37"/>
       <c r="K30" s="55"/>
       <c r="L30" s="37"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="37"/>
-    </row>
-    <row r="31" spans="1:14">
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="59"/>
       <c r="B31" s="46"/>
       <c r="C31" s="55"/>
@@ -3474,17 +4078,15 @@
       <c r="E31" s="55"/>
       <c r="F31" s="38"/>
       <c r="G31" s="55"/>
-      <c r="H31" s="38"/>
+      <c r="H31" s="38" t="s">
+        <v>214</v>
+      </c>
       <c r="I31" s="55"/>
-      <c r="J31" s="38" t="s">
-        <v>214</v>
-      </c>
+      <c r="J31" s="38"/>
       <c r="K31" s="55"/>
       <c r="L31" s="38"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="38"/>
-    </row>
-    <row r="32" spans="1:14" ht="33">
+    </row>
+    <row r="32" spans="1:12" ht="33">
       <c r="A32" s="59"/>
       <c r="B32" s="46"/>
       <c r="C32" s="55"/>
@@ -3492,17 +4094,15 @@
       <c r="E32" s="55"/>
       <c r="F32" s="38"/>
       <c r="G32" s="55"/>
-      <c r="H32" s="38"/>
+      <c r="H32" s="38" t="s">
+        <v>218</v>
+      </c>
       <c r="I32" s="55"/>
-      <c r="J32" s="38" t="s">
-        <v>218</v>
-      </c>
+      <c r="J32" s="38"/>
       <c r="K32" s="55"/>
       <c r="L32" s="38"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="38"/>
-    </row>
-    <row r="33" spans="1:14">
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="59"/>
       <c r="B33" s="46"/>
       <c r="C33" s="55"/>
@@ -3510,17 +4110,15 @@
       <c r="E33" s="55"/>
       <c r="F33" s="38"/>
       <c r="G33" s="55"/>
-      <c r="H33" s="38"/>
+      <c r="H33" s="38" t="s">
+        <v>219</v>
+      </c>
       <c r="I33" s="55"/>
-      <c r="J33" s="38" t="s">
-        <v>219</v>
-      </c>
+      <c r="J33" s="38"/>
       <c r="K33" s="55"/>
       <c r="L33" s="38"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="38"/>
-    </row>
-    <row r="34" spans="1:14" ht="49.5">
+    </row>
+    <row r="34" spans="1:12" ht="49.5">
       <c r="A34" s="59"/>
       <c r="B34" s="46"/>
       <c r="C34" s="55"/>
@@ -3528,17 +4126,15 @@
       <c r="E34" s="55"/>
       <c r="F34" s="38"/>
       <c r="G34" s="55"/>
-      <c r="H34" s="38"/>
+      <c r="H34" s="38" t="s">
+        <v>220</v>
+      </c>
       <c r="I34" s="55"/>
-      <c r="J34" s="38" t="s">
-        <v>220</v>
-      </c>
+      <c r="J34" s="38"/>
       <c r="K34" s="55"/>
       <c r="L34" s="38"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="38"/>
-    </row>
-    <row r="35" spans="1:14">
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="59"/>
       <c r="B35" s="46"/>
       <c r="C35" s="55"/>
@@ -3551,10 +4147,8 @@
       <c r="J35" s="38"/>
       <c r="K35" s="55"/>
       <c r="L35" s="38"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="38"/>
-    </row>
-    <row r="36" spans="1:14">
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="59"/>
       <c r="B36" s="46"/>
       <c r="C36" s="55"/>
@@ -3567,10 +4161,8 @@
       <c r="J36" s="38"/>
       <c r="K36" s="55"/>
       <c r="L36" s="38"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="38"/>
-    </row>
-    <row r="37" spans="1:14" ht="17.25" thickBot="1">
+    </row>
+    <row r="37" spans="1:12" ht="17.25" thickBot="1">
       <c r="A37" s="60"/>
       <c r="B37" s="46"/>
       <c r="C37" s="56"/>
@@ -3583,11 +4175,9 @@
       <c r="J37" s="39"/>
       <c r="K37" s="56"/>
       <c r="L37" s="39"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="39"/>
-    </row>
-    <row r="38" spans="1:14" ht="17.25" thickBot="1"/>
-    <row r="39" spans="1:14">
+    </row>
+    <row r="38" spans="1:12" ht="17.25" thickBot="1"/>
+    <row r="39" spans="1:12">
       <c r="A39" s="65" t="s">
         <v>235</v>
       </c>
@@ -3595,53 +4185,35 @@
       <c r="C39" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="D39" s="40"/>
+      <c r="D39" s="40">
+        <v>42706</v>
+      </c>
       <c r="E39" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="F39" s="40"/>
-      <c r="G39" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="H39" s="40"/>
-      <c r="I39" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="J39" s="40"/>
-      <c r="K39" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="L39" s="40">
-        <v>42706</v>
-      </c>
-      <c r="M39" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="N39" s="40">
+      <c r="F39" s="40">
         <v>42705</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="17.25" thickBot="1">
+      <c r="G39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="K39" s="36"/>
+    </row>
+    <row r="40" spans="1:12" ht="17.25" thickBot="1">
       <c r="A40" s="62"/>
       <c r="B40" s="44"/>
       <c r="C40" s="64"/>
-      <c r="D40" s="41"/>
+      <c r="D40" s="41" t="s">
+        <v>200</v>
+      </c>
       <c r="E40" s="64"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="M40" s="64"/>
-      <c r="N40" s="41" t="s">
+      <c r="F40" s="41" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="17.25" thickTop="1">
+      <c r="G40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="K40" s="36"/>
+    </row>
+    <row r="41" spans="1:12" ht="17.25" thickTop="1">
       <c r="A41" s="51" t="s">
         <v>232</v>
       </c>
@@ -3650,128 +4222,88 @@
       <c r="D41" s="37"/>
       <c r="E41" s="54"/>
       <c r="F41" s="37"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="37"/>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="G41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="K41" s="36"/>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="52"/>
       <c r="B42" s="46"/>
       <c r="C42" s="55"/>
       <c r="D42" s="38"/>
       <c r="E42" s="55"/>
       <c r="F42" s="38"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="38"/>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="G42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="K42" s="36"/>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="52"/>
       <c r="B43" s="46"/>
       <c r="C43" s="55"/>
       <c r="D43" s="38"/>
       <c r="E43" s="55"/>
       <c r="F43" s="38"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="55"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="55"/>
-      <c r="N43" s="38"/>
-    </row>
-    <row r="44" spans="1:14">
+      <c r="G43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="K43" s="36"/>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="52"/>
       <c r="B44" s="46"/>
       <c r="C44" s="55"/>
       <c r="D44" s="38"/>
       <c r="E44" s="55"/>
       <c r="F44" s="38"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="38"/>
-    </row>
-    <row r="45" spans="1:14">
+      <c r="G44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="K44" s="36"/>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="52"/>
       <c r="B45" s="46"/>
       <c r="C45" s="55"/>
       <c r="D45" s="38"/>
       <c r="E45" s="55"/>
       <c r="F45" s="38"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="55"/>
-      <c r="N45" s="38"/>
-    </row>
-    <row r="46" spans="1:14">
+      <c r="G45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="K45" s="36"/>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="52"/>
       <c r="B46" s="46"/>
       <c r="C46" s="55"/>
       <c r="D46" s="38"/>
       <c r="E46" s="55"/>
       <c r="F46" s="38"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="55"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="55"/>
-      <c r="N46" s="38"/>
-    </row>
-    <row r="47" spans="1:14">
+      <c r="G46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="K46" s="36"/>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="52"/>
       <c r="B47" s="46"/>
       <c r="C47" s="55"/>
       <c r="D47" s="38"/>
       <c r="E47" s="55"/>
       <c r="F47" s="38"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="55"/>
-      <c r="N47" s="38"/>
-    </row>
-    <row r="48" spans="1:14" ht="17.25" thickBot="1">
+      <c r="G47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="K47" s="36"/>
+    </row>
+    <row r="48" spans="1:12" ht="17.25" thickBot="1">
       <c r="A48" s="53"/>
       <c r="B48" s="46"/>
       <c r="C48" s="55"/>
       <c r="D48" s="39"/>
       <c r="E48" s="55"/>
       <c r="F48" s="39"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="55"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="55"/>
-      <c r="N48" s="39"/>
-    </row>
-    <row r="49" spans="1:14" ht="17.25" thickTop="1">
+      <c r="G48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="K48" s="36"/>
+    </row>
+    <row r="49" spans="1:11" ht="17.25" thickTop="1">
       <c r="A49" s="58" t="s">
         <v>233</v>
       </c>
@@ -3780,174 +4312,120 @@
       <c r="D49" s="37"/>
       <c r="E49" s="55"/>
       <c r="F49" s="37"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="55"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="55"/>
-      <c r="N49" s="37"/>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="G49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="K49" s="36"/>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="59"/>
       <c r="B50" s="46"/>
       <c r="C50" s="55"/>
       <c r="D50" s="38"/>
       <c r="E50" s="55"/>
       <c r="F50" s="38"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="55"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="55"/>
-      <c r="N50" s="38"/>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="G50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="K50" s="36"/>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="59"/>
       <c r="B51" s="46"/>
       <c r="C51" s="55"/>
       <c r="D51" s="38"/>
       <c r="E51" s="55"/>
       <c r="F51" s="38"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="55"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="55"/>
-      <c r="N51" s="38"/>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="G51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="K51" s="36"/>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="59"/>
       <c r="B52" s="46"/>
       <c r="C52" s="55"/>
       <c r="D52" s="38"/>
       <c r="E52" s="55"/>
       <c r="F52" s="38"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="55"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="55"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="55"/>
-      <c r="N52" s="38"/>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="G52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="K52" s="36"/>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="59"/>
       <c r="B53" s="46"/>
       <c r="C53" s="55"/>
       <c r="D53" s="38"/>
       <c r="E53" s="55"/>
       <c r="F53" s="38"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="55"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="55"/>
-      <c r="N53" s="38"/>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="G53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="K53" s="36"/>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="59"/>
       <c r="B54" s="46"/>
       <c r="C54" s="55"/>
       <c r="D54" s="38"/>
       <c r="E54" s="55"/>
       <c r="F54" s="38"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="55"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="55"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="55"/>
-      <c r="N54" s="38"/>
-    </row>
-    <row r="55" spans="1:14">
+      <c r="G54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="K54" s="36"/>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="59"/>
       <c r="B55" s="46"/>
       <c r="C55" s="55"/>
       <c r="D55" s="38"/>
       <c r="E55" s="55"/>
       <c r="F55" s="38"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="55"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="55"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="55"/>
-      <c r="N55" s="38"/>
-    </row>
-    <row r="56" spans="1:14" ht="17.25" thickBot="1">
+      <c r="G55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="K55" s="36"/>
+    </row>
+    <row r="56" spans="1:11" ht="17.25" thickBot="1">
       <c r="A56" s="60"/>
       <c r="B56" s="46"/>
       <c r="C56" s="56"/>
       <c r="D56" s="39"/>
       <c r="E56" s="56"/>
       <c r="F56" s="39"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="56"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="56"/>
-      <c r="N56" s="39"/>
+      <c r="G56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="K56" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="G22:G37"/>
-    <mergeCell ref="G20:G21"/>
+  <mergeCells count="31">
+    <mergeCell ref="E22:E37"/>
+    <mergeCell ref="E20:E21"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A29"/>
     <mergeCell ref="A30:A37"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C37"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E37"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="K22:K37"/>
     <mergeCell ref="I20:I21"/>
     <mergeCell ref="I22:I37"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="M3:M18"/>
-    <mergeCell ref="M22:M37"/>
-    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G37"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="I3:I18"/>
+    <mergeCell ref="K22:K37"/>
+    <mergeCell ref="K20:K21"/>
     <mergeCell ref="A49:A56"/>
-    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="E39:E40"/>
     <mergeCell ref="A41:A48"/>
+    <mergeCell ref="C41:C56"/>
     <mergeCell ref="E41:E56"/>
-    <mergeCell ref="G41:G56"/>
-    <mergeCell ref="I41:I56"/>
-    <mergeCell ref="K41:K56"/>
-    <mergeCell ref="M41:M56"/>
     <mergeCell ref="A39:A40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="K39:K40"/>
     <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C56"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="C1:C2"/>
     <mergeCell ref="A3:A10"/>
+    <mergeCell ref="C3:C18"/>
     <mergeCell ref="E3:E18"/>
     <mergeCell ref="G3:G18"/>
-    <mergeCell ref="I3:I18"/>
-    <mergeCell ref="K3:K18"/>
     <mergeCell ref="A11:A18"/>
-    <mergeCell ref="C3:C18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3955,7 +4433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -10817,12 +11295,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -10859,7 +11337,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="75" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="H2" s="77"/>
     </row>
@@ -10868,336 +11346,300 @@
         <v>3</v>
       </c>
       <c r="B3" s="79"/>
-      <c r="C3" s="80" t="s">
-        <v>241</v>
-      </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="82"/>
+      <c r="C3" s="149" t="s">
+        <v>250</v>
+      </c>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="151"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="83" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="84"/>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="87"/>
-    </row>
-    <row r="5" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="118"/>
+    </row>
+    <row r="5" spans="1:8" ht="74.25" customHeight="1" thickTop="1">
       <c r="A5" s="88">
-        <v>42695</v>
+        <v>42702</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="92"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="120"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="89"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="95"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="123"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1">
       <c r="A7" s="90"/>
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="96" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="98"/>
-    </row>
-    <row r="8" spans="1:8" ht="18" thickTop="1">
+      <c r="C7" s="124"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="126"/>
+    </row>
+    <row r="8" spans="1:8" ht="24" customHeight="1" thickTop="1">
       <c r="A8" s="88">
-        <v>42696</v>
+        <v>42703</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="91" t="s">
-        <v>230</v>
-      </c>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="92"/>
-    </row>
-    <row r="9" spans="1:8" ht="76.5" customHeight="1">
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="120"/>
+    </row>
+    <row r="9" spans="1:8" ht="40.5" customHeight="1">
       <c r="A9" s="89"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="94" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="95"/>
-    </row>
-    <row r="10" spans="1:8" ht="24" customHeight="1" thickBot="1">
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="123"/>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" thickBot="1">
       <c r="A10" s="90"/>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="96" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="98"/>
-    </row>
-    <row r="11" spans="1:8" ht="18" thickTop="1">
+      <c r="C10" s="124"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="126"/>
+    </row>
+    <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
       <c r="A11" s="88">
-        <v>42697</v>
+        <v>42704</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="91" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="92"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="120"/>
+    </row>
+    <row r="12" spans="1:8" ht="126" customHeight="1">
       <c r="A12" s="89"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="95"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" thickBot="1">
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="123"/>
+    </row>
+    <row r="13" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
       <c r="A13" s="90"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="98"/>
-    </row>
-    <row r="14" spans="1:8" ht="18" thickTop="1">
+      <c r="C13" s="124"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="126"/>
+    </row>
+    <row r="14" spans="1:8" ht="66" customHeight="1" thickTop="1">
       <c r="A14" s="88">
-        <v>42698</v>
+        <v>42705</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="91" t="s">
-        <v>238</v>
-      </c>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="92"/>
-    </row>
-    <row r="15" spans="1:8" ht="78.75" customHeight="1">
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="120"/>
+    </row>
+    <row r="15" spans="1:8" ht="45.75" customHeight="1">
       <c r="A15" s="89"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="94" t="s">
-        <v>242</v>
-      </c>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="95"/>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" thickBot="1">
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="123"/>
+    </row>
+    <row r="16" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
       <c r="A16" s="90"/>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="96" t="s">
-        <v>238</v>
-      </c>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="98"/>
-    </row>
-    <row r="17" spans="1:8" ht="18" thickTop="1">
+      <c r="C16" s="124"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="126"/>
+    </row>
+    <row r="17" spans="1:8" ht="64.5" customHeight="1" thickTop="1">
       <c r="A17" s="88">
-        <v>42699</v>
+        <v>42706</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="91" t="s">
-        <v>239</v>
-      </c>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="92"/>
-    </row>
-    <row r="18" spans="1:8" ht="73.5" customHeight="1">
+      <c r="C17" s="127"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="129"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="89"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="99" t="s">
-        <v>244</v>
-      </c>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="101"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="132"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
       <c r="A19" s="90"/>
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="103"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="134"/>
     </row>
     <row r="20" spans="1:8" ht="39.75" customHeight="1" thickTop="1">
       <c r="A20" s="106" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="107"/>
-      <c r="C20" s="108" t="s">
-        <v>245</v>
-      </c>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="110"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="139"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
-        <v>42702</v>
+        <v>42695</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="111" t="s">
-        <v>248</v>
-      </c>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="112"/>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" customHeight="1">
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="141"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="6">
-        <v>42703</v>
+        <v>42696</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="111" t="s">
-        <v>248</v>
-      </c>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="112"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="141"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
-        <v>42704</v>
+        <v>42697</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="111" t="s">
-        <v>247</v>
-      </c>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="112"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="141"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
-        <v>42705</v>
+        <v>42698</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="111" t="s">
-        <v>247</v>
-      </c>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="112"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="141"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A25" s="6">
-        <v>42706</v>
+      <c r="A25" s="8">
+        <v>42699</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="104" t="s">
-        <v>249</v>
-      </c>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="105"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="136"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
@@ -11245,7 +11687,440 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="31.25" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="39" thickBot="1">
+      <c r="A1" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" thickTop="1">
+      <c r="A2" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="76"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="H2" s="77"/>
+    </row>
+    <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
+      <c r="A3" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="79"/>
+      <c r="C3" s="80" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A4" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="84"/>
+      <c r="C4" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="87"/>
+    </row>
+    <row r="5" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
+      <c r="A5" s="88">
+        <v>42695</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="92"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="89"/>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="95"/>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A7" s="90"/>
+      <c r="B7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="98"/>
+    </row>
+    <row r="8" spans="1:8" ht="18" thickTop="1">
+      <c r="A8" s="88">
+        <v>42696</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="92"/>
+    </row>
+    <row r="9" spans="1:8" ht="76.5" customHeight="1">
+      <c r="A9" s="89"/>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="94" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="95"/>
+    </row>
+    <row r="10" spans="1:8" ht="24" customHeight="1" thickBot="1">
+      <c r="A10" s="90"/>
+      <c r="B10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="98"/>
+    </row>
+    <row r="11" spans="1:8" ht="18" thickTop="1">
+      <c r="A11" s="88">
+        <v>42697</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="92"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="89"/>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="95"/>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A13" s="90"/>
+      <c r="B13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="96"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="98"/>
+    </row>
+    <row r="14" spans="1:8" ht="18" thickTop="1">
+      <c r="A14" s="88">
+        <v>42698</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>238</v>
+      </c>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="92"/>
+    </row>
+    <row r="15" spans="1:8" ht="149.25" customHeight="1">
+      <c r="A15" s="89"/>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="94" t="s">
+        <v>247</v>
+      </c>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="95"/>
+    </row>
+    <row r="16" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A16" s="90"/>
+      <c r="B16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="98"/>
+    </row>
+    <row r="17" spans="1:8" ht="18" thickTop="1">
+      <c r="A17" s="88">
+        <v>42699</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="92"/>
+    </row>
+    <row r="18" spans="1:8" ht="73.5" customHeight="1">
+      <c r="A18" s="89"/>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="99" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="101"/>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A19" s="90"/>
+      <c r="B19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="103"/>
+    </row>
+    <row r="20" spans="1:8" ht="39.75" customHeight="1" thickTop="1">
+      <c r="A20" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="107"/>
+      <c r="C20" s="108" t="s">
+        <v>249</v>
+      </c>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="110"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6">
+        <v>42702</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="111" t="s">
+        <v>245</v>
+      </c>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="112"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A22" s="6">
+        <v>42703</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="111" t="s">
+        <v>245</v>
+      </c>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="112"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6">
+        <v>42704</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="111" t="s">
+        <v>244</v>
+      </c>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="112"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6">
+        <v>42705</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="111" t="s">
+        <v>244</v>
+      </c>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="112"/>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A25" s="6">
+        <v>42706</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="104" t="s">
+        <v>246</v>
+      </c>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="105"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="82" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -11254,7 +12129,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11676,7 +12551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -12101,7 +12976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -12536,583 +13411,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="82" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K38"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="41" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="7.125" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="41" style="36"/>
-    <col min="4" max="4" width="7.375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="41" style="36"/>
-    <col min="6" max="6" width="7.375" style="35" customWidth="1"/>
-    <col min="7" max="7" width="41" style="36"/>
-    <col min="8" max="8" width="7.375" style="35" customWidth="1"/>
-    <col min="9" max="9" width="41" style="36"/>
-    <col min="10" max="10" width="7.375" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="41" style="36"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
-    <row r="2" spans="1:11" s="42" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="61" t="s">
-        <v>201</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="40">
-        <v>42740</v>
-      </c>
-      <c r="D2" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" s="40">
-        <v>42739</v>
-      </c>
-      <c r="F2" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="G2" s="40">
-        <v>42738</v>
-      </c>
-      <c r="H2" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="40">
-        <v>42737</v>
-      </c>
-      <c r="J2" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="K2" s="40">
-        <v>42736</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="42" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A3" s="62"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="41"/>
-    </row>
-    <row r="4" spans="1:11" ht="17.25" thickTop="1">
-      <c r="A4" s="51" t="s">
-        <v>197</v>
-      </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="37"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="52"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="38"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="52"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="38"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="52"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="38"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="52"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="38"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="52"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="38"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="52"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="38"/>
-    </row>
-    <row r="11" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="39"/>
-    </row>
-    <row r="12" spans="1:11" ht="17.25" thickTop="1">
-      <c r="A12" s="58" t="s">
-        <v>198</v>
-      </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="37"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="59"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="38"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="59"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="38"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="59"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="38"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="59"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="38"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="59"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="38"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="59"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="38"/>
-    </row>
-    <row r="19" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A19" s="60"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="39"/>
-    </row>
-    <row r="20" spans="1:11" ht="17.25" thickBot="1"/>
-    <row r="21" spans="1:11">
-      <c r="A21" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="B21" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="C21" s="40">
-        <v>42771</v>
-      </c>
-      <c r="D21" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="E21" s="40">
-        <v>42770</v>
-      </c>
-      <c r="F21" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="G21" s="40">
-        <v>42769</v>
-      </c>
-      <c r="H21" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="I21" s="40">
-        <v>42768</v>
-      </c>
-      <c r="J21" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="K21" s="40">
-        <v>42767</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A22" s="62"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="41"/>
-    </row>
-    <row r="23" spans="1:11" ht="17.25" thickTop="1">
-      <c r="A23" s="51" t="s">
-        <v>197</v>
-      </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="37"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="52"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="38"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="52"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="38"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="52"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="38"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="52"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="38"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="52"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="38"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="52"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="38"/>
-    </row>
-    <row r="30" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A30" s="53"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="39"/>
-    </row>
-    <row r="31" spans="1:11" ht="17.25" thickTop="1">
-      <c r="A31" s="58" t="s">
-        <v>198</v>
-      </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="37"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="59"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="38"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="59"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="38"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="59"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="38"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="59"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="38"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="59"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="38"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="59"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="38"/>
-    </row>
-    <row r="38" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A38" s="60"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="39"/>
-    </row>
-  </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="B4:B19"/>
-    <mergeCell ref="D4:D19"/>
-    <mergeCell ref="F4:F19"/>
-    <mergeCell ref="H4:H19"/>
-    <mergeCell ref="J4:J19"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="J23:J38"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="B23:B38"/>
-    <mergeCell ref="D23:D38"/>
-    <mergeCell ref="F23:F38"/>
-    <mergeCell ref="H23:H38"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/_meeting_weekly_doc/N2Team_WeeklySchedule_YSR.xlsx
+++ b/doc/_meeting_weekly_doc/N2Team_WeeklySchedule_YSR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="-15" windowWidth="28020" windowHeight="3765"/>
+    <workbookView xWindow="60" yWindow="-15" windowWidth="28020" windowHeight="3765" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="279">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1331,6 +1331,15 @@
   </si>
   <si>
     <t>수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* HeightMap 이해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* HeightMap 이해 &amp; 코딩 
+* 오브젝트 배치 &amp; Frustum culling</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3135,11 +3144,11 @@
   </sheetPr>
   <dimension ref="A1:BC128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O6" sqref="N6:O6"/>
+      <selection pane="bottomRight" activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10001,9 +10010,9 @@
   </sheetPr>
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H43" sqref="H43"/>
+      <selection pane="topRight" activeCell="E41" sqref="E41:E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41" defaultRowHeight="16.5"/>
@@ -10896,8 +10905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -10973,7 +10982,9 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="68" t="s">
+        <v>277</v>
+      </c>
       <c r="D5" s="68"/>
       <c r="E5" s="68"/>
       <c r="F5" s="68"/>
@@ -11011,7 +11022,9 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="68"/>
+      <c r="C8" s="68" t="s">
+        <v>278</v>
+      </c>
       <c r="D8" s="68"/>
       <c r="E8" s="68"/>
       <c r="F8" s="68"/>

--- a/doc/_meeting_weekly_doc/N2Team_WeeklySchedule_YSR.xlsx
+++ b/doc/_meeting_weekly_doc/N2Team_WeeklySchedule_YSR.xlsx
@@ -4,25 +4,26 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="-15" windowWidth="28020" windowHeight="3765" activeTab="2"/>
+    <workbookView xWindow="60" yWindow="-15" windowWidth="28020" windowHeight="3765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="6" r:id="rId1"/>
     <sheet name="16년 공부" sheetId="5" r:id="rId2"/>
-    <sheet name="12월2주" sheetId="9" r:id="rId3"/>
-    <sheet name="12월1주" sheetId="8" r:id="rId4"/>
-    <sheet name="11월4주" sheetId="4" r:id="rId5"/>
-    <sheet name="11월3주" sheetId="2" r:id="rId6"/>
-    <sheet name="11월 2주" sheetId="3" r:id="rId7"/>
-    <sheet name="11월1주" sheetId="1" r:id="rId8"/>
-    <sheet name="17년 공부" sheetId="7" r:id="rId9"/>
+    <sheet name="12월 3주" sheetId="10" r:id="rId3"/>
+    <sheet name="12월2주" sheetId="9" r:id="rId4"/>
+    <sheet name="12월1주" sheetId="8" r:id="rId5"/>
+    <sheet name="11월4주" sheetId="4" r:id="rId6"/>
+    <sheet name="11월3주" sheetId="2" r:id="rId7"/>
+    <sheet name="11월 2주" sheetId="3" r:id="rId8"/>
+    <sheet name="11월1주" sheetId="1" r:id="rId9"/>
+    <sheet name="17년 공부" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="293">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1340,6 +1341,65 @@
   <si>
     <t>* HeightMap 이해 &amp; 코딩 
 * 오브젝트 배치 &amp; Frustum culling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 맵 만들기 (오브젝트 배치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 오브젝트 컬링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitset을 활용하여 obj를 culling을 구분함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* Height 코딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 컬링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 만들기( 오브젝트 배치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* obb를 frame() 에서의  wordMatrix와 render() 시점에서의 worldMatrix와의 문제점
+  - frame과 render를 2번 해서 오브젝트를 출력함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 오브젝트 obb 의 WorldMatrix가 문제가 있음.
+  - 오브젝트 매니저를 통해서 한 개의 오브젝트를 여러 번 사용데. 
+  - 오브젝트 각각의 worldmatrix가 따로 저장하는것을 확인했지만 render시점에서 같은곳에 렌더링을함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 만들기 (오브젝트 배치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 3차 발표 준비 및 조명 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 발표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.12 ~ 12.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2494,50 +2554,212 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="7" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="7" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="9" fillId="7" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="7" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="7" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2566,107 +2788,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2677,74 +2866,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2755,14 +2884,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2770,9 +2893,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2784,66 +2904,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3153,271 +3213,271 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="150" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="51" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.875" customWidth="1"/>
     <col min="3" max="6" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="154" customFormat="1">
-      <c r="A1" s="138" t="s">
+    <row r="1" spans="1:55" s="54" customFormat="1">
+      <c r="A1" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="59" t="s">
         <v>275</v>
       </c>
-      <c r="C1" s="152">
+      <c r="C1" s="52">
         <v>42695</v>
       </c>
-      <c r="D1" s="152">
+      <c r="D1" s="52">
         <v>42696</v>
       </c>
-      <c r="E1" s="152">
+      <c r="E1" s="52">
         <v>42697</v>
       </c>
-      <c r="F1" s="152">
+      <c r="F1" s="52">
         <v>42698</v>
       </c>
-      <c r="G1" s="152">
+      <c r="G1" s="52">
         <v>42699</v>
       </c>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152">
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52">
         <v>42702</v>
       </c>
-      <c r="K1" s="152">
+      <c r="K1" s="52">
         <v>42703</v>
       </c>
-      <c r="L1" s="152">
+      <c r="L1" s="52">
         <v>42704</v>
       </c>
-      <c r="M1" s="152">
+      <c r="M1" s="52">
         <v>42705</v>
       </c>
-      <c r="N1" s="152">
+      <c r="N1" s="52">
         <v>42706</v>
       </c>
-      <c r="O1" s="152"/>
-      <c r="P1" s="152"/>
-      <c r="Q1" s="152">
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52">
         <v>42709</v>
       </c>
-      <c r="R1" s="152">
+      <c r="R1" s="52">
         <v>42710</v>
       </c>
-      <c r="S1" s="152">
+      <c r="S1" s="52">
         <v>42711</v>
       </c>
-      <c r="T1" s="152">
+      <c r="T1" s="52">
         <v>42712</v>
       </c>
-      <c r="U1" s="152">
+      <c r="U1" s="52">
         <v>42713</v>
       </c>
-      <c r="V1" s="152"/>
-      <c r="W1" s="152"/>
-      <c r="X1" s="152">
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52">
         <v>42716</v>
       </c>
-      <c r="Y1" s="152">
+      <c r="Y1" s="52">
         <v>42717</v>
       </c>
-      <c r="Z1" s="152">
+      <c r="Z1" s="52">
         <v>42718</v>
       </c>
-      <c r="AA1" s="152">
+      <c r="AA1" s="52">
         <v>42719</v>
       </c>
-      <c r="AB1" s="152">
+      <c r="AB1" s="52">
         <v>42720</v>
       </c>
-      <c r="AC1" s="152"/>
-      <c r="AD1" s="152"/>
-      <c r="AE1" s="152">
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52">
         <v>42723</v>
       </c>
-      <c r="AF1" s="152">
+      <c r="AF1" s="52">
         <v>42724</v>
       </c>
-      <c r="AG1" s="152">
+      <c r="AG1" s="52">
         <v>42725</v>
       </c>
-      <c r="AH1" s="152">
+      <c r="AH1" s="52">
         <v>42726</v>
       </c>
-      <c r="AI1" s="152">
+      <c r="AI1" s="52">
         <v>42727</v>
       </c>
-      <c r="AJ1" s="152"/>
-      <c r="AK1" s="152"/>
-      <c r="AL1" s="152">
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52">
         <v>42730</v>
       </c>
-      <c r="AM1" s="152">
+      <c r="AM1" s="52">
         <v>42731</v>
       </c>
-      <c r="AN1" s="152">
+      <c r="AN1" s="52">
         <v>42732</v>
       </c>
-      <c r="AO1" s="152">
+      <c r="AO1" s="52">
         <v>42733</v>
       </c>
-      <c r="AP1" s="152">
+      <c r="AP1" s="52">
         <v>42734</v>
       </c>
-      <c r="AQ1" s="152"/>
-      <c r="AR1" s="152"/>
-      <c r="AS1" s="152">
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52">
         <v>42737</v>
       </c>
-      <c r="AT1" s="152">
+      <c r="AT1" s="52">
         <v>42738</v>
       </c>
-      <c r="AU1" s="152">
+      <c r="AU1" s="52">
         <v>42739</v>
       </c>
-      <c r="AV1" s="152">
+      <c r="AV1" s="52">
         <v>42740</v>
       </c>
-      <c r="AW1" s="152">
+      <c r="AW1" s="52">
         <v>42741</v>
       </c>
-      <c r="AX1" s="153"/>
-      <c r="AY1" s="153"/>
-      <c r="AZ1" s="153"/>
-      <c r="BA1" s="153"/>
-      <c r="BB1" s="153"/>
-      <c r="BC1" s="153"/>
-    </row>
-    <row r="2" spans="1:55" s="157" customFormat="1">
-      <c r="A2" s="139"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="156" t="s">
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="53"/>
+      <c r="BB1" s="53"/>
+      <c r="BC1" s="53"/>
+    </row>
+    <row r="2" spans="1:55" s="56" customFormat="1">
+      <c r="A2" s="58"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="156" t="s">
+      <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="156" t="s">
+      <c r="E2" s="55" t="s">
         <v>276</v>
       </c>
-      <c r="F2" s="156" t="s">
+      <c r="F2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="156" t="s">
+      <c r="G2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156" t="s">
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="156" t="s">
+      <c r="K2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="156" t="s">
+      <c r="L2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="156" t="s">
+      <c r="M2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="156" t="s">
+      <c r="N2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156" t="s">
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="R2" s="156" t="s">
+      <c r="R2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="156" t="s">
+      <c r="S2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="156" t="s">
+      <c r="T2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="156" t="s">
+      <c r="U2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="156"/>
-      <c r="W2" s="156"/>
-      <c r="X2" s="156" t="s">
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="Y2" s="156" t="s">
+      <c r="Y2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="156" t="s">
+      <c r="Z2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="156" t="s">
+      <c r="AA2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AB2" s="156" t="s">
+      <c r="AB2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="AC2" s="156"/>
-      <c r="AD2" s="156"/>
-      <c r="AE2" s="156" t="s">
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="AF2" s="156" t="s">
+      <c r="AF2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="156" t="s">
+      <c r="AG2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AH2" s="156" t="s">
+      <c r="AH2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AI2" s="156" t="s">
+      <c r="AI2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="AJ2" s="156"/>
-      <c r="AK2" s="156"/>
-      <c r="AL2" s="156" t="s">
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="AM2" s="156" t="s">
+      <c r="AM2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="156" t="s">
+      <c r="AN2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AO2" s="156" t="s">
+      <c r="AO2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AP2" s="156" t="s">
+      <c r="AP2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="AQ2" s="156"/>
-      <c r="AR2" s="156"/>
-      <c r="AS2" s="156" t="s">
+      <c r="AQ2" s="55"/>
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="AT2" s="156" t="s">
+      <c r="AT2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="156" t="s">
+      <c r="AU2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AV2" s="156" t="s">
+      <c r="AV2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AW2" s="156" t="s">
+      <c r="AW2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="AX2" s="156"/>
-      <c r="AY2" s="156"/>
-      <c r="AZ2" s="156"/>
-      <c r="BA2" s="156"/>
-      <c r="BB2" s="156"/>
-      <c r="BC2" s="156"/>
+      <c r="AX2" s="55"/>
+      <c r="AY2" s="55"/>
+      <c r="AZ2" s="55"/>
+      <c r="BA2" s="55"/>
+      <c r="BB2" s="55"/>
+      <c r="BC2" s="55"/>
     </row>
     <row r="3" spans="1:55">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B3" s="16"/>
@@ -3470,7 +3530,7 @@
       <c r="AW3" s="18"/>
     </row>
     <row r="4" spans="1:55">
-      <c r="A4" s="141" t="s">
+      <c r="A4" s="42" t="s">
         <v>81</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -3525,7 +3585,7 @@
       <c r="AW4" s="18"/>
     </row>
     <row r="5" spans="1:55">
-      <c r="A5" s="141" t="s">
+      <c r="A5" s="42" t="s">
         <v>82</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -3580,7 +3640,7 @@
       <c r="AW5" s="18"/>
     </row>
     <row r="6" spans="1:55">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="42" t="s">
         <v>83</v>
       </c>
       <c r="B6" s="16"/>
@@ -3633,7 +3693,7 @@
       <c r="AW6" s="18"/>
     </row>
     <row r="7" spans="1:55">
-      <c r="A7" s="141" t="s">
+      <c r="A7" s="42" t="s">
         <v>78</v>
       </c>
       <c r="B7" s="16"/>
@@ -3686,7 +3746,7 @@
       <c r="AW7" s="18"/>
     </row>
     <row r="8" spans="1:55">
-      <c r="A8" s="140" t="s">
+      <c r="A8" s="41" t="s">
         <v>79</v>
       </c>
       <c r="B8" s="16"/>
@@ -3739,7 +3799,7 @@
       <c r="AW8" s="18"/>
     </row>
     <row r="9" spans="1:55">
-      <c r="A9" s="141" t="s">
+      <c r="A9" s="42" t="s">
         <v>86</v>
       </c>
       <c r="B9" s="16"/>
@@ -3792,7 +3852,7 @@
       <c r="AW9" s="18"/>
     </row>
     <row r="10" spans="1:55">
-      <c r="A10" s="142" t="s">
+      <c r="A10" s="43" t="s">
         <v>84</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -3847,7 +3907,7 @@
       <c r="AW10" s="18"/>
     </row>
     <row r="11" spans="1:55">
-      <c r="A11" s="142" t="s">
+      <c r="A11" s="43" t="s">
         <v>89</v>
       </c>
       <c r="B11" s="16"/>
@@ -3900,7 +3960,7 @@
       <c r="AW11" s="18"/>
     </row>
     <row r="12" spans="1:55">
-      <c r="A12" s="142" t="s">
+      <c r="A12" s="43" t="s">
         <v>187</v>
       </c>
       <c r="B12" s="16"/>
@@ -3953,7 +4013,7 @@
       <c r="AW12" s="18"/>
     </row>
     <row r="13" spans="1:55">
-      <c r="A13" s="142" t="s">
+      <c r="A13" s="43" t="s">
         <v>188</v>
       </c>
       <c r="B13" s="16"/>
@@ -4006,7 +4066,7 @@
       <c r="AW13" s="18"/>
     </row>
     <row r="14" spans="1:55">
-      <c r="A14" s="142" t="s">
+      <c r="A14" s="43" t="s">
         <v>189</v>
       </c>
       <c r="B14" s="16"/>
@@ -4059,7 +4119,7 @@
       <c r="AW14" s="18"/>
     </row>
     <row r="15" spans="1:55">
-      <c r="A15" s="142" t="s">
+      <c r="A15" s="43" t="s">
         <v>190</v>
       </c>
       <c r="B15" s="16"/>
@@ -4112,7 +4172,7 @@
       <c r="AW15" s="18"/>
     </row>
     <row r="16" spans="1:55">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="43" t="s">
         <v>191</v>
       </c>
       <c r="B16" s="16"/>
@@ -4165,7 +4225,7 @@
       <c r="AW16" s="18"/>
     </row>
     <row r="17" spans="1:49">
-      <c r="A17" s="142" t="s">
+      <c r="A17" s="43" t="s">
         <v>93</v>
       </c>
       <c r="B17" s="16"/>
@@ -4218,7 +4278,7 @@
       <c r="AW17" s="18"/>
     </row>
     <row r="18" spans="1:49">
-      <c r="A18" s="142" t="s">
+      <c r="A18" s="43" t="s">
         <v>85</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -4273,7 +4333,7 @@
       <c r="AW18" s="18"/>
     </row>
     <row r="19" spans="1:49">
-      <c r="A19" s="142" t="s">
+      <c r="A19" s="43" t="s">
         <v>192</v>
       </c>
       <c r="B19" s="16"/>
@@ -4326,7 +4386,7 @@
       <c r="AW19" s="18"/>
     </row>
     <row r="20" spans="1:49">
-      <c r="A20" s="142" t="s">
+      <c r="A20" s="43" t="s">
         <v>193</v>
       </c>
       <c r="B20" s="16" t="s">
@@ -4381,7 +4441,7 @@
       <c r="AW20" s="18"/>
     </row>
     <row r="21" spans="1:49">
-      <c r="A21" s="142" t="s">
+      <c r="A21" s="43" t="s">
         <v>194</v>
       </c>
       <c r="B21" s="16" t="s">
@@ -4436,7 +4496,7 @@
       <c r="AW21" s="18"/>
     </row>
     <row r="22" spans="1:49">
-      <c r="A22" s="142" t="s">
+      <c r="A22" s="43" t="s">
         <v>195</v>
       </c>
       <c r="B22" s="16" t="s">
@@ -4491,7 +4551,7 @@
       <c r="AW22" s="18"/>
     </row>
     <row r="23" spans="1:49">
-      <c r="A23" s="142"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="16"/>
       <c r="C23" s="14"/>
       <c r="D23" s="13"/>
@@ -4542,7 +4602,7 @@
       <c r="AW23" s="18"/>
     </row>
     <row r="24" spans="1:49">
-      <c r="A24" s="143" t="s">
+      <c r="A24" s="44" t="s">
         <v>87</v>
       </c>
       <c r="B24" s="16"/>
@@ -4595,7 +4655,7 @@
       <c r="AW24" s="18"/>
     </row>
     <row r="25" spans="1:49">
-      <c r="A25" s="143" t="s">
+      <c r="A25" s="44" t="s">
         <v>88</v>
       </c>
       <c r="B25" s="16"/>
@@ -4648,7 +4708,7 @@
       <c r="AW25" s="18"/>
     </row>
     <row r="26" spans="1:49">
-      <c r="A26" s="143" t="s">
+      <c r="A26" s="44" t="s">
         <v>90</v>
       </c>
       <c r="B26" s="16"/>
@@ -4701,7 +4761,7 @@
       <c r="AW26" s="18"/>
     </row>
     <row r="27" spans="1:49">
-      <c r="A27" s="143" t="s">
+      <c r="A27" s="44" t="s">
         <v>91</v>
       </c>
       <c r="B27" s="16"/>
@@ -4754,7 +4814,7 @@
       <c r="AW27" s="18"/>
     </row>
     <row r="28" spans="1:49">
-      <c r="A28" s="143" t="s">
+      <c r="A28" s="44" t="s">
         <v>92</v>
       </c>
       <c r="B28" s="16"/>
@@ -4807,10 +4867,10 @@
       <c r="AW28" s="18"/>
     </row>
     <row r="29" spans="1:49" s="23" customFormat="1">
-      <c r="A29" s="144"/>
+      <c r="A29" s="45"/>
     </row>
     <row r="30" spans="1:49">
-      <c r="A30" s="140" t="s">
+      <c r="A30" s="41" t="s">
         <v>94</v>
       </c>
       <c r="B30" s="16"/>
@@ -4863,7 +4923,7 @@
       <c r="AW30" s="18"/>
     </row>
     <row r="31" spans="1:49">
-      <c r="A31" s="140" t="s">
+      <c r="A31" s="41" t="s">
         <v>95</v>
       </c>
       <c r="B31" s="16"/>
@@ -4916,7 +4976,7 @@
       <c r="AW31" s="18"/>
     </row>
     <row r="32" spans="1:49">
-      <c r="A32" s="145" t="s">
+      <c r="A32" s="46" t="s">
         <v>96</v>
       </c>
       <c r="B32" s="16"/>
@@ -4969,7 +5029,7 @@
       <c r="AW32" s="18"/>
     </row>
     <row r="33" spans="1:49">
-      <c r="A33" s="145" t="s">
+      <c r="A33" s="46" t="s">
         <v>97</v>
       </c>
       <c r="B33" s="16"/>
@@ -5022,7 +5082,7 @@
       <c r="AW33" s="18"/>
     </row>
     <row r="34" spans="1:49">
-      <c r="A34" s="140" t="s">
+      <c r="A34" s="41" t="s">
         <v>98</v>
       </c>
       <c r="B34" s="16"/>
@@ -5075,7 +5135,7 @@
       <c r="AW34" s="18"/>
     </row>
     <row r="35" spans="1:49">
-      <c r="A35" s="140" t="s">
+      <c r="A35" s="41" t="s">
         <v>99</v>
       </c>
       <c r="B35" s="16"/>
@@ -5128,7 +5188,7 @@
       <c r="AW35" s="18"/>
     </row>
     <row r="36" spans="1:49">
-      <c r="A36" s="145" t="s">
+      <c r="A36" s="46" t="s">
         <v>75</v>
       </c>
       <c r="B36" s="16"/>
@@ -5181,7 +5241,7 @@
       <c r="AW36" s="18"/>
     </row>
     <row r="37" spans="1:49">
-      <c r="A37" s="145" t="s">
+      <c r="A37" s="46" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="16"/>
@@ -5234,7 +5294,7 @@
       <c r="AW37" s="18"/>
     </row>
     <row r="38" spans="1:49">
-      <c r="A38" s="140" t="s">
+      <c r="A38" s="41" t="s">
         <v>77</v>
       </c>
       <c r="B38" s="16"/>
@@ -5287,7 +5347,7 @@
       <c r="AW38" s="18"/>
     </row>
     <row r="39" spans="1:49">
-      <c r="A39" s="140" t="s">
+      <c r="A39" s="41" t="s">
         <v>100</v>
       </c>
       <c r="B39" s="16"/>
@@ -5340,7 +5400,7 @@
       <c r="AW39" s="18"/>
     </row>
     <row r="40" spans="1:49" ht="17.25" thickBot="1">
-      <c r="A40" s="146" t="s">
+      <c r="A40" s="47" t="s">
         <v>101</v>
       </c>
       <c r="B40" s="17"/>
@@ -5393,10 +5453,10 @@
       <c r="AW40" s="18"/>
     </row>
     <row r="41" spans="1:49" s="22" customFormat="1">
-      <c r="A41" s="147"/>
+      <c r="A41" s="48"/>
     </row>
     <row r="42" spans="1:49">
-      <c r="A42" s="148" t="s">
+      <c r="A42" s="49" t="s">
         <v>196</v>
       </c>
       <c r="B42" s="13"/>
@@ -5449,7 +5509,7 @@
       <c r="AW42" s="13"/>
     </row>
     <row r="43" spans="1:49">
-      <c r="A43" s="148" t="s">
+      <c r="A43" s="49" t="s">
         <v>197</v>
       </c>
       <c r="B43" s="13"/>
@@ -5502,7 +5562,7 @@
       <c r="AW43" s="13"/>
     </row>
     <row r="44" spans="1:49">
-      <c r="A44" s="148" t="s">
+      <c r="A44" s="49" t="s">
         <v>198</v>
       </c>
       <c r="B44" s="13"/>
@@ -5555,7 +5615,7 @@
       <c r="AW44" s="13"/>
     </row>
     <row r="45" spans="1:49">
-      <c r="A45" s="148" t="s">
+      <c r="A45" s="49" t="s">
         <v>199</v>
       </c>
       <c r="B45" s="13"/>
@@ -5608,7 +5668,7 @@
       <c r="AW45" s="13"/>
     </row>
     <row r="46" spans="1:49">
-      <c r="A46" s="148" t="s">
+      <c r="A46" s="49" t="s">
         <v>200</v>
       </c>
       <c r="B46" s="13"/>
@@ -5661,7 +5721,7 @@
       <c r="AW46" s="13"/>
     </row>
     <row r="47" spans="1:49">
-      <c r="A47" s="148" t="s">
+      <c r="A47" s="49" t="s">
         <v>201</v>
       </c>
       <c r="B47" s="13"/>
@@ -5714,7 +5774,7 @@
       <c r="AW47" s="13"/>
     </row>
     <row r="48" spans="1:49">
-      <c r="A48" s="148" t="s">
+      <c r="A48" s="49" t="s">
         <v>202</v>
       </c>
       <c r="B48" s="13"/>
@@ -5767,7 +5827,7 @@
       <c r="AW48" s="13"/>
     </row>
     <row r="49" spans="1:49">
-      <c r="A49" s="148" t="s">
+      <c r="A49" s="49" t="s">
         <v>203</v>
       </c>
       <c r="B49" s="13"/>
@@ -5820,7 +5880,7 @@
       <c r="AW49" s="13"/>
     </row>
     <row r="50" spans="1:49">
-      <c r="A50" s="148" t="s">
+      <c r="A50" s="49" t="s">
         <v>204</v>
       </c>
       <c r="B50" s="13"/>
@@ -5873,7 +5933,7 @@
       <c r="AW50" s="13"/>
     </row>
     <row r="51" spans="1:49">
-      <c r="A51" s="148" t="s">
+      <c r="A51" s="49" t="s">
         <v>205</v>
       </c>
       <c r="B51" s="13"/>
@@ -5926,7 +5986,7 @@
       <c r="AW51" s="13"/>
     </row>
     <row r="52" spans="1:49">
-      <c r="A52" s="148" t="s">
+      <c r="A52" s="49" t="s">
         <v>206</v>
       </c>
       <c r="B52" s="13"/>
@@ -5979,7 +6039,7 @@
       <c r="AW52" s="13"/>
     </row>
     <row r="53" spans="1:49">
-      <c r="A53" s="148" t="s">
+      <c r="A53" s="49" t="s">
         <v>207</v>
       </c>
       <c r="B53" s="13"/>
@@ -6032,7 +6092,7 @@
       <c r="AW53" s="13"/>
     </row>
     <row r="54" spans="1:49">
-      <c r="A54" s="149" t="s">
+      <c r="A54" s="50" t="s">
         <v>208</v>
       </c>
       <c r="B54" s="13"/>
@@ -6085,7 +6145,7 @@
       <c r="AW54" s="13"/>
     </row>
     <row r="55" spans="1:49">
-      <c r="A55" s="148" t="s">
+      <c r="A55" s="49" t="s">
         <v>209</v>
       </c>
       <c r="B55" s="13"/>
@@ -6138,7 +6198,7 @@
       <c r="AW55" s="13"/>
     </row>
     <row r="56" spans="1:49">
-      <c r="A56" s="148" t="s">
+      <c r="A56" s="49" t="s">
         <v>210</v>
       </c>
       <c r="B56" s="13"/>
@@ -6191,7 +6251,7 @@
       <c r="AW56" s="13"/>
     </row>
     <row r="57" spans="1:49">
-      <c r="A57" s="149" t="s">
+      <c r="A57" s="50" t="s">
         <v>211</v>
       </c>
       <c r="B57" s="13"/>
@@ -6244,7 +6304,7 @@
       <c r="AW57" s="13"/>
     </row>
     <row r="58" spans="1:49">
-      <c r="A58" s="148" t="s">
+      <c r="A58" s="49" t="s">
         <v>212</v>
       </c>
       <c r="B58" s="13"/>
@@ -6297,7 +6357,7 @@
       <c r="AW58" s="13"/>
     </row>
     <row r="59" spans="1:49">
-      <c r="A59" s="149" t="s">
+      <c r="A59" s="50" t="s">
         <v>213</v>
       </c>
       <c r="B59" s="13"/>
@@ -6350,7 +6410,7 @@
       <c r="AW59" s="13"/>
     </row>
     <row r="60" spans="1:49">
-      <c r="A60" s="148" t="s">
+      <c r="A60" s="49" t="s">
         <v>214</v>
       </c>
       <c r="B60" s="13"/>
@@ -6403,7 +6463,7 @@
       <c r="AW60" s="13"/>
     </row>
     <row r="61" spans="1:49">
-      <c r="A61" s="149" t="s">
+      <c r="A61" s="50" t="s">
         <v>215</v>
       </c>
       <c r="B61" s="13"/>
@@ -6456,7 +6516,7 @@
       <c r="AW61" s="13"/>
     </row>
     <row r="62" spans="1:49">
-      <c r="A62" s="148" t="s">
+      <c r="A62" s="49" t="s">
         <v>216</v>
       </c>
       <c r="B62" s="13"/>
@@ -6509,7 +6569,7 @@
       <c r="AW62" s="13"/>
     </row>
     <row r="63" spans="1:49">
-      <c r="A63" s="148" t="s">
+      <c r="A63" s="49" t="s">
         <v>217</v>
       </c>
       <c r="B63" s="13"/>
@@ -6562,7 +6622,7 @@
       <c r="AW63" s="13"/>
     </row>
     <row r="64" spans="1:49">
-      <c r="A64" s="148" t="s">
+      <c r="A64" s="49" t="s">
         <v>218</v>
       </c>
       <c r="B64" s="13"/>
@@ -6615,7 +6675,7 @@
       <c r="AW64" s="13"/>
     </row>
     <row r="65" spans="1:49">
-      <c r="A65" s="148" t="s">
+      <c r="A65" s="49" t="s">
         <v>219</v>
       </c>
       <c r="B65" s="13"/>
@@ -6668,7 +6728,7 @@
       <c r="AW65" s="13"/>
     </row>
     <row r="66" spans="1:49">
-      <c r="A66" s="148" t="s">
+      <c r="A66" s="49" t="s">
         <v>220</v>
       </c>
       <c r="B66" s="13"/>
@@ -6721,7 +6781,7 @@
       <c r="AW66" s="13"/>
     </row>
     <row r="67" spans="1:49">
-      <c r="A67" s="148" t="s">
+      <c r="A67" s="49" t="s">
         <v>221</v>
       </c>
       <c r="B67" s="13"/>
@@ -6774,7 +6834,7 @@
       <c r="AW67" s="13"/>
     </row>
     <row r="68" spans="1:49">
-      <c r="A68" s="149" t="s">
+      <c r="A68" s="50" t="s">
         <v>222</v>
       </c>
       <c r="B68" s="13"/>
@@ -6827,7 +6887,7 @@
       <c r="AW68" s="13"/>
     </row>
     <row r="69" spans="1:49">
-      <c r="A69" s="149" t="s">
+      <c r="A69" s="50" t="s">
         <v>223</v>
       </c>
       <c r="B69" s="13"/>
@@ -6880,7 +6940,7 @@
       <c r="AW69" s="13"/>
     </row>
     <row r="70" spans="1:49">
-      <c r="A70" s="149" t="s">
+      <c r="A70" s="50" t="s">
         <v>224</v>
       </c>
       <c r="B70" s="13"/>
@@ -6933,7 +6993,7 @@
       <c r="AW70" s="13"/>
     </row>
     <row r="71" spans="1:49">
-      <c r="A71" s="148" t="s">
+      <c r="A71" s="49" t="s">
         <v>225</v>
       </c>
       <c r="B71" s="13"/>
@@ -6986,7 +7046,7 @@
       <c r="AW71" s="13"/>
     </row>
     <row r="72" spans="1:49">
-      <c r="A72" s="149" t="s">
+      <c r="A72" s="50" t="s">
         <v>226</v>
       </c>
       <c r="B72" s="13"/>
@@ -7039,7 +7099,7 @@
       <c r="AW72" s="13"/>
     </row>
     <row r="73" spans="1:49">
-      <c r="A73" s="148" t="s">
+      <c r="A73" s="49" t="s">
         <v>227</v>
       </c>
       <c r="B73" s="13"/>
@@ -7092,7 +7152,7 @@
       <c r="AW73" s="13"/>
     </row>
     <row r="74" spans="1:49">
-      <c r="A74" s="148" t="s">
+      <c r="A74" s="49" t="s">
         <v>228</v>
       </c>
       <c r="B74" s="13"/>
@@ -7145,7 +7205,7 @@
       <c r="AW74" s="13"/>
     </row>
     <row r="75" spans="1:49">
-      <c r="A75" s="149" t="s">
+      <c r="A75" s="50" t="s">
         <v>229</v>
       </c>
       <c r="B75" s="13"/>
@@ -7198,7 +7258,7 @@
       <c r="AW75" s="13"/>
     </row>
     <row r="76" spans="1:49">
-      <c r="A76" s="148" t="s">
+      <c r="A76" s="49" t="s">
         <v>230</v>
       </c>
       <c r="B76" s="13"/>
@@ -7251,7 +7311,7 @@
       <c r="AW76" s="13"/>
     </row>
     <row r="77" spans="1:49">
-      <c r="A77" s="148" t="s">
+      <c r="A77" s="49" t="s">
         <v>231</v>
       </c>
       <c r="B77" s="13"/>
@@ -7304,7 +7364,7 @@
       <c r="AW77" s="13"/>
     </row>
     <row r="78" spans="1:49">
-      <c r="A78" s="148" t="s">
+      <c r="A78" s="49" t="s">
         <v>232</v>
       </c>
       <c r="B78" s="13"/>
@@ -7357,7 +7417,7 @@
       <c r="AW78" s="13"/>
     </row>
     <row r="79" spans="1:49">
-      <c r="A79" s="148"/>
+      <c r="A79" s="49"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
@@ -7408,7 +7468,7 @@
       <c r="AW79" s="13"/>
     </row>
     <row r="80" spans="1:49">
-      <c r="A80" s="149" t="s">
+      <c r="A80" s="50" t="s">
         <v>211</v>
       </c>
       <c r="B80" s="13"/>
@@ -7461,7 +7521,7 @@
       <c r="AW80" s="13"/>
     </row>
     <row r="81" spans="1:49">
-      <c r="A81" s="148" t="s">
+      <c r="A81" s="49" t="s">
         <v>233</v>
       </c>
       <c r="B81" s="13"/>
@@ -7514,7 +7574,7 @@
       <c r="AW81" s="13"/>
     </row>
     <row r="82" spans="1:49">
-      <c r="A82" s="149" t="s">
+      <c r="A82" s="50" t="s">
         <v>234</v>
       </c>
       <c r="B82" s="13"/>
@@ -7567,7 +7627,7 @@
       <c r="AW82" s="13"/>
     </row>
     <row r="83" spans="1:49">
-      <c r="A83" s="149" t="s">
+      <c r="A83" s="50" t="s">
         <v>235</v>
       </c>
       <c r="B83" s="13"/>
@@ -7620,7 +7680,7 @@
       <c r="AW83" s="13"/>
     </row>
     <row r="84" spans="1:49">
-      <c r="A84" s="149" t="s">
+      <c r="A84" s="50" t="s">
         <v>236</v>
       </c>
       <c r="B84" s="13"/>
@@ -7673,7 +7733,7 @@
       <c r="AW84" s="13"/>
     </row>
     <row r="85" spans="1:49">
-      <c r="A85" s="149" t="s">
+      <c r="A85" s="50" t="s">
         <v>237</v>
       </c>
       <c r="B85" s="13"/>
@@ -7726,7 +7786,7 @@
       <c r="AW85" s="13"/>
     </row>
     <row r="86" spans="1:49">
-      <c r="A86" s="148" t="s">
+      <c r="A86" s="49" t="s">
         <v>238</v>
       </c>
       <c r="B86" s="13"/>
@@ -7779,7 +7839,7 @@
       <c r="AW86" s="13"/>
     </row>
     <row r="87" spans="1:49">
-      <c r="A87" s="148"/>
+      <c r="A87" s="49"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
@@ -7830,7 +7890,7 @@
       <c r="AW87" s="13"/>
     </row>
     <row r="88" spans="1:49">
-      <c r="A88" s="149" t="s">
+      <c r="A88" s="50" t="s">
         <v>239</v>
       </c>
       <c r="B88" s="13"/>
@@ -7883,7 +7943,7 @@
       <c r="AW88" s="13"/>
     </row>
     <row r="89" spans="1:49">
-      <c r="A89" s="149" t="s">
+      <c r="A89" s="50" t="s">
         <v>240</v>
       </c>
       <c r="B89" s="13"/>
@@ -7936,7 +7996,7 @@
       <c r="AW89" s="13"/>
     </row>
     <row r="90" spans="1:49">
-      <c r="A90" s="149" t="s">
+      <c r="A90" s="50" t="s">
         <v>241</v>
       </c>
       <c r="B90" s="13"/>
@@ -7989,7 +8049,7 @@
       <c r="AW90" s="13"/>
     </row>
     <row r="91" spans="1:49">
-      <c r="A91" s="148" t="s">
+      <c r="A91" s="49" t="s">
         <v>242</v>
       </c>
       <c r="B91" s="13"/>
@@ -8042,7 +8102,7 @@
       <c r="AW91" s="13"/>
     </row>
     <row r="92" spans="1:49">
-      <c r="A92" s="148" t="s">
+      <c r="A92" s="49" t="s">
         <v>243</v>
       </c>
       <c r="B92" s="13"/>
@@ -8095,7 +8155,7 @@
       <c r="AW92" s="13"/>
     </row>
     <row r="93" spans="1:49">
-      <c r="A93" s="148" t="s">
+      <c r="A93" s="49" t="s">
         <v>244</v>
       </c>
       <c r="B93" s="13"/>
@@ -8148,7 +8208,7 @@
       <c r="AW93" s="13"/>
     </row>
     <row r="94" spans="1:49">
-      <c r="A94" s="148"/>
+      <c r="A94" s="49"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
@@ -8199,7 +8259,7 @@
       <c r="AW94" s="13"/>
     </row>
     <row r="95" spans="1:49">
-      <c r="A95" s="148" t="s">
+      <c r="A95" s="49" t="s">
         <v>245</v>
       </c>
       <c r="B95" s="13"/>
@@ -8252,7 +8312,7 @@
       <c r="AW95" s="13"/>
     </row>
     <row r="96" spans="1:49">
-      <c r="A96" s="148" t="s">
+      <c r="A96" s="49" t="s">
         <v>246</v>
       </c>
       <c r="B96" s="13"/>
@@ -8305,7 +8365,7 @@
       <c r="AW96" s="13"/>
     </row>
     <row r="97" spans="1:49">
-      <c r="A97" s="148" t="s">
+      <c r="A97" s="49" t="s">
         <v>247</v>
       </c>
       <c r="B97" s="13"/>
@@ -8358,7 +8418,7 @@
       <c r="AW97" s="13"/>
     </row>
     <row r="98" spans="1:49">
-      <c r="A98" s="148" t="s">
+      <c r="A98" s="49" t="s">
         <v>248</v>
       </c>
       <c r="B98" s="13"/>
@@ -8411,7 +8471,7 @@
       <c r="AW98" s="13"/>
     </row>
     <row r="99" spans="1:49">
-      <c r="A99" s="148" t="s">
+      <c r="A99" s="49" t="s">
         <v>249</v>
       </c>
       <c r="B99" s="13"/>
@@ -8464,7 +8524,7 @@
       <c r="AW99" s="13"/>
     </row>
     <row r="100" spans="1:49">
-      <c r="A100" s="148" t="s">
+      <c r="A100" s="49" t="s">
         <v>250</v>
       </c>
       <c r="B100" s="13"/>
@@ -8517,7 +8577,7 @@
       <c r="AW100" s="13"/>
     </row>
     <row r="101" spans="1:49">
-      <c r="A101" s="148"/>
+      <c r="A101" s="49"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
@@ -8568,7 +8628,7 @@
       <c r="AW101" s="13"/>
     </row>
     <row r="102" spans="1:49">
-      <c r="A102" s="148" t="s">
+      <c r="A102" s="49" t="s">
         <v>251</v>
       </c>
       <c r="B102" s="13"/>
@@ -8621,7 +8681,7 @@
       <c r="AW102" s="13"/>
     </row>
     <row r="103" spans="1:49">
-      <c r="A103" s="148" t="s">
+      <c r="A103" s="49" t="s">
         <v>252</v>
       </c>
       <c r="B103" s="13"/>
@@ -8674,7 +8734,7 @@
       <c r="AW103" s="13"/>
     </row>
     <row r="104" spans="1:49">
-      <c r="A104" s="148"/>
+      <c r="A104" s="49"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
@@ -8725,7 +8785,7 @@
       <c r="AW104" s="13"/>
     </row>
     <row r="105" spans="1:49">
-      <c r="A105" s="148" t="s">
+      <c r="A105" s="49" t="s">
         <v>253</v>
       </c>
       <c r="B105" s="13"/>
@@ -8778,7 +8838,7 @@
       <c r="AW105" s="13"/>
     </row>
     <row r="106" spans="1:49">
-      <c r="A106" s="148" t="s">
+      <c r="A106" s="49" t="s">
         <v>254</v>
       </c>
       <c r="B106" s="13"/>
@@ -8831,7 +8891,7 @@
       <c r="AW106" s="13"/>
     </row>
     <row r="107" spans="1:49">
-      <c r="A107" s="148" t="s">
+      <c r="A107" s="49" t="s">
         <v>255</v>
       </c>
       <c r="B107" s="13"/>
@@ -8884,7 +8944,7 @@
       <c r="AW107" s="13"/>
     </row>
     <row r="108" spans="1:49">
-      <c r="A108" s="148" t="s">
+      <c r="A108" s="49" t="s">
         <v>256</v>
       </c>
       <c r="B108" s="13"/>
@@ -8937,7 +8997,7 @@
       <c r="AW108" s="13"/>
     </row>
     <row r="109" spans="1:49">
-      <c r="A109" s="148" t="s">
+      <c r="A109" s="49" t="s">
         <v>257</v>
       </c>
       <c r="B109" s="13"/>
@@ -8990,7 +9050,7 @@
       <c r="AW109" s="13"/>
     </row>
     <row r="110" spans="1:49">
-      <c r="A110" s="148" t="s">
+      <c r="A110" s="49" t="s">
         <v>258</v>
       </c>
       <c r="B110" s="13"/>
@@ -9043,7 +9103,7 @@
       <c r="AW110" s="13"/>
     </row>
     <row r="111" spans="1:49">
-      <c r="A111" s="148" t="s">
+      <c r="A111" s="49" t="s">
         <v>259</v>
       </c>
       <c r="B111" s="13"/>
@@ -9096,7 +9156,7 @@
       <c r="AW111" s="13"/>
     </row>
     <row r="112" spans="1:49">
-      <c r="A112" s="148"/>
+      <c r="A112" s="49"/>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
       <c r="D112" s="13"/>
@@ -9147,7 +9207,7 @@
       <c r="AW112" s="13"/>
     </row>
     <row r="113" spans="1:49">
-      <c r="A113" s="148" t="s">
+      <c r="A113" s="49" t="s">
         <v>260</v>
       </c>
       <c r="B113" s="13"/>
@@ -9200,7 +9260,7 @@
       <c r="AW113" s="13"/>
     </row>
     <row r="114" spans="1:49">
-      <c r="A114" s="148" t="s">
+      <c r="A114" s="49" t="s">
         <v>261</v>
       </c>
       <c r="B114" s="13"/>
@@ -9253,7 +9313,7 @@
       <c r="AW114" s="13"/>
     </row>
     <row r="115" spans="1:49">
-      <c r="A115" s="148" t="s">
+      <c r="A115" s="49" t="s">
         <v>262</v>
       </c>
       <c r="B115" s="13"/>
@@ -9306,7 +9366,7 @@
       <c r="AW115" s="13"/>
     </row>
     <row r="116" spans="1:49">
-      <c r="A116" s="148" t="s">
+      <c r="A116" s="49" t="s">
         <v>263</v>
       </c>
       <c r="B116" s="13"/>
@@ -9359,7 +9419,7 @@
       <c r="AW116" s="13"/>
     </row>
     <row r="117" spans="1:49">
-      <c r="A117" s="148" t="s">
+      <c r="A117" s="49" t="s">
         <v>264</v>
       </c>
       <c r="B117" s="13"/>
@@ -9412,7 +9472,7 @@
       <c r="AW117" s="13"/>
     </row>
     <row r="118" spans="1:49">
-      <c r="A118" s="148" t="s">
+      <c r="A118" s="49" t="s">
         <v>265</v>
       </c>
       <c r="B118" s="13"/>
@@ -9465,7 +9525,7 @@
       <c r="AW118" s="13"/>
     </row>
     <row r="119" spans="1:49">
-      <c r="A119" s="148" t="s">
+      <c r="A119" s="49" t="s">
         <v>266</v>
       </c>
       <c r="B119" s="13"/>
@@ -9518,7 +9578,7 @@
       <c r="AW119" s="13"/>
     </row>
     <row r="120" spans="1:49">
-      <c r="A120" s="148" t="s">
+      <c r="A120" s="49" t="s">
         <v>267</v>
       </c>
       <c r="B120" s="13"/>
@@ -9571,7 +9631,7 @@
       <c r="AW120" s="13"/>
     </row>
     <row r="121" spans="1:49">
-      <c r="A121" s="148" t="s">
+      <c r="A121" s="49" t="s">
         <v>268</v>
       </c>
       <c r="B121" s="13"/>
@@ -9624,7 +9684,7 @@
       <c r="AW121" s="13"/>
     </row>
     <row r="122" spans="1:49">
-      <c r="A122" s="148"/>
+      <c r="A122" s="49"/>
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
       <c r="D122" s="13"/>
@@ -9675,7 +9735,7 @@
       <c r="AW122" s="13"/>
     </row>
     <row r="123" spans="1:49">
-      <c r="A123" s="148" t="s">
+      <c r="A123" s="49" t="s">
         <v>269</v>
       </c>
       <c r="B123" s="13"/>
@@ -9728,7 +9788,7 @@
       <c r="AW123" s="13"/>
     </row>
     <row r="124" spans="1:49">
-      <c r="A124" s="148" t="s">
+      <c r="A124" s="49" t="s">
         <v>270</v>
       </c>
       <c r="B124" s="13"/>
@@ -9781,7 +9841,7 @@
       <c r="AW124" s="13"/>
     </row>
     <row r="125" spans="1:49">
-      <c r="A125" s="148" t="s">
+      <c r="A125" s="49" t="s">
         <v>271</v>
       </c>
       <c r="B125" s="13"/>
@@ -9834,7 +9894,7 @@
       <c r="AW125" s="13"/>
     </row>
     <row r="126" spans="1:49">
-      <c r="A126" s="148" t="s">
+      <c r="A126" s="49" t="s">
         <v>272</v>
       </c>
       <c r="B126" s="13"/>
@@ -9887,7 +9947,7 @@
       <c r="AW126" s="13"/>
     </row>
     <row r="127" spans="1:49">
-      <c r="A127" s="148" t="s">
+      <c r="A127" s="49" t="s">
         <v>273</v>
       </c>
       <c r="B127" s="13"/>
@@ -9940,7 +10000,7 @@
       <c r="AW127" s="13"/>
     </row>
     <row r="128" spans="1:49">
-      <c r="A128" s="148" t="s">
+      <c r="A128" s="49" t="s">
         <v>274</v>
       </c>
       <c r="B128" s="13"/>
@@ -10003,6 +10063,585 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K38"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="41" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="7.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="41" style="25"/>
+    <col min="4" max="4" width="7.375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="41" style="25"/>
+    <col min="6" max="6" width="7.375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="41" style="25"/>
+    <col min="8" max="8" width="7.375" style="24" customWidth="1"/>
+    <col min="9" max="9" width="41" style="25"/>
+    <col min="10" max="10" width="7.375" style="24" customWidth="1"/>
+    <col min="11" max="16384" width="41" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
+    <row r="2" spans="1:11" s="31" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A2" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="29">
+        <v>42740</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="29">
+        <v>42739</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="29">
+        <v>42738</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="29">
+        <v>42737</v>
+      </c>
+      <c r="J2" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" s="29">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="31" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A3" s="68"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="30"/>
+    </row>
+    <row r="4" spans="1:11" ht="17.25" thickTop="1">
+      <c r="A4" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="62"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="26"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="70"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="27"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="70"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="27"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="70"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="27"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="70"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="27"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="70"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="27"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="70"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="27"/>
+    </row>
+    <row r="11" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A11" s="71"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="28"/>
+    </row>
+    <row r="12" spans="1:11" ht="17.25" thickTop="1">
+      <c r="A12" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="63"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="26"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="73"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="27"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="73"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="27"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="73"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="27"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="73"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="27"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="73"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="27"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="73"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="27"/>
+    </row>
+    <row r="19" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A19" s="74"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="28"/>
+    </row>
+    <row r="20" spans="1:11" ht="17.25" thickBot="1"/>
+    <row r="21" spans="1:11">
+      <c r="A21" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="29">
+        <v>42771</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="29">
+        <v>42770</v>
+      </c>
+      <c r="F21" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="29">
+        <v>42769</v>
+      </c>
+      <c r="H21" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" s="29">
+        <v>42768</v>
+      </c>
+      <c r="J21" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="K21" s="29">
+        <v>42767</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A22" s="68"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="30"/>
+    </row>
+    <row r="23" spans="1:11" ht="17.25" thickTop="1">
+      <c r="A23" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="62"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="26"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="70"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="27"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="70"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="27"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="70"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="27"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="70"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="27"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="70"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="27"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="70"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="27"/>
+    </row>
+    <row r="30" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A30" s="71"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="28"/>
+    </row>
+    <row r="31" spans="1:11" ht="17.25" thickTop="1">
+      <c r="A31" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="63"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="26"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="73"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="27"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="73"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="27"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="73"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="27"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="73"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="27"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="73"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="27"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="73"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="27"/>
+    </row>
+    <row r="38" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A38" s="74"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="J23:J38"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="B23:B38"/>
+    <mergeCell ref="D23:D38"/>
+    <mergeCell ref="F23:F38"/>
+    <mergeCell ref="H23:H38"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="B4:B19"/>
+    <mergeCell ref="D4:D19"/>
+    <mergeCell ref="F4:F19"/>
+    <mergeCell ref="H4:H19"/>
+    <mergeCell ref="J4:J19"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A12:A19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
@@ -10010,9 +10649,9 @@
   </sheetPr>
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E41" sqref="E41:E56"/>
+      <selection pane="topRight" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41" defaultRowHeight="16.5"/>
@@ -10032,282 +10671,282 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="31" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="75" t="s">
         <v>140</v>
       </c>
       <c r="B1" s="32"/>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="65" t="s">
         <v>108</v>
       </c>
       <c r="D1" s="29"/>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="65" t="s">
         <v>108</v>
       </c>
       <c r="F1" s="29"/>
-      <c r="G1" s="45"/>
+      <c r="G1" s="61"/>
       <c r="H1" s="37"/>
-      <c r="I1" s="45"/>
+      <c r="I1" s="61"/>
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:11" s="31" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A2" s="42"/>
+      <c r="A2" s="68"/>
       <c r="B2" s="33"/>
-      <c r="C2" s="44"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="30"/>
-      <c r="E2" s="44"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="30"/>
-      <c r="G2" s="45"/>
+      <c r="G2" s="61"/>
       <c r="H2" s="37"/>
-      <c r="I2" s="45"/>
+      <c r="I2" s="61"/>
       <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:11" ht="132.75" thickTop="1">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="69" t="s">
         <v>141</v>
       </c>
       <c r="B3" s="34"/>
-      <c r="C3" s="49"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="49"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="G3" s="45"/>
+      <c r="G3" s="61"/>
       <c r="H3" s="37"/>
-      <c r="I3" s="45"/>
+      <c r="I3" s="61"/>
       <c r="J3" s="37"/>
       <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="47"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="35"/>
-      <c r="C4" s="50"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="27"/>
-      <c r="E4" s="50"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="27"/>
-      <c r="G4" s="45"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="37"/>
-      <c r="I4" s="45"/>
+      <c r="I4" s="61"/>
       <c r="J4" s="37"/>
       <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="47"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="35"/>
-      <c r="C5" s="50"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="27"/>
-      <c r="E5" s="50"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="27"/>
-      <c r="G5" s="45"/>
+      <c r="G5" s="61"/>
       <c r="H5" s="37"/>
-      <c r="I5" s="45"/>
+      <c r="I5" s="61"/>
       <c r="J5" s="37"/>
       <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="47"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="50"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="27"/>
-      <c r="E6" s="50"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="45"/>
+      <c r="G6" s="61"/>
       <c r="H6" s="37"/>
-      <c r="I6" s="45"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="37"/>
       <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="47"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="50"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="50"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="45"/>
+      <c r="G7" s="61"/>
       <c r="H7" s="37"/>
-      <c r="I7" s="45"/>
+      <c r="I7" s="61"/>
       <c r="J7" s="37"/>
       <c r="K7" s="25"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="47"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="35"/>
-      <c r="C8" s="50"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="27"/>
-      <c r="E8" s="50"/>
+      <c r="E8" s="63"/>
       <c r="F8" s="27"/>
-      <c r="G8" s="45"/>
+      <c r="G8" s="61"/>
       <c r="H8" s="37"/>
-      <c r="I8" s="45"/>
+      <c r="I8" s="61"/>
       <c r="J8" s="37"/>
       <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="47"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="35"/>
-      <c r="C9" s="50"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="27"/>
-      <c r="E9" s="50"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="27"/>
-      <c r="G9" s="45"/>
+      <c r="G9" s="61"/>
       <c r="H9" s="37"/>
-      <c r="I9" s="45"/>
+      <c r="I9" s="61"/>
       <c r="J9" s="37"/>
       <c r="K9" s="25"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A10" s="48"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="35"/>
-      <c r="C10" s="50"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="28"/>
-      <c r="E10" s="50"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="28"/>
-      <c r="G10" s="45"/>
+      <c r="G10" s="61"/>
       <c r="H10" s="37"/>
-      <c r="I10" s="45"/>
+      <c r="I10" s="61"/>
       <c r="J10" s="37"/>
       <c r="K10" s="25"/>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="72" t="s">
         <v>142</v>
       </c>
       <c r="B11" s="35"/>
-      <c r="C11" s="50"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="26"/>
-      <c r="E11" s="50"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="26"/>
-      <c r="G11" s="45"/>
+      <c r="G11" s="61"/>
       <c r="H11" s="37"/>
-      <c r="I11" s="45"/>
+      <c r="I11" s="61"/>
       <c r="J11" s="37"/>
       <c r="K11" s="25"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="53"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="35"/>
-      <c r="C12" s="50"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="27"/>
-      <c r="E12" s="50"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="27"/>
-      <c r="G12" s="45"/>
+      <c r="G12" s="61"/>
       <c r="H12" s="37"/>
-      <c r="I12" s="45"/>
+      <c r="I12" s="61"/>
       <c r="J12" s="37"/>
       <c r="K12" s="25"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="53"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="35"/>
-      <c r="C13" s="50"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="27"/>
-      <c r="E13" s="50"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="27"/>
-      <c r="G13" s="45"/>
+      <c r="G13" s="61"/>
       <c r="H13" s="37"/>
-      <c r="I13" s="45"/>
+      <c r="I13" s="61"/>
       <c r="J13" s="37"/>
       <c r="K13" s="25"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="53"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="35"/>
-      <c r="C14" s="50"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="27"/>
-      <c r="E14" s="50"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="45"/>
+      <c r="G14" s="61"/>
       <c r="H14" s="37"/>
-      <c r="I14" s="45"/>
+      <c r="I14" s="61"/>
       <c r="J14" s="37"/>
       <c r="K14" s="25"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="53"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="35"/>
-      <c r="C15" s="50"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="27"/>
-      <c r="E15" s="50"/>
+      <c r="E15" s="63"/>
       <c r="F15" s="27"/>
-      <c r="G15" s="45"/>
+      <c r="G15" s="61"/>
       <c r="H15" s="37"/>
-      <c r="I15" s="45"/>
+      <c r="I15" s="61"/>
       <c r="J15" s="37"/>
       <c r="K15" s="25"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="53"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="35"/>
-      <c r="C16" s="50"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="50"/>
+      <c r="E16" s="63"/>
       <c r="F16" s="27"/>
-      <c r="G16" s="45"/>
+      <c r="G16" s="61"/>
       <c r="H16" s="37"/>
-      <c r="I16" s="45"/>
+      <c r="I16" s="61"/>
       <c r="J16" s="37"/>
       <c r="K16" s="25"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="53"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="35"/>
-      <c r="C17" s="50"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="50"/>
+      <c r="E17" s="63"/>
       <c r="F17" s="27"/>
-      <c r="G17" s="45"/>
+      <c r="G17" s="61"/>
       <c r="H17" s="37"/>
-      <c r="I17" s="45"/>
+      <c r="I17" s="61"/>
       <c r="J17" s="37"/>
       <c r="K17" s="25"/>
     </row>
     <row r="18" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A18" s="54"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="35"/>
-      <c r="C18" s="51"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="28"/>
-      <c r="E18" s="51"/>
+      <c r="E18" s="64"/>
       <c r="F18" s="28"/>
-      <c r="G18" s="45"/>
+      <c r="G18" s="61"/>
       <c r="H18" s="37"/>
-      <c r="I18" s="45"/>
+      <c r="I18" s="61"/>
       <c r="J18" s="37"/>
       <c r="K18" s="25"/>
     </row>
     <row r="19" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="20" spans="1:12" s="31" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="67" t="s">
         <v>143</v>
       </c>
       <c r="B20" s="32"/>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="65" t="s">
         <v>108</v>
       </c>
       <c r="D20" s="29">
         <v>42704</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="65" t="s">
         <v>108</v>
       </c>
       <c r="F20" s="29">
         <v>42700</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="G20" s="65" t="s">
         <v>108</v>
       </c>
       <c r="H20" s="29">
         <v>42699</v>
       </c>
-      <c r="I20" s="43" t="s">
+      <c r="I20" s="65" t="s">
         <v>108</v>
       </c>
       <c r="J20" s="29">
         <v>42698</v>
       </c>
-      <c r="K20" s="43" t="s">
+      <c r="K20" s="65" t="s">
         <v>108</v>
       </c>
       <c r="L20" s="29">
@@ -10315,59 +10954,59 @@
       </c>
     </row>
     <row r="21" spans="1:12" s="31" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A21" s="42"/>
+      <c r="A21" s="68"/>
       <c r="B21" s="33"/>
-      <c r="C21" s="44"/>
+      <c r="C21" s="66"/>
       <c r="D21" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="E21" s="44"/>
+      <c r="E21" s="66"/>
       <c r="F21" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="G21" s="44"/>
+      <c r="G21" s="66"/>
       <c r="H21" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="I21" s="44"/>
+      <c r="I21" s="66"/>
       <c r="J21" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="K21" s="44"/>
+      <c r="K21" s="66"/>
       <c r="L21" s="30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="83.25" thickTop="1">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="69" t="s">
         <v>141</v>
       </c>
       <c r="B22" s="34"/>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="62" t="s">
         <v>121</v>
       </c>
       <c r="D22" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="62" t="s">
         <v>137</v>
       </c>
       <c r="F22" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="G22" s="49" t="s">
+      <c r="G22" s="62" t="s">
         <v>121</v>
       </c>
       <c r="H22" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="I22" s="49" t="s">
+      <c r="I22" s="62" t="s">
         <v>114</v>
       </c>
       <c r="J22" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="K22" s="49" t="s">
+      <c r="K22" s="62" t="s">
         <v>113</v>
       </c>
       <c r="L22" s="26" t="s">
@@ -10375,494 +11014,535 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="165">
-      <c r="A23" s="47"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="35"/>
-      <c r="C23" s="50"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="50"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="G23" s="50"/>
+      <c r="G23" s="63"/>
       <c r="H23" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="I23" s="50"/>
+      <c r="I23" s="63"/>
       <c r="J23" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="K23" s="50"/>
+      <c r="K23" s="63"/>
       <c r="L23" s="27" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="99">
-      <c r="A24" s="47"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="35"/>
-      <c r="C24" s="50"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="27"/>
-      <c r="E24" s="50"/>
+      <c r="E24" s="63"/>
       <c r="F24" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="G24" s="50"/>
+      <c r="G24" s="63"/>
       <c r="H24" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="I24" s="50"/>
+      <c r="I24" s="63"/>
       <c r="J24" s="27"/>
-      <c r="K24" s="50"/>
+      <c r="K24" s="63"/>
       <c r="L24" s="27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="115.5">
-      <c r="A25" s="47"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="35"/>
-      <c r="C25" s="50"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="50"/>
+      <c r="E25" s="63"/>
       <c r="F25" s="27"/>
-      <c r="G25" s="50"/>
+      <c r="G25" s="63"/>
       <c r="H25" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="I25" s="50"/>
+      <c r="I25" s="63"/>
       <c r="J25" s="27"/>
-      <c r="K25" s="50"/>
+      <c r="K25" s="63"/>
       <c r="L25" s="27" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="49.5">
-      <c r="A26" s="47"/>
+      <c r="A26" s="70"/>
       <c r="B26" s="35"/>
-      <c r="C26" s="50"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="27"/>
-      <c r="E26" s="50"/>
+      <c r="E26" s="63"/>
       <c r="F26" s="27"/>
-      <c r="G26" s="50"/>
+      <c r="G26" s="63"/>
       <c r="H26" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="I26" s="50"/>
+      <c r="I26" s="63"/>
       <c r="J26" s="27"/>
-      <c r="K26" s="50"/>
+      <c r="K26" s="63"/>
       <c r="L26" s="27" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="33">
-      <c r="A27" s="47"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="35"/>
-      <c r="C27" s="50"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="27"/>
-      <c r="E27" s="50"/>
+      <c r="E27" s="63"/>
       <c r="F27" s="27"/>
-      <c r="G27" s="50"/>
+      <c r="G27" s="63"/>
       <c r="H27" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="I27" s="50"/>
+      <c r="I27" s="63"/>
       <c r="J27" s="27"/>
-      <c r="K27" s="50"/>
+      <c r="K27" s="63"/>
       <c r="L27" s="27"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="47"/>
+      <c r="A28" s="70"/>
       <c r="B28" s="35"/>
-      <c r="C28" s="50"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="27"/>
-      <c r="E28" s="50"/>
+      <c r="E28" s="63"/>
       <c r="F28" s="27"/>
-      <c r="G28" s="50"/>
+      <c r="G28" s="63"/>
       <c r="H28" s="27"/>
-      <c r="I28" s="50"/>
+      <c r="I28" s="63"/>
       <c r="J28" s="27"/>
-      <c r="K28" s="50"/>
+      <c r="K28" s="63"/>
       <c r="L28" s="27"/>
     </row>
     <row r="29" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A29" s="48"/>
+      <c r="A29" s="71"/>
       <c r="B29" s="35"/>
-      <c r="C29" s="50"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="28"/>
-      <c r="E29" s="50"/>
+      <c r="E29" s="63"/>
       <c r="F29" s="28"/>
-      <c r="G29" s="50"/>
+      <c r="G29" s="63"/>
       <c r="H29" s="28"/>
-      <c r="I29" s="50"/>
+      <c r="I29" s="63"/>
       <c r="J29" s="28"/>
-      <c r="K29" s="50"/>
+      <c r="K29" s="63"/>
       <c r="L29" s="28"/>
     </row>
     <row r="30" spans="1:12" ht="83.25" thickTop="1">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="72" t="s">
         <v>142</v>
       </c>
       <c r="B30" s="35"/>
-      <c r="C30" s="50"/>
+      <c r="C30" s="63"/>
       <c r="D30" s="27"/>
-      <c r="E30" s="50"/>
+      <c r="E30" s="63"/>
       <c r="F30" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="G30" s="50"/>
+      <c r="G30" s="63"/>
       <c r="H30" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="I30" s="50"/>
+      <c r="I30" s="63"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="50"/>
+      <c r="K30" s="63"/>
       <c r="L30" s="26"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="53"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="35"/>
-      <c r="C31" s="50"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="27"/>
-      <c r="E31" s="50"/>
+      <c r="E31" s="63"/>
       <c r="F31" s="27"/>
-      <c r="G31" s="50"/>
+      <c r="G31" s="63"/>
       <c r="H31" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="I31" s="50"/>
+      <c r="I31" s="63"/>
       <c r="J31" s="27"/>
-      <c r="K31" s="50"/>
+      <c r="K31" s="63"/>
       <c r="L31" s="27"/>
     </row>
     <row r="32" spans="1:12" ht="33">
-      <c r="A32" s="53"/>
+      <c r="A32" s="73"/>
       <c r="B32" s="35"/>
-      <c r="C32" s="50"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="27"/>
-      <c r="E32" s="50"/>
+      <c r="E32" s="63"/>
       <c r="F32" s="27"/>
-      <c r="G32" s="50"/>
+      <c r="G32" s="63"/>
       <c r="H32" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="I32" s="50"/>
+      <c r="I32" s="63"/>
       <c r="J32" s="27"/>
-      <c r="K32" s="50"/>
+      <c r="K32" s="63"/>
       <c r="L32" s="27"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="53"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="35"/>
-      <c r="C33" s="50"/>
+      <c r="C33" s="63"/>
       <c r="D33" s="27"/>
-      <c r="E33" s="50"/>
+      <c r="E33" s="63"/>
       <c r="F33" s="27"/>
-      <c r="G33" s="50"/>
+      <c r="G33" s="63"/>
       <c r="H33" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="I33" s="50"/>
+      <c r="I33" s="63"/>
       <c r="J33" s="27"/>
-      <c r="K33" s="50"/>
+      <c r="K33" s="63"/>
       <c r="L33" s="27"/>
     </row>
     <row r="34" spans="1:12" ht="49.5">
-      <c r="A34" s="53"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="35"/>
-      <c r="C34" s="50"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="27"/>
-      <c r="E34" s="50"/>
+      <c r="E34" s="63"/>
       <c r="F34" s="27"/>
-      <c r="G34" s="50"/>
+      <c r="G34" s="63"/>
       <c r="H34" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="I34" s="50"/>
+      <c r="I34" s="63"/>
       <c r="J34" s="27"/>
-      <c r="K34" s="50"/>
+      <c r="K34" s="63"/>
       <c r="L34" s="27"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="53"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="35"/>
-      <c r="C35" s="50"/>
+      <c r="C35" s="63"/>
       <c r="D35" s="27"/>
-      <c r="E35" s="50"/>
+      <c r="E35" s="63"/>
       <c r="F35" s="27"/>
-      <c r="G35" s="50"/>
+      <c r="G35" s="63"/>
       <c r="H35" s="27"/>
-      <c r="I35" s="50"/>
+      <c r="I35" s="63"/>
       <c r="J35" s="27"/>
-      <c r="K35" s="50"/>
+      <c r="K35" s="63"/>
       <c r="L35" s="27"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="53"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="35"/>
-      <c r="C36" s="50"/>
+      <c r="C36" s="63"/>
       <c r="D36" s="27"/>
-      <c r="E36" s="50"/>
+      <c r="E36" s="63"/>
       <c r="F36" s="27"/>
-      <c r="G36" s="50"/>
+      <c r="G36" s="63"/>
       <c r="H36" s="27"/>
-      <c r="I36" s="50"/>
+      <c r="I36" s="63"/>
       <c r="J36" s="27"/>
-      <c r="K36" s="50"/>
+      <c r="K36" s="63"/>
       <c r="L36" s="27"/>
     </row>
     <row r="37" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A37" s="54"/>
+      <c r="A37" s="74"/>
       <c r="B37" s="35"/>
-      <c r="C37" s="51"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="28"/>
-      <c r="E37" s="51"/>
+      <c r="E37" s="64"/>
       <c r="F37" s="28"/>
-      <c r="G37" s="51"/>
+      <c r="G37" s="64"/>
       <c r="H37" s="28"/>
-      <c r="I37" s="51"/>
+      <c r="I37" s="64"/>
       <c r="J37" s="28"/>
-      <c r="K37" s="51"/>
+      <c r="K37" s="64"/>
       <c r="L37" s="28"/>
     </row>
     <row r="38" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="39" spans="1:12">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="67" t="s">
         <v>144</v>
       </c>
       <c r="B39" s="32"/>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="65" t="s">
         <v>108</v>
       </c>
       <c r="D39" s="29">
+        <v>42716</v>
+      </c>
+      <c r="E39" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="29">
         <v>42710</v>
       </c>
-      <c r="E39" s="43" t="s">
+      <c r="G39" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="F39" s="29">
+      <c r="H39" s="29">
         <v>42709</v>
       </c>
-      <c r="G39" s="25"/>
       <c r="I39" s="25"/>
       <c r="K39" s="25"/>
     </row>
     <row r="40" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A40" s="42"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="33"/>
-      <c r="C40" s="44"/>
+      <c r="C40" s="66"/>
       <c r="D40" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="E40" s="66"/>
+      <c r="F40" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="E40" s="44"/>
-      <c r="F40" s="30" t="s">
+      <c r="G40" s="66"/>
+      <c r="H40" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="G40" s="25"/>
       <c r="I40" s="25"/>
       <c r="K40" s="25"/>
     </row>
     <row r="41" spans="1:12" ht="132.75" thickTop="1">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="69" t="s">
         <v>141</v>
       </c>
       <c r="B41" s="34"/>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="62"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="F41" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="E41" s="49" t="s">
+      <c r="G41" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="F41" s="26" t="s">
+      <c r="H41" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="G41" s="25"/>
       <c r="I41" s="25"/>
       <c r="K41" s="25"/>
     </row>
     <row r="42" spans="1:12" ht="82.5">
-      <c r="A42" s="47"/>
+      <c r="A42" s="70"/>
       <c r="B42" s="35"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="27" t="s">
+      <c r="C42" s="63"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="E42" s="50"/>
-      <c r="F42" s="27" t="s">
+      <c r="G42" s="63"/>
+      <c r="H42" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="G42" s="25"/>
       <c r="I42" s="25"/>
       <c r="K42" s="25"/>
     </row>
     <row r="43" spans="1:12" ht="198">
-      <c r="A43" s="47"/>
+      <c r="A43" s="70"/>
       <c r="B43" s="35"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="27" t="s">
+      <c r="C43" s="63"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="E43" s="50"/>
-      <c r="F43" s="27" t="s">
+      <c r="G43" s="63"/>
+      <c r="H43" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="G43" s="25"/>
       <c r="I43" s="25"/>
       <c r="K43" s="25"/>
     </row>
     <row r="44" spans="1:12" ht="82.5">
-      <c r="A44" s="47"/>
+      <c r="A44" s="70"/>
       <c r="B44" s="35"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="27" t="s">
+      <c r="C44" s="63"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="E44" s="50"/>
-      <c r="F44" s="27" t="s">
+      <c r="G44" s="63"/>
+      <c r="H44" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="G44" s="25"/>
       <c r="I44" s="25"/>
       <c r="K44" s="25"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="47"/>
+      <c r="A45" s="70"/>
       <c r="B45" s="35"/>
-      <c r="C45" s="50"/>
+      <c r="C45" s="63"/>
       <c r="D45" s="27"/>
-      <c r="E45" s="50"/>
+      <c r="E45" s="63"/>
       <c r="F45" s="27"/>
-      <c r="G45" s="25"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="27"/>
       <c r="I45" s="25"/>
       <c r="K45" s="25"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="47"/>
+      <c r="A46" s="70"/>
       <c r="B46" s="35"/>
-      <c r="C46" s="50"/>
+      <c r="C46" s="63"/>
       <c r="D46" s="27"/>
-      <c r="E46" s="50"/>
+      <c r="E46" s="63"/>
       <c r="F46" s="27"/>
-      <c r="G46" s="25"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="27"/>
       <c r="I46" s="25"/>
       <c r="K46" s="25"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="47"/>
+      <c r="A47" s="70"/>
       <c r="B47" s="35"/>
-      <c r="C47" s="50"/>
+      <c r="C47" s="63"/>
       <c r="D47" s="27"/>
-      <c r="E47" s="50"/>
+      <c r="E47" s="63"/>
       <c r="F47" s="27"/>
-      <c r="G47" s="25"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="27"/>
       <c r="I47" s="25"/>
       <c r="K47" s="25"/>
     </row>
     <row r="48" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A48" s="48"/>
+      <c r="A48" s="71"/>
       <c r="B48" s="35"/>
-      <c r="C48" s="50"/>
+      <c r="C48" s="63"/>
       <c r="D48" s="28"/>
-      <c r="E48" s="50"/>
+      <c r="E48" s="63"/>
       <c r="F48" s="28"/>
-      <c r="G48" s="25"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="28"/>
       <c r="I48" s="25"/>
       <c r="K48" s="25"/>
     </row>
     <row r="49" spans="1:11" ht="17.25" thickTop="1">
-      <c r="A49" s="52" t="s">
+      <c r="A49" s="72" t="s">
         <v>142</v>
       </c>
       <c r="B49" s="35"/>
-      <c r="C49" s="50"/>
+      <c r="C49" s="63"/>
       <c r="D49" s="26"/>
-      <c r="E49" s="50"/>
+      <c r="E49" s="63"/>
       <c r="F49" s="26"/>
-      <c r="G49" s="25"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="26"/>
       <c r="I49" s="25"/>
       <c r="K49" s="25"/>
     </row>
     <row r="50" spans="1:11" ht="132">
-      <c r="A50" s="53"/>
+      <c r="A50" s="73"/>
       <c r="B50" s="35"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="27" t="s">
+      <c r="C50" s="63"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="E50" s="50"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="25"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="27"/>
       <c r="I50" s="25"/>
       <c r="K50" s="25"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="53"/>
+      <c r="A51" s="73"/>
       <c r="B51" s="35"/>
-      <c r="C51" s="50"/>
+      <c r="C51" s="63"/>
       <c r="D51" s="27"/>
-      <c r="E51" s="50"/>
+      <c r="E51" s="63"/>
       <c r="F51" s="27"/>
-      <c r="G51" s="25"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="27"/>
       <c r="I51" s="25"/>
       <c r="K51" s="25"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="53"/>
+      <c r="A52" s="73"/>
       <c r="B52" s="35"/>
-      <c r="C52" s="50"/>
+      <c r="C52" s="63"/>
       <c r="D52" s="27"/>
-      <c r="E52" s="50"/>
+      <c r="E52" s="63"/>
       <c r="F52" s="27"/>
-      <c r="G52" s="25"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="27"/>
       <c r="I52" s="25"/>
       <c r="K52" s="25"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="53"/>
+      <c r="A53" s="73"/>
       <c r="B53" s="35"/>
-      <c r="C53" s="50"/>
+      <c r="C53" s="63"/>
       <c r="D53" s="27"/>
-      <c r="E53" s="50"/>
+      <c r="E53" s="63"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="25"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="27"/>
       <c r="I53" s="25"/>
       <c r="K53" s="25"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="53"/>
+      <c r="A54" s="73"/>
       <c r="B54" s="35"/>
-      <c r="C54" s="50"/>
+      <c r="C54" s="63"/>
       <c r="D54" s="27"/>
-      <c r="E54" s="50"/>
+      <c r="E54" s="63"/>
       <c r="F54" s="27"/>
-      <c r="G54" s="25"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="27"/>
       <c r="I54" s="25"/>
       <c r="K54" s="25"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="53"/>
+      <c r="A55" s="73"/>
       <c r="B55" s="35"/>
-      <c r="C55" s="50"/>
+      <c r="C55" s="63"/>
       <c r="D55" s="27"/>
-      <c r="E55" s="50"/>
+      <c r="E55" s="63"/>
       <c r="F55" s="27"/>
-      <c r="G55" s="25"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="27"/>
       <c r="I55" s="25"/>
       <c r="K55" s="25"/>
     </row>
     <row r="56" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A56" s="54"/>
+      <c r="A56" s="74"/>
       <c r="B56" s="35"/>
-      <c r="C56" s="51"/>
+      <c r="C56" s="64"/>
       <c r="D56" s="28"/>
-      <c r="E56" s="51"/>
+      <c r="E56" s="64"/>
       <c r="F56" s="28"/>
-      <c r="G56" s="25"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="28"/>
       <c r="I56" s="25"/>
       <c r="K56" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="33">
+    <mergeCell ref="G3:G18"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C56"/>
+    <mergeCell ref="K22:K37"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="A49:A56"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="E41:E56"/>
+    <mergeCell ref="G41:G56"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I37"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G37"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="I3:I18"/>
     <mergeCell ref="E22:E37"/>
@@ -10872,19 +11552,6 @@
     <mergeCell ref="A30:A37"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C37"/>
-    <mergeCell ref="K22:K37"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="A49:A56"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="C41:C56"/>
-    <mergeCell ref="E41:E56"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I37"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G37"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="E1:E2"/>
@@ -10892,8 +11559,6 @@
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="C3:C18"/>
     <mergeCell ref="E3:E18"/>
-    <mergeCell ref="G3:G18"/>
-    <mergeCell ref="A11:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10905,8 +11570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:H9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -10918,366 +11583,365 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="78"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="91" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="90"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="80"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="91" t="s">
-        <v>171</v>
-      </c>
-      <c r="H2" s="93"/>
+      <c r="G2" s="81" t="s">
+        <v>291</v>
+      </c>
+      <c r="H2" s="83"/>
     </row>
     <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="96" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="98"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="88"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="82" t="s">
+      <c r="B4" s="90"/>
+      <c r="C4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="93"/>
     </row>
     <row r="5" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
-      <c r="A5" s="65">
-        <v>42702</v>
+      <c r="A5" s="94">
+        <v>42716</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="68" t="s">
-        <v>277</v>
-      </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="69"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="98"/>
     </row>
     <row r="6" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A6" s="66"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="71"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="101"/>
     </row>
     <row r="7" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A7" s="67"/>
+      <c r="A7" s="96"/>
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="104"/>
     </row>
     <row r="8" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
-      <c r="A8" s="65">
-        <v>42703</v>
+      <c r="A8" s="94">
+        <v>42717</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="68" t="s">
-        <v>278</v>
-      </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="98"/>
     </row>
     <row r="9" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A9" s="66"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="71"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="101"/>
     </row>
     <row r="10" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A10" s="67"/>
+      <c r="A10" s="96"/>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="74"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="104"/>
     </row>
     <row r="11" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
-      <c r="A11" s="65">
-        <v>42704</v>
+      <c r="A11" s="94">
+        <v>42718</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="69"/>
-    </row>
-    <row r="12" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A12" s="66"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="98"/>
+    </row>
+    <row r="12" spans="1:8" ht="78.75" customHeight="1">
+      <c r="A12" s="95"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="71"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="101"/>
     </row>
     <row r="13" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A13" s="67"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="74"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="104"/>
     </row>
     <row r="14" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
-      <c r="A14" s="65">
-        <v>42705</v>
+      <c r="A14" s="94">
+        <v>42719</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="69"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="98"/>
     </row>
     <row r="15" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A15" s="66"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="71"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="101"/>
     </row>
     <row r="16" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A16" s="67"/>
+      <c r="A16" s="96"/>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="74"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="104"/>
     </row>
     <row r="17" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
-      <c r="A17" s="65">
-        <v>42706</v>
+      <c r="A17" s="94">
+        <v>42720</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="69"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="98"/>
     </row>
     <row r="18" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A18" s="66"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="77"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="107"/>
     </row>
     <row r="19" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A19" s="67"/>
+      <c r="A19" s="96"/>
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="79"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="109"/>
     </row>
     <row r="20" spans="1:8" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="62"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="116"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
-        <v>42709</v>
+        <v>42716</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="64"/>
+      <c r="C21" s="117" t="s">
+        <v>288</v>
+      </c>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="118"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6">
-        <v>42710</v>
+        <v>42717</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="63" t="s">
-        <v>165</v>
-      </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="64"/>
+      <c r="C22" s="117" t="s">
+        <v>288</v>
+      </c>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="118"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
-        <v>42711</v>
+        <v>42718</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="64"/>
+      <c r="C23" s="117" t="s">
+        <v>287</v>
+      </c>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="118"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
-        <v>42712</v>
+        <v>42719</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="64"/>
+      <c r="C24" s="117" t="s">
+        <v>287</v>
+      </c>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="118"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A25" s="8">
-        <v>42713</v>
+        <v>42720</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="57"/>
+      <c r="C25" s="110" t="s">
+        <v>290</v>
+      </c>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="111"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H9"/>
@@ -11286,21 +11950,18 @@
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="C13:H13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11315,8 +11976,8 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:H18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11328,360 +11989,370 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="78"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="91" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="90"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="80"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="91" t="s">
-        <v>171</v>
-      </c>
-      <c r="H2" s="93"/>
+      <c r="G2" s="81" t="s">
+        <v>291</v>
+      </c>
+      <c r="H2" s="83"/>
     </row>
     <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="96" t="s">
-        <v>168</v>
-      </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="98"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="88"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="82" t="s">
+      <c r="B4" s="90"/>
+      <c r="C4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="93"/>
     </row>
     <row r="5" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
-      <c r="A5" s="65">
-        <v>42702</v>
+      <c r="A5" s="94">
+        <v>42716</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="68" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="69"/>
+      <c r="C5" s="97" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="98"/>
     </row>
     <row r="6" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A6" s="66"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="71"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="101"/>
     </row>
     <row r="7" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A7" s="67"/>
+      <c r="A7" s="96"/>
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
+      <c r="C7" s="102" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="104"/>
     </row>
     <row r="8" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
-      <c r="A8" s="65">
-        <v>42703</v>
+      <c r="A8" s="94">
+        <v>42717</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="68" t="s">
-        <v>161</v>
-      </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
+      <c r="C8" s="97" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="98"/>
     </row>
     <row r="9" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A9" s="66"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="70" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="71"/>
+      <c r="C9" s="100" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="101"/>
     </row>
     <row r="10" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A10" s="67"/>
+      <c r="A10" s="96"/>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="74"/>
+      <c r="C10" s="102" t="s">
+        <v>283</v>
+      </c>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="104"/>
     </row>
     <row r="11" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
-      <c r="A11" s="65">
-        <v>42704</v>
+      <c r="A11" s="94">
+        <v>42718</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="68" t="s">
-        <v>162</v>
-      </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="69"/>
-    </row>
-    <row r="12" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A12" s="66"/>
+      <c r="C11" s="145" t="s">
+        <v>280</v>
+      </c>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="98"/>
+    </row>
+    <row r="12" spans="1:8" ht="78.75" customHeight="1">
+      <c r="A12" s="95"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="71"/>
+      <c r="C12" s="100" t="s">
+        <v>286</v>
+      </c>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="101"/>
     </row>
     <row r="13" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A13" s="67"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="74"/>
+      <c r="C13" s="102" t="s">
+        <v>283</v>
+      </c>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="104"/>
     </row>
     <row r="14" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
-      <c r="A14" s="65">
-        <v>42705</v>
+      <c r="A14" s="94">
+        <v>42719</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="68" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="69"/>
+      <c r="C14" s="97" t="s">
+        <v>280</v>
+      </c>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="98"/>
     </row>
     <row r="15" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A15" s="66"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="70" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="71"/>
+      <c r="C15" s="100" t="s">
+        <v>285</v>
+      </c>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="101"/>
     </row>
     <row r="16" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A16" s="67"/>
+      <c r="A16" s="96"/>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="74"/>
+      <c r="C16" s="102" t="s">
+        <v>284</v>
+      </c>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="104"/>
     </row>
     <row r="17" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
-      <c r="A17" s="65">
-        <v>42706</v>
+      <c r="A17" s="94">
+        <v>42720</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="69"/>
+      <c r="C17" s="97" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="98"/>
     </row>
     <row r="18" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A18" s="66"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="77"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="107"/>
     </row>
     <row r="19" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A19" s="67"/>
+      <c r="A19" s="96"/>
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="79"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="109"/>
     </row>
     <row r="20" spans="1:8" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="62"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="114" t="s">
+        <v>289</v>
+      </c>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="116"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
-        <v>42709</v>
+        <v>42716</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="64"/>
+      <c r="C21" s="117" t="s">
+        <v>288</v>
+      </c>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="118"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6">
-        <v>42710</v>
+        <v>42717</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="63" t="s">
-        <v>165</v>
-      </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="64"/>
+      <c r="C22" s="117" t="s">
+        <v>288</v>
+      </c>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="118"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
-        <v>42711</v>
+        <v>42718</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="64"/>
+      <c r="C23" s="117" t="s">
+        <v>287</v>
+      </c>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="118"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
-        <v>42712</v>
+        <v>42719</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="64"/>
+      <c r="C24" s="117" t="s">
+        <v>287</v>
+      </c>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="118"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A25" s="8">
-        <v>42713</v>
+        <v>42720</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="57"/>
+      <c r="C25" s="110" t="s">
+        <v>290</v>
+      </c>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="111"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
@@ -11739,6 +12410,429 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="31.25" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="39" thickBot="1">
+      <c r="A1" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="78"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" thickTop="1">
+      <c r="A2" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="80"/>
+      <c r="C2" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="82"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="83"/>
+    </row>
+    <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
+      <c r="A3" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="88"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A4" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="90"/>
+      <c r="C4" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="93"/>
+    </row>
+    <row r="5" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
+      <c r="A5" s="94">
+        <v>42702</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="98"/>
+    </row>
+    <row r="6" spans="1:8" ht="34.5" customHeight="1">
+      <c r="A6" s="95"/>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="99"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="101"/>
+    </row>
+    <row r="7" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A7" s="96"/>
+      <c r="B7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="104"/>
+    </row>
+    <row r="8" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
+      <c r="A8" s="94">
+        <v>42703</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="97" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="98"/>
+    </row>
+    <row r="9" spans="1:8" ht="34.5" customHeight="1">
+      <c r="A9" s="95"/>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="100" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="101"/>
+    </row>
+    <row r="10" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A10" s="96"/>
+      <c r="B10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="102"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="104"/>
+    </row>
+    <row r="11" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
+      <c r="A11" s="94">
+        <v>42704</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="97" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="98"/>
+    </row>
+    <row r="12" spans="1:8" ht="34.5" customHeight="1">
+      <c r="A12" s="95"/>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="101"/>
+    </row>
+    <row r="13" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A13" s="96"/>
+      <c r="B13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="104"/>
+    </row>
+    <row r="14" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
+      <c r="A14" s="94">
+        <v>42705</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="97" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="98"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.5" customHeight="1">
+      <c r="A15" s="95"/>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="100" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="101"/>
+    </row>
+    <row r="16" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A16" s="96"/>
+      <c r="B16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="102"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="104"/>
+    </row>
+    <row r="17" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
+      <c r="A17" s="94">
+        <v>42706</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="98"/>
+    </row>
+    <row r="18" spans="1:8" ht="34.5" customHeight="1">
+      <c r="A18" s="95"/>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="105"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="107"/>
+    </row>
+    <row r="19" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A19" s="96"/>
+      <c r="B19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="109"/>
+    </row>
+    <row r="20" spans="1:8" ht="39.75" customHeight="1" thickTop="1">
+      <c r="A20" s="112" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="113"/>
+      <c r="C20" s="114" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="116"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6">
+        <v>42709</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="117" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="118"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6">
+        <v>42710</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="117" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="118"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6">
+        <v>42711</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="117" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="118"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6">
+        <v>42712</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="117" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="118"/>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A25" s="8">
+        <v>42713</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="110" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="111"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="82" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15:H15"/>
     </sheetView>
   </sheetViews>
@@ -11751,290 +12845,290 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="78"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="91" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="90"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="80"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="93"/>
+      <c r="H2" s="83"/>
     </row>
     <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="99" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="142" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="101"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="144"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="102" t="s">
+      <c r="B4" s="90"/>
+      <c r="C4" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="104"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="140"/>
     </row>
     <row r="5" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
-      <c r="A5" s="65">
+      <c r="A5" s="94">
         <v>42695</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="106"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="127"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="66"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="109"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="129"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A7" s="67"/>
+      <c r="A7" s="96"/>
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="112"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="132"/>
     </row>
     <row r="8" spans="1:8" ht="18" thickTop="1">
-      <c r="A8" s="65">
+      <c r="A8" s="94">
         <v>42696</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="105" t="s">
+      <c r="C8" s="126" t="s">
         <v>139</v>
       </c>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="106"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="127"/>
     </row>
     <row r="9" spans="1:8" ht="76.5" customHeight="1">
-      <c r="A9" s="66"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="109"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="129"/>
     </row>
     <row r="10" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A10" s="67"/>
+      <c r="A10" s="96"/>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="112"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="132"/>
     </row>
     <row r="11" spans="1:8" ht="18" thickTop="1">
-      <c r="A11" s="65">
+      <c r="A11" s="94">
         <v>42697</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="105" t="s">
+      <c r="C11" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="106"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="127"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="66"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="109"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="129"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A13" s="67"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="112"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="132"/>
     </row>
     <row r="14" spans="1:8" ht="18" thickTop="1">
-      <c r="A14" s="65">
+      <c r="A14" s="94">
         <v>42698</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="105" t="s">
+      <c r="C14" s="126" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="106"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="127"/>
     </row>
     <row r="15" spans="1:8" ht="149.25" customHeight="1">
-      <c r="A15" s="66"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="128" t="s">
         <v>156</v>
       </c>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="109"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="129"/>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A16" s="67"/>
+      <c r="A16" s="96"/>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="110" t="s">
+      <c r="C16" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="112"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="132"/>
     </row>
     <row r="17" spans="1:8" ht="18" thickTop="1">
-      <c r="A17" s="65">
+      <c r="A17" s="94">
         <v>42699</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="105" t="s">
+      <c r="C17" s="126" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="106"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
     </row>
     <row r="18" spans="1:8" ht="73.5" customHeight="1">
-      <c r="A18" s="66"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="113" t="s">
+      <c r="C18" s="133" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="115"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="135"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A19" s="67"/>
+      <c r="A19" s="96"/>
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="117"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="137"/>
     </row>
     <row r="20" spans="1:8" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="120" t="s">
+      <c r="B20" s="113"/>
+      <c r="C20" s="121" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="123"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
@@ -12043,14 +13137,14 @@
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="124" t="s">
         <v>154</v>
       </c>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="124"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="125"/>
     </row>
     <row r="22" spans="1:8" ht="16.5" customHeight="1">
       <c r="A22" s="6">
@@ -12059,14 +13153,14 @@
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="123" t="s">
+      <c r="C22" s="124" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="125"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
@@ -12075,14 +13169,14 @@
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="123" t="s">
+      <c r="C23" s="124" t="s">
         <v>153</v>
       </c>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="125"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
@@ -12091,14 +13185,14 @@
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="123" t="s">
+      <c r="C24" s="124" t="s">
         <v>153</v>
       </c>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="125"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A25" s="6">
@@ -12107,27 +13201,40 @@
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="118" t="s">
+      <c r="C25" s="119" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="118"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="120"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="C15:H15"/>
@@ -12136,26 +13243,13 @@
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C19:H19"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12163,7 +13257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -12184,288 +13278,288 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="78"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="91" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="90"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="80"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="93"/>
+      <c r="H2" s="83"/>
     </row>
     <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="125" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="148" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="127"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="150"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="82" t="s">
+      <c r="B4" s="90"/>
+      <c r="C4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="93"/>
     </row>
     <row r="5" spans="1:8" ht="74.25" customHeight="1" thickTop="1">
-      <c r="A5" s="65">
+      <c r="A5" s="94">
         <v>42688</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="69"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="98"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="66"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="71"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="101"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A7" s="67"/>
+      <c r="A7" s="96"/>
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="104"/>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1" thickTop="1">
-      <c r="A8" s="65">
+      <c r="A8" s="94">
         <v>42689</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="98"/>
     </row>
     <row r="9" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A9" s="66"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="71"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="101"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A10" s="67"/>
+      <c r="A10" s="96"/>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="74"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="104"/>
     </row>
     <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A11" s="65">
+      <c r="A11" s="94">
         <v>42690</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="69"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="98"/>
     </row>
     <row r="12" spans="1:8" ht="126" customHeight="1">
-      <c r="A12" s="66"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="71"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="101"/>
     </row>
     <row r="13" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A13" s="67"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="74"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="104"/>
     </row>
     <row r="14" spans="1:8" ht="66" customHeight="1" thickTop="1">
-      <c r="A14" s="65">
+      <c r="A14" s="94">
         <v>42691</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="69"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="98"/>
     </row>
     <row r="15" spans="1:8" ht="45.75" customHeight="1">
-      <c r="A15" s="66"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="71"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="101"/>
     </row>
     <row r="16" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A16" s="67"/>
+      <c r="A16" s="96"/>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="74"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="104"/>
     </row>
     <row r="17" spans="1:8" ht="64.5" customHeight="1" thickTop="1">
-      <c r="A17" s="65">
+      <c r="A17" s="94">
         <v>42692</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="128" t="s">
+      <c r="C17" s="145" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="130"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="147"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="66"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="77"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="107"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A19" s="66"/>
+      <c r="A19" s="95"/>
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="79"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="109"/>
     </row>
     <row r="20" spans="1:8" ht="39.75" customHeight="1">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="60" t="s">
+      <c r="B20" s="113"/>
+      <c r="C20" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="62"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="116"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
@@ -12474,14 +13568,14 @@
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="64"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="118"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6">
@@ -12490,14 +13584,14 @@
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="64"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="118"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
@@ -12506,14 +13600,14 @@
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="64"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="118"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
@@ -12522,14 +13616,14 @@
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="64"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="118"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A25" s="8">
@@ -12538,27 +13632,40 @@
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="57"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="111"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="C15:H15"/>
@@ -12567,26 +13674,13 @@
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C19:H19"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12594,7 +13688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -12615,282 +13709,282 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="78"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="91" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="90"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="80"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="93"/>
+      <c r="H2" s="83"/>
     </row>
     <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="125" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="127"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="150"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="82" t="s">
+      <c r="B4" s="90"/>
+      <c r="C4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="93"/>
     </row>
     <row r="5" spans="1:8" ht="146.25" customHeight="1" thickTop="1">
-      <c r="A5" s="65">
+      <c r="A5" s="94">
         <v>42681</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="69"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="98"/>
     </row>
     <row r="6" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A6" s="66"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="71"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="101"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A7" s="67"/>
+      <c r="A7" s="96"/>
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="104"/>
     </row>
     <row r="8" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A8" s="65">
+      <c r="A8" s="94">
         <v>42682</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="98"/>
     </row>
     <row r="9" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A9" s="66"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="71"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="101"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A10" s="67"/>
+      <c r="A10" s="96"/>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="74"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="104"/>
     </row>
     <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A11" s="65">
+      <c r="A11" s="94">
         <v>42683</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="69"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="98"/>
     </row>
     <row r="12" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A12" s="66"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="71"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="101"/>
     </row>
     <row r="13" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A13" s="67"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="74"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="104"/>
     </row>
     <row r="14" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A14" s="65">
+      <c r="A14" s="94">
         <v>42684</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="69"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="98"/>
     </row>
     <row r="15" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A15" s="66"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="71"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="101"/>
     </row>
     <row r="16" spans="1:8" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A16" s="67"/>
+      <c r="A16" s="96"/>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="74"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="104"/>
     </row>
     <row r="17" spans="1:8" ht="18" thickTop="1">
-      <c r="A17" s="65">
+      <c r="A17" s="94">
         <v>42685</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="131" t="s">
+      <c r="C17" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="132"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="153"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="66"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="77"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="107"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A19" s="67"/>
+      <c r="A19" s="96"/>
       <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="71"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="101"/>
     </row>
     <row r="20" spans="1:8" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="60" t="s">
+      <c r="B20" s="113"/>
+      <c r="C20" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="62"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="116"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
@@ -12899,14 +13993,14 @@
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="64"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="118"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6">
@@ -12915,14 +14009,14 @@
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="64"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="118"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
@@ -12931,14 +14025,14 @@
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="64"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="118"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
@@ -12947,14 +14041,14 @@
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="64"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="118"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A25" s="6">
@@ -12963,27 +14057,40 @@
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="133" t="s">
+      <c r="C25" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="57"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="111"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="C15:H15"/>
@@ -12992,26 +14099,13 @@
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C19:H19"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13019,7 +14113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -13040,294 +14134,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="78"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="91" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="90"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="80"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="93"/>
+      <c r="H2" s="83"/>
     </row>
     <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="125" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="127"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="150"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="82" t="s">
+      <c r="B4" s="90"/>
+      <c r="C4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="93"/>
     </row>
     <row r="5" spans="1:8" ht="45" customHeight="1" thickTop="1">
-      <c r="A5" s="65">
+      <c r="A5" s="94">
         <v>42674</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="69"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="98"/>
     </row>
     <row r="6" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A6" s="66"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="71"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="101"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A7" s="67"/>
+      <c r="A7" s="96"/>
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="104"/>
     </row>
     <row r="8" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A8" s="134">
+      <c r="A8" s="154">
         <v>42675</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="98"/>
     </row>
     <row r="9" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A9" s="135"/>
+      <c r="A9" s="155"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="71"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="101"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A10" s="136"/>
+      <c r="A10" s="156"/>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="74"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="104"/>
     </row>
     <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A11" s="134">
+      <c r="A11" s="154">
         <v>42676</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="69"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="98"/>
     </row>
     <row r="12" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A12" s="135"/>
+      <c r="A12" s="155"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="71"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="101"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A13" s="136"/>
+      <c r="A13" s="156"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="74"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="104"/>
     </row>
     <row r="14" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A14" s="134">
+      <c r="A14" s="154">
         <v>42677</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="69"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="98"/>
     </row>
     <row r="15" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A15" s="135"/>
+      <c r="A15" s="155"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="71"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="101"/>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A16" s="136"/>
+      <c r="A16" s="156"/>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="74"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="104"/>
     </row>
     <row r="17" spans="1:8" ht="18" thickTop="1">
-      <c r="A17" s="66">
+      <c r="A17" s="95">
         <v>42678</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="131" t="s">
+      <c r="C17" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="132"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="153"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="66"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="77"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="107"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A19" s="137"/>
+      <c r="A19" s="157"/>
       <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="71"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="101"/>
     </row>
     <row r="20" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="60" t="s">
+      <c r="B20" s="113"/>
+      <c r="C20" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="62"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="116"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
@@ -13336,14 +14430,14 @@
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="64"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="118"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6">
@@ -13352,14 +14446,14 @@
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="64"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="118"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
@@ -13368,14 +14462,14 @@
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="64"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="118"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
@@ -13384,14 +14478,14 @@
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="64"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="118"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A25" s="8">
@@ -13400,26 +14494,33 @@
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="133" t="s">
+      <c r="C25" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="57"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="111"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="A5:A7"/>
@@ -13436,601 +14537,15 @@
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C18:H18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="82" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K38"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="41" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="7.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="41" style="25"/>
-    <col min="4" max="4" width="7.375" style="24" customWidth="1"/>
-    <col min="5" max="5" width="41" style="25"/>
-    <col min="6" max="6" width="7.375" style="24" customWidth="1"/>
-    <col min="7" max="7" width="41" style="25"/>
-    <col min="8" max="8" width="7.375" style="24" customWidth="1"/>
-    <col min="9" max="9" width="41" style="25"/>
-    <col min="10" max="10" width="7.375" style="24" customWidth="1"/>
-    <col min="11" max="16384" width="41" style="25"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
-    <row r="2" spans="1:11" s="31" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="29">
-        <v>42740</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="29">
-        <v>42739</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" s="29">
-        <v>42738</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2" s="29">
-        <v>42737</v>
-      </c>
-      <c r="J2" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="K2" s="29">
-        <v>42736</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="31" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A3" s="42"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="30"/>
-    </row>
-    <row r="4" spans="1:11" ht="17.25" thickTop="1">
-      <c r="A4" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="26"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="47"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="27"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="47"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="27"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="47"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="27"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="47"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="27"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="47"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="27"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="47"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="27"/>
-    </row>
-    <row r="11" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="28"/>
-    </row>
-    <row r="12" spans="1:11" ht="17.25" thickTop="1">
-      <c r="A12" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="26"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="53"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="27"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="53"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="27"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="53"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="27"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="53"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="27"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="53"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="27"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="53"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="27"/>
-    </row>
-    <row r="19" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A19" s="54"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="28"/>
-    </row>
-    <row r="20" spans="1:11" ht="17.25" thickBot="1"/>
-    <row r="21" spans="1:11">
-      <c r="A21" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="29">
-        <v>42771</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="29">
-        <v>42770</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="29">
-        <v>42769</v>
-      </c>
-      <c r="H21" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="I21" s="29">
-        <v>42768</v>
-      </c>
-      <c r="J21" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="K21" s="29">
-        <v>42767</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A22" s="42"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="30"/>
-    </row>
-    <row r="23" spans="1:11" ht="17.25" thickTop="1">
-      <c r="A23" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="26"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="47"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="27"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="47"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="27"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="47"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="27"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="47"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="27"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="47"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="27"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="47"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="27"/>
-    </row>
-    <row r="30" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A30" s="48"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="28"/>
-    </row>
-    <row r="31" spans="1:11" ht="17.25" thickTop="1">
-      <c r="A31" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="26"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="53"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="27"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="53"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="27"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="53"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="27"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="53"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="27"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="53"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="27"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="53"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="27"/>
-    </row>
-    <row r="38" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A38" s="54"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="B4:B19"/>
-    <mergeCell ref="D4:D19"/>
-    <mergeCell ref="F4:F19"/>
-    <mergeCell ref="H4:H19"/>
-    <mergeCell ref="J4:J19"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="J23:J38"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="B23:B38"/>
-    <mergeCell ref="D23:D38"/>
-    <mergeCell ref="F23:F38"/>
-    <mergeCell ref="H23:H38"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/_meeting_weekly_doc/N2Team_WeeklySchedule_YSR.xlsx
+++ b/doc/_meeting_weekly_doc/N2Team_WeeklySchedule_YSR.xlsx
@@ -4,26 +4,27 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="-15" windowWidth="28020" windowHeight="3765" activeTab="1"/>
+    <workbookView xWindow="60" yWindow="-15" windowWidth="28020" windowHeight="3765" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="6" r:id="rId1"/>
     <sheet name="16년 공부" sheetId="5" r:id="rId2"/>
-    <sheet name="12월 3주" sheetId="10" r:id="rId3"/>
-    <sheet name="12월2주" sheetId="9" r:id="rId4"/>
-    <sheet name="12월1주" sheetId="8" r:id="rId5"/>
-    <sheet name="11월4주" sheetId="4" r:id="rId6"/>
-    <sheet name="11월3주" sheetId="2" r:id="rId7"/>
-    <sheet name="11월 2주" sheetId="3" r:id="rId8"/>
-    <sheet name="11월1주" sheetId="1" r:id="rId9"/>
-    <sheet name="17년 공부" sheetId="7" r:id="rId10"/>
+    <sheet name="12월 4주" sheetId="11" r:id="rId3"/>
+    <sheet name="12월 3주" sheetId="10" r:id="rId4"/>
+    <sheet name="12월2주" sheetId="9" r:id="rId5"/>
+    <sheet name="12월1주" sheetId="8" r:id="rId6"/>
+    <sheet name="11월4주" sheetId="4" r:id="rId7"/>
+    <sheet name="11월3주" sheetId="2" r:id="rId8"/>
+    <sheet name="11월 2주" sheetId="3" r:id="rId9"/>
+    <sheet name="11월1주" sheetId="1" r:id="rId10"/>
+    <sheet name="17년 공부" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="311">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1400,6 +1401,86 @@
   </si>
   <si>
     <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 만들기
+- MFC Object PaneWindow 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 만들기
+- MFC Object Load 코딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 발표일자까지 툴을 이용한 오브젝트 배치 및 맵 세이브로드가 이루어지 못할 것으로 판단 되어 엔진에 직접 입력하게됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage 1 맵 만들기 
+- 엔진에 오브젝트 직접 배치 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 툴을 이용해서 만들어야되는 필요성을 다시 한번 경험.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 발표 준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage 1 맵 만들기 
+맵 전근 불가 지역 만들기
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N2 상세 기획서 만들기 -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N2 상세 기획서 만들기 -2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 우리게임의 기획서 및 3차에 못한 맵툴 작업 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFC 오브젝트 로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MFC 맵 세이브 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFC 맵 로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 전근 불가 지역에서 obb와 프러스텀 으로 체크하여 불가 지역을 만듬
+plane 대 프로스텀으로 해야되지 않을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔진에 직접 오브젝트 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 배치 및 이동 불가지역 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자체 평가 : 결과적으로 2차와 차이는 없지만 프로스텀 컬링을 완료 했다 . 
+이제 한걸음 떼었다. 너무 늦었다….</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2430,7 +2511,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2617,6 +2698,21 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2626,10 +2722,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="7" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2638,27 +2737,102 @@
     <xf numFmtId="176" fontId="10" fillId="7" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="9" fillId="7" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2698,94 +2872,61 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2809,65 +2950,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -2875,24 +2965,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2904,6 +2985,21 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10065,6 +10161,443 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="31.25" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="39" thickBot="1">
+      <c r="A1" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="109"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" thickTop="1">
+      <c r="A2" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="111"/>
+      <c r="C2" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="113"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="112" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="114"/>
+    </row>
+    <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
+      <c r="A3" s="115" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="116"/>
+      <c r="C3" s="146" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="148"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A4" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="102"/>
+      <c r="C4" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="105"/>
+    </row>
+    <row r="5" spans="1:8" ht="45" customHeight="1" thickTop="1">
+      <c r="A5" s="85">
+        <v>42674</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="89"/>
+    </row>
+    <row r="6" spans="1:8" ht="37.5" customHeight="1">
+      <c r="A6" s="86"/>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="106" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91"/>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A7" s="87"/>
+      <c r="B7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="94"/>
+    </row>
+    <row r="8" spans="1:8" ht="54" customHeight="1" thickTop="1">
+      <c r="A8" s="154">
+        <v>42675</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="89"/>
+    </row>
+    <row r="9" spans="1:8" ht="66.75" customHeight="1">
+      <c r="A9" s="155"/>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="91"/>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A10" s="156"/>
+      <c r="B10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="94"/>
+    </row>
+    <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
+      <c r="A11" s="154">
+        <v>42676</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="89"/>
+    </row>
+    <row r="12" spans="1:8" ht="66.75" customHeight="1">
+      <c r="A12" s="155"/>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="91"/>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A13" s="156"/>
+      <c r="B13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="92" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="94"/>
+    </row>
+    <row r="14" spans="1:8" ht="54" customHeight="1" thickTop="1">
+      <c r="A14" s="154">
+        <v>42677</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="89"/>
+    </row>
+    <row r="15" spans="1:8" ht="66.75" customHeight="1">
+      <c r="A15" s="155"/>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="91"/>
+    </row>
+    <row r="16" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A16" s="156"/>
+      <c r="B16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="94"/>
+    </row>
+    <row r="17" spans="1:8" ht="18" thickTop="1">
+      <c r="A17" s="86">
+        <v>42678</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="151" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="151"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="152"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="86"/>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="95"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="97"/>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A19" s="157"/>
+      <c r="B19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="91"/>
+    </row>
+    <row r="20" spans="1:8" ht="32.25" customHeight="1">
+      <c r="A20" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="79"/>
+      <c r="C20" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="82"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6">
+        <v>42681</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="84"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6">
+        <v>42682</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="84"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6">
+        <v>42683</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="84"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6">
+        <v>42684</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="84"/>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A25" s="8">
+        <v>42685</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="153" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="77"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="82" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -10123,7 +10656,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="31" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A3" s="68"/>
+      <c r="A3" s="74"/>
       <c r="B3" s="66"/>
       <c r="C3" s="30"/>
       <c r="D3" s="66"/>
@@ -10136,215 +10669,215 @@
       <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" thickTop="1">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="62"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="26"/>
-      <c r="D4" s="62"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="26"/>
-      <c r="F4" s="62"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="26"/>
-      <c r="H4" s="62"/>
+      <c r="H4" s="67"/>
       <c r="I4" s="26"/>
-      <c r="J4" s="62"/>
+      <c r="J4" s="67"/>
       <c r="K4" s="26"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="70"/>
-      <c r="B5" s="63"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="27"/>
-      <c r="D5" s="63"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="27"/>
-      <c r="F5" s="63"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="27"/>
-      <c r="H5" s="63"/>
+      <c r="H5" s="68"/>
       <c r="I5" s="27"/>
-      <c r="J5" s="63"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="27"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="70"/>
-      <c r="B6" s="63"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="27"/>
-      <c r="D6" s="63"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="27"/>
-      <c r="F6" s="63"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="27"/>
-      <c r="H6" s="63"/>
+      <c r="H6" s="68"/>
       <c r="I6" s="27"/>
-      <c r="J6" s="63"/>
+      <c r="J6" s="68"/>
       <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="70"/>
-      <c r="B7" s="63"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="27"/>
-      <c r="D7" s="63"/>
+      <c r="D7" s="68"/>
       <c r="E7" s="27"/>
-      <c r="F7" s="63"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="27"/>
-      <c r="H7" s="63"/>
+      <c r="H7" s="68"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="63"/>
+      <c r="J7" s="68"/>
       <c r="K7" s="27"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="70"/>
-      <c r="B8" s="63"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="27"/>
-      <c r="D8" s="63"/>
+      <c r="D8" s="68"/>
       <c r="E8" s="27"/>
-      <c r="F8" s="63"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="27"/>
-      <c r="H8" s="63"/>
+      <c r="H8" s="68"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="63"/>
+      <c r="J8" s="68"/>
       <c r="K8" s="27"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="70"/>
-      <c r="B9" s="63"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="27"/>
-      <c r="D9" s="63"/>
+      <c r="D9" s="68"/>
       <c r="E9" s="27"/>
-      <c r="F9" s="63"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="27"/>
-      <c r="H9" s="63"/>
+      <c r="H9" s="68"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="63"/>
+      <c r="J9" s="68"/>
       <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="70"/>
-      <c r="B10" s="63"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="27"/>
-      <c r="D10" s="63"/>
+      <c r="D10" s="68"/>
       <c r="E10" s="27"/>
-      <c r="F10" s="63"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="27"/>
-      <c r="H10" s="63"/>
+      <c r="H10" s="68"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="63"/>
+      <c r="J10" s="68"/>
       <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A11" s="71"/>
-      <c r="B11" s="63"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="28"/>
-      <c r="D11" s="63"/>
+      <c r="D11" s="68"/>
       <c r="E11" s="28"/>
-      <c r="F11" s="63"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="28"/>
-      <c r="H11" s="63"/>
+      <c r="H11" s="68"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="63"/>
+      <c r="J11" s="68"/>
       <c r="K11" s="28"/>
     </row>
     <row r="12" spans="1:11" ht="17.25" thickTop="1">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="63"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="26"/>
-      <c r="D12" s="63"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="26"/>
-      <c r="F12" s="63"/>
+      <c r="F12" s="68"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="63"/>
+      <c r="H12" s="68"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="63"/>
+      <c r="J12" s="68"/>
       <c r="K12" s="26"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="73"/>
-      <c r="B13" s="63"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="63"/>
+      <c r="D13" s="68"/>
       <c r="E13" s="27"/>
-      <c r="F13" s="63"/>
+      <c r="F13" s="68"/>
       <c r="G13" s="27"/>
-      <c r="H13" s="63"/>
+      <c r="H13" s="68"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="63"/>
+      <c r="J13" s="68"/>
       <c r="K13" s="27"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="73"/>
-      <c r="B14" s="63"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="27"/>
-      <c r="D14" s="63"/>
+      <c r="D14" s="68"/>
       <c r="E14" s="27"/>
-      <c r="F14" s="63"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="27"/>
-      <c r="H14" s="63"/>
+      <c r="H14" s="68"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="63"/>
+      <c r="J14" s="68"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="73"/>
-      <c r="B15" s="63"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="63"/>
+      <c r="D15" s="68"/>
       <c r="E15" s="27"/>
-      <c r="F15" s="63"/>
+      <c r="F15" s="68"/>
       <c r="G15" s="27"/>
-      <c r="H15" s="63"/>
+      <c r="H15" s="68"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="63"/>
+      <c r="J15" s="68"/>
       <c r="K15" s="27"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="73"/>
-      <c r="B16" s="63"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="27"/>
-      <c r="D16" s="63"/>
+      <c r="D16" s="68"/>
       <c r="E16" s="27"/>
-      <c r="F16" s="63"/>
+      <c r="F16" s="68"/>
       <c r="G16" s="27"/>
-      <c r="H16" s="63"/>
+      <c r="H16" s="68"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="63"/>
+      <c r="J16" s="68"/>
       <c r="K16" s="27"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="73"/>
-      <c r="B17" s="63"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="63"/>
+      <c r="D17" s="68"/>
       <c r="E17" s="27"/>
-      <c r="F17" s="63"/>
+      <c r="F17" s="68"/>
       <c r="G17" s="27"/>
-      <c r="H17" s="63"/>
+      <c r="H17" s="68"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="63"/>
+      <c r="J17" s="68"/>
       <c r="K17" s="27"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="73"/>
-      <c r="B18" s="63"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="27"/>
-      <c r="D18" s="63"/>
+      <c r="D18" s="68"/>
       <c r="E18" s="27"/>
-      <c r="F18" s="63"/>
+      <c r="F18" s="68"/>
       <c r="G18" s="27"/>
-      <c r="H18" s="63"/>
+      <c r="H18" s="68"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="63"/>
+      <c r="J18" s="68"/>
       <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A19" s="74"/>
-      <c r="B19" s="64"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="69"/>
       <c r="C19" s="28"/>
-      <c r="D19" s="64"/>
+      <c r="D19" s="69"/>
       <c r="E19" s="28"/>
-      <c r="F19" s="64"/>
+      <c r="F19" s="69"/>
       <c r="G19" s="28"/>
-      <c r="H19" s="64"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="28"/>
-      <c r="J19" s="64"/>
+      <c r="J19" s="69"/>
       <c r="K19" s="28"/>
     </row>
     <row r="20" spans="1:11" ht="17.25" thickBot="1"/>
@@ -10384,7 +10917,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A22" s="68"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="66"/>
       <c r="C22" s="30"/>
       <c r="D22" s="66"/>
@@ -10397,219 +10930,232 @@
       <c r="K22" s="30"/>
     </row>
     <row r="23" spans="1:11" ht="17.25" thickTop="1">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="62"/>
+      <c r="B23" s="67"/>
       <c r="C23" s="26"/>
-      <c r="D23" s="62"/>
+      <c r="D23" s="67"/>
       <c r="E23" s="26"/>
-      <c r="F23" s="62"/>
+      <c r="F23" s="67"/>
       <c r="G23" s="26"/>
-      <c r="H23" s="62"/>
+      <c r="H23" s="67"/>
       <c r="I23" s="26"/>
-      <c r="J23" s="62"/>
+      <c r="J23" s="67"/>
       <c r="K23" s="26"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="70"/>
-      <c r="B24" s="63"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="68"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="63"/>
+      <c r="D24" s="68"/>
       <c r="E24" s="27"/>
-      <c r="F24" s="63"/>
+      <c r="F24" s="68"/>
       <c r="G24" s="27"/>
-      <c r="H24" s="63"/>
+      <c r="H24" s="68"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="63"/>
+      <c r="J24" s="68"/>
       <c r="K24" s="27"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="70"/>
-      <c r="B25" s="63"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="27"/>
-      <c r="D25" s="63"/>
+      <c r="D25" s="68"/>
       <c r="E25" s="27"/>
-      <c r="F25" s="63"/>
+      <c r="F25" s="68"/>
       <c r="G25" s="27"/>
-      <c r="H25" s="63"/>
+      <c r="H25" s="68"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="63"/>
+      <c r="J25" s="68"/>
       <c r="K25" s="27"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="70"/>
-      <c r="B26" s="63"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="27"/>
-      <c r="D26" s="63"/>
+      <c r="D26" s="68"/>
       <c r="E26" s="27"/>
-      <c r="F26" s="63"/>
+      <c r="F26" s="68"/>
       <c r="G26" s="27"/>
-      <c r="H26" s="63"/>
+      <c r="H26" s="68"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="63"/>
+      <c r="J26" s="68"/>
       <c r="K26" s="27"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="70"/>
-      <c r="B27" s="63"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="68"/>
       <c r="C27" s="27"/>
-      <c r="D27" s="63"/>
+      <c r="D27" s="68"/>
       <c r="E27" s="27"/>
-      <c r="F27" s="63"/>
+      <c r="F27" s="68"/>
       <c r="G27" s="27"/>
-      <c r="H27" s="63"/>
+      <c r="H27" s="68"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="63"/>
+      <c r="J27" s="68"/>
       <c r="K27" s="27"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="70"/>
-      <c r="B28" s="63"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="27"/>
-      <c r="D28" s="63"/>
+      <c r="D28" s="68"/>
       <c r="E28" s="27"/>
-      <c r="F28" s="63"/>
+      <c r="F28" s="68"/>
       <c r="G28" s="27"/>
-      <c r="H28" s="63"/>
+      <c r="H28" s="68"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="63"/>
+      <c r="J28" s="68"/>
       <c r="K28" s="27"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="70"/>
-      <c r="B29" s="63"/>
+      <c r="A29" s="71"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="27"/>
-      <c r="D29" s="63"/>
+      <c r="D29" s="68"/>
       <c r="E29" s="27"/>
-      <c r="F29" s="63"/>
+      <c r="F29" s="68"/>
       <c r="G29" s="27"/>
-      <c r="H29" s="63"/>
+      <c r="H29" s="68"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="63"/>
+      <c r="J29" s="68"/>
       <c r="K29" s="27"/>
     </row>
     <row r="30" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A30" s="71"/>
-      <c r="B30" s="63"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="28"/>
-      <c r="D30" s="63"/>
+      <c r="D30" s="68"/>
       <c r="E30" s="28"/>
-      <c r="F30" s="63"/>
+      <c r="F30" s="68"/>
       <c r="G30" s="28"/>
-      <c r="H30" s="63"/>
+      <c r="H30" s="68"/>
       <c r="I30" s="28"/>
-      <c r="J30" s="63"/>
+      <c r="J30" s="68"/>
       <c r="K30" s="28"/>
     </row>
     <row r="31" spans="1:11" ht="17.25" thickTop="1">
-      <c r="A31" s="72" t="s">
+      <c r="A31" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="63"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="26"/>
-      <c r="D31" s="63"/>
+      <c r="D31" s="68"/>
       <c r="E31" s="26"/>
-      <c r="F31" s="63"/>
+      <c r="F31" s="68"/>
       <c r="G31" s="26"/>
-      <c r="H31" s="63"/>
+      <c r="H31" s="68"/>
       <c r="I31" s="26"/>
-      <c r="J31" s="63"/>
+      <c r="J31" s="68"/>
       <c r="K31" s="26"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="73"/>
-      <c r="B32" s="63"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="27"/>
-      <c r="D32" s="63"/>
+      <c r="D32" s="68"/>
       <c r="E32" s="27"/>
-      <c r="F32" s="63"/>
+      <c r="F32" s="68"/>
       <c r="G32" s="27"/>
-      <c r="H32" s="63"/>
+      <c r="H32" s="68"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="63"/>
+      <c r="J32" s="68"/>
       <c r="K32" s="27"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="73"/>
-      <c r="B33" s="63"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="68"/>
       <c r="C33" s="27"/>
-      <c r="D33" s="63"/>
+      <c r="D33" s="68"/>
       <c r="E33" s="27"/>
-      <c r="F33" s="63"/>
+      <c r="F33" s="68"/>
       <c r="G33" s="27"/>
-      <c r="H33" s="63"/>
+      <c r="H33" s="68"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="63"/>
+      <c r="J33" s="68"/>
       <c r="K33" s="27"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="73"/>
-      <c r="B34" s="63"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="68"/>
       <c r="C34" s="27"/>
-      <c r="D34" s="63"/>
+      <c r="D34" s="68"/>
       <c r="E34" s="27"/>
-      <c r="F34" s="63"/>
+      <c r="F34" s="68"/>
       <c r="G34" s="27"/>
-      <c r="H34" s="63"/>
+      <c r="H34" s="68"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="63"/>
+      <c r="J34" s="68"/>
       <c r="K34" s="27"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="73"/>
-      <c r="B35" s="63"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="68"/>
       <c r="C35" s="27"/>
-      <c r="D35" s="63"/>
+      <c r="D35" s="68"/>
       <c r="E35" s="27"/>
-      <c r="F35" s="63"/>
+      <c r="F35" s="68"/>
       <c r="G35" s="27"/>
-      <c r="H35" s="63"/>
+      <c r="H35" s="68"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="63"/>
+      <c r="J35" s="68"/>
       <c r="K35" s="27"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="73"/>
-      <c r="B36" s="63"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="27"/>
-      <c r="D36" s="63"/>
+      <c r="D36" s="68"/>
       <c r="E36" s="27"/>
-      <c r="F36" s="63"/>
+      <c r="F36" s="68"/>
       <c r="G36" s="27"/>
-      <c r="H36" s="63"/>
+      <c r="H36" s="68"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="63"/>
+      <c r="J36" s="68"/>
       <c r="K36" s="27"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="73"/>
-      <c r="B37" s="63"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="27"/>
-      <c r="D37" s="63"/>
+      <c r="D37" s="68"/>
       <c r="E37" s="27"/>
-      <c r="F37" s="63"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="27"/>
-      <c r="H37" s="63"/>
+      <c r="H37" s="68"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="63"/>
+      <c r="J37" s="68"/>
       <c r="K37" s="27"/>
     </row>
     <row r="38" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A38" s="74"/>
-      <c r="B38" s="64"/>
+      <c r="A38" s="64"/>
+      <c r="B38" s="69"/>
       <c r="C38" s="28"/>
-      <c r="D38" s="64"/>
+      <c r="D38" s="69"/>
       <c r="E38" s="28"/>
-      <c r="F38" s="64"/>
+      <c r="F38" s="69"/>
       <c r="G38" s="28"/>
-      <c r="H38" s="64"/>
+      <c r="H38" s="69"/>
       <c r="I38" s="28"/>
-      <c r="J38" s="64"/>
+      <c r="J38" s="69"/>
       <c r="K38" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="B4:B19"/>
+    <mergeCell ref="D4:D19"/>
+    <mergeCell ref="F4:F19"/>
+    <mergeCell ref="H4:H19"/>
+    <mergeCell ref="J4:J19"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A12:A19"/>
     <mergeCell ref="J23:J38"/>
     <mergeCell ref="A31:A38"/>
     <mergeCell ref="A21:A22"/>
@@ -10623,19 +11169,6 @@
     <mergeCell ref="D23:D38"/>
     <mergeCell ref="F23:F38"/>
     <mergeCell ref="H23:H38"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="B4:B19"/>
-    <mergeCell ref="D4:D19"/>
-    <mergeCell ref="F4:F19"/>
-    <mergeCell ref="H4:H19"/>
-    <mergeCell ref="J4:J19"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A12:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10649,7 +11182,7 @@
   </sheetPr>
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D41" sqref="D41"/>
     </sheetView>
@@ -10689,7 +11222,7 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:11" s="31" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A2" s="68"/>
+      <c r="A2" s="74"/>
       <c r="B2" s="33"/>
       <c r="C2" s="66"/>
       <c r="D2" s="30"/>
@@ -10701,15 +11234,15 @@
       <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:11" ht="132.75" thickTop="1">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="70" t="s">
         <v>141</v>
       </c>
       <c r="B3" s="34"/>
-      <c r="C3" s="62"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="62"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="26" t="s">
         <v>120</v>
       </c>
@@ -10720,11 +11253,11 @@
       <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="70"/>
+      <c r="A4" s="71"/>
       <c r="B4" s="35"/>
-      <c r="C4" s="63"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="27"/>
-      <c r="E4" s="63"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="27"/>
       <c r="G4" s="61"/>
       <c r="H4" s="37"/>
@@ -10733,11 +11266,11 @@
       <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="70"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="35"/>
-      <c r="C5" s="63"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="27"/>
-      <c r="E5" s="63"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="27"/>
       <c r="G5" s="61"/>
       <c r="H5" s="37"/>
@@ -10746,11 +11279,11 @@
       <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="70"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="63"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="27"/>
-      <c r="E6" s="63"/>
+      <c r="E6" s="68"/>
       <c r="F6" s="27"/>
       <c r="G6" s="61"/>
       <c r="H6" s="37"/>
@@ -10759,11 +11292,11 @@
       <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="70"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="63"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="63"/>
+      <c r="E7" s="68"/>
       <c r="F7" s="27"/>
       <c r="G7" s="61"/>
       <c r="H7" s="37"/>
@@ -10772,11 +11305,11 @@
       <c r="K7" s="25"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="70"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="35"/>
-      <c r="C8" s="63"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="27"/>
-      <c r="E8" s="63"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="27"/>
       <c r="G8" s="61"/>
       <c r="H8" s="37"/>
@@ -10785,11 +11318,11 @@
       <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="70"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="35"/>
-      <c r="C9" s="63"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="27"/>
-      <c r="E9" s="63"/>
+      <c r="E9" s="68"/>
       <c r="F9" s="27"/>
       <c r="G9" s="61"/>
       <c r="H9" s="37"/>
@@ -10798,11 +11331,11 @@
       <c r="K9" s="25"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A10" s="71"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="35"/>
-      <c r="C10" s="63"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="28"/>
-      <c r="E10" s="63"/>
+      <c r="E10" s="68"/>
       <c r="F10" s="28"/>
       <c r="G10" s="61"/>
       <c r="H10" s="37"/>
@@ -10811,13 +11344,13 @@
       <c r="K10" s="25"/>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="62" t="s">
         <v>142</v>
       </c>
       <c r="B11" s="35"/>
-      <c r="C11" s="63"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="26"/>
-      <c r="E11" s="63"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="26"/>
       <c r="G11" s="61"/>
       <c r="H11" s="37"/>
@@ -10826,11 +11359,11 @@
       <c r="K11" s="25"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="73"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="35"/>
-      <c r="C12" s="63"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="27"/>
-      <c r="E12" s="63"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="27"/>
       <c r="G12" s="61"/>
       <c r="H12" s="37"/>
@@ -10839,11 +11372,11 @@
       <c r="K12" s="25"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="73"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="35"/>
-      <c r="C13" s="63"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="27"/>
-      <c r="E13" s="63"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="27"/>
       <c r="G13" s="61"/>
       <c r="H13" s="37"/>
@@ -10852,11 +11385,11 @@
       <c r="K13" s="25"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="73"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="35"/>
-      <c r="C14" s="63"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="27"/>
-      <c r="E14" s="63"/>
+      <c r="E14" s="68"/>
       <c r="F14" s="27"/>
       <c r="G14" s="61"/>
       <c r="H14" s="37"/>
@@ -10865,11 +11398,11 @@
       <c r="K14" s="25"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="73"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="35"/>
-      <c r="C15" s="63"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="27"/>
-      <c r="E15" s="63"/>
+      <c r="E15" s="68"/>
       <c r="F15" s="27"/>
       <c r="G15" s="61"/>
       <c r="H15" s="37"/>
@@ -10878,11 +11411,11 @@
       <c r="K15" s="25"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="73"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="35"/>
-      <c r="C16" s="63"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="63"/>
+      <c r="E16" s="68"/>
       <c r="F16" s="27"/>
       <c r="G16" s="61"/>
       <c r="H16" s="37"/>
@@ -10891,11 +11424,11 @@
       <c r="K16" s="25"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="73"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="35"/>
-      <c r="C17" s="63"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="63"/>
+      <c r="E17" s="68"/>
       <c r="F17" s="27"/>
       <c r="G17" s="61"/>
       <c r="H17" s="37"/>
@@ -10904,11 +11437,11 @@
       <c r="K17" s="25"/>
     </row>
     <row r="18" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A18" s="74"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="35"/>
-      <c r="C18" s="64"/>
+      <c r="C18" s="69"/>
       <c r="D18" s="28"/>
-      <c r="E18" s="64"/>
+      <c r="E18" s="69"/>
       <c r="F18" s="28"/>
       <c r="G18" s="61"/>
       <c r="H18" s="37"/>
@@ -10918,7 +11451,7 @@
     </row>
     <row r="19" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="20" spans="1:12" s="31" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="73" t="s">
         <v>143</v>
       </c>
       <c r="B20" s="32"/>
@@ -10954,7 +11487,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" s="31" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A21" s="68"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="33"/>
       <c r="C21" s="66"/>
       <c r="D21" s="30" t="s">
@@ -10978,35 +11511,35 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="83.25" thickTop="1">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="70" t="s">
         <v>141</v>
       </c>
       <c r="B22" s="34"/>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="67" t="s">
         <v>121</v>
       </c>
       <c r="D22" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="E22" s="62" t="s">
+      <c r="E22" s="67" t="s">
         <v>137</v>
       </c>
       <c r="F22" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="G22" s="62" t="s">
+      <c r="G22" s="67" t="s">
         <v>121</v>
       </c>
       <c r="H22" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="I22" s="62" t="s">
+      <c r="I22" s="67" t="s">
         <v>114</v>
       </c>
       <c r="J22" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="K22" s="62" t="s">
+      <c r="K22" s="67" t="s">
         <v>113</v>
       </c>
       <c r="L22" s="26" t="s">
@@ -11014,256 +11547,256 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="165">
-      <c r="A23" s="70"/>
+      <c r="A23" s="71"/>
       <c r="B23" s="35"/>
-      <c r="C23" s="63"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="63"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="G23" s="63"/>
+      <c r="G23" s="68"/>
       <c r="H23" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="I23" s="63"/>
+      <c r="I23" s="68"/>
       <c r="J23" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="K23" s="63"/>
+      <c r="K23" s="68"/>
       <c r="L23" s="27" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="99">
-      <c r="A24" s="70"/>
+      <c r="A24" s="71"/>
       <c r="B24" s="35"/>
-      <c r="C24" s="63"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="27"/>
-      <c r="E24" s="63"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="G24" s="63"/>
+      <c r="G24" s="68"/>
       <c r="H24" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="I24" s="63"/>
+      <c r="I24" s="68"/>
       <c r="J24" s="27"/>
-      <c r="K24" s="63"/>
+      <c r="K24" s="68"/>
       <c r="L24" s="27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="115.5">
-      <c r="A25" s="70"/>
+      <c r="A25" s="71"/>
       <c r="B25" s="35"/>
-      <c r="C25" s="63"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="63"/>
+      <c r="E25" s="68"/>
       <c r="F25" s="27"/>
-      <c r="G25" s="63"/>
+      <c r="G25" s="68"/>
       <c r="H25" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="I25" s="63"/>
+      <c r="I25" s="68"/>
       <c r="J25" s="27"/>
-      <c r="K25" s="63"/>
+      <c r="K25" s="68"/>
       <c r="L25" s="27" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="49.5">
-      <c r="A26" s="70"/>
+      <c r="A26" s="71"/>
       <c r="B26" s="35"/>
-      <c r="C26" s="63"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="27"/>
-      <c r="E26" s="63"/>
+      <c r="E26" s="68"/>
       <c r="F26" s="27"/>
-      <c r="G26" s="63"/>
+      <c r="G26" s="68"/>
       <c r="H26" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="I26" s="63"/>
+      <c r="I26" s="68"/>
       <c r="J26" s="27"/>
-      <c r="K26" s="63"/>
+      <c r="K26" s="68"/>
       <c r="L26" s="27" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="33">
-      <c r="A27" s="70"/>
+      <c r="A27" s="71"/>
       <c r="B27" s="35"/>
-      <c r="C27" s="63"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="27"/>
-      <c r="E27" s="63"/>
+      <c r="E27" s="68"/>
       <c r="F27" s="27"/>
-      <c r="G27" s="63"/>
+      <c r="G27" s="68"/>
       <c r="H27" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="I27" s="63"/>
+      <c r="I27" s="68"/>
       <c r="J27" s="27"/>
-      <c r="K27" s="63"/>
+      <c r="K27" s="68"/>
       <c r="L27" s="27"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="70"/>
+      <c r="A28" s="71"/>
       <c r="B28" s="35"/>
-      <c r="C28" s="63"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="27"/>
-      <c r="E28" s="63"/>
+      <c r="E28" s="68"/>
       <c r="F28" s="27"/>
-      <c r="G28" s="63"/>
+      <c r="G28" s="68"/>
       <c r="H28" s="27"/>
-      <c r="I28" s="63"/>
+      <c r="I28" s="68"/>
       <c r="J28" s="27"/>
-      <c r="K28" s="63"/>
+      <c r="K28" s="68"/>
       <c r="L28" s="27"/>
     </row>
     <row r="29" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A29" s="71"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="35"/>
-      <c r="C29" s="63"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="28"/>
-      <c r="E29" s="63"/>
+      <c r="E29" s="68"/>
       <c r="F29" s="28"/>
-      <c r="G29" s="63"/>
+      <c r="G29" s="68"/>
       <c r="H29" s="28"/>
-      <c r="I29" s="63"/>
+      <c r="I29" s="68"/>
       <c r="J29" s="28"/>
-      <c r="K29" s="63"/>
+      <c r="K29" s="68"/>
       <c r="L29" s="28"/>
     </row>
     <row r="30" spans="1:12" ht="83.25" thickTop="1">
-      <c r="A30" s="72" t="s">
+      <c r="A30" s="62" t="s">
         <v>142</v>
       </c>
       <c r="B30" s="35"/>
-      <c r="C30" s="63"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="27"/>
-      <c r="E30" s="63"/>
+      <c r="E30" s="68"/>
       <c r="F30" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="G30" s="63"/>
+      <c r="G30" s="68"/>
       <c r="H30" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="I30" s="63"/>
+      <c r="I30" s="68"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="63"/>
+      <c r="K30" s="68"/>
       <c r="L30" s="26"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="73"/>
+      <c r="A31" s="63"/>
       <c r="B31" s="35"/>
-      <c r="C31" s="63"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="27"/>
-      <c r="E31" s="63"/>
+      <c r="E31" s="68"/>
       <c r="F31" s="27"/>
-      <c r="G31" s="63"/>
+      <c r="G31" s="68"/>
       <c r="H31" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="I31" s="63"/>
+      <c r="I31" s="68"/>
       <c r="J31" s="27"/>
-      <c r="K31" s="63"/>
+      <c r="K31" s="68"/>
       <c r="L31" s="27"/>
     </row>
     <row r="32" spans="1:12" ht="33">
-      <c r="A32" s="73"/>
+      <c r="A32" s="63"/>
       <c r="B32" s="35"/>
-      <c r="C32" s="63"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="27"/>
-      <c r="E32" s="63"/>
+      <c r="E32" s="68"/>
       <c r="F32" s="27"/>
-      <c r="G32" s="63"/>
+      <c r="G32" s="68"/>
       <c r="H32" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="I32" s="63"/>
+      <c r="I32" s="68"/>
       <c r="J32" s="27"/>
-      <c r="K32" s="63"/>
+      <c r="K32" s="68"/>
       <c r="L32" s="27"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="73"/>
+      <c r="A33" s="63"/>
       <c r="B33" s="35"/>
-      <c r="C33" s="63"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="27"/>
-      <c r="E33" s="63"/>
+      <c r="E33" s="68"/>
       <c r="F33" s="27"/>
-      <c r="G33" s="63"/>
+      <c r="G33" s="68"/>
       <c r="H33" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="I33" s="63"/>
+      <c r="I33" s="68"/>
       <c r="J33" s="27"/>
-      <c r="K33" s="63"/>
+      <c r="K33" s="68"/>
       <c r="L33" s="27"/>
     </row>
     <row r="34" spans="1:12" ht="49.5">
-      <c r="A34" s="73"/>
+      <c r="A34" s="63"/>
       <c r="B34" s="35"/>
-      <c r="C34" s="63"/>
+      <c r="C34" s="68"/>
       <c r="D34" s="27"/>
-      <c r="E34" s="63"/>
+      <c r="E34" s="68"/>
       <c r="F34" s="27"/>
-      <c r="G34" s="63"/>
+      <c r="G34" s="68"/>
       <c r="H34" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="I34" s="63"/>
+      <c r="I34" s="68"/>
       <c r="J34" s="27"/>
-      <c r="K34" s="63"/>
+      <c r="K34" s="68"/>
       <c r="L34" s="27"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="73"/>
+      <c r="A35" s="63"/>
       <c r="B35" s="35"/>
-      <c r="C35" s="63"/>
+      <c r="C35" s="68"/>
       <c r="D35" s="27"/>
-      <c r="E35" s="63"/>
+      <c r="E35" s="68"/>
       <c r="F35" s="27"/>
-      <c r="G35" s="63"/>
+      <c r="G35" s="68"/>
       <c r="H35" s="27"/>
-      <c r="I35" s="63"/>
+      <c r="I35" s="68"/>
       <c r="J35" s="27"/>
-      <c r="K35" s="63"/>
+      <c r="K35" s="68"/>
       <c r="L35" s="27"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="73"/>
+      <c r="A36" s="63"/>
       <c r="B36" s="35"/>
-      <c r="C36" s="63"/>
+      <c r="C36" s="68"/>
       <c r="D36" s="27"/>
-      <c r="E36" s="63"/>
+      <c r="E36" s="68"/>
       <c r="F36" s="27"/>
-      <c r="G36" s="63"/>
+      <c r="G36" s="68"/>
       <c r="H36" s="27"/>
-      <c r="I36" s="63"/>
+      <c r="I36" s="68"/>
       <c r="J36" s="27"/>
-      <c r="K36" s="63"/>
+      <c r="K36" s="68"/>
       <c r="L36" s="27"/>
     </row>
     <row r="37" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A37" s="74"/>
+      <c r="A37" s="64"/>
       <c r="B37" s="35"/>
-      <c r="C37" s="64"/>
+      <c r="C37" s="69"/>
       <c r="D37" s="28"/>
-      <c r="E37" s="64"/>
+      <c r="E37" s="69"/>
       <c r="F37" s="28"/>
-      <c r="G37" s="64"/>
+      <c r="G37" s="69"/>
       <c r="H37" s="28"/>
-      <c r="I37" s="64"/>
+      <c r="I37" s="69"/>
       <c r="J37" s="28"/>
-      <c r="K37" s="64"/>
+      <c r="K37" s="69"/>
       <c r="L37" s="28"/>
     </row>
     <row r="38" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="39" spans="1:12">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="73" t="s">
         <v>144</v>
       </c>
       <c r="B39" s="32"/>
@@ -11289,7 +11822,7 @@
       <c r="K39" s="25"/>
     </row>
     <row r="40" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A40" s="68"/>
+      <c r="A40" s="74"/>
       <c r="B40" s="33"/>
       <c r="C40" s="66"/>
       <c r="D40" s="30" t="s">
@@ -11307,19 +11840,19 @@
       <c r="K40" s="25"/>
     </row>
     <row r="41" spans="1:12" ht="132.75" thickTop="1">
-      <c r="A41" s="69" t="s">
+      <c r="A41" s="70" t="s">
         <v>141</v>
       </c>
       <c r="B41" s="34"/>
-      <c r="C41" s="62"/>
+      <c r="C41" s="67"/>
       <c r="D41" s="26"/>
-      <c r="E41" s="62" t="s">
+      <c r="E41" s="67" t="s">
         <v>181</v>
       </c>
       <c r="F41" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="G41" s="62" t="s">
+      <c r="G41" s="67" t="s">
         <v>174</v>
       </c>
       <c r="H41" s="26" t="s">
@@ -11329,15 +11862,15 @@
       <c r="K41" s="25"/>
     </row>
     <row r="42" spans="1:12" ht="82.5">
-      <c r="A42" s="70"/>
+      <c r="A42" s="71"/>
       <c r="B42" s="35"/>
-      <c r="C42" s="63"/>
+      <c r="C42" s="68"/>
       <c r="D42" s="27"/>
-      <c r="E42" s="63"/>
+      <c r="E42" s="68"/>
       <c r="F42" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="G42" s="63"/>
+      <c r="G42" s="68"/>
       <c r="H42" s="27" t="s">
         <v>176</v>
       </c>
@@ -11345,15 +11878,15 @@
       <c r="K42" s="25"/>
     </row>
     <row r="43" spans="1:12" ht="198">
-      <c r="A43" s="70"/>
+      <c r="A43" s="71"/>
       <c r="B43" s="35"/>
-      <c r="C43" s="63"/>
+      <c r="C43" s="68"/>
       <c r="D43" s="27"/>
-      <c r="E43" s="63"/>
+      <c r="E43" s="68"/>
       <c r="F43" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="G43" s="63"/>
+      <c r="G43" s="68"/>
       <c r="H43" s="27" t="s">
         <v>180</v>
       </c>
@@ -11361,15 +11894,15 @@
       <c r="K43" s="25"/>
     </row>
     <row r="44" spans="1:12" ht="82.5">
-      <c r="A44" s="70"/>
+      <c r="A44" s="71"/>
       <c r="B44" s="35"/>
-      <c r="C44" s="63"/>
+      <c r="C44" s="68"/>
       <c r="D44" s="27"/>
-      <c r="E44" s="63"/>
+      <c r="E44" s="68"/>
       <c r="F44" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="G44" s="63"/>
+      <c r="G44" s="68"/>
       <c r="H44" s="27" t="s">
         <v>179</v>
       </c>
@@ -11377,155 +11910,172 @@
       <c r="K44" s="25"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="70"/>
+      <c r="A45" s="71"/>
       <c r="B45" s="35"/>
-      <c r="C45" s="63"/>
+      <c r="C45" s="68"/>
       <c r="D45" s="27"/>
-      <c r="E45" s="63"/>
+      <c r="E45" s="68"/>
       <c r="F45" s="27"/>
-      <c r="G45" s="63"/>
+      <c r="G45" s="68"/>
       <c r="H45" s="27"/>
       <c r="I45" s="25"/>
       <c r="K45" s="25"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="70"/>
+      <c r="A46" s="71"/>
       <c r="B46" s="35"/>
-      <c r="C46" s="63"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="27"/>
-      <c r="E46" s="63"/>
+      <c r="E46" s="68"/>
       <c r="F46" s="27"/>
-      <c r="G46" s="63"/>
+      <c r="G46" s="68"/>
       <c r="H46" s="27"/>
       <c r="I46" s="25"/>
       <c r="K46" s="25"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="70"/>
+      <c r="A47" s="71"/>
       <c r="B47" s="35"/>
-      <c r="C47" s="63"/>
+      <c r="C47" s="68"/>
       <c r="D47" s="27"/>
-      <c r="E47" s="63"/>
+      <c r="E47" s="68"/>
       <c r="F47" s="27"/>
-      <c r="G47" s="63"/>
+      <c r="G47" s="68"/>
       <c r="H47" s="27"/>
       <c r="I47" s="25"/>
       <c r="K47" s="25"/>
     </row>
     <row r="48" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A48" s="71"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="35"/>
-      <c r="C48" s="63"/>
+      <c r="C48" s="68"/>
       <c r="D48" s="28"/>
-      <c r="E48" s="63"/>
+      <c r="E48" s="68"/>
       <c r="F48" s="28"/>
-      <c r="G48" s="63"/>
+      <c r="G48" s="68"/>
       <c r="H48" s="28"/>
       <c r="I48" s="25"/>
       <c r="K48" s="25"/>
     </row>
     <row r="49" spans="1:11" ht="17.25" thickTop="1">
-      <c r="A49" s="72" t="s">
+      <c r="A49" s="62" t="s">
         <v>142</v>
       </c>
       <c r="B49" s="35"/>
-      <c r="C49" s="63"/>
+      <c r="C49" s="68"/>
       <c r="D49" s="26"/>
-      <c r="E49" s="63"/>
+      <c r="E49" s="68"/>
       <c r="F49" s="26"/>
-      <c r="G49" s="63"/>
+      <c r="G49" s="68"/>
       <c r="H49" s="26"/>
       <c r="I49" s="25"/>
       <c r="K49" s="25"/>
     </row>
     <row r="50" spans="1:11" ht="132">
-      <c r="A50" s="73"/>
+      <c r="A50" s="63"/>
       <c r="B50" s="35"/>
-      <c r="C50" s="63"/>
+      <c r="C50" s="68"/>
       <c r="D50" s="27"/>
-      <c r="E50" s="63"/>
+      <c r="E50" s="68"/>
       <c r="F50" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="G50" s="63"/>
+      <c r="G50" s="68"/>
       <c r="H50" s="27"/>
       <c r="I50" s="25"/>
       <c r="K50" s="25"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="73"/>
+      <c r="A51" s="63"/>
       <c r="B51" s="35"/>
-      <c r="C51" s="63"/>
+      <c r="C51" s="68"/>
       <c r="D51" s="27"/>
-      <c r="E51" s="63"/>
+      <c r="E51" s="68"/>
       <c r="F51" s="27"/>
-      <c r="G51" s="63"/>
+      <c r="G51" s="68"/>
       <c r="H51" s="27"/>
       <c r="I51" s="25"/>
       <c r="K51" s="25"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="73"/>
+      <c r="A52" s="63"/>
       <c r="B52" s="35"/>
-      <c r="C52" s="63"/>
+      <c r="C52" s="68"/>
       <c r="D52" s="27"/>
-      <c r="E52" s="63"/>
+      <c r="E52" s="68"/>
       <c r="F52" s="27"/>
-      <c r="G52" s="63"/>
+      <c r="G52" s="68"/>
       <c r="H52" s="27"/>
       <c r="I52" s="25"/>
       <c r="K52" s="25"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="73"/>
+      <c r="A53" s="63"/>
       <c r="B53" s="35"/>
-      <c r="C53" s="63"/>
+      <c r="C53" s="68"/>
       <c r="D53" s="27"/>
-      <c r="E53" s="63"/>
+      <c r="E53" s="68"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="63"/>
+      <c r="G53" s="68"/>
       <c r="H53" s="27"/>
       <c r="I53" s="25"/>
       <c r="K53" s="25"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="73"/>
+      <c r="A54" s="63"/>
       <c r="B54" s="35"/>
-      <c r="C54" s="63"/>
+      <c r="C54" s="68"/>
       <c r="D54" s="27"/>
-      <c r="E54" s="63"/>
+      <c r="E54" s="68"/>
       <c r="F54" s="27"/>
-      <c r="G54" s="63"/>
+      <c r="G54" s="68"/>
       <c r="H54" s="27"/>
       <c r="I54" s="25"/>
       <c r="K54" s="25"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="73"/>
+      <c r="A55" s="63"/>
       <c r="B55" s="35"/>
-      <c r="C55" s="63"/>
+      <c r="C55" s="68"/>
       <c r="D55" s="27"/>
-      <c r="E55" s="63"/>
+      <c r="E55" s="68"/>
       <c r="F55" s="27"/>
-      <c r="G55" s="63"/>
+      <c r="G55" s="68"/>
       <c r="H55" s="27"/>
       <c r="I55" s="25"/>
       <c r="K55" s="25"/>
     </row>
     <row r="56" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A56" s="74"/>
+      <c r="A56" s="64"/>
       <c r="B56" s="35"/>
-      <c r="C56" s="64"/>
+      <c r="C56" s="69"/>
       <c r="D56" s="28"/>
-      <c r="E56" s="64"/>
+      <c r="E56" s="69"/>
       <c r="F56" s="28"/>
-      <c r="G56" s="64"/>
+      <c r="G56" s="69"/>
       <c r="H56" s="28"/>
       <c r="I56" s="25"/>
       <c r="K56" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="C3:C18"/>
+    <mergeCell ref="E3:E18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C37"/>
+    <mergeCell ref="G22:G37"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="I3:I18"/>
+    <mergeCell ref="E22:E37"/>
+    <mergeCell ref="E20:E21"/>
     <mergeCell ref="G3:G18"/>
     <mergeCell ref="A11:A18"/>
     <mergeCell ref="C39:C40"/>
@@ -11542,23 +12092,6 @@
     <mergeCell ref="I20:I21"/>
     <mergeCell ref="I22:I37"/>
     <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G37"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="I3:I18"/>
-    <mergeCell ref="E22:E37"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C37"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="C3:C18"/>
-    <mergeCell ref="E3:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11570,8 +12103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11583,344 +12116,346 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="109"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="81" t="s">
+      <c r="B2" s="111"/>
+      <c r="C2" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="80"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="112" t="s">
         <v>291</v>
       </c>
-      <c r="H2" s="83"/>
+      <c r="H2" s="114"/>
     </row>
     <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="86" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="158" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="88"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="160"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="91" t="s">
+      <c r="B4" s="102"/>
+      <c r="C4" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="93"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="125"/>
     </row>
     <row r="5" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
-      <c r="A5" s="94">
+      <c r="A5" s="85">
         <v>42716</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="98"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="127"/>
     </row>
     <row r="6" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A6" s="95"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="101"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="130"/>
     </row>
     <row r="7" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A7" s="96"/>
+      <c r="A7" s="87"/>
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="104"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="133"/>
     </row>
     <row r="8" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
-      <c r="A8" s="94">
+      <c r="A8" s="85">
         <v>42717</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="98"/>
-    </row>
-    <row r="9" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A9" s="95"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="127"/>
+    </row>
+    <row r="9" spans="1:8" ht="51.75" customHeight="1">
+      <c r="A9" s="86"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="101"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="130"/>
     </row>
     <row r="10" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A10" s="96"/>
+      <c r="A10" s="87"/>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="104"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="133"/>
     </row>
     <row r="11" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
-      <c r="A11" s="94">
+      <c r="A11" s="85">
         <v>42718</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="145"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="98"/>
-    </row>
-    <row r="12" spans="1:8" ht="78.75" customHeight="1">
-      <c r="A12" s="95"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="127"/>
+    </row>
+    <row r="12" spans="1:8" ht="39.75" customHeight="1">
+      <c r="A12" s="86"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="101"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="130"/>
     </row>
     <row r="13" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A13" s="96"/>
+      <c r="A13" s="87"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="104"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="133"/>
     </row>
     <row r="14" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
-      <c r="A14" s="94">
+      <c r="A14" s="85">
         <v>42719</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="98"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="127"/>
     </row>
     <row r="15" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A15" s="95"/>
+      <c r="A15" s="86"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="101"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="130"/>
     </row>
     <row r="16" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A16" s="96"/>
+      <c r="A16" s="87"/>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="104"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="133"/>
     </row>
     <row r="17" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
-      <c r="A17" s="94">
+      <c r="A17" s="85">
         <v>42720</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="98"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
     </row>
     <row r="18" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A18" s="95"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="105"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="107"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="136"/>
     </row>
     <row r="19" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A19" s="96"/>
+      <c r="A19" s="87"/>
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="109"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="138"/>
     </row>
     <row r="20" spans="1:8" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A20" s="112" t="s">
+      <c r="A20" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="113"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="116"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="141" t="s">
+        <v>303</v>
+      </c>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="143"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
-        <v>42716</v>
+        <v>42723</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="117" t="s">
-        <v>288</v>
-      </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="C21" s="83" t="s">
+        <v>301</v>
+      </c>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="84"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" customHeight="1">
       <c r="A22" s="6">
-        <v>42717</v>
+        <v>42724</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="117" t="s">
-        <v>288</v>
-      </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="118"/>
+      <c r="C22" s="83" t="s">
+        <v>302</v>
+      </c>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="84"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
-        <v>42718</v>
+        <v>42725</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="117" t="s">
-        <v>287</v>
-      </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="118"/>
+      <c r="C23" s="83" t="s">
+        <v>304</v>
+      </c>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="84"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
-        <v>42719</v>
+        <v>42726</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="117" t="s">
-        <v>287</v>
-      </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="118"/>
+      <c r="C24" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="84"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A25" s="8">
-        <v>42720</v>
+        <v>42727</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="110" t="s">
-        <v>290</v>
-      </c>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="111"/>
+      <c r="C25" s="76" t="s">
+        <v>306</v>
+      </c>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="77"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
@@ -11976,8 +12511,8 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11989,383 +12524,398 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="109"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="81" t="s">
+      <c r="B2" s="111"/>
+      <c r="C2" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="80"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="112" t="s">
         <v>291</v>
       </c>
-      <c r="H2" s="83"/>
+      <c r="H2" s="114"/>
     </row>
     <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="86" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="158" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="88"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="160"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="91" t="s">
+      <c r="B4" s="102"/>
+      <c r="C4" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="93"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="125"/>
     </row>
     <row r="5" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
-      <c r="A5" s="94">
+      <c r="A5" s="85">
         <v>42716</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="97" t="s">
-        <v>277</v>
-      </c>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="98"/>
+      <c r="C5" s="126" t="s">
+        <v>294</v>
+      </c>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="127"/>
     </row>
     <row r="6" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A6" s="95"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="101"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="130"/>
     </row>
     <row r="7" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A7" s="96"/>
+      <c r="A7" s="87"/>
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="102" t="s">
-        <v>282</v>
-      </c>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="104"/>
+      <c r="C7" s="131" t="s">
+        <v>293</v>
+      </c>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="133"/>
     </row>
     <row r="8" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
-      <c r="A8" s="94">
+      <c r="A8" s="85">
         <v>42717</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="97" t="s">
-        <v>278</v>
-      </c>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="98"/>
-    </row>
-    <row r="9" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A9" s="95"/>
+      <c r="C8" s="126" t="s">
+        <v>295</v>
+      </c>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="127"/>
+    </row>
+    <row r="9" spans="1:8" ht="51.75" customHeight="1">
+      <c r="A9" s="86"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="100" t="s">
-        <v>281</v>
-      </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="101"/>
+      <c r="C9" s="161" t="s">
+        <v>296</v>
+      </c>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="130"/>
     </row>
     <row r="10" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A10" s="96"/>
+      <c r="A10" s="87"/>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="102" t="s">
-        <v>283</v>
-      </c>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="104"/>
+      <c r="C10" s="131" t="s">
+        <v>308</v>
+      </c>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="133"/>
     </row>
     <row r="11" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
-      <c r="A11" s="94">
+      <c r="A11" s="85">
         <v>42718</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="145" t="s">
-        <v>280</v>
-      </c>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="98"/>
-    </row>
-    <row r="12" spans="1:8" ht="78.75" customHeight="1">
-      <c r="A12" s="95"/>
+      <c r="C11" s="162" t="s">
+        <v>297</v>
+      </c>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="127"/>
+    </row>
+    <row r="12" spans="1:8" ht="39.75" customHeight="1">
+      <c r="A12" s="86"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="100" t="s">
-        <v>286</v>
-      </c>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="101"/>
+      <c r="C12" s="129" t="s">
+        <v>298</v>
+      </c>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="130"/>
     </row>
     <row r="13" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A13" s="96"/>
+      <c r="A13" s="87"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="102" t="s">
-        <v>283</v>
-      </c>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="104"/>
+      <c r="C13" s="131" t="s">
+        <v>309</v>
+      </c>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="133"/>
     </row>
     <row r="14" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
-      <c r="A14" s="94">
+      <c r="A14" s="85">
         <v>42719</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="97" t="s">
-        <v>280</v>
-      </c>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="98"/>
+      <c r="C14" s="126" t="s">
+        <v>300</v>
+      </c>
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="127"/>
     </row>
     <row r="15" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A15" s="95"/>
+      <c r="A15" s="86"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="100" t="s">
-        <v>285</v>
-      </c>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="101"/>
+      <c r="C15" s="129" t="s">
+        <v>307</v>
+      </c>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="130"/>
     </row>
     <row r="16" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A16" s="96"/>
+      <c r="A16" s="87"/>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="102" t="s">
-        <v>284</v>
-      </c>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="104"/>
+      <c r="C16" s="131" t="s">
+        <v>299</v>
+      </c>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="133"/>
     </row>
     <row r="17" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
-      <c r="A17" s="94">
+      <c r="A17" s="85">
         <v>42720</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="97" t="s">
-        <v>279</v>
-      </c>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="98"/>
+      <c r="C17" s="126" t="s">
+        <v>299</v>
+      </c>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
     </row>
     <row r="18" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A18" s="95"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="105"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="107"/>
+      <c r="C18" s="134" t="s">
+        <v>310</v>
+      </c>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="136"/>
     </row>
     <row r="19" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A19" s="96"/>
+      <c r="A19" s="87"/>
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="109"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="138"/>
     </row>
     <row r="20" spans="1:8" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A20" s="112" t="s">
+      <c r="A20" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="113"/>
-      <c r="C20" s="114" t="s">
-        <v>289</v>
-      </c>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="116"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="141" t="s">
+        <v>303</v>
+      </c>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="143"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
-        <v>42716</v>
+        <v>42723</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="117" t="s">
-        <v>288</v>
-      </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="C21" s="83" t="s">
+        <v>301</v>
+      </c>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="84"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" customHeight="1">
       <c r="A22" s="6">
-        <v>42717</v>
+        <v>42724</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="117" t="s">
-        <v>288</v>
-      </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="118"/>
+      <c r="C22" s="83" t="s">
+        <v>302</v>
+      </c>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="84"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
-        <v>42718</v>
+        <v>42725</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="117" t="s">
-        <v>287</v>
-      </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="118"/>
+      <c r="C23" s="83" t="s">
+        <v>304</v>
+      </c>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="84"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
-        <v>42719</v>
+        <v>42726</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="117" t="s">
-        <v>287</v>
-      </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="118"/>
+      <c r="C24" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="84"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A25" s="8">
-        <v>42720</v>
+        <v>42727</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="110" t="s">
-        <v>290</v>
-      </c>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="111"/>
+      <c r="C25" s="76" t="s">
+        <v>306</v>
+      </c>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="77"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="C15:H15"/>
@@ -12374,26 +12924,13 @@
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C19:H19"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12409,8 +12946,8 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:H18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12422,360 +12959,370 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="109"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="81" t="s">
+      <c r="B2" s="111"/>
+      <c r="C2" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="80"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="81" t="s">
-        <v>171</v>
-      </c>
-      <c r="H2" s="83"/>
+      <c r="G2" s="112" t="s">
+        <v>291</v>
+      </c>
+      <c r="H2" s="114"/>
     </row>
     <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="86" t="s">
-        <v>168</v>
-      </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="88"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="117" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="119"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="91" t="s">
+      <c r="B4" s="102"/>
+      <c r="C4" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="93"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="105"/>
     </row>
     <row r="5" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
-      <c r="A5" s="94">
-        <v>42702</v>
+      <c r="A5" s="85">
+        <v>42716</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="97" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="98"/>
+      <c r="C5" s="88" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="89"/>
     </row>
     <row r="6" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A6" s="95"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="101"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91"/>
     </row>
     <row r="7" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A7" s="96"/>
+      <c r="A7" s="87"/>
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="104"/>
+      <c r="C7" s="92" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="94"/>
     </row>
     <row r="8" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
-      <c r="A8" s="94">
-        <v>42703</v>
+      <c r="A8" s="85">
+        <v>42717</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="97" t="s">
-        <v>161</v>
-      </c>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="98"/>
+      <c r="C8" s="88" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="89"/>
     </row>
     <row r="9" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A9" s="95"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="101"/>
+      <c r="C9" s="90" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="91"/>
     </row>
     <row r="10" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A10" s="96"/>
+      <c r="A10" s="87"/>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="104"/>
+      <c r="C10" s="92" t="s">
+        <v>283</v>
+      </c>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="94"/>
     </row>
     <row r="11" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
-      <c r="A11" s="94">
-        <v>42704</v>
+      <c r="A11" s="85">
+        <v>42718</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="97" t="s">
-        <v>162</v>
-      </c>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="98"/>
-    </row>
-    <row r="12" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A12" s="95"/>
+      <c r="C11" s="100" t="s">
+        <v>280</v>
+      </c>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="89"/>
+    </row>
+    <row r="12" spans="1:8" ht="78.75" customHeight="1">
+      <c r="A12" s="86"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="101"/>
+      <c r="C12" s="90" t="s">
+        <v>286</v>
+      </c>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="91"/>
     </row>
     <row r="13" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A13" s="96"/>
+      <c r="A13" s="87"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="104"/>
+      <c r="C13" s="92" t="s">
+        <v>283</v>
+      </c>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="94"/>
     </row>
     <row r="14" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
-      <c r="A14" s="94">
-        <v>42705</v>
+      <c r="A14" s="85">
+        <v>42719</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="97" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="98"/>
+      <c r="C14" s="88" t="s">
+        <v>280</v>
+      </c>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="89"/>
     </row>
     <row r="15" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A15" s="95"/>
+      <c r="A15" s="86"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="100" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="101"/>
+      <c r="C15" s="90" t="s">
+        <v>285</v>
+      </c>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="91"/>
     </row>
     <row r="16" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A16" s="96"/>
+      <c r="A16" s="87"/>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="104"/>
+      <c r="C16" s="92" t="s">
+        <v>284</v>
+      </c>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="94"/>
     </row>
     <row r="17" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
-      <c r="A17" s="94">
-        <v>42706</v>
+      <c r="A17" s="85">
+        <v>42720</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="98"/>
+      <c r="C17" s="88" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="89"/>
     </row>
     <row r="18" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A18" s="95"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="105"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="107"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="97"/>
     </row>
     <row r="19" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A19" s="96"/>
+      <c r="A19" s="87"/>
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="109"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="99"/>
     </row>
     <row r="20" spans="1:8" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A20" s="112" t="s">
+      <c r="A20" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="113"/>
-      <c r="C20" s="114" t="s">
-        <v>164</v>
-      </c>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="116"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="80" t="s">
+        <v>289</v>
+      </c>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="82"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
-        <v>42709</v>
+        <v>42716</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="117" t="s">
-        <v>166</v>
-      </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
+      <c r="C21" s="83" t="s">
+        <v>288</v>
+      </c>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="84"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6">
-        <v>42710</v>
+        <v>42717</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="117" t="s">
-        <v>165</v>
-      </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="118"/>
+      <c r="C22" s="83" t="s">
+        <v>288</v>
+      </c>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="84"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
-        <v>42711</v>
+        <v>42718</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="117" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="118"/>
+      <c r="C23" s="83" t="s">
+        <v>287</v>
+      </c>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="84"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
-        <v>42712</v>
+        <v>42719</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="117" t="s">
-        <v>163</v>
-      </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="118"/>
+      <c r="C24" s="83" t="s">
+        <v>287</v>
+      </c>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="84"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A25" s="8">
-        <v>42713</v>
+        <v>42720</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="110" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="111"/>
+      <c r="C25" s="76" t="s">
+        <v>290</v>
+      </c>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="77"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
@@ -12833,6 +13380,429 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="31.25" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="39" thickBot="1">
+      <c r="A1" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="109"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" thickTop="1">
+      <c r="A2" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="111"/>
+      <c r="C2" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="113"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="112" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="114"/>
+    </row>
+    <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
+      <c r="A3" s="115" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="116"/>
+      <c r="C3" s="117" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="119"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A4" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="102"/>
+      <c r="C4" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="105"/>
+    </row>
+    <row r="5" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
+      <c r="A5" s="85">
+        <v>42702</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="89"/>
+    </row>
+    <row r="6" spans="1:8" ht="34.5" customHeight="1">
+      <c r="A6" s="86"/>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="106"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91"/>
+    </row>
+    <row r="7" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A7" s="87"/>
+      <c r="B7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="92"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="94"/>
+    </row>
+    <row r="8" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
+      <c r="A8" s="85">
+        <v>42703</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="89"/>
+    </row>
+    <row r="9" spans="1:8" ht="34.5" customHeight="1">
+      <c r="A9" s="86"/>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="91"/>
+    </row>
+    <row r="10" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A10" s="87"/>
+      <c r="B10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="92"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="94"/>
+    </row>
+    <row r="11" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
+      <c r="A11" s="85">
+        <v>42704</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="88" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="89"/>
+    </row>
+    <row r="12" spans="1:8" ht="34.5" customHeight="1">
+      <c r="A12" s="86"/>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="91"/>
+    </row>
+    <row r="13" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A13" s="87"/>
+      <c r="B13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="92"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="94"/>
+    </row>
+    <row r="14" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
+      <c r="A14" s="85">
+        <v>42705</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="88" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="89"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.5" customHeight="1">
+      <c r="A15" s="86"/>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="90" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="91"/>
+    </row>
+    <row r="16" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A16" s="87"/>
+      <c r="B16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="94"/>
+    </row>
+    <row r="17" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
+      <c r="A17" s="85">
+        <v>42706</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="89"/>
+    </row>
+    <row r="18" spans="1:8" ht="34.5" customHeight="1">
+      <c r="A18" s="86"/>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="95"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="97"/>
+    </row>
+    <row r="19" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A19" s="87"/>
+      <c r="B19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="99"/>
+    </row>
+    <row r="20" spans="1:8" ht="39.75" customHeight="1" thickTop="1">
+      <c r="A20" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="79"/>
+      <c r="C20" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="82"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6">
+        <v>42709</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="83" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="84"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6">
+        <v>42710</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="84"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6">
+        <v>42711</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="83" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="84"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6">
+        <v>42712</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="83" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="84"/>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A25" s="8">
+        <v>42713</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="77"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="82" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15:H15"/>
     </sheetView>
   </sheetViews>
@@ -12845,65 +13815,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="109"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="81" t="s">
+      <c r="B2" s="111"/>
+      <c r="C2" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="80"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="112" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="83"/>
+      <c r="H2" s="114"/>
     </row>
     <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="142" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="120" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="144"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="122"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="138" t="s">
+      <c r="B4" s="102"/>
+      <c r="C4" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="140"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="125"/>
     </row>
     <row r="5" spans="1:8" ht="34.5" customHeight="1" thickTop="1">
-      <c r="A5" s="94">
+      <c r="A5" s="85">
         <v>42695</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -12919,35 +13889,35 @@
       <c r="H5" s="127"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="95"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="141" t="s">
+      <c r="C6" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="130"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A7" s="96"/>
+      <c r="A7" s="87"/>
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="133"/>
     </row>
     <row r="8" spans="1:8" ht="18" thickTop="1">
-      <c r="A8" s="94">
+      <c r="A8" s="85">
         <v>42696</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -12963,35 +13933,35 @@
       <c r="H8" s="127"/>
     </row>
     <row r="9" spans="1:8" ht="76.5" customHeight="1">
-      <c r="A9" s="95"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="128" t="s">
+      <c r="C9" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="130"/>
     </row>
     <row r="10" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A10" s="96"/>
+      <c r="A10" s="87"/>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="133"/>
     </row>
     <row r="11" spans="1:8" ht="18" thickTop="1">
-      <c r="A11" s="94">
+      <c r="A11" s="85">
         <v>42697</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -13007,31 +13977,31 @@
       <c r="H11" s="127"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="95"/>
+      <c r="A12" s="86"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="129"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="130"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A13" s="96"/>
+      <c r="A13" s="87"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="132"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="133"/>
     </row>
     <row r="14" spans="1:8" ht="18" thickTop="1">
-      <c r="A14" s="94">
+      <c r="A14" s="85">
         <v>42698</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -13047,35 +14017,35 @@
       <c r="H14" s="127"/>
     </row>
     <row r="15" spans="1:8" ht="149.25" customHeight="1">
-      <c r="A15" s="95"/>
+      <c r="A15" s="86"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="128" t="s">
+      <c r="C15" s="129" t="s">
         <v>156</v>
       </c>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="130"/>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A16" s="96"/>
+      <c r="A16" s="87"/>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="130" t="s">
+      <c r="C16" s="131" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="132"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="133"/>
     </row>
     <row r="17" spans="1:8" ht="18" thickTop="1">
-      <c r="A17" s="94">
+      <c r="A17" s="85">
         <v>42699</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -13091,44 +14061,44 @@
       <c r="H17" s="127"/>
     </row>
     <row r="18" spans="1:8" ht="73.5" customHeight="1">
-      <c r="A18" s="95"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="133" t="s">
+      <c r="C18" s="134" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="135"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="136"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A19" s="96"/>
+      <c r="A19" s="87"/>
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="136"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="137"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="138"/>
     </row>
     <row r="20" spans="1:8" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A20" s="112" t="s">
+      <c r="A20" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="113"/>
-      <c r="C20" s="121" t="s">
+      <c r="B20" s="79"/>
+      <c r="C20" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="123"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="143"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
@@ -13137,14 +14107,14 @@
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="124" t="s">
+      <c r="C21" s="144" t="s">
         <v>154</v>
       </c>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="125"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="145"/>
     </row>
     <row r="22" spans="1:8" ht="16.5" customHeight="1">
       <c r="A22" s="6">
@@ -13153,14 +14123,14 @@
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="124" t="s">
+      <c r="C22" s="144" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="125"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="145"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
@@ -13169,14 +14139,14 @@
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="124" t="s">
+      <c r="C23" s="144" t="s">
         <v>153</v>
       </c>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="125"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="144"/>
+      <c r="H23" s="145"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
@@ -13185,14 +14155,14 @@
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="124" t="s">
+      <c r="C24" s="144" t="s">
         <v>153</v>
       </c>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="124"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="125"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="145"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A25" s="6">
@@ -13201,32 +14171,35 @@
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="119" t="s">
+      <c r="C25" s="139" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="120"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="139"/>
+      <c r="H25" s="140"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H9"/>
@@ -13235,21 +14208,18 @@
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="C13:H13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13257,7 +14227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -13278,288 +14248,288 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="109"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="81" t="s">
+      <c r="B2" s="111"/>
+      <c r="C2" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="80"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="83"/>
+      <c r="H2" s="114"/>
     </row>
     <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="148" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="146" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="150"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="148"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="91" t="s">
+      <c r="B4" s="102"/>
+      <c r="C4" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="93"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="105"/>
     </row>
     <row r="5" spans="1:8" ht="74.25" customHeight="1" thickTop="1">
-      <c r="A5" s="94">
+      <c r="A5" s="85">
         <v>42688</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="97" t="s">
+      <c r="C5" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="98"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="89"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="95"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="101"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A7" s="96"/>
+      <c r="A7" s="87"/>
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="104"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="94"/>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1" thickTop="1">
-      <c r="A8" s="94">
+      <c r="A8" s="85">
         <v>42689</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="98"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="89"/>
     </row>
     <row r="9" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A9" s="95"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="101"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="91"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A10" s="96"/>
+      <c r="A10" s="87"/>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="104"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="94"/>
     </row>
     <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A11" s="94">
+      <c r="A11" s="85">
         <v>42690</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="98"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="89"/>
     </row>
     <row r="12" spans="1:8" ht="126" customHeight="1">
-      <c r="A12" s="95"/>
+      <c r="A12" s="86"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="100" t="s">
+      <c r="C12" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="101"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="91"/>
     </row>
     <row r="13" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A13" s="96"/>
+      <c r="A13" s="87"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="102" t="s">
+      <c r="C13" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="104"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="94"/>
     </row>
     <row r="14" spans="1:8" ht="66" customHeight="1" thickTop="1">
-      <c r="A14" s="94">
+      <c r="A14" s="85">
         <v>42691</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="98"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="89"/>
     </row>
     <row r="15" spans="1:8" ht="45.75" customHeight="1">
-      <c r="A15" s="95"/>
+      <c r="A15" s="86"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="100" t="s">
+      <c r="C15" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="101"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="91"/>
     </row>
     <row r="16" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A16" s="96"/>
+      <c r="A16" s="87"/>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="104"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="94"/>
     </row>
     <row r="17" spans="1:8" ht="64.5" customHeight="1" thickTop="1">
-      <c r="A17" s="94">
+      <c r="A17" s="85">
         <v>42692</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="145" t="s">
+      <c r="C17" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="147"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="150"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="95"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="105" t="s">
+      <c r="C18" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="107"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="97"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A19" s="95"/>
+      <c r="A19" s="86"/>
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="109"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="99"/>
     </row>
     <row r="20" spans="1:8" ht="39.75" customHeight="1">
-      <c r="A20" s="112" t="s">
+      <c r="A20" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="113"/>
-      <c r="C20" s="114" t="s">
+      <c r="B20" s="79"/>
+      <c r="C20" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="116"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="82"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
@@ -13568,14 +14538,14 @@
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="117" t="s">
+      <c r="C21" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="84"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6">
@@ -13584,14 +14554,14 @@
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="117" t="s">
+      <c r="C22" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="118"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="84"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
@@ -13600,14 +14570,14 @@
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="117" t="s">
+      <c r="C23" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="118"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="84"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
@@ -13616,14 +14586,14 @@
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="117" t="s">
+      <c r="C24" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="118"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="84"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A25" s="8">
@@ -13632,32 +14602,35 @@
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="110" t="s">
+      <c r="C25" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="111"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="77"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H9"/>
@@ -13666,21 +14639,18 @@
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="C13:H13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13688,7 +14658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -13709,282 +14679,282 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="109"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="81" t="s">
+      <c r="B2" s="111"/>
+      <c r="C2" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="80"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="83"/>
+      <c r="H2" s="114"/>
     </row>
     <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="148" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="150"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="148"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="91" t="s">
+      <c r="B4" s="102"/>
+      <c r="C4" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="93"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="105"/>
     </row>
     <row r="5" spans="1:8" ht="146.25" customHeight="1" thickTop="1">
-      <c r="A5" s="94">
+      <c r="A5" s="85">
         <v>42681</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="97" t="s">
+      <c r="C5" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="98"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="89"/>
     </row>
     <row r="6" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A6" s="95"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="101"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A7" s="96"/>
+      <c r="A7" s="87"/>
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="104"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="94"/>
     </row>
     <row r="8" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A8" s="94">
+      <c r="A8" s="85">
         <v>42682</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="98"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="89"/>
     </row>
     <row r="9" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A9" s="95"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="101"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="91"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A10" s="96"/>
+      <c r="A10" s="87"/>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="104"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="94"/>
     </row>
     <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A11" s="94">
+      <c r="A11" s="85">
         <v>42683</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="98"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="89"/>
     </row>
     <row r="12" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A12" s="95"/>
+      <c r="A12" s="86"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="101"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="91"/>
     </row>
     <row r="13" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A13" s="96"/>
+      <c r="A13" s="87"/>
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="102" t="s">
+      <c r="C13" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="104"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="94"/>
     </row>
     <row r="14" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A14" s="94">
+      <c r="A14" s="85">
         <v>42684</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="98"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="89"/>
     </row>
     <row r="15" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A15" s="95"/>
+      <c r="A15" s="86"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="101"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="91"/>
     </row>
     <row r="16" spans="1:8" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A16" s="96"/>
+      <c r="A16" s="87"/>
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="104"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="94"/>
     </row>
     <row r="17" spans="1:8" ht="18" thickTop="1">
-      <c r="A17" s="94">
+      <c r="A17" s="85">
         <v>42685</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="152" t="s">
+      <c r="C17" s="151" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="152"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="152"/>
-      <c r="H17" s="153"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="152"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="95"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="105"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="107"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="97"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A19" s="96"/>
+      <c r="A19" s="87"/>
       <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="101"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="91"/>
     </row>
     <row r="20" spans="1:8" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A20" s="112" t="s">
+      <c r="A20" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="113"/>
-      <c r="C20" s="114" t="s">
+      <c r="B20" s="79"/>
+      <c r="C20" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="116"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="82"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
@@ -13993,14 +14963,14 @@
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="117" t="s">
+      <c r="C21" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="84"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6">
@@ -14009,14 +14979,14 @@
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="117" t="s">
+      <c r="C22" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="118"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="84"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
@@ -14025,14 +14995,14 @@
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="117" t="s">
+      <c r="C23" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="118"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="84"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
@@ -14041,14 +15011,14 @@
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="117" t="s">
+      <c r="C24" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="118"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="84"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A25" s="6">
@@ -14057,32 +15027,35 @@
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="151" t="s">
+      <c r="C25" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="111"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="77"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H9"/>
@@ -14091,461 +15064,21 @@
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="C13:H13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="73" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H26"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="12.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="31.25" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
-    </row>
-    <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="83"/>
-    </row>
-    <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="148" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="150"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A4" s="89" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="91" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="93"/>
-    </row>
-    <row r="5" spans="1:8" ht="45" customHeight="1" thickTop="1">
-      <c r="A5" s="94">
-        <v>42674</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="97" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="98"/>
-    </row>
-    <row r="6" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A6" s="95"/>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="99" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="101"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A7" s="96"/>
-      <c r="B7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="102" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="104"/>
-    </row>
-    <row r="8" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A8" s="154">
-        <v>42675</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="98"/>
-    </row>
-    <row r="9" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A9" s="155"/>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="100" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="101"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A10" s="156"/>
-      <c r="B10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="102" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="104"/>
-    </row>
-    <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A11" s="154">
-        <v>42676</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="97" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="98"/>
-    </row>
-    <row r="12" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A12" s="155"/>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="100" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="101"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A13" s="156"/>
-      <c r="B13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="102" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="104"/>
-    </row>
-    <row r="14" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A14" s="154">
-        <v>42677</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="97" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="98"/>
-    </row>
-    <row r="15" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A15" s="155"/>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="100" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="101"/>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A16" s="156"/>
-      <c r="B16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="104"/>
-    </row>
-    <row r="17" spans="1:8" ht="18" thickTop="1">
-      <c r="A17" s="95">
-        <v>42678</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="152" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="152"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="152"/>
-      <c r="H17" s="153"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="95"/>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="105"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="107"/>
-    </row>
-    <row r="19" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A19" s="157"/>
-      <c r="B19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="100" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="101"/>
-    </row>
-    <row r="20" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A20" s="112" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="113"/>
-      <c r="C20" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="116"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="6">
-        <v>42681</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="117" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="6">
-        <v>42682</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="117" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="118"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="6">
-        <v>42683</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="117" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="118"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="6">
-        <v>42684</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="118"/>
-    </row>
-    <row r="25" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A25" s="8">
-        <v>42685</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="151" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="111"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C18:H18"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="82" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>